--- a/20_営業/07_会計/BR100/ERP_T_BR100_CFO_GL-011_1_会計構成の定義.xlsx
+++ b/20_営業/07_会計/BR100/ERP_T_BR100_CFO_GL-011_1_会計構成の定義.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Itoenfile\system\30.SCSK\92_分社化\10_設計フェーズ\10_成果物\【触らないでください】40_その他\ERP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\acomsv01\障害対応\E_本稼動_20101～20200\E_本稼動_20102直営店対応\20_成果物\BR100\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="410" yWindow="1240" windowWidth="14710" windowHeight="8820" activeTab="1"/>
+    <workbookView xWindow="408" yWindow="2448" windowWidth="14712" windowHeight="8820"/>
   </bookViews>
   <sheets>
     <sheet name="変更履歴" sheetId="2" r:id="rId1"/>
@@ -1827,7 +1827,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="157">
   <si>
     <t>変更日</t>
     <rPh sb="0" eb="3">
@@ -2652,16 +2652,44 @@
     </rPh>
     <phoneticPr fontId="54"/>
   </si>
+  <si>
+    <t>003</t>
+    <phoneticPr fontId="36"/>
+  </si>
+  <si>
+    <t>株式会社伊藤園フードサービス</t>
+    <rPh sb="0" eb="4">
+      <t>カブシキガイシャ</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>イトウエン</t>
+    </rPh>
+    <phoneticPr fontId="16"/>
+  </si>
+  <si>
+    <t>SCSK 細沼</t>
+    <rPh sb="5" eb="7">
+      <t>ホソヌマ</t>
+    </rPh>
+    <phoneticPr fontId="36"/>
+  </si>
+  <si>
+    <t>11.1.4に003を追加</t>
+    <rPh sb="11" eb="13">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="36"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="#,##0;\-#,##0;&quot;-&quot;"/>
     <numFmt numFmtId="177" formatCode="&quot;SFr.&quot;#,##0;[Red]&quot;SFr.&quot;\-#,##0"/>
   </numFmts>
-  <fonts count="59">
+  <fonts count="60">
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -3055,6 +3083,13 @@
       <color theme="1"/>
       <name val="Meiryo UI"/>
       <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFFF00FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
       <charset val="128"/>
     </font>
   </fonts>
@@ -3773,7 +3808,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="133">
+  <cellXfs count="142">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="37" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="61" applyFont="1" applyAlignment="1"/>
@@ -4001,13 +4036,43 @@
     </xf>
     <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="64" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="64" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="38" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="13" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="13" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="13" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="37" fillId="8" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4016,8 +4081,8 @@
     <xf numFmtId="0" fontId="37" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="14" fontId="37" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -4025,15 +4090,52 @@
     <xf numFmtId="0" fontId="37" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="14" fontId="37" fillId="8" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="37" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="37" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="39" fillId="8" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="37" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4063,89 +4165,49 @@
     <xf numFmtId="0" fontId="39" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="37" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="59" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="13" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="13" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="13" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="37" fillId="8" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="37" fillId="8" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="37" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="39" fillId="8" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="65">
@@ -4219,6 +4281,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFF00FF"/>
       <color rgb="FFFF99CC"/>
       <color rgb="FFFF99FF"/>
     </mruColors>
@@ -4570,7 +4633,7 @@
         <xdr:cNvPr id="2" name="image6.gif" descr="https://ebrg-test.fs.em2.oraclecloud.com/setup/afr/remote/H4sIAAAAAAAAAA%3D%3DW_OWgbW4iMEhvygxOSdVLzElLTOvJLUoLzFHrywztVyvKDM5Q68oNTe_JBVI-FeeXFiWnFuuFBvm45iXnp6QWBSSWZDilJubVSU%2BQ1P5hZcPDwFBRxCCQlViWqJeTmJeu55%2BUlZpc-woAAFQXltgxWGSUlBVb6%2BkDbdOEWQtyQX1oCtiYTqDk5P9fK0MDMwFg_JzUlPbVIv6hIn6ECAMfW-N%2BS0AAAA-/adf/images/t.gif">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0F00-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4608,7 +4671,7 @@
         <xdr:cNvPr id="3" name="image6.gif" descr="https://ebrg-test.fs.em2.oraclecloud.com/setup/afr/remote/H4sIAAAAAAAAAA%3D%3DW_OWgbW4iMEhvygxOSdVLzElLTOvJLUoLzFHrywztVyvKDM5Q68oNTe_JBVI-FeeXFiWnFuuFBvm45iXnp6QWBSSWZDilJubVSU%2BQ1P5hZcPDwFBRxCCQlViWqJeTmJeu55%2BUlZpc-woAAFQXltgxWGSUlBVb6%2BkDbdOEWQtyQX1oCtiYTqDk5P9fK0MDMwFg_JzUlPbVIv6hIn6ECAMfW-N%2BS0AAAA-/adf/images/t.gif">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0F00-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4646,7 +4709,7 @@
         <xdr:cNvPr id="4" name="image6.gif" descr="https://ebrg-test.fs.em2.oraclecloud.com/setup/afr/remote/H4sIAAAAAAAAAA%3D%3DW_OWgbW4iMEhvygxOSdVLzElLTOvJLUoLzFHrywztVyvKDM5Q68oNTe_JBVI-FeeXFiWnFuuFBvm45iXnp6QWBSSWZDilJubVSU%2BQ1P5hZcPDwFBRxCCQlViWqJeTmJeu55%2BUlZpc-woAAFQXltgxWGSUlBVb6%2BkDbdOEWQtyQX1oCtiYTqDk5P9fK0MDMwFg_JzUlPbVIv6hIn6ECAMfW-N%2BS0AAAA-/adf/images/t.gif">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0F00-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4684,7 +4747,7 @@
         <xdr:cNvPr id="5" name="image6.gif" descr="https://ebrg-test.fs.em2.oraclecloud.com/setup/afr/remote/H4sIAAAAAAAAAA%3D%3DW_OWgbW4iMEhvygxOSdVLzElLTOvJLUoLzFHrywztVyvKDM5Q68oNTe_JBVI-FeeXFiWnFuuFBvm45iXnp6QWBSSWZDilJubVSU%2BQ1P5hZcPDwFBRxCCQlViWqJeTmJeu55%2BUlZpc-woAAFQXltgxWGSUlBVb6%2BkDbdOEWQtyQX1oCtiYTqDk5P9fK0MDMwFg_JzUlPbVIv6hIn6ECAMfW-N%2BS0AAAA-/adf/images/t.gif">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CD235340-311C-0D49-BF39-20959E84AD92}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CD235340-311C-0D49-BF39-20959E84AD92}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4722,7 +4785,7 @@
         <xdr:cNvPr id="6" name="image6.gif" descr="https://ebrg-test.fs.em2.oraclecloud.com/setup/afr/remote/H4sIAAAAAAAAAA%3D%3DW_OWgbW4iMEhvygxOSdVLzElLTOvJLUoLzFHrywztVyvKDM5Q68oNTe_JBVI-FeeXFiWnFuuFBvm45iXnp6QWBSSWZDilJubVSU%2BQ1P5hZcPDwFBRxCCQlViWqJeTmJeu55%2BUlZpc-woAAFQXltgxWGSUlBVb6%2BkDbdOEWQtyQX1oCtiYTqDk5P9fK0MDMwFg_JzUlPbVIv6hIn6ECAMfW-N%2BS0AAAA-/adf/images/t.gif">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{56CF3E09-D31A-344D-A3EA-AFDD6D33AF1D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{56CF3E09-D31A-344D-A3EA-AFDD6D33AF1D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4760,7 +4823,7 @@
         <xdr:cNvPr id="7" name="image6.gif" descr="https://ebrg-test.fs.em2.oraclecloud.com/setup/afr/remote/H4sIAAAAAAAAAA%3D%3DW_OWgbW4iMEhvygxOSdVLzElLTOvJLUoLzFHrywztVyvKDM5Q68oNTe_JBVI-FeeXFiWnFuuFBvm45iXnp6QWBSSWZDilJubVSU%2BQ1P5hZcPDwFBRxCCQlViWqJeTmJeu55%2BUlZpc-woAAFQXltgxWGSUlBVb6%2BkDbdOEWQtyQX1oCtiYTqDk5P9fK0MDMwFg_JzUlPbVIv6hIn6ECAMfW-N%2BS0AAAA-/adf/images/t.gif">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BECA4BD3-15AA-FF46-B2D5-9FD2E68AD093}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BECA4BD3-15AA-FF46-B2D5-9FD2E68AD093}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4798,7 +4861,7 @@
         <xdr:cNvPr id="8" name="image6.gif" descr="https://ebrg-test.fs.em2.oraclecloud.com/setup/afr/remote/H4sIAAAAAAAAAA%3D%3DW_OWgbW4iMEhvygxOSdVLzElLTOvJLUoLzFHrywztVyvKDM5Q68oNTe_JBVI-FeeXFiWnFuuFBvm45iXnp6QWBSSWZDilJubVSU%2BQ1P5hZcPDwFBRxCCQlViWqJeTmJeu55%2BUlZpc-woAAFQXltgxWGSUlBVb6%2BkDbdOEWQtyQX1oCtiYTqDk5P9fK0MDMwFg_JzUlPbVIv6hIn6ECAMfW-N%2BS0AAAA-/adf/images/t.gif">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{76B6FFF8-57F5-6748-8EE1-DC12CDC3CA29}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{76B6FFF8-57F5-6748-8EE1-DC12CDC3CA29}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4836,7 +4899,7 @@
         <xdr:cNvPr id="9" name="image6.gif" descr="https://ebrg-test.fs.em2.oraclecloud.com/setup/afr/remote/H4sIAAAAAAAAAA%3D%3DW_OWgbW4iMEhvygxOSdVLzElLTOvJLUoLzFHrywztVyvKDM5Q68oNTe_JBVI-FeeXFiWnFuuFBvm45iXnp6QWBSSWZDilJubVSU%2BQ1P5hZcPDwFBRxCCQlViWqJeTmJeu55%2BUlZpc-woAAFQXltgxWGSUlBVb6%2BkDbdOEWQtyQX1oCtiYTqDk5P9fK0MDMwFg_JzUlPbVIv6hIn6ECAMfW-N%2BS0AAAA-/adf/images/t.gif">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B4DC56FE-EF88-D442-9F43-801BC3F9FB04}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B4DC56FE-EF88-D442-9F43-801BC3F9FB04}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4874,7 +4937,7 @@
         <xdr:cNvPr id="10" name="image6.gif" descr="https://ebrg-test.fs.em2.oraclecloud.com/setup/afr/remote/H4sIAAAAAAAAAA%3D%3DW_OWgbW4iMEhvygxOSdVLzElLTOvJLUoLzFHrywztVyvKDM5Q68oNTe_JBVI-FeeXFiWnFuuFBvm45iXnp6QWBSSWZDilJubVSU%2BQ1P5hZcPDwFBRxCCQlViWqJeTmJeu55%2BUlZpc-woAAFQXltgxWGSUlBVb6%2BkDbdOEWQtyQX1oCtiYTqDk5P9fK0MDMwFg_JzUlPbVIv6hIn6ECAMfW-N%2BS0AAAA-/adf/images/t.gif">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{99E56C83-2B36-BE47-A8D1-3A4BF38C3B3D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{99E56C83-2B36-BE47-A8D1-3A4BF38C3B3D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4912,7 +4975,7 @@
         <xdr:cNvPr id="11" name="image6.gif" descr="https://ebrg-test.fs.em2.oraclecloud.com/setup/afr/remote/H4sIAAAAAAAAAA%3D%3DW_OWgbW4iMEhvygxOSdVLzElLTOvJLUoLzFHrywztVyvKDM5Q68oNTe_JBVI-FeeXFiWnFuuFBvm45iXnp6QWBSSWZDilJubVSU%2BQ1P5hZcPDwFBRxCCQlViWqJeTmJeu55%2BUlZpc-woAAFQXltgxWGSUlBVb6%2BkDbdOEWQtyQX1oCtiYTqDk5P9fK0MDMwFg_JzUlPbVIv6hIn6ECAMfW-N%2BS0AAAA-/adf/images/t.gif">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ACD36B5E-29AF-8946-8660-4BC5703F90ED}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{ACD36B5E-29AF-8946-8660-4BC5703F90ED}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4950,7 +5013,7 @@
         <xdr:cNvPr id="12" name="image6.gif" descr="https://ebrg-test.fs.em2.oraclecloud.com/setup/afr/remote/H4sIAAAAAAAAAA%3D%3DW_OWgbW4iMEhvygxOSdVLzElLTOvJLUoLzFHrywztVyvKDM5Q68oNTe_JBVI-FeeXFiWnFuuFBvm45iXnp6QWBSSWZDilJubVSU%2BQ1P5hZcPDwFBRxCCQlViWqJeTmJeu55%2BUlZpc-woAAFQXltgxWGSUlBVb6%2BkDbdOEWQtyQX1oCtiYTqDk5P9fK0MDMwFg_JzUlPbVIv6hIn6ECAMfW-N%2BS0AAAA-/adf/images/t.gif">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2E641FB0-6F11-C042-A992-F63BBF66BAC5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2E641FB0-6F11-C042-A992-F63BBF66BAC5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4988,7 +5051,7 @@
         <xdr:cNvPr id="13" name="image6.gif" descr="https://ebrg-test.fs.em2.oraclecloud.com/setup/afr/remote/H4sIAAAAAAAAAA%3D%3DW_OWgbW4iMEhvygxOSdVLzElLTOvJLUoLzFHrywztVyvKDM5Q68oNTe_JBVI-FeeXFiWnFuuFBvm45iXnp6QWBSSWZDilJubVSU%2BQ1P5hZcPDwFBRxCCQlViWqJeTmJeu55%2BUlZpc-woAAFQXltgxWGSUlBVb6%2BkDbdOEWQtyQX1oCtiYTqDk5P9fK0MDMwFg_JzUlPbVIv6hIn6ECAMfW-N%2BS0AAAA-/adf/images/t.gif">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9FC932F4-AE6E-5C4D-92F2-8615973C0885}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9FC932F4-AE6E-5C4D-92F2-8615973C0885}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5026,7 +5089,7 @@
         <xdr:cNvPr id="14" name="image6.gif" descr="https://ebrg-test.fs.em2.oraclecloud.com/setup/afr/remote/H4sIAAAAAAAAAA%3D%3DW_OWgbW4iMEhvygxOSdVLzElLTOvJLUoLzFHrywztVyvKDM5Q68oNTe_JBVI-FeeXFiWnFuuFBvm45iXnp6QWBSSWZDilJubVSU%2BQ1P5hZcPDwFBRxCCQlViWqJeTmJeu55%2BUlZpc-woAAFQXltgxWGSUlBVb6%2BkDbdOEWQtyQX1oCtiYTqDk5P9fK0MDMwFg_JzUlPbVIv6hIn6ECAMfW-N%2BS0AAAA-/adf/images/t.gif">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0F00-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5064,7 +5127,7 @@
         <xdr:cNvPr id="15" name="image6.gif" descr="https://ebrg-test.fs.em2.oraclecloud.com/setup/afr/remote/H4sIAAAAAAAAAA%3D%3DW_OWgbW4iMEhvygxOSdVLzElLTOvJLUoLzFHrywztVyvKDM5Q68oNTe_JBVI-FeeXFiWnFuuFBvm45iXnp6QWBSSWZDilJubVSU%2BQ1P5hZcPDwFBRxCCQlViWqJeTmJeu55%2BUlZpc-woAAFQXltgxWGSUlBVb6%2BkDbdOEWQtyQX1oCtiYTqDk5P9fK0MDMwFg_JzUlPbVIv6hIn6ECAMfW-N%2BS0AAAA-/adf/images/t.gif">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0F00-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5102,7 +5165,7 @@
         <xdr:cNvPr id="16" name="image6.gif" descr="https://ebrg-test.fs.em2.oraclecloud.com/setup/afr/remote/H4sIAAAAAAAAAA%3D%3DW_OWgbW4iMEhvygxOSdVLzElLTOvJLUoLzFHrywztVyvKDM5Q68oNTe_JBVI-FeeXFiWnFuuFBvm45iXnp6QWBSSWZDilJubVSU%2BQ1P5hZcPDwFBRxCCQlViWqJeTmJeu55%2BUlZpc-woAAFQXltgxWGSUlBVb6%2BkDbdOEWQtyQX1oCtiYTqDk5P9fK0MDMwFg_JzUlPbVIv6hIn6ECAMfW-N%2BS0AAAA-/adf/images/t.gif">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0F00-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5140,7 +5203,7 @@
         <xdr:cNvPr id="17" name="image6.gif" descr="https://ebrg-test.fs.em2.oraclecloud.com/setup/afr/remote/H4sIAAAAAAAAAA%3D%3DW_OWgbW4iMEhvygxOSdVLzElLTOvJLUoLzFHrywztVyvKDM5Q68oNTe_JBVI-FeeXFiWnFuuFBvm45iXnp6QWBSSWZDilJubVSU%2BQ1P5hZcPDwFBRxCCQlViWqJeTmJeu55%2BUlZpc-woAAFQXltgxWGSUlBVb6%2BkDbdOEWQtyQX1oCtiYTqDk5P9fK0MDMwFg_JzUlPbVIv6hIn6ECAMfW-N%2BS0AAAA-/adf/images/t.gif">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CD235340-311C-0D49-BF39-20959E84AD92}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CD235340-311C-0D49-BF39-20959E84AD92}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5178,7 +5241,7 @@
         <xdr:cNvPr id="18" name="image6.gif" descr="https://ebrg-test.fs.em2.oraclecloud.com/setup/afr/remote/H4sIAAAAAAAAAA%3D%3DW_OWgbW4iMEhvygxOSdVLzElLTOvJLUoLzFHrywztVyvKDM5Q68oNTe_JBVI-FeeXFiWnFuuFBvm45iXnp6QWBSSWZDilJubVSU%2BQ1P5hZcPDwFBRxCCQlViWqJeTmJeu55%2BUlZpc-woAAFQXltgxWGSUlBVb6%2BkDbdOEWQtyQX1oCtiYTqDk5P9fK0MDMwFg_JzUlPbVIv6hIn6ECAMfW-N%2BS0AAAA-/adf/images/t.gif">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{56CF3E09-D31A-344D-A3EA-AFDD6D33AF1D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{56CF3E09-D31A-344D-A3EA-AFDD6D33AF1D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5216,7 +5279,7 @@
         <xdr:cNvPr id="19" name="image6.gif" descr="https://ebrg-test.fs.em2.oraclecloud.com/setup/afr/remote/H4sIAAAAAAAAAA%3D%3DW_OWgbW4iMEhvygxOSdVLzElLTOvJLUoLzFHrywztVyvKDM5Q68oNTe_JBVI-FeeXFiWnFuuFBvm45iXnp6QWBSSWZDilJubVSU%2BQ1P5hZcPDwFBRxCCQlViWqJeTmJeu55%2BUlZpc-woAAFQXltgxWGSUlBVb6%2BkDbdOEWQtyQX1oCtiYTqDk5P9fK0MDMwFg_JzUlPbVIv6hIn6ECAMfW-N%2BS0AAAA-/adf/images/t.gif">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BECA4BD3-15AA-FF46-B2D5-9FD2E68AD093}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BECA4BD3-15AA-FF46-B2D5-9FD2E68AD093}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5254,7 +5317,7 @@
         <xdr:cNvPr id="20" name="image6.gif" descr="https://ebrg-test.fs.em2.oraclecloud.com/setup/afr/remote/H4sIAAAAAAAAAA%3D%3DW_OWgbW4iMEhvygxOSdVLzElLTOvJLUoLzFHrywztVyvKDM5Q68oNTe_JBVI-FeeXFiWnFuuFBvm45iXnp6QWBSSWZDilJubVSU%2BQ1P5hZcPDwFBRxCCQlViWqJeTmJeu55%2BUlZpc-woAAFQXltgxWGSUlBVb6%2BkDbdOEWQtyQX1oCtiYTqDk5P9fK0MDMwFg_JzUlPbVIv6hIn6ECAMfW-N%2BS0AAAA-/adf/images/t.gif">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{76B6FFF8-57F5-6748-8EE1-DC12CDC3CA29}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{76B6FFF8-57F5-6748-8EE1-DC12CDC3CA29}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5292,7 +5355,7 @@
         <xdr:cNvPr id="21" name="image6.gif" descr="https://ebrg-test.fs.em2.oraclecloud.com/setup/afr/remote/H4sIAAAAAAAAAA%3D%3DW_OWgbW4iMEhvygxOSdVLzElLTOvJLUoLzFHrywztVyvKDM5Q68oNTe_JBVI-FeeXFiWnFuuFBvm45iXnp6QWBSSWZDilJubVSU%2BQ1P5hZcPDwFBRxCCQlViWqJeTmJeu55%2BUlZpc-woAAFQXltgxWGSUlBVb6%2BkDbdOEWQtyQX1oCtiYTqDk5P9fK0MDMwFg_JzUlPbVIv6hIn6ECAMfW-N%2BS0AAAA-/adf/images/t.gif">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B4DC56FE-EF88-D442-9F43-801BC3F9FB04}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B4DC56FE-EF88-D442-9F43-801BC3F9FB04}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5330,7 +5393,7 @@
         <xdr:cNvPr id="22" name="image6.gif" descr="https://ebrg-test.fs.em2.oraclecloud.com/setup/afr/remote/H4sIAAAAAAAAAA%3D%3DW_OWgbW4iMEhvygxOSdVLzElLTOvJLUoLzFHrywztVyvKDM5Q68oNTe_JBVI-FeeXFiWnFuuFBvm45iXnp6QWBSSWZDilJubVSU%2BQ1P5hZcPDwFBRxCCQlViWqJeTmJeu55%2BUlZpc-woAAFQXltgxWGSUlBVb6%2BkDbdOEWQtyQX1oCtiYTqDk5P9fK0MDMwFg_JzUlPbVIv6hIn6ECAMfW-N%2BS0AAAA-/adf/images/t.gif">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{99E56C83-2B36-BE47-A8D1-3A4BF38C3B3D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{99E56C83-2B36-BE47-A8D1-3A4BF38C3B3D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5368,7 +5431,7 @@
         <xdr:cNvPr id="23" name="image6.gif" descr="https://ebrg-test.fs.em2.oraclecloud.com/setup/afr/remote/H4sIAAAAAAAAAA%3D%3DW_OWgbW4iMEhvygxOSdVLzElLTOvJLUoLzFHrywztVyvKDM5Q68oNTe_JBVI-FeeXFiWnFuuFBvm45iXnp6QWBSSWZDilJubVSU%2BQ1P5hZcPDwFBRxCCQlViWqJeTmJeu55%2BUlZpc-woAAFQXltgxWGSUlBVb6%2BkDbdOEWQtyQX1oCtiYTqDk5P9fK0MDMwFg_JzUlPbVIv6hIn6ECAMfW-N%2BS0AAAA-/adf/images/t.gif">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ACD36B5E-29AF-8946-8660-4BC5703F90ED}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{ACD36B5E-29AF-8946-8660-4BC5703F90ED}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5406,7 +5469,7 @@
         <xdr:cNvPr id="24" name="image6.gif" descr="https://ebrg-test.fs.em2.oraclecloud.com/setup/afr/remote/H4sIAAAAAAAAAA%3D%3DW_OWgbW4iMEhvygxOSdVLzElLTOvJLUoLzFHrywztVyvKDM5Q68oNTe_JBVI-FeeXFiWnFuuFBvm45iXnp6QWBSSWZDilJubVSU%2BQ1P5hZcPDwFBRxCCQlViWqJeTmJeu55%2BUlZpc-woAAFQXltgxWGSUlBVb6%2BkDbdOEWQtyQX1oCtiYTqDk5P9fK0MDMwFg_JzUlPbVIv6hIn6ECAMfW-N%2BS0AAAA-/adf/images/t.gif">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2E641FB0-6F11-C042-A992-F63BBF66BAC5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2E641FB0-6F11-C042-A992-F63BBF66BAC5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5444,7 +5507,7 @@
         <xdr:cNvPr id="25" name="image6.gif" descr="https://ebrg-test.fs.em2.oraclecloud.com/setup/afr/remote/H4sIAAAAAAAAAA%3D%3DW_OWgbW4iMEhvygxOSdVLzElLTOvJLUoLzFHrywztVyvKDM5Q68oNTe_JBVI-FeeXFiWnFuuFBvm45iXnp6QWBSSWZDilJubVSU%2BQ1P5hZcPDwFBRxCCQlViWqJeTmJeu55%2BUlZpc-woAAFQXltgxWGSUlBVb6%2BkDbdOEWQtyQX1oCtiYTqDk5P9fK0MDMwFg_JzUlPbVIv6hIn6ECAMfW-N%2BS0AAAA-/adf/images/t.gif">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9FC932F4-AE6E-5C4D-92F2-8615973C0885}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9FC932F4-AE6E-5C4D-92F2-8615973C0885}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5482,7 +5545,7 @@
         <xdr:cNvPr id="26" name="image6.gif" descr="https://ebrg-test.fs.em2.oraclecloud.com/setup/afr/remote/H4sIAAAAAAAAAA%3D%3DW_OWgbW4iMEhvygxOSdVLzElLTOvJLUoLzFHrywztVyvKDM5Q68oNTe_JBVI-FeeXFiWnFuuFBvm45iXnp6QWBSSWZDilJubVSU%2BQ1P5hZcPDwFBRxCCQlViWqJeTmJeu55%2BUlZpc-woAAFQXltgxWGSUlBVb6%2BkDbdOEWQtyQX1oCtiYTqDk5P9fK0MDMwFg_JzUlPbVIv6hIn6ECAMfW-N%2BS0AAAA-/adf/images/t.gif">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0F00-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5520,7 +5583,7 @@
         <xdr:cNvPr id="27" name="image6.gif" descr="https://ebrg-test.fs.em2.oraclecloud.com/setup/afr/remote/H4sIAAAAAAAAAA%3D%3DW_OWgbW4iMEhvygxOSdVLzElLTOvJLUoLzFHrywztVyvKDM5Q68oNTe_JBVI-FeeXFiWnFuuFBvm45iXnp6QWBSSWZDilJubVSU%2BQ1P5hZcPDwFBRxCCQlViWqJeTmJeu55%2BUlZpc-woAAFQXltgxWGSUlBVb6%2BkDbdOEWQtyQX1oCtiYTqDk5P9fK0MDMwFg_JzUlPbVIv6hIn6ECAMfW-N%2BS0AAAA-/adf/images/t.gif">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0F00-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5558,7 +5621,7 @@
         <xdr:cNvPr id="28" name="image6.gif" descr="https://ebrg-test.fs.em2.oraclecloud.com/setup/afr/remote/H4sIAAAAAAAAAA%3D%3DW_OWgbW4iMEhvygxOSdVLzElLTOvJLUoLzFHrywztVyvKDM5Q68oNTe_JBVI-FeeXFiWnFuuFBvm45iXnp6QWBSSWZDilJubVSU%2BQ1P5hZcPDwFBRxCCQlViWqJeTmJeu55%2BUlZpc-woAAFQXltgxWGSUlBVb6%2BkDbdOEWQtyQX1oCtiYTqDk5P9fK0MDMwFg_JzUlPbVIv6hIn6ECAMfW-N%2BS0AAAA-/adf/images/t.gif">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0F00-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5596,7 +5659,7 @@
         <xdr:cNvPr id="29" name="image6.gif" descr="https://ebrg-test.fs.em2.oraclecloud.com/setup/afr/remote/H4sIAAAAAAAAAA%3D%3DW_OWgbW4iMEhvygxOSdVLzElLTOvJLUoLzFHrywztVyvKDM5Q68oNTe_JBVI-FeeXFiWnFuuFBvm45iXnp6QWBSSWZDilJubVSU%2BQ1P5hZcPDwFBRxCCQlViWqJeTmJeu55%2BUlZpc-woAAFQXltgxWGSUlBVb6%2BkDbdOEWQtyQX1oCtiYTqDk5P9fK0MDMwFg_JzUlPbVIv6hIn6ECAMfW-N%2BS0AAAA-/adf/images/t.gif">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0F00-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5634,7 +5697,7 @@
         <xdr:cNvPr id="30" name="image6.gif" descr="https://ebrg-test.fs.em2.oraclecloud.com/setup/afr/remote/H4sIAAAAAAAAAA%3D%3DW_OWgbW4iMEhvygxOSdVLzElLTOvJLUoLzFHrywztVyvKDM5Q68oNTe_JBVI-FeeXFiWnFuuFBvm45iXnp6QWBSSWZDilJubVSU%2BQ1P5hZcPDwFBRxCCQlViWqJeTmJeu55%2BUlZpc-woAAFQXltgxWGSUlBVb6%2BkDbdOEWQtyQX1oCtiYTqDk5P9fK0MDMwFg_JzUlPbVIv6hIn6ECAMfW-N%2BS0AAAA-/adf/images/t.gif">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0F00-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5672,7 +5735,7 @@
         <xdr:cNvPr id="31" name="image6.gif" descr="https://ebrg-test.fs.em2.oraclecloud.com/setup/afr/remote/H4sIAAAAAAAAAA%3D%3DW_OWgbW4iMEhvygxOSdVLzElLTOvJLUoLzFHrywztVyvKDM5Q68oNTe_JBVI-FeeXFiWnFuuFBvm45iXnp6QWBSSWZDilJubVSU%2BQ1P5hZcPDwFBRxCCQlViWqJeTmJeu55%2BUlZpc-woAAFQXltgxWGSUlBVb6%2BkDbdOEWQtyQX1oCtiYTqDk5P9fK0MDMwFg_JzUlPbVIv6hIn6ECAMfW-N%2BS0AAAA-/adf/images/t.gif">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0F00-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5715,7 +5778,7 @@
         <xdr:cNvPr id="2" name="image6.gif" descr="https://ebrg-test.fs.em2.oraclecloud.com/setup/afr/remote/H4sIAAAAAAAAAA%3D%3DW_OWgbW4iMEhvygxOSdVLzElLTOvJLUoLzFHrywztVyvKDM5Q68oNTe_JBVI-FeeXFiWnFuuFBvm45iXnp6QWBSSWZDilJubVSU%2BQ1P5hZcPDwFBRxCCQlViWqJeTmJeu55%2BUlZpc-woAAFQXltgxWGSUlBVb6%2BkDbdOEWQtyQX1oCtiYTqDk5P9fK0MDMwFg_JzUlPbVIv6hIn6ECAMfW-N%2BS0AAAA-/adf/images/t.gif">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0F00-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5753,7 +5816,7 @@
         <xdr:cNvPr id="3" name="image6.gif" descr="https://ebrg-test.fs.em2.oraclecloud.com/setup/afr/remote/H4sIAAAAAAAAAA%3D%3DW_OWgbW4iMEhvygxOSdVLzElLTOvJLUoLzFHrywztVyvKDM5Q68oNTe_JBVI-FeeXFiWnFuuFBvm45iXnp6QWBSSWZDilJubVSU%2BQ1P5hZcPDwFBRxCCQlViWqJeTmJeu55%2BUlZpc-woAAFQXltgxWGSUlBVb6%2BkDbdOEWQtyQX1oCtiYTqDk5P9fK0MDMwFg_JzUlPbVIv6hIn6ECAMfW-N%2BS0AAAA-/adf/images/t.gif">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0F00-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5791,7 +5854,7 @@
         <xdr:cNvPr id="4" name="image6.gif" descr="https://ebrg-test.fs.em2.oraclecloud.com/setup/afr/remote/H4sIAAAAAAAAAA%3D%3DW_OWgbW4iMEhvygxOSdVLzElLTOvJLUoLzFHrywztVyvKDM5Q68oNTe_JBVI-FeeXFiWnFuuFBvm45iXnp6QWBSSWZDilJubVSU%2BQ1P5hZcPDwFBRxCCQlViWqJeTmJeu55%2BUlZpc-woAAFQXltgxWGSUlBVb6%2BkDbdOEWQtyQX1oCtiYTqDk5P9fK0MDMwFg_JzUlPbVIv6hIn6ECAMfW-N%2BS0AAAA-/adf/images/t.gif">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0F00-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5829,7 +5892,7 @@
         <xdr:cNvPr id="5" name="image6.gif" descr="https://ebrg-test.fs.em2.oraclecloud.com/setup/afr/remote/H4sIAAAAAAAAAA%3D%3DW_OWgbW4iMEhvygxOSdVLzElLTOvJLUoLzFHrywztVyvKDM5Q68oNTe_JBVI-FeeXFiWnFuuFBvm45iXnp6QWBSSWZDilJubVSU%2BQ1P5hZcPDwFBRxCCQlViWqJeTmJeu55%2BUlZpc-woAAFQXltgxWGSUlBVb6%2BkDbdOEWQtyQX1oCtiYTqDk5P9fK0MDMwFg_JzUlPbVIv6hIn6ECAMfW-N%2BS0AAAA-/adf/images/t.gif">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CD235340-311C-0D49-BF39-20959E84AD92}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CD235340-311C-0D49-BF39-20959E84AD92}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5867,7 +5930,7 @@
         <xdr:cNvPr id="6" name="image6.gif" descr="https://ebrg-test.fs.em2.oraclecloud.com/setup/afr/remote/H4sIAAAAAAAAAA%3D%3DW_OWgbW4iMEhvygxOSdVLzElLTOvJLUoLzFHrywztVyvKDM5Q68oNTe_JBVI-FeeXFiWnFuuFBvm45iXnp6QWBSSWZDilJubVSU%2BQ1P5hZcPDwFBRxCCQlViWqJeTmJeu55%2BUlZpc-woAAFQXltgxWGSUlBVb6%2BkDbdOEWQtyQX1oCtiYTqDk5P9fK0MDMwFg_JzUlPbVIv6hIn6ECAMfW-N%2BS0AAAA-/adf/images/t.gif">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{56CF3E09-D31A-344D-A3EA-AFDD6D33AF1D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{56CF3E09-D31A-344D-A3EA-AFDD6D33AF1D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5905,7 +5968,7 @@
         <xdr:cNvPr id="7" name="image6.gif" descr="https://ebrg-test.fs.em2.oraclecloud.com/setup/afr/remote/H4sIAAAAAAAAAA%3D%3DW_OWgbW4iMEhvygxOSdVLzElLTOvJLUoLzFHrywztVyvKDM5Q68oNTe_JBVI-FeeXFiWnFuuFBvm45iXnp6QWBSSWZDilJubVSU%2BQ1P5hZcPDwFBRxCCQlViWqJeTmJeu55%2BUlZpc-woAAFQXltgxWGSUlBVb6%2BkDbdOEWQtyQX1oCtiYTqDk5P9fK0MDMwFg_JzUlPbVIv6hIn6ECAMfW-N%2BS0AAAA-/adf/images/t.gif">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BECA4BD3-15AA-FF46-B2D5-9FD2E68AD093}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BECA4BD3-15AA-FF46-B2D5-9FD2E68AD093}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5943,7 +6006,7 @@
         <xdr:cNvPr id="8" name="image6.gif" descr="https://ebrg-test.fs.em2.oraclecloud.com/setup/afr/remote/H4sIAAAAAAAAAA%3D%3DW_OWgbW4iMEhvygxOSdVLzElLTOvJLUoLzFHrywztVyvKDM5Q68oNTe_JBVI-FeeXFiWnFuuFBvm45iXnp6QWBSSWZDilJubVSU%2BQ1P5hZcPDwFBRxCCQlViWqJeTmJeu55%2BUlZpc-woAAFQXltgxWGSUlBVb6%2BkDbdOEWQtyQX1oCtiYTqDk5P9fK0MDMwFg_JzUlPbVIv6hIn6ECAMfW-N%2BS0AAAA-/adf/images/t.gif">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{76B6FFF8-57F5-6748-8EE1-DC12CDC3CA29}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{76B6FFF8-57F5-6748-8EE1-DC12CDC3CA29}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5981,7 +6044,7 @@
         <xdr:cNvPr id="9" name="image6.gif" descr="https://ebrg-test.fs.em2.oraclecloud.com/setup/afr/remote/H4sIAAAAAAAAAA%3D%3DW_OWgbW4iMEhvygxOSdVLzElLTOvJLUoLzFHrywztVyvKDM5Q68oNTe_JBVI-FeeXFiWnFuuFBvm45iXnp6QWBSSWZDilJubVSU%2BQ1P5hZcPDwFBRxCCQlViWqJeTmJeu55%2BUlZpc-woAAFQXltgxWGSUlBVb6%2BkDbdOEWQtyQX1oCtiYTqDk5P9fK0MDMwFg_JzUlPbVIv6hIn6ECAMfW-N%2BS0AAAA-/adf/images/t.gif">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B4DC56FE-EF88-D442-9F43-801BC3F9FB04}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B4DC56FE-EF88-D442-9F43-801BC3F9FB04}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6019,7 +6082,7 @@
         <xdr:cNvPr id="10" name="image6.gif" descr="https://ebrg-test.fs.em2.oraclecloud.com/setup/afr/remote/H4sIAAAAAAAAAA%3D%3DW_OWgbW4iMEhvygxOSdVLzElLTOvJLUoLzFHrywztVyvKDM5Q68oNTe_JBVI-FeeXFiWnFuuFBvm45iXnp6QWBSSWZDilJubVSU%2BQ1P5hZcPDwFBRxCCQlViWqJeTmJeu55%2BUlZpc-woAAFQXltgxWGSUlBVb6%2BkDbdOEWQtyQX1oCtiYTqDk5P9fK0MDMwFg_JzUlPbVIv6hIn6ECAMfW-N%2BS0AAAA-/adf/images/t.gif">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{99E56C83-2B36-BE47-A8D1-3A4BF38C3B3D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{99E56C83-2B36-BE47-A8D1-3A4BF38C3B3D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6057,7 +6120,7 @@
         <xdr:cNvPr id="11" name="image6.gif" descr="https://ebrg-test.fs.em2.oraclecloud.com/setup/afr/remote/H4sIAAAAAAAAAA%3D%3DW_OWgbW4iMEhvygxOSdVLzElLTOvJLUoLzFHrywztVyvKDM5Q68oNTe_JBVI-FeeXFiWnFuuFBvm45iXnp6QWBSSWZDilJubVSU%2BQ1P5hZcPDwFBRxCCQlViWqJeTmJeu55%2BUlZpc-woAAFQXltgxWGSUlBVb6%2BkDbdOEWQtyQX1oCtiYTqDk5P9fK0MDMwFg_JzUlPbVIv6hIn6ECAMfW-N%2BS0AAAA-/adf/images/t.gif">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ACD36B5E-29AF-8946-8660-4BC5703F90ED}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{ACD36B5E-29AF-8946-8660-4BC5703F90ED}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6095,7 +6158,7 @@
         <xdr:cNvPr id="12" name="image6.gif" descr="https://ebrg-test.fs.em2.oraclecloud.com/setup/afr/remote/H4sIAAAAAAAAAA%3D%3DW_OWgbW4iMEhvygxOSdVLzElLTOvJLUoLzFHrywztVyvKDM5Q68oNTe_JBVI-FeeXFiWnFuuFBvm45iXnp6QWBSSWZDilJubVSU%2BQ1P5hZcPDwFBRxCCQlViWqJeTmJeu55%2BUlZpc-woAAFQXltgxWGSUlBVb6%2BkDbdOEWQtyQX1oCtiYTqDk5P9fK0MDMwFg_JzUlPbVIv6hIn6ECAMfW-N%2BS0AAAA-/adf/images/t.gif">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2E641FB0-6F11-C042-A992-F63BBF66BAC5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2E641FB0-6F11-C042-A992-F63BBF66BAC5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6133,7 +6196,7 @@
         <xdr:cNvPr id="13" name="image6.gif" descr="https://ebrg-test.fs.em2.oraclecloud.com/setup/afr/remote/H4sIAAAAAAAAAA%3D%3DW_OWgbW4iMEhvygxOSdVLzElLTOvJLUoLzFHrywztVyvKDM5Q68oNTe_JBVI-FeeXFiWnFuuFBvm45iXnp6QWBSSWZDilJubVSU%2BQ1P5hZcPDwFBRxCCQlViWqJeTmJeu55%2BUlZpc-woAAFQXltgxWGSUlBVb6%2BkDbdOEWQtyQX1oCtiYTqDk5P9fK0MDMwFg_JzUlPbVIv6hIn6ECAMfW-N%2BS0AAAA-/adf/images/t.gif">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9FC932F4-AE6E-5C4D-92F2-8615973C0885}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9FC932F4-AE6E-5C4D-92F2-8615973C0885}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6171,7 +6234,7 @@
         <xdr:cNvPr id="14" name="image6.gif" descr="https://ebrg-test.fs.em2.oraclecloud.com/setup/afr/remote/H4sIAAAAAAAAAA%3D%3DW_OWgbW4iMEhvygxOSdVLzElLTOvJLUoLzFHrywztVyvKDM5Q68oNTe_JBVI-FeeXFiWnFuuFBvm45iXnp6QWBSSWZDilJubVSU%2BQ1P5hZcPDwFBRxCCQlViWqJeTmJeu55%2BUlZpc-woAAFQXltgxWGSUlBVb6%2BkDbdOEWQtyQX1oCtiYTqDk5P9fK0MDMwFg_JzUlPbVIv6hIn6ECAMfW-N%2BS0AAAA-/adf/images/t.gif">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0F00-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6209,7 +6272,7 @@
         <xdr:cNvPr id="15" name="image6.gif" descr="https://ebrg-test.fs.em2.oraclecloud.com/setup/afr/remote/H4sIAAAAAAAAAA%3D%3DW_OWgbW4iMEhvygxOSdVLzElLTOvJLUoLzFHrywztVyvKDM5Q68oNTe_JBVI-FeeXFiWnFuuFBvm45iXnp6QWBSSWZDilJubVSU%2BQ1P5hZcPDwFBRxCCQlViWqJeTmJeu55%2BUlZpc-woAAFQXltgxWGSUlBVb6%2BkDbdOEWQtyQX1oCtiYTqDk5P9fK0MDMwFg_JzUlPbVIv6hIn6ECAMfW-N%2BS0AAAA-/adf/images/t.gif">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0F00-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6247,7 +6310,7 @@
         <xdr:cNvPr id="16" name="image6.gif" descr="https://ebrg-test.fs.em2.oraclecloud.com/setup/afr/remote/H4sIAAAAAAAAAA%3D%3DW_OWgbW4iMEhvygxOSdVLzElLTOvJLUoLzFHrywztVyvKDM5Q68oNTe_JBVI-FeeXFiWnFuuFBvm45iXnp6QWBSSWZDilJubVSU%2BQ1P5hZcPDwFBRxCCQlViWqJeTmJeu55%2BUlZpc-woAAFQXltgxWGSUlBVb6%2BkDbdOEWQtyQX1oCtiYTqDk5P9fK0MDMwFg_JzUlPbVIv6hIn6ECAMfW-N%2BS0AAAA-/adf/images/t.gif">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0F00-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6285,7 +6348,7 @@
         <xdr:cNvPr id="17" name="image6.gif" descr="https://ebrg-test.fs.em2.oraclecloud.com/setup/afr/remote/H4sIAAAAAAAAAA%3D%3DW_OWgbW4iMEhvygxOSdVLzElLTOvJLUoLzFHrywztVyvKDM5Q68oNTe_JBVI-FeeXFiWnFuuFBvm45iXnp6QWBSSWZDilJubVSU%2BQ1P5hZcPDwFBRxCCQlViWqJeTmJeu55%2BUlZpc-woAAFQXltgxWGSUlBVb6%2BkDbdOEWQtyQX1oCtiYTqDk5P9fK0MDMwFg_JzUlPbVIv6hIn6ECAMfW-N%2BS0AAAA-/adf/images/t.gif">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CD235340-311C-0D49-BF39-20959E84AD92}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CD235340-311C-0D49-BF39-20959E84AD92}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6323,7 +6386,7 @@
         <xdr:cNvPr id="18" name="image6.gif" descr="https://ebrg-test.fs.em2.oraclecloud.com/setup/afr/remote/H4sIAAAAAAAAAA%3D%3DW_OWgbW4iMEhvygxOSdVLzElLTOvJLUoLzFHrywztVyvKDM5Q68oNTe_JBVI-FeeXFiWnFuuFBvm45iXnp6QWBSSWZDilJubVSU%2BQ1P5hZcPDwFBRxCCQlViWqJeTmJeu55%2BUlZpc-woAAFQXltgxWGSUlBVb6%2BkDbdOEWQtyQX1oCtiYTqDk5P9fK0MDMwFg_JzUlPbVIv6hIn6ECAMfW-N%2BS0AAAA-/adf/images/t.gif">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{56CF3E09-D31A-344D-A3EA-AFDD6D33AF1D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{56CF3E09-D31A-344D-A3EA-AFDD6D33AF1D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6361,7 +6424,7 @@
         <xdr:cNvPr id="19" name="image6.gif" descr="https://ebrg-test.fs.em2.oraclecloud.com/setup/afr/remote/H4sIAAAAAAAAAA%3D%3DW_OWgbW4iMEhvygxOSdVLzElLTOvJLUoLzFHrywztVyvKDM5Q68oNTe_JBVI-FeeXFiWnFuuFBvm45iXnp6QWBSSWZDilJubVSU%2BQ1P5hZcPDwFBRxCCQlViWqJeTmJeu55%2BUlZpc-woAAFQXltgxWGSUlBVb6%2BkDbdOEWQtyQX1oCtiYTqDk5P9fK0MDMwFg_JzUlPbVIv6hIn6ECAMfW-N%2BS0AAAA-/adf/images/t.gif">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BECA4BD3-15AA-FF46-B2D5-9FD2E68AD093}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BECA4BD3-15AA-FF46-B2D5-9FD2E68AD093}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6399,7 +6462,7 @@
         <xdr:cNvPr id="20" name="image6.gif" descr="https://ebrg-test.fs.em2.oraclecloud.com/setup/afr/remote/H4sIAAAAAAAAAA%3D%3DW_OWgbW4iMEhvygxOSdVLzElLTOvJLUoLzFHrywztVyvKDM5Q68oNTe_JBVI-FeeXFiWnFuuFBvm45iXnp6QWBSSWZDilJubVSU%2BQ1P5hZcPDwFBRxCCQlViWqJeTmJeu55%2BUlZpc-woAAFQXltgxWGSUlBVb6%2BkDbdOEWQtyQX1oCtiYTqDk5P9fK0MDMwFg_JzUlPbVIv6hIn6ECAMfW-N%2BS0AAAA-/adf/images/t.gif">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{76B6FFF8-57F5-6748-8EE1-DC12CDC3CA29}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{76B6FFF8-57F5-6748-8EE1-DC12CDC3CA29}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6437,7 +6500,7 @@
         <xdr:cNvPr id="21" name="image6.gif" descr="https://ebrg-test.fs.em2.oraclecloud.com/setup/afr/remote/H4sIAAAAAAAAAA%3D%3DW_OWgbW4iMEhvygxOSdVLzElLTOvJLUoLzFHrywztVyvKDM5Q68oNTe_JBVI-FeeXFiWnFuuFBvm45iXnp6QWBSSWZDilJubVSU%2BQ1P5hZcPDwFBRxCCQlViWqJeTmJeu55%2BUlZpc-woAAFQXltgxWGSUlBVb6%2BkDbdOEWQtyQX1oCtiYTqDk5P9fK0MDMwFg_JzUlPbVIv6hIn6ECAMfW-N%2BS0AAAA-/adf/images/t.gif">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B4DC56FE-EF88-D442-9F43-801BC3F9FB04}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B4DC56FE-EF88-D442-9F43-801BC3F9FB04}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6475,7 +6538,7 @@
         <xdr:cNvPr id="22" name="image6.gif" descr="https://ebrg-test.fs.em2.oraclecloud.com/setup/afr/remote/H4sIAAAAAAAAAA%3D%3DW_OWgbW4iMEhvygxOSdVLzElLTOvJLUoLzFHrywztVyvKDM5Q68oNTe_JBVI-FeeXFiWnFuuFBvm45iXnp6QWBSSWZDilJubVSU%2BQ1P5hZcPDwFBRxCCQlViWqJeTmJeu55%2BUlZpc-woAAFQXltgxWGSUlBVb6%2BkDbdOEWQtyQX1oCtiYTqDk5P9fK0MDMwFg_JzUlPbVIv6hIn6ECAMfW-N%2BS0AAAA-/adf/images/t.gif">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{99E56C83-2B36-BE47-A8D1-3A4BF38C3B3D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{99E56C83-2B36-BE47-A8D1-3A4BF38C3B3D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6513,7 +6576,7 @@
         <xdr:cNvPr id="23" name="image6.gif" descr="https://ebrg-test.fs.em2.oraclecloud.com/setup/afr/remote/H4sIAAAAAAAAAA%3D%3DW_OWgbW4iMEhvygxOSdVLzElLTOvJLUoLzFHrywztVyvKDM5Q68oNTe_JBVI-FeeXFiWnFuuFBvm45iXnp6QWBSSWZDilJubVSU%2BQ1P5hZcPDwFBRxCCQlViWqJeTmJeu55%2BUlZpc-woAAFQXltgxWGSUlBVb6%2BkDbdOEWQtyQX1oCtiYTqDk5P9fK0MDMwFg_JzUlPbVIv6hIn6ECAMfW-N%2BS0AAAA-/adf/images/t.gif">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ACD36B5E-29AF-8946-8660-4BC5703F90ED}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{ACD36B5E-29AF-8946-8660-4BC5703F90ED}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6551,7 +6614,7 @@
         <xdr:cNvPr id="24" name="image6.gif" descr="https://ebrg-test.fs.em2.oraclecloud.com/setup/afr/remote/H4sIAAAAAAAAAA%3D%3DW_OWgbW4iMEhvygxOSdVLzElLTOvJLUoLzFHrywztVyvKDM5Q68oNTe_JBVI-FeeXFiWnFuuFBvm45iXnp6QWBSSWZDilJubVSU%2BQ1P5hZcPDwFBRxCCQlViWqJeTmJeu55%2BUlZpc-woAAFQXltgxWGSUlBVb6%2BkDbdOEWQtyQX1oCtiYTqDk5P9fK0MDMwFg_JzUlPbVIv6hIn6ECAMfW-N%2BS0AAAA-/adf/images/t.gif">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2E641FB0-6F11-C042-A992-F63BBF66BAC5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2E641FB0-6F11-C042-A992-F63BBF66BAC5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6589,7 +6652,7 @@
         <xdr:cNvPr id="25" name="image6.gif" descr="https://ebrg-test.fs.em2.oraclecloud.com/setup/afr/remote/H4sIAAAAAAAAAA%3D%3DW_OWgbW4iMEhvygxOSdVLzElLTOvJLUoLzFHrywztVyvKDM5Q68oNTe_JBVI-FeeXFiWnFuuFBvm45iXnp6QWBSSWZDilJubVSU%2BQ1P5hZcPDwFBRxCCQlViWqJeTmJeu55%2BUlZpc-woAAFQXltgxWGSUlBVb6%2BkDbdOEWQtyQX1oCtiYTqDk5P9fK0MDMwFg_JzUlPbVIv6hIn6ECAMfW-N%2BS0AAAA-/adf/images/t.gif">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9FC932F4-AE6E-5C4D-92F2-8615973C0885}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9FC932F4-AE6E-5C4D-92F2-8615973C0885}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6627,7 +6690,7 @@
         <xdr:cNvPr id="26" name="image6.gif" descr="https://ebrg-test.fs.em2.oraclecloud.com/setup/afr/remote/H4sIAAAAAAAAAA%3D%3DW_OWgbW4iMEhvygxOSdVLzElLTOvJLUoLzFHrywztVyvKDM5Q68oNTe_JBVI-FeeXFiWnFuuFBvm45iXnp6QWBSSWZDilJubVSU%2BQ1P5hZcPDwFBRxCCQlViWqJeTmJeu55%2BUlZpc-woAAFQXltgxWGSUlBVb6%2BkDbdOEWQtyQX1oCtiYTqDk5P9fK0MDMwFg_JzUlPbVIv6hIn6ECAMfW-N%2BS0AAAA-/adf/images/t.gif">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0F00-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6665,7 +6728,7 @@
         <xdr:cNvPr id="27" name="image6.gif" descr="https://ebrg-test.fs.em2.oraclecloud.com/setup/afr/remote/H4sIAAAAAAAAAA%3D%3DW_OWgbW4iMEhvygxOSdVLzElLTOvJLUoLzFHrywztVyvKDM5Q68oNTe_JBVI-FeeXFiWnFuuFBvm45iXnp6QWBSSWZDilJubVSU%2BQ1P5hZcPDwFBRxCCQlViWqJeTmJeu55%2BUlZpc-woAAFQXltgxWGSUlBVb6%2BkDbdOEWQtyQX1oCtiYTqDk5P9fK0MDMwFg_JzUlPbVIv6hIn6ECAMfW-N%2BS0AAAA-/adf/images/t.gif">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0F00-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6703,7 +6766,7 @@
         <xdr:cNvPr id="28" name="image6.gif" descr="https://ebrg-test.fs.em2.oraclecloud.com/setup/afr/remote/H4sIAAAAAAAAAA%3D%3DW_OWgbW4iMEhvygxOSdVLzElLTOvJLUoLzFHrywztVyvKDM5Q68oNTe_JBVI-FeeXFiWnFuuFBvm45iXnp6QWBSSWZDilJubVSU%2BQ1P5hZcPDwFBRxCCQlViWqJeTmJeu55%2BUlZpc-woAAFQXltgxWGSUlBVb6%2BkDbdOEWQtyQX1oCtiYTqDk5P9fK0MDMwFg_JzUlPbVIv6hIn6ECAMfW-N%2BS0AAAA-/adf/images/t.gif">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0F00-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6741,7 +6804,7 @@
         <xdr:cNvPr id="29" name="image6.gif" descr="https://ebrg-test.fs.em2.oraclecloud.com/setup/afr/remote/H4sIAAAAAAAAAA%3D%3DW_OWgbW4iMEhvygxOSdVLzElLTOvJLUoLzFHrywztVyvKDM5Q68oNTe_JBVI-FeeXFiWnFuuFBvm45iXnp6QWBSSWZDilJubVSU%2BQ1P5hZcPDwFBRxCCQlViWqJeTmJeu55%2BUlZpc-woAAFQXltgxWGSUlBVb6%2BkDbdOEWQtyQX1oCtiYTqDk5P9fK0MDMwFg_JzUlPbVIv6hIn6ECAMfW-N%2BS0AAAA-/adf/images/t.gif">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0F00-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6779,7 +6842,7 @@
         <xdr:cNvPr id="30" name="image6.gif" descr="https://ebrg-test.fs.em2.oraclecloud.com/setup/afr/remote/H4sIAAAAAAAAAA%3D%3DW_OWgbW4iMEhvygxOSdVLzElLTOvJLUoLzFHrywztVyvKDM5Q68oNTe_JBVI-FeeXFiWnFuuFBvm45iXnp6QWBSSWZDilJubVSU%2BQ1P5hZcPDwFBRxCCQlViWqJeTmJeu55%2BUlZpc-woAAFQXltgxWGSUlBVb6%2BkDbdOEWQtyQX1oCtiYTqDk5P9fK0MDMwFg_JzUlPbVIv6hIn6ECAMfW-N%2BS0AAAA-/adf/images/t.gif">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0F00-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6817,7 +6880,7 @@
         <xdr:cNvPr id="31" name="image6.gif" descr="https://ebrg-test.fs.em2.oraclecloud.com/setup/afr/remote/H4sIAAAAAAAAAA%3D%3DW_OWgbW4iMEhvygxOSdVLzElLTOvJLUoLzFHrywztVyvKDM5Q68oNTe_JBVI-FeeXFiWnFuuFBvm45iXnp6QWBSSWZDilJubVSU%2BQ1P5hZcPDwFBRxCCQlViWqJeTmJeu55%2BUlZpc-woAAFQXltgxWGSUlBVb6%2BkDbdOEWQtyQX1oCtiYTqDk5P9fK0MDMwFg_JzUlPbVIv6hIn6ECAMfW-N%2BS0AAAA-/adf/images/t.gif">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0F00-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7540,7 +7603,7 @@
         <xdr:cNvPr id="2" name="image6.gif" descr="https://ebrg-test.fs.em2.oraclecloud.com/setup/afr/remote/H4sIAAAAAAAAAA%3D%3DW_OWgbW4iMEhvygxOSdVLzElLTOvJLUoLzFHrywztVyvKDM5Q68oNTe_JBVI-FeeXFiWnFuuFBvm45iXnp6QWBSSWZDilJubVSU%2BQ1P5hZcPDwFBRxCCQlViWqJeTmJeu55%2BUlZpc-woAAFQXltgxWGSUlBVb6%2BkDbdOEWQtyQX1oCtiYTqDk5P9fK0MDMwFg_JzUlPbVIv6hIn6ECAMfW-N%2BS0AAAA-/adf/images/t.gif">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0F00-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7578,7 +7641,7 @@
         <xdr:cNvPr id="3" name="image6.gif" descr="https://ebrg-test.fs.em2.oraclecloud.com/setup/afr/remote/H4sIAAAAAAAAAA%3D%3DW_OWgbW4iMEhvygxOSdVLzElLTOvJLUoLzFHrywztVyvKDM5Q68oNTe_JBVI-FeeXFiWnFuuFBvm45iXnp6QWBSSWZDilJubVSU%2BQ1P5hZcPDwFBRxCCQlViWqJeTmJeu55%2BUlZpc-woAAFQXltgxWGSUlBVb6%2BkDbdOEWQtyQX1oCtiYTqDk5P9fK0MDMwFg_JzUlPbVIv6hIn6ECAMfW-N%2BS0AAAA-/adf/images/t.gif">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0F00-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7616,7 +7679,7 @@
         <xdr:cNvPr id="4" name="image6.gif" descr="https://ebrg-test.fs.em2.oraclecloud.com/setup/afr/remote/H4sIAAAAAAAAAA%3D%3DW_OWgbW4iMEhvygxOSdVLzElLTOvJLUoLzFHrywztVyvKDM5Q68oNTe_JBVI-FeeXFiWnFuuFBvm45iXnp6QWBSSWZDilJubVSU%2BQ1P5hZcPDwFBRxCCQlViWqJeTmJeu55%2BUlZpc-woAAFQXltgxWGSUlBVb6%2BkDbdOEWQtyQX1oCtiYTqDk5P9fK0MDMwFg_JzUlPbVIv6hIn6ECAMfW-N%2BS0AAAA-/adf/images/t.gif">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0F00-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7654,7 +7717,7 @@
         <xdr:cNvPr id="5" name="image6.gif" descr="https://ebrg-test.fs.em2.oraclecloud.com/setup/afr/remote/H4sIAAAAAAAAAA%3D%3DW_OWgbW4iMEhvygxOSdVLzElLTOvJLUoLzFHrywztVyvKDM5Q68oNTe_JBVI-FeeXFiWnFuuFBvm45iXnp6QWBSSWZDilJubVSU%2BQ1P5hZcPDwFBRxCCQlViWqJeTmJeu55%2BUlZpc-woAAFQXltgxWGSUlBVb6%2BkDbdOEWQtyQX1oCtiYTqDk5P9fK0MDMwFg_JzUlPbVIv6hIn6ECAMfW-N%2BS0AAAA-/adf/images/t.gif">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CD235340-311C-0D49-BF39-20959E84AD92}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CD235340-311C-0D49-BF39-20959E84AD92}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7692,7 +7755,7 @@
         <xdr:cNvPr id="6" name="image6.gif" descr="https://ebrg-test.fs.em2.oraclecloud.com/setup/afr/remote/H4sIAAAAAAAAAA%3D%3DW_OWgbW4iMEhvygxOSdVLzElLTOvJLUoLzFHrywztVyvKDM5Q68oNTe_JBVI-FeeXFiWnFuuFBvm45iXnp6QWBSSWZDilJubVSU%2BQ1P5hZcPDwFBRxCCQlViWqJeTmJeu55%2BUlZpc-woAAFQXltgxWGSUlBVb6%2BkDbdOEWQtyQX1oCtiYTqDk5P9fK0MDMwFg_JzUlPbVIv6hIn6ECAMfW-N%2BS0AAAA-/adf/images/t.gif">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{56CF3E09-D31A-344D-A3EA-AFDD6D33AF1D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{56CF3E09-D31A-344D-A3EA-AFDD6D33AF1D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7730,7 +7793,7 @@
         <xdr:cNvPr id="7" name="image6.gif" descr="https://ebrg-test.fs.em2.oraclecloud.com/setup/afr/remote/H4sIAAAAAAAAAA%3D%3DW_OWgbW4iMEhvygxOSdVLzElLTOvJLUoLzFHrywztVyvKDM5Q68oNTe_JBVI-FeeXFiWnFuuFBvm45iXnp6QWBSSWZDilJubVSU%2BQ1P5hZcPDwFBRxCCQlViWqJeTmJeu55%2BUlZpc-woAAFQXltgxWGSUlBVb6%2BkDbdOEWQtyQX1oCtiYTqDk5P9fK0MDMwFg_JzUlPbVIv6hIn6ECAMfW-N%2BS0AAAA-/adf/images/t.gif">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BECA4BD3-15AA-FF46-B2D5-9FD2E68AD093}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BECA4BD3-15AA-FF46-B2D5-9FD2E68AD093}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7768,7 +7831,7 @@
         <xdr:cNvPr id="8" name="image6.gif" descr="https://ebrg-test.fs.em2.oraclecloud.com/setup/afr/remote/H4sIAAAAAAAAAA%3D%3DW_OWgbW4iMEhvygxOSdVLzElLTOvJLUoLzFHrywztVyvKDM5Q68oNTe_JBVI-FeeXFiWnFuuFBvm45iXnp6QWBSSWZDilJubVSU%2BQ1P5hZcPDwFBRxCCQlViWqJeTmJeu55%2BUlZpc-woAAFQXltgxWGSUlBVb6%2BkDbdOEWQtyQX1oCtiYTqDk5P9fK0MDMwFg_JzUlPbVIv6hIn6ECAMfW-N%2BS0AAAA-/adf/images/t.gif">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{76B6FFF8-57F5-6748-8EE1-DC12CDC3CA29}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{76B6FFF8-57F5-6748-8EE1-DC12CDC3CA29}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7806,7 +7869,7 @@
         <xdr:cNvPr id="9" name="image6.gif" descr="https://ebrg-test.fs.em2.oraclecloud.com/setup/afr/remote/H4sIAAAAAAAAAA%3D%3DW_OWgbW4iMEhvygxOSdVLzElLTOvJLUoLzFHrywztVyvKDM5Q68oNTe_JBVI-FeeXFiWnFuuFBvm45iXnp6QWBSSWZDilJubVSU%2BQ1P5hZcPDwFBRxCCQlViWqJeTmJeu55%2BUlZpc-woAAFQXltgxWGSUlBVb6%2BkDbdOEWQtyQX1oCtiYTqDk5P9fK0MDMwFg_JzUlPbVIv6hIn6ECAMfW-N%2BS0AAAA-/adf/images/t.gif">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B4DC56FE-EF88-D442-9F43-801BC3F9FB04}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B4DC56FE-EF88-D442-9F43-801BC3F9FB04}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7844,7 +7907,7 @@
         <xdr:cNvPr id="10" name="image6.gif" descr="https://ebrg-test.fs.em2.oraclecloud.com/setup/afr/remote/H4sIAAAAAAAAAA%3D%3DW_OWgbW4iMEhvygxOSdVLzElLTOvJLUoLzFHrywztVyvKDM5Q68oNTe_JBVI-FeeXFiWnFuuFBvm45iXnp6QWBSSWZDilJubVSU%2BQ1P5hZcPDwFBRxCCQlViWqJeTmJeu55%2BUlZpc-woAAFQXltgxWGSUlBVb6%2BkDbdOEWQtyQX1oCtiYTqDk5P9fK0MDMwFg_JzUlPbVIv6hIn6ECAMfW-N%2BS0AAAA-/adf/images/t.gif">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{99E56C83-2B36-BE47-A8D1-3A4BF38C3B3D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{99E56C83-2B36-BE47-A8D1-3A4BF38C3B3D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7882,7 +7945,7 @@
         <xdr:cNvPr id="11" name="image6.gif" descr="https://ebrg-test.fs.em2.oraclecloud.com/setup/afr/remote/H4sIAAAAAAAAAA%3D%3DW_OWgbW4iMEhvygxOSdVLzElLTOvJLUoLzFHrywztVyvKDM5Q68oNTe_JBVI-FeeXFiWnFuuFBvm45iXnp6QWBSSWZDilJubVSU%2BQ1P5hZcPDwFBRxCCQlViWqJeTmJeu55%2BUlZpc-woAAFQXltgxWGSUlBVb6%2BkDbdOEWQtyQX1oCtiYTqDk5P9fK0MDMwFg_JzUlPbVIv6hIn6ECAMfW-N%2BS0AAAA-/adf/images/t.gif">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ACD36B5E-29AF-8946-8660-4BC5703F90ED}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{ACD36B5E-29AF-8946-8660-4BC5703F90ED}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7920,7 +7983,7 @@
         <xdr:cNvPr id="12" name="image6.gif" descr="https://ebrg-test.fs.em2.oraclecloud.com/setup/afr/remote/H4sIAAAAAAAAAA%3D%3DW_OWgbW4iMEhvygxOSdVLzElLTOvJLUoLzFHrywztVyvKDM5Q68oNTe_JBVI-FeeXFiWnFuuFBvm45iXnp6QWBSSWZDilJubVSU%2BQ1P5hZcPDwFBRxCCQlViWqJeTmJeu55%2BUlZpc-woAAFQXltgxWGSUlBVb6%2BkDbdOEWQtyQX1oCtiYTqDk5P9fK0MDMwFg_JzUlPbVIv6hIn6ECAMfW-N%2BS0AAAA-/adf/images/t.gif">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2E641FB0-6F11-C042-A992-F63BBF66BAC5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2E641FB0-6F11-C042-A992-F63BBF66BAC5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7958,7 +8021,7 @@
         <xdr:cNvPr id="13" name="image6.gif" descr="https://ebrg-test.fs.em2.oraclecloud.com/setup/afr/remote/H4sIAAAAAAAAAA%3D%3DW_OWgbW4iMEhvygxOSdVLzElLTOvJLUoLzFHrywztVyvKDM5Q68oNTe_JBVI-FeeXFiWnFuuFBvm45iXnp6QWBSSWZDilJubVSU%2BQ1P5hZcPDwFBRxCCQlViWqJeTmJeu55%2BUlZpc-woAAFQXltgxWGSUlBVb6%2BkDbdOEWQtyQX1oCtiYTqDk5P9fK0MDMwFg_JzUlPbVIv6hIn6ECAMfW-N%2BS0AAAA-/adf/images/t.gif">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9FC932F4-AE6E-5C4D-92F2-8615973C0885}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9FC932F4-AE6E-5C4D-92F2-8615973C0885}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7996,7 +8059,7 @@
         <xdr:cNvPr id="14" name="image6.gif" descr="https://ebrg-test.fs.em2.oraclecloud.com/setup/afr/remote/H4sIAAAAAAAAAA%3D%3DW_OWgbW4iMEhvygxOSdVLzElLTOvJLUoLzFHrywztVyvKDM5Q68oNTe_JBVI-FeeXFiWnFuuFBvm45iXnp6QWBSSWZDilJubVSU%2BQ1P5hZcPDwFBRxCCQlViWqJeTmJeu55%2BUlZpc-woAAFQXltgxWGSUlBVb6%2BkDbdOEWQtyQX1oCtiYTqDk5P9fK0MDMwFg_JzUlPbVIv6hIn6ECAMfW-N%2BS0AAAA-/adf/images/t.gif">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0F00-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8034,7 +8097,7 @@
         <xdr:cNvPr id="15" name="image6.gif" descr="https://ebrg-test.fs.em2.oraclecloud.com/setup/afr/remote/H4sIAAAAAAAAAA%3D%3DW_OWgbW4iMEhvygxOSdVLzElLTOvJLUoLzFHrywztVyvKDM5Q68oNTe_JBVI-FeeXFiWnFuuFBvm45iXnp6QWBSSWZDilJubVSU%2BQ1P5hZcPDwFBRxCCQlViWqJeTmJeu55%2BUlZpc-woAAFQXltgxWGSUlBVb6%2BkDbdOEWQtyQX1oCtiYTqDk5P9fK0MDMwFg_JzUlPbVIv6hIn6ECAMfW-N%2BS0AAAA-/adf/images/t.gif">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0F00-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8072,7 +8135,7 @@
         <xdr:cNvPr id="16" name="image6.gif" descr="https://ebrg-test.fs.em2.oraclecloud.com/setup/afr/remote/H4sIAAAAAAAAAA%3D%3DW_OWgbW4iMEhvygxOSdVLzElLTOvJLUoLzFHrywztVyvKDM5Q68oNTe_JBVI-FeeXFiWnFuuFBvm45iXnp6QWBSSWZDilJubVSU%2BQ1P5hZcPDwFBRxCCQlViWqJeTmJeu55%2BUlZpc-woAAFQXltgxWGSUlBVb6%2BkDbdOEWQtyQX1oCtiYTqDk5P9fK0MDMwFg_JzUlPbVIv6hIn6ECAMfW-N%2BS0AAAA-/adf/images/t.gif">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0F00-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8110,7 +8173,7 @@
         <xdr:cNvPr id="17" name="image6.gif" descr="https://ebrg-test.fs.em2.oraclecloud.com/setup/afr/remote/H4sIAAAAAAAAAA%3D%3DW_OWgbW4iMEhvygxOSdVLzElLTOvJLUoLzFHrywztVyvKDM5Q68oNTe_JBVI-FeeXFiWnFuuFBvm45iXnp6QWBSSWZDilJubVSU%2BQ1P5hZcPDwFBRxCCQlViWqJeTmJeu55%2BUlZpc-woAAFQXltgxWGSUlBVb6%2BkDbdOEWQtyQX1oCtiYTqDk5P9fK0MDMwFg_JzUlPbVIv6hIn6ECAMfW-N%2BS0AAAA-/adf/images/t.gif">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CD235340-311C-0D49-BF39-20959E84AD92}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CD235340-311C-0D49-BF39-20959E84AD92}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8148,7 +8211,7 @@
         <xdr:cNvPr id="18" name="image6.gif" descr="https://ebrg-test.fs.em2.oraclecloud.com/setup/afr/remote/H4sIAAAAAAAAAA%3D%3DW_OWgbW4iMEhvygxOSdVLzElLTOvJLUoLzFHrywztVyvKDM5Q68oNTe_JBVI-FeeXFiWnFuuFBvm45iXnp6QWBSSWZDilJubVSU%2BQ1P5hZcPDwFBRxCCQlViWqJeTmJeu55%2BUlZpc-woAAFQXltgxWGSUlBVb6%2BkDbdOEWQtyQX1oCtiYTqDk5P9fK0MDMwFg_JzUlPbVIv6hIn6ECAMfW-N%2BS0AAAA-/adf/images/t.gif">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{56CF3E09-D31A-344D-A3EA-AFDD6D33AF1D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{56CF3E09-D31A-344D-A3EA-AFDD6D33AF1D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8186,7 +8249,7 @@
         <xdr:cNvPr id="19" name="image6.gif" descr="https://ebrg-test.fs.em2.oraclecloud.com/setup/afr/remote/H4sIAAAAAAAAAA%3D%3DW_OWgbW4iMEhvygxOSdVLzElLTOvJLUoLzFHrywztVyvKDM5Q68oNTe_JBVI-FeeXFiWnFuuFBvm45iXnp6QWBSSWZDilJubVSU%2BQ1P5hZcPDwFBRxCCQlViWqJeTmJeu55%2BUlZpc-woAAFQXltgxWGSUlBVb6%2BkDbdOEWQtyQX1oCtiYTqDk5P9fK0MDMwFg_JzUlPbVIv6hIn6ECAMfW-N%2BS0AAAA-/adf/images/t.gif">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BECA4BD3-15AA-FF46-B2D5-9FD2E68AD093}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BECA4BD3-15AA-FF46-B2D5-9FD2E68AD093}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8224,7 +8287,7 @@
         <xdr:cNvPr id="20" name="image6.gif" descr="https://ebrg-test.fs.em2.oraclecloud.com/setup/afr/remote/H4sIAAAAAAAAAA%3D%3DW_OWgbW4iMEhvygxOSdVLzElLTOvJLUoLzFHrywztVyvKDM5Q68oNTe_JBVI-FeeXFiWnFuuFBvm45iXnp6QWBSSWZDilJubVSU%2BQ1P5hZcPDwFBRxCCQlViWqJeTmJeu55%2BUlZpc-woAAFQXltgxWGSUlBVb6%2BkDbdOEWQtyQX1oCtiYTqDk5P9fK0MDMwFg_JzUlPbVIv6hIn6ECAMfW-N%2BS0AAAA-/adf/images/t.gif">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{76B6FFF8-57F5-6748-8EE1-DC12CDC3CA29}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{76B6FFF8-57F5-6748-8EE1-DC12CDC3CA29}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8262,7 +8325,7 @@
         <xdr:cNvPr id="21" name="image6.gif" descr="https://ebrg-test.fs.em2.oraclecloud.com/setup/afr/remote/H4sIAAAAAAAAAA%3D%3DW_OWgbW4iMEhvygxOSdVLzElLTOvJLUoLzFHrywztVyvKDM5Q68oNTe_JBVI-FeeXFiWnFuuFBvm45iXnp6QWBSSWZDilJubVSU%2BQ1P5hZcPDwFBRxCCQlViWqJeTmJeu55%2BUlZpc-woAAFQXltgxWGSUlBVb6%2BkDbdOEWQtyQX1oCtiYTqDk5P9fK0MDMwFg_JzUlPbVIv6hIn6ECAMfW-N%2BS0AAAA-/adf/images/t.gif">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B4DC56FE-EF88-D442-9F43-801BC3F9FB04}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B4DC56FE-EF88-D442-9F43-801BC3F9FB04}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8300,7 +8363,7 @@
         <xdr:cNvPr id="22" name="image6.gif" descr="https://ebrg-test.fs.em2.oraclecloud.com/setup/afr/remote/H4sIAAAAAAAAAA%3D%3DW_OWgbW4iMEhvygxOSdVLzElLTOvJLUoLzFHrywztVyvKDM5Q68oNTe_JBVI-FeeXFiWnFuuFBvm45iXnp6QWBSSWZDilJubVSU%2BQ1P5hZcPDwFBRxCCQlViWqJeTmJeu55%2BUlZpc-woAAFQXltgxWGSUlBVb6%2BkDbdOEWQtyQX1oCtiYTqDk5P9fK0MDMwFg_JzUlPbVIv6hIn6ECAMfW-N%2BS0AAAA-/adf/images/t.gif">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{99E56C83-2B36-BE47-A8D1-3A4BF38C3B3D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{99E56C83-2B36-BE47-A8D1-3A4BF38C3B3D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8338,7 +8401,7 @@
         <xdr:cNvPr id="23" name="image6.gif" descr="https://ebrg-test.fs.em2.oraclecloud.com/setup/afr/remote/H4sIAAAAAAAAAA%3D%3DW_OWgbW4iMEhvygxOSdVLzElLTOvJLUoLzFHrywztVyvKDM5Q68oNTe_JBVI-FeeXFiWnFuuFBvm45iXnp6QWBSSWZDilJubVSU%2BQ1P5hZcPDwFBRxCCQlViWqJeTmJeu55%2BUlZpc-woAAFQXltgxWGSUlBVb6%2BkDbdOEWQtyQX1oCtiYTqDk5P9fK0MDMwFg_JzUlPbVIv6hIn6ECAMfW-N%2BS0AAAA-/adf/images/t.gif">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ACD36B5E-29AF-8946-8660-4BC5703F90ED}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{ACD36B5E-29AF-8946-8660-4BC5703F90ED}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8376,7 +8439,7 @@
         <xdr:cNvPr id="24" name="image6.gif" descr="https://ebrg-test.fs.em2.oraclecloud.com/setup/afr/remote/H4sIAAAAAAAAAA%3D%3DW_OWgbW4iMEhvygxOSdVLzElLTOvJLUoLzFHrywztVyvKDM5Q68oNTe_JBVI-FeeXFiWnFuuFBvm45iXnp6QWBSSWZDilJubVSU%2BQ1P5hZcPDwFBRxCCQlViWqJeTmJeu55%2BUlZpc-woAAFQXltgxWGSUlBVb6%2BkDbdOEWQtyQX1oCtiYTqDk5P9fK0MDMwFg_JzUlPbVIv6hIn6ECAMfW-N%2BS0AAAA-/adf/images/t.gif">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2E641FB0-6F11-C042-A992-F63BBF66BAC5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2E641FB0-6F11-C042-A992-F63BBF66BAC5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8414,7 +8477,7 @@
         <xdr:cNvPr id="25" name="image6.gif" descr="https://ebrg-test.fs.em2.oraclecloud.com/setup/afr/remote/H4sIAAAAAAAAAA%3D%3DW_OWgbW4iMEhvygxOSdVLzElLTOvJLUoLzFHrywztVyvKDM5Q68oNTe_JBVI-FeeXFiWnFuuFBvm45iXnp6QWBSSWZDilJubVSU%2BQ1P5hZcPDwFBRxCCQlViWqJeTmJeu55%2BUlZpc-woAAFQXltgxWGSUlBVb6%2BkDbdOEWQtyQX1oCtiYTqDk5P9fK0MDMwFg_JzUlPbVIv6hIn6ECAMfW-N%2BS0AAAA-/adf/images/t.gif">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9FC932F4-AE6E-5C4D-92F2-8615973C0885}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9FC932F4-AE6E-5C4D-92F2-8615973C0885}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8452,7 +8515,7 @@
         <xdr:cNvPr id="26" name="image6.gif" descr="https://ebrg-test.fs.em2.oraclecloud.com/setup/afr/remote/H4sIAAAAAAAAAA%3D%3DW_OWgbW4iMEhvygxOSdVLzElLTOvJLUoLzFHrywztVyvKDM5Q68oNTe_JBVI-FeeXFiWnFuuFBvm45iXnp6QWBSSWZDilJubVSU%2BQ1P5hZcPDwFBRxCCQlViWqJeTmJeu55%2BUlZpc-woAAFQXltgxWGSUlBVb6%2BkDbdOEWQtyQX1oCtiYTqDk5P9fK0MDMwFg_JzUlPbVIv6hIn6ECAMfW-N%2BS0AAAA-/adf/images/t.gif">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0F00-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8490,7 +8553,7 @@
         <xdr:cNvPr id="27" name="image6.gif" descr="https://ebrg-test.fs.em2.oraclecloud.com/setup/afr/remote/H4sIAAAAAAAAAA%3D%3DW_OWgbW4iMEhvygxOSdVLzElLTOvJLUoLzFHrywztVyvKDM5Q68oNTe_JBVI-FeeXFiWnFuuFBvm45iXnp6QWBSSWZDilJubVSU%2BQ1P5hZcPDwFBRxCCQlViWqJeTmJeu55%2BUlZpc-woAAFQXltgxWGSUlBVb6%2BkDbdOEWQtyQX1oCtiYTqDk5P9fK0MDMwFg_JzUlPbVIv6hIn6ECAMfW-N%2BS0AAAA-/adf/images/t.gif">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0F00-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8528,7 +8591,7 @@
         <xdr:cNvPr id="28" name="image6.gif" descr="https://ebrg-test.fs.em2.oraclecloud.com/setup/afr/remote/H4sIAAAAAAAAAA%3D%3DW_OWgbW4iMEhvygxOSdVLzElLTOvJLUoLzFHrywztVyvKDM5Q68oNTe_JBVI-FeeXFiWnFuuFBvm45iXnp6QWBSSWZDilJubVSU%2BQ1P5hZcPDwFBRxCCQlViWqJeTmJeu55%2BUlZpc-woAAFQXltgxWGSUlBVb6%2BkDbdOEWQtyQX1oCtiYTqDk5P9fK0MDMwFg_JzUlPbVIv6hIn6ECAMfW-N%2BS0AAAA-/adf/images/t.gif">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0F00-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8566,7 +8629,7 @@
         <xdr:cNvPr id="29" name="image6.gif" descr="https://ebrg-test.fs.em2.oraclecloud.com/setup/afr/remote/H4sIAAAAAAAAAA%3D%3DW_OWgbW4iMEhvygxOSdVLzElLTOvJLUoLzFHrywztVyvKDM5Q68oNTe_JBVI-FeeXFiWnFuuFBvm45iXnp6QWBSSWZDilJubVSU%2BQ1P5hZcPDwFBRxCCQlViWqJeTmJeu55%2BUlZpc-woAAFQXltgxWGSUlBVb6%2BkDbdOEWQtyQX1oCtiYTqDk5P9fK0MDMwFg_JzUlPbVIv6hIn6ECAMfW-N%2BS0AAAA-/adf/images/t.gif">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0F00-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8604,7 +8667,7 @@
         <xdr:cNvPr id="30" name="image6.gif" descr="https://ebrg-test.fs.em2.oraclecloud.com/setup/afr/remote/H4sIAAAAAAAAAA%3D%3DW_OWgbW4iMEhvygxOSdVLzElLTOvJLUoLzFHrywztVyvKDM5Q68oNTe_JBVI-FeeXFiWnFuuFBvm45iXnp6QWBSSWZDilJubVSU%2BQ1P5hZcPDwFBRxCCQlViWqJeTmJeu55%2BUlZpc-woAAFQXltgxWGSUlBVb6%2BkDbdOEWQtyQX1oCtiYTqDk5P9fK0MDMwFg_JzUlPbVIv6hIn6ECAMfW-N%2BS0AAAA-/adf/images/t.gif">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0F00-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8642,7 +8705,7 @@
         <xdr:cNvPr id="31" name="image6.gif" descr="https://ebrg-test.fs.em2.oraclecloud.com/setup/afr/remote/H4sIAAAAAAAAAA%3D%3DW_OWgbW4iMEhvygxOSdVLzElLTOvJLUoLzFHrywztVyvKDM5Q68oNTe_JBVI-FeeXFiWnFuuFBvm45iXnp6QWBSSWZDilJubVSU%2BQ1P5hZcPDwFBRxCCQlViWqJeTmJeu55%2BUlZpc-woAAFQXltgxWGSUlBVb6%2BkDbdOEWQtyQX1oCtiYTqDk5P9fK0MDMwFg_JzUlPbVIv6hIn6ECAMfW-N%2BS0AAAA-/adf/images/t.gif">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0F00-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8685,7 +8748,7 @@
         <xdr:cNvPr id="2" name="image6.gif" descr="https://ebrg-test.fs.em2.oraclecloud.com/setup/afr/remote/H4sIAAAAAAAAAA%3D%3DW_OWgbW4iMEhvygxOSdVLzElLTOvJLUoLzFHrywztVyvKDM5Q68oNTe_JBVI-FeeXFiWnFuuFBvm45iXnp6QWBSSWZDilJubVSU%2BQ1P5hZcPDwFBRxCCQlViWqJeTmJeu55%2BUlZpc-woAAFQXltgxWGSUlBVb6%2BkDbdOEWQtyQX1oCtiYTqDk5P9fK0MDMwFg_JzUlPbVIv6hIn6ECAMfW-N%2BS0AAAA-/adf/images/t.gif">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0F00-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8723,7 +8786,7 @@
         <xdr:cNvPr id="3" name="image6.gif" descr="https://ebrg-test.fs.em2.oraclecloud.com/setup/afr/remote/H4sIAAAAAAAAAA%3D%3DW_OWgbW4iMEhvygxOSdVLzElLTOvJLUoLzFHrywztVyvKDM5Q68oNTe_JBVI-FeeXFiWnFuuFBvm45iXnp6QWBSSWZDilJubVSU%2BQ1P5hZcPDwFBRxCCQlViWqJeTmJeu55%2BUlZpc-woAAFQXltgxWGSUlBVb6%2BkDbdOEWQtyQX1oCtiYTqDk5P9fK0MDMwFg_JzUlPbVIv6hIn6ECAMfW-N%2BS0AAAA-/adf/images/t.gif">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0F00-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8761,7 +8824,7 @@
         <xdr:cNvPr id="4" name="image6.gif" descr="https://ebrg-test.fs.em2.oraclecloud.com/setup/afr/remote/H4sIAAAAAAAAAA%3D%3DW_OWgbW4iMEhvygxOSdVLzElLTOvJLUoLzFHrywztVyvKDM5Q68oNTe_JBVI-FeeXFiWnFuuFBvm45iXnp6QWBSSWZDilJubVSU%2BQ1P5hZcPDwFBRxCCQlViWqJeTmJeu55%2BUlZpc-woAAFQXltgxWGSUlBVb6%2BkDbdOEWQtyQX1oCtiYTqDk5P9fK0MDMwFg_JzUlPbVIv6hIn6ECAMfW-N%2BS0AAAA-/adf/images/t.gif">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0F00-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8799,7 +8862,7 @@
         <xdr:cNvPr id="5" name="image6.gif" descr="https://ebrg-test.fs.em2.oraclecloud.com/setup/afr/remote/H4sIAAAAAAAAAA%3D%3DW_OWgbW4iMEhvygxOSdVLzElLTOvJLUoLzFHrywztVyvKDM5Q68oNTe_JBVI-FeeXFiWnFuuFBvm45iXnp6QWBSSWZDilJubVSU%2BQ1P5hZcPDwFBRxCCQlViWqJeTmJeu55%2BUlZpc-woAAFQXltgxWGSUlBVb6%2BkDbdOEWQtyQX1oCtiYTqDk5P9fK0MDMwFg_JzUlPbVIv6hIn6ECAMfW-N%2BS0AAAA-/adf/images/t.gif">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CD235340-311C-0D49-BF39-20959E84AD92}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CD235340-311C-0D49-BF39-20959E84AD92}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8837,7 +8900,7 @@
         <xdr:cNvPr id="6" name="image6.gif" descr="https://ebrg-test.fs.em2.oraclecloud.com/setup/afr/remote/H4sIAAAAAAAAAA%3D%3DW_OWgbW4iMEhvygxOSdVLzElLTOvJLUoLzFHrywztVyvKDM5Q68oNTe_JBVI-FeeXFiWnFuuFBvm45iXnp6QWBSSWZDilJubVSU%2BQ1P5hZcPDwFBRxCCQlViWqJeTmJeu55%2BUlZpc-woAAFQXltgxWGSUlBVb6%2BkDbdOEWQtyQX1oCtiYTqDk5P9fK0MDMwFg_JzUlPbVIv6hIn6ECAMfW-N%2BS0AAAA-/adf/images/t.gif">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{56CF3E09-D31A-344D-A3EA-AFDD6D33AF1D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{56CF3E09-D31A-344D-A3EA-AFDD6D33AF1D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8875,7 +8938,7 @@
         <xdr:cNvPr id="7" name="image6.gif" descr="https://ebrg-test.fs.em2.oraclecloud.com/setup/afr/remote/H4sIAAAAAAAAAA%3D%3DW_OWgbW4iMEhvygxOSdVLzElLTOvJLUoLzFHrywztVyvKDM5Q68oNTe_JBVI-FeeXFiWnFuuFBvm45iXnp6QWBSSWZDilJubVSU%2BQ1P5hZcPDwFBRxCCQlViWqJeTmJeu55%2BUlZpc-woAAFQXltgxWGSUlBVb6%2BkDbdOEWQtyQX1oCtiYTqDk5P9fK0MDMwFg_JzUlPbVIv6hIn6ECAMfW-N%2BS0AAAA-/adf/images/t.gif">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BECA4BD3-15AA-FF46-B2D5-9FD2E68AD093}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BECA4BD3-15AA-FF46-B2D5-9FD2E68AD093}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8913,7 +8976,7 @@
         <xdr:cNvPr id="8" name="image6.gif" descr="https://ebrg-test.fs.em2.oraclecloud.com/setup/afr/remote/H4sIAAAAAAAAAA%3D%3DW_OWgbW4iMEhvygxOSdVLzElLTOvJLUoLzFHrywztVyvKDM5Q68oNTe_JBVI-FeeXFiWnFuuFBvm45iXnp6QWBSSWZDilJubVSU%2BQ1P5hZcPDwFBRxCCQlViWqJeTmJeu55%2BUlZpc-woAAFQXltgxWGSUlBVb6%2BkDbdOEWQtyQX1oCtiYTqDk5P9fK0MDMwFg_JzUlPbVIv6hIn6ECAMfW-N%2BS0AAAA-/adf/images/t.gif">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{76B6FFF8-57F5-6748-8EE1-DC12CDC3CA29}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{76B6FFF8-57F5-6748-8EE1-DC12CDC3CA29}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8951,7 +9014,7 @@
         <xdr:cNvPr id="9" name="image6.gif" descr="https://ebrg-test.fs.em2.oraclecloud.com/setup/afr/remote/H4sIAAAAAAAAAA%3D%3DW_OWgbW4iMEhvygxOSdVLzElLTOvJLUoLzFHrywztVyvKDM5Q68oNTe_JBVI-FeeXFiWnFuuFBvm45iXnp6QWBSSWZDilJubVSU%2BQ1P5hZcPDwFBRxCCQlViWqJeTmJeu55%2BUlZpc-woAAFQXltgxWGSUlBVb6%2BkDbdOEWQtyQX1oCtiYTqDk5P9fK0MDMwFg_JzUlPbVIv6hIn6ECAMfW-N%2BS0AAAA-/adf/images/t.gif">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B4DC56FE-EF88-D442-9F43-801BC3F9FB04}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B4DC56FE-EF88-D442-9F43-801BC3F9FB04}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8989,7 +9052,7 @@
         <xdr:cNvPr id="10" name="image6.gif" descr="https://ebrg-test.fs.em2.oraclecloud.com/setup/afr/remote/H4sIAAAAAAAAAA%3D%3DW_OWgbW4iMEhvygxOSdVLzElLTOvJLUoLzFHrywztVyvKDM5Q68oNTe_JBVI-FeeXFiWnFuuFBvm45iXnp6QWBSSWZDilJubVSU%2BQ1P5hZcPDwFBRxCCQlViWqJeTmJeu55%2BUlZpc-woAAFQXltgxWGSUlBVb6%2BkDbdOEWQtyQX1oCtiYTqDk5P9fK0MDMwFg_JzUlPbVIv6hIn6ECAMfW-N%2BS0AAAA-/adf/images/t.gif">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{99E56C83-2B36-BE47-A8D1-3A4BF38C3B3D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{99E56C83-2B36-BE47-A8D1-3A4BF38C3B3D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9027,7 +9090,7 @@
         <xdr:cNvPr id="11" name="image6.gif" descr="https://ebrg-test.fs.em2.oraclecloud.com/setup/afr/remote/H4sIAAAAAAAAAA%3D%3DW_OWgbW4iMEhvygxOSdVLzElLTOvJLUoLzFHrywztVyvKDM5Q68oNTe_JBVI-FeeXFiWnFuuFBvm45iXnp6QWBSSWZDilJubVSU%2BQ1P5hZcPDwFBRxCCQlViWqJeTmJeu55%2BUlZpc-woAAFQXltgxWGSUlBVb6%2BkDbdOEWQtyQX1oCtiYTqDk5P9fK0MDMwFg_JzUlPbVIv6hIn6ECAMfW-N%2BS0AAAA-/adf/images/t.gif">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ACD36B5E-29AF-8946-8660-4BC5703F90ED}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{ACD36B5E-29AF-8946-8660-4BC5703F90ED}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9065,7 +9128,7 @@
         <xdr:cNvPr id="12" name="image6.gif" descr="https://ebrg-test.fs.em2.oraclecloud.com/setup/afr/remote/H4sIAAAAAAAAAA%3D%3DW_OWgbW4iMEhvygxOSdVLzElLTOvJLUoLzFHrywztVyvKDM5Q68oNTe_JBVI-FeeXFiWnFuuFBvm45iXnp6QWBSSWZDilJubVSU%2BQ1P5hZcPDwFBRxCCQlViWqJeTmJeu55%2BUlZpc-woAAFQXltgxWGSUlBVb6%2BkDbdOEWQtyQX1oCtiYTqDk5P9fK0MDMwFg_JzUlPbVIv6hIn6ECAMfW-N%2BS0AAAA-/adf/images/t.gif">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2E641FB0-6F11-C042-A992-F63BBF66BAC5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2E641FB0-6F11-C042-A992-F63BBF66BAC5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9103,7 +9166,7 @@
         <xdr:cNvPr id="13" name="image6.gif" descr="https://ebrg-test.fs.em2.oraclecloud.com/setup/afr/remote/H4sIAAAAAAAAAA%3D%3DW_OWgbW4iMEhvygxOSdVLzElLTOvJLUoLzFHrywztVyvKDM5Q68oNTe_JBVI-FeeXFiWnFuuFBvm45iXnp6QWBSSWZDilJubVSU%2BQ1P5hZcPDwFBRxCCQlViWqJeTmJeu55%2BUlZpc-woAAFQXltgxWGSUlBVb6%2BkDbdOEWQtyQX1oCtiYTqDk5P9fK0MDMwFg_JzUlPbVIv6hIn6ECAMfW-N%2BS0AAAA-/adf/images/t.gif">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9FC932F4-AE6E-5C4D-92F2-8615973C0885}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9FC932F4-AE6E-5C4D-92F2-8615973C0885}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9132,7 +9195,7 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="95250" cy="19050"/>
@@ -9141,7 +9204,7 @@
         <xdr:cNvPr id="14" name="image6.gif" descr="https://ebrg-test.fs.em2.oraclecloud.com/setup/afr/remote/H4sIAAAAAAAAAA%3D%3DW_OWgbW4iMEhvygxOSdVLzElLTOvJLUoLzFHrywztVyvKDM5Q68oNTe_JBVI-FeeXFiWnFuuFBvm45iXnp6QWBSSWZDilJubVSU%2BQ1P5hZcPDwFBRxCCQlViWqJeTmJeu55%2BUlZpc-woAAFQXltgxWGSUlBVb6%2BkDbdOEWQtyQX1oCtiYTqDk5P9fK0MDMwFg_JzUlPbVIv6hIn6ECAMfW-N%2BS0AAAA-/adf/images/t.gif">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0F00-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9170,7 +9233,7 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="95250" cy="19050"/>
@@ -9179,7 +9242,7 @@
         <xdr:cNvPr id="15" name="image6.gif" descr="https://ebrg-test.fs.em2.oraclecloud.com/setup/afr/remote/H4sIAAAAAAAAAA%3D%3DW_OWgbW4iMEhvygxOSdVLzElLTOvJLUoLzFHrywztVyvKDM5Q68oNTe_JBVI-FeeXFiWnFuuFBvm45iXnp6QWBSSWZDilJubVSU%2BQ1P5hZcPDwFBRxCCQlViWqJeTmJeu55%2BUlZpc-woAAFQXltgxWGSUlBVb6%2BkDbdOEWQtyQX1oCtiYTqDk5P9fK0MDMwFg_JzUlPbVIv6hIn6ECAMfW-N%2BS0AAAA-/adf/images/t.gif">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0F00-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9208,7 +9271,7 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="95250" cy="19050"/>
@@ -9217,7 +9280,7 @@
         <xdr:cNvPr id="16" name="image6.gif" descr="https://ebrg-test.fs.em2.oraclecloud.com/setup/afr/remote/H4sIAAAAAAAAAA%3D%3DW_OWgbW4iMEhvygxOSdVLzElLTOvJLUoLzFHrywztVyvKDM5Q68oNTe_JBVI-FeeXFiWnFuuFBvm45iXnp6QWBSSWZDilJubVSU%2BQ1P5hZcPDwFBRxCCQlViWqJeTmJeu55%2BUlZpc-woAAFQXltgxWGSUlBVb6%2BkDbdOEWQtyQX1oCtiYTqDk5P9fK0MDMwFg_JzUlPbVIv6hIn6ECAMfW-N%2BS0AAAA-/adf/images/t.gif">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0F00-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9246,7 +9309,7 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="95250" cy="19050"/>
@@ -9255,7 +9318,7 @@
         <xdr:cNvPr id="17" name="image6.gif" descr="https://ebrg-test.fs.em2.oraclecloud.com/setup/afr/remote/H4sIAAAAAAAAAA%3D%3DW_OWgbW4iMEhvygxOSdVLzElLTOvJLUoLzFHrywztVyvKDM5Q68oNTe_JBVI-FeeXFiWnFuuFBvm45iXnp6QWBSSWZDilJubVSU%2BQ1P5hZcPDwFBRxCCQlViWqJeTmJeu55%2BUlZpc-woAAFQXltgxWGSUlBVb6%2BkDbdOEWQtyQX1oCtiYTqDk5P9fK0MDMwFg_JzUlPbVIv6hIn6ECAMfW-N%2BS0AAAA-/adf/images/t.gif">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CD235340-311C-0D49-BF39-20959E84AD92}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CD235340-311C-0D49-BF39-20959E84AD92}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9284,7 +9347,7 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="95250" cy="19050"/>
@@ -9293,7 +9356,7 @@
         <xdr:cNvPr id="18" name="image6.gif" descr="https://ebrg-test.fs.em2.oraclecloud.com/setup/afr/remote/H4sIAAAAAAAAAA%3D%3DW_OWgbW4iMEhvygxOSdVLzElLTOvJLUoLzFHrywztVyvKDM5Q68oNTe_JBVI-FeeXFiWnFuuFBvm45iXnp6QWBSSWZDilJubVSU%2BQ1P5hZcPDwFBRxCCQlViWqJeTmJeu55%2BUlZpc-woAAFQXltgxWGSUlBVb6%2BkDbdOEWQtyQX1oCtiYTqDk5P9fK0MDMwFg_JzUlPbVIv6hIn6ECAMfW-N%2BS0AAAA-/adf/images/t.gif">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{56CF3E09-D31A-344D-A3EA-AFDD6D33AF1D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{56CF3E09-D31A-344D-A3EA-AFDD6D33AF1D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9322,7 +9385,7 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="95250" cy="19050"/>
@@ -9331,7 +9394,7 @@
         <xdr:cNvPr id="19" name="image6.gif" descr="https://ebrg-test.fs.em2.oraclecloud.com/setup/afr/remote/H4sIAAAAAAAAAA%3D%3DW_OWgbW4iMEhvygxOSdVLzElLTOvJLUoLzFHrywztVyvKDM5Q68oNTe_JBVI-FeeXFiWnFuuFBvm45iXnp6QWBSSWZDilJubVSU%2BQ1P5hZcPDwFBRxCCQlViWqJeTmJeu55%2BUlZpc-woAAFQXltgxWGSUlBVb6%2BkDbdOEWQtyQX1oCtiYTqDk5P9fK0MDMwFg_JzUlPbVIv6hIn6ECAMfW-N%2BS0AAAA-/adf/images/t.gif">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BECA4BD3-15AA-FF46-B2D5-9FD2E68AD093}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BECA4BD3-15AA-FF46-B2D5-9FD2E68AD093}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9360,7 +9423,7 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="95250" cy="19050"/>
@@ -9369,7 +9432,7 @@
         <xdr:cNvPr id="20" name="image6.gif" descr="https://ebrg-test.fs.em2.oraclecloud.com/setup/afr/remote/H4sIAAAAAAAAAA%3D%3DW_OWgbW4iMEhvygxOSdVLzElLTOvJLUoLzFHrywztVyvKDM5Q68oNTe_JBVI-FeeXFiWnFuuFBvm45iXnp6QWBSSWZDilJubVSU%2BQ1P5hZcPDwFBRxCCQlViWqJeTmJeu55%2BUlZpc-woAAFQXltgxWGSUlBVb6%2BkDbdOEWQtyQX1oCtiYTqDk5P9fK0MDMwFg_JzUlPbVIv6hIn6ECAMfW-N%2BS0AAAA-/adf/images/t.gif">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{76B6FFF8-57F5-6748-8EE1-DC12CDC3CA29}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{76B6FFF8-57F5-6748-8EE1-DC12CDC3CA29}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9398,7 +9461,7 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="95250" cy="19050"/>
@@ -9407,7 +9470,7 @@
         <xdr:cNvPr id="21" name="image6.gif" descr="https://ebrg-test.fs.em2.oraclecloud.com/setup/afr/remote/H4sIAAAAAAAAAA%3D%3DW_OWgbW4iMEhvygxOSdVLzElLTOvJLUoLzFHrywztVyvKDM5Q68oNTe_JBVI-FeeXFiWnFuuFBvm45iXnp6QWBSSWZDilJubVSU%2BQ1P5hZcPDwFBRxCCQlViWqJeTmJeu55%2BUlZpc-woAAFQXltgxWGSUlBVb6%2BkDbdOEWQtyQX1oCtiYTqDk5P9fK0MDMwFg_JzUlPbVIv6hIn6ECAMfW-N%2BS0AAAA-/adf/images/t.gif">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B4DC56FE-EF88-D442-9F43-801BC3F9FB04}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B4DC56FE-EF88-D442-9F43-801BC3F9FB04}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9436,7 +9499,7 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="95250" cy="19050"/>
@@ -9445,7 +9508,7 @@
         <xdr:cNvPr id="22" name="image6.gif" descr="https://ebrg-test.fs.em2.oraclecloud.com/setup/afr/remote/H4sIAAAAAAAAAA%3D%3DW_OWgbW4iMEhvygxOSdVLzElLTOvJLUoLzFHrywztVyvKDM5Q68oNTe_JBVI-FeeXFiWnFuuFBvm45iXnp6QWBSSWZDilJubVSU%2BQ1P5hZcPDwFBRxCCQlViWqJeTmJeu55%2BUlZpc-woAAFQXltgxWGSUlBVb6%2BkDbdOEWQtyQX1oCtiYTqDk5P9fK0MDMwFg_JzUlPbVIv6hIn6ECAMfW-N%2BS0AAAA-/adf/images/t.gif">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{99E56C83-2B36-BE47-A8D1-3A4BF38C3B3D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{99E56C83-2B36-BE47-A8D1-3A4BF38C3B3D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9474,7 +9537,7 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="95250" cy="19050"/>
@@ -9483,7 +9546,7 @@
         <xdr:cNvPr id="23" name="image6.gif" descr="https://ebrg-test.fs.em2.oraclecloud.com/setup/afr/remote/H4sIAAAAAAAAAA%3D%3DW_OWgbW4iMEhvygxOSdVLzElLTOvJLUoLzFHrywztVyvKDM5Q68oNTe_JBVI-FeeXFiWnFuuFBvm45iXnp6QWBSSWZDilJubVSU%2BQ1P5hZcPDwFBRxCCQlViWqJeTmJeu55%2BUlZpc-woAAFQXltgxWGSUlBVb6%2BkDbdOEWQtyQX1oCtiYTqDk5P9fK0MDMwFg_JzUlPbVIv6hIn6ECAMfW-N%2BS0AAAA-/adf/images/t.gif">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ACD36B5E-29AF-8946-8660-4BC5703F90ED}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{ACD36B5E-29AF-8946-8660-4BC5703F90ED}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9512,7 +9575,7 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="95250" cy="19050"/>
@@ -9521,7 +9584,7 @@
         <xdr:cNvPr id="24" name="image6.gif" descr="https://ebrg-test.fs.em2.oraclecloud.com/setup/afr/remote/H4sIAAAAAAAAAA%3D%3DW_OWgbW4iMEhvygxOSdVLzElLTOvJLUoLzFHrywztVyvKDM5Q68oNTe_JBVI-FeeXFiWnFuuFBvm45iXnp6QWBSSWZDilJubVSU%2BQ1P5hZcPDwFBRxCCQlViWqJeTmJeu55%2BUlZpc-woAAFQXltgxWGSUlBVb6%2BkDbdOEWQtyQX1oCtiYTqDk5P9fK0MDMwFg_JzUlPbVIv6hIn6ECAMfW-N%2BS0AAAA-/adf/images/t.gif">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2E641FB0-6F11-C042-A992-F63BBF66BAC5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2E641FB0-6F11-C042-A992-F63BBF66BAC5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9550,7 +9613,7 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="95250" cy="19050"/>
@@ -9559,7 +9622,7 @@
         <xdr:cNvPr id="25" name="image6.gif" descr="https://ebrg-test.fs.em2.oraclecloud.com/setup/afr/remote/H4sIAAAAAAAAAA%3D%3DW_OWgbW4iMEhvygxOSdVLzElLTOvJLUoLzFHrywztVyvKDM5Q68oNTe_JBVI-FeeXFiWnFuuFBvm45iXnp6QWBSSWZDilJubVSU%2BQ1P5hZcPDwFBRxCCQlViWqJeTmJeu55%2BUlZpc-woAAFQXltgxWGSUlBVb6%2BkDbdOEWQtyQX1oCtiYTqDk5P9fK0MDMwFg_JzUlPbVIv6hIn6ECAMfW-N%2BS0AAAA-/adf/images/t.gif">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9FC932F4-AE6E-5C4D-92F2-8615973C0885}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9FC932F4-AE6E-5C4D-92F2-8615973C0885}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9588,7 +9651,7 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="95250" cy="19050"/>
@@ -9597,7 +9660,7 @@
         <xdr:cNvPr id="26" name="image6.gif" descr="https://ebrg-test.fs.em2.oraclecloud.com/setup/afr/remote/H4sIAAAAAAAAAA%3D%3DW_OWgbW4iMEhvygxOSdVLzElLTOvJLUoLzFHrywztVyvKDM5Q68oNTe_JBVI-FeeXFiWnFuuFBvm45iXnp6QWBSSWZDilJubVSU%2BQ1P5hZcPDwFBRxCCQlViWqJeTmJeu55%2BUlZpc-woAAFQXltgxWGSUlBVb6%2BkDbdOEWQtyQX1oCtiYTqDk5P9fK0MDMwFg_JzUlPbVIv6hIn6ECAMfW-N%2BS0AAAA-/adf/images/t.gif">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0F00-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9626,7 +9689,7 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="95250" cy="19050"/>
@@ -9635,7 +9698,7 @@
         <xdr:cNvPr id="27" name="image6.gif" descr="https://ebrg-test.fs.em2.oraclecloud.com/setup/afr/remote/H4sIAAAAAAAAAA%3D%3DW_OWgbW4iMEhvygxOSdVLzElLTOvJLUoLzFHrywztVyvKDM5Q68oNTe_JBVI-FeeXFiWnFuuFBvm45iXnp6QWBSSWZDilJubVSU%2BQ1P5hZcPDwFBRxCCQlViWqJeTmJeu55%2BUlZpc-woAAFQXltgxWGSUlBVb6%2BkDbdOEWQtyQX1oCtiYTqDk5P9fK0MDMwFg_JzUlPbVIv6hIn6ECAMfW-N%2BS0AAAA-/adf/images/t.gif">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0F00-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9664,7 +9727,7 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="95250" cy="19050"/>
@@ -9673,7 +9736,7 @@
         <xdr:cNvPr id="28" name="image6.gif" descr="https://ebrg-test.fs.em2.oraclecloud.com/setup/afr/remote/H4sIAAAAAAAAAA%3D%3DW_OWgbW4iMEhvygxOSdVLzElLTOvJLUoLzFHrywztVyvKDM5Q68oNTe_JBVI-FeeXFiWnFuuFBvm45iXnp6QWBSSWZDilJubVSU%2BQ1P5hZcPDwFBRxCCQlViWqJeTmJeu55%2BUlZpc-woAAFQXltgxWGSUlBVb6%2BkDbdOEWQtyQX1oCtiYTqDk5P9fK0MDMwFg_JzUlPbVIv6hIn6ECAMfW-N%2BS0AAAA-/adf/images/t.gif">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0F00-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9702,7 +9765,7 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="95250" cy="19050"/>
@@ -9711,7 +9774,7 @@
         <xdr:cNvPr id="29" name="image6.gif" descr="https://ebrg-test.fs.em2.oraclecloud.com/setup/afr/remote/H4sIAAAAAAAAAA%3D%3DW_OWgbW4iMEhvygxOSdVLzElLTOvJLUoLzFHrywztVyvKDM5Q68oNTe_JBVI-FeeXFiWnFuuFBvm45iXnp6QWBSSWZDilJubVSU%2BQ1P5hZcPDwFBRxCCQlViWqJeTmJeu55%2BUlZpc-woAAFQXltgxWGSUlBVb6%2BkDbdOEWQtyQX1oCtiYTqDk5P9fK0MDMwFg_JzUlPbVIv6hIn6ECAMfW-N%2BS0AAAA-/adf/images/t.gif">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0F00-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9740,7 +9803,7 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="95250" cy="19050"/>
@@ -9749,7 +9812,7 @@
         <xdr:cNvPr id="30" name="image6.gif" descr="https://ebrg-test.fs.em2.oraclecloud.com/setup/afr/remote/H4sIAAAAAAAAAA%3D%3DW_OWgbW4iMEhvygxOSdVLzElLTOvJLUoLzFHrywztVyvKDM5Q68oNTe_JBVI-FeeXFiWnFuuFBvm45iXnp6QWBSSWZDilJubVSU%2BQ1P5hZcPDwFBRxCCQlViWqJeTmJeu55%2BUlZpc-woAAFQXltgxWGSUlBVb6%2BkDbdOEWQtyQX1oCtiYTqDk5P9fK0MDMwFg_JzUlPbVIv6hIn6ECAMfW-N%2BS0AAAA-/adf/images/t.gif">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0F00-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9778,7 +9841,7 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="95250" cy="19050"/>
@@ -9787,7 +9850,7 @@
         <xdr:cNvPr id="31" name="image6.gif" descr="https://ebrg-test.fs.em2.oraclecloud.com/setup/afr/remote/H4sIAAAAAAAAAA%3D%3DW_OWgbW4iMEhvygxOSdVLzElLTOvJLUoLzFHrywztVyvKDM5Q68oNTe_JBVI-FeeXFiWnFuuFBvm45iXnp6QWBSSWZDilJubVSU%2BQ1P5hZcPDwFBRxCCQlViWqJeTmJeu55%2BUlZpc-woAAFQXltgxWGSUlBVb6%2BkDbdOEWQtyQX1oCtiYTqDk5P9fK0MDMwFg_JzUlPbVIv6hIn6ECAMfW-N%2BS0AAAA-/adf/images/t.gif">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0F00-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9825,7 +9888,7 @@
         <xdr:cNvPr id="34" name="image6.gif" descr="https://ebrg-test.fs.em2.oraclecloud.com/setup/afr/remote/H4sIAAAAAAAAAA%3D%3DW_OWgbW4iMEhvygxOSdVLzElLTOvJLUoLzFHrywztVyvKDM5Q68oNTe_JBVI-FeeXFiWnFuuFBvm45iXnp6QWBSSWZDilJubVSU%2BQ1P5hZcPDwFBRxCCQlViWqJeTmJeu55%2BUlZpc-woAAFQXltgxWGSUlBVb6%2BkDbdOEWQtyQX1oCtiYTqDk5P9fK0MDMwFg_JzUlPbVIv6hIn6ECAMfW-N%2BS0AAAA-/adf/images/t.gif">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0F00-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9863,7 +9926,7 @@
         <xdr:cNvPr id="35" name="image6.gif" descr="https://ebrg-test.fs.em2.oraclecloud.com/setup/afr/remote/H4sIAAAAAAAAAA%3D%3DW_OWgbW4iMEhvygxOSdVLzElLTOvJLUoLzFHrywztVyvKDM5Q68oNTe_JBVI-FeeXFiWnFuuFBvm45iXnp6QWBSSWZDilJubVSU%2BQ1P5hZcPDwFBRxCCQlViWqJeTmJeu55%2BUlZpc-woAAFQXltgxWGSUlBVb6%2BkDbdOEWQtyQX1oCtiYTqDk5P9fK0MDMwFg_JzUlPbVIv6hIn6ECAMfW-N%2BS0AAAA-/adf/images/t.gif">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BECA4BD3-15AA-FF46-B2D5-9FD2E68AD093}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BECA4BD3-15AA-FF46-B2D5-9FD2E68AD093}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9901,7 +9964,7 @@
         <xdr:cNvPr id="36" name="image6.gif" descr="https://ebrg-test.fs.em2.oraclecloud.com/setup/afr/remote/H4sIAAAAAAAAAA%3D%3DW_OWgbW4iMEhvygxOSdVLzElLTOvJLUoLzFHrywztVyvKDM5Q68oNTe_JBVI-FeeXFiWnFuuFBvm45iXnp6QWBSSWZDilJubVSU%2BQ1P5hZcPDwFBRxCCQlViWqJeTmJeu55%2BUlZpc-woAAFQXltgxWGSUlBVb6%2BkDbdOEWQtyQX1oCtiYTqDk5P9fK0MDMwFg_JzUlPbVIv6hIn6ECAMfW-N%2BS0AAAA-/adf/images/t.gif">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{99E56C83-2B36-BE47-A8D1-3A4BF38C3B3D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{99E56C83-2B36-BE47-A8D1-3A4BF38C3B3D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9939,7 +10002,7 @@
         <xdr:cNvPr id="37" name="image6.gif" descr="https://ebrg-test.fs.em2.oraclecloud.com/setup/afr/remote/H4sIAAAAAAAAAA%3D%3DW_OWgbW4iMEhvygxOSdVLzElLTOvJLUoLzFHrywztVyvKDM5Q68oNTe_JBVI-FeeXFiWnFuuFBvm45iXnp6QWBSSWZDilJubVSU%2BQ1P5hZcPDwFBRxCCQlViWqJeTmJeu55%2BUlZpc-woAAFQXltgxWGSUlBVb6%2BkDbdOEWQtyQX1oCtiYTqDk5P9fK0MDMwFg_JzUlPbVIv6hIn6ECAMfW-N%2BS0AAAA-/adf/images/t.gif">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9FC932F4-AE6E-5C4D-92F2-8615973C0885}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9FC932F4-AE6E-5C4D-92F2-8615973C0885}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9968,7 +10031,7 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="95250" cy="19050"/>
@@ -9977,7 +10040,7 @@
         <xdr:cNvPr id="38" name="image6.gif" descr="https://ebrg-test.fs.em2.oraclecloud.com/setup/afr/remote/H4sIAAAAAAAAAA%3D%3DW_OWgbW4iMEhvygxOSdVLzElLTOvJLUoLzFHrywztVyvKDM5Q68oNTe_JBVI-FeeXFiWnFuuFBvm45iXnp6QWBSSWZDilJubVSU%2BQ1P5hZcPDwFBRxCCQlViWqJeTmJeu55%2BUlZpc-woAAFQXltgxWGSUlBVb6%2BkDbdOEWQtyQX1oCtiYTqDk5P9fK0MDMwFg_JzUlPbVIv6hIn6ECAMfW-N%2BS0AAAA-/adf/images/t.gif">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0F00-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10006,7 +10069,7 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="95250" cy="19050"/>
@@ -10015,7 +10078,7 @@
         <xdr:cNvPr id="39" name="image6.gif" descr="https://ebrg-test.fs.em2.oraclecloud.com/setup/afr/remote/H4sIAAAAAAAAAA%3D%3DW_OWgbW4iMEhvygxOSdVLzElLTOvJLUoLzFHrywztVyvKDM5Q68oNTe_JBVI-FeeXFiWnFuuFBvm45iXnp6QWBSSWZDilJubVSU%2BQ1P5hZcPDwFBRxCCQlViWqJeTmJeu55%2BUlZpc-woAAFQXltgxWGSUlBVb6%2BkDbdOEWQtyQX1oCtiYTqDk5P9fK0MDMwFg_JzUlPbVIv6hIn6ECAMfW-N%2BS0AAAA-/adf/images/t.gif">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BECA4BD3-15AA-FF46-B2D5-9FD2E68AD093}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BECA4BD3-15AA-FF46-B2D5-9FD2E68AD093}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10044,7 +10107,7 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="95250" cy="19050"/>
@@ -10053,7 +10116,7 @@
         <xdr:cNvPr id="40" name="image6.gif" descr="https://ebrg-test.fs.em2.oraclecloud.com/setup/afr/remote/H4sIAAAAAAAAAA%3D%3DW_OWgbW4iMEhvygxOSdVLzElLTOvJLUoLzFHrywztVyvKDM5Q68oNTe_JBVI-FeeXFiWnFuuFBvm45iXnp6QWBSSWZDilJubVSU%2BQ1P5hZcPDwFBRxCCQlViWqJeTmJeu55%2BUlZpc-woAAFQXltgxWGSUlBVb6%2BkDbdOEWQtyQX1oCtiYTqDk5P9fK0MDMwFg_JzUlPbVIv6hIn6ECAMfW-N%2BS0AAAA-/adf/images/t.gif">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{99E56C83-2B36-BE47-A8D1-3A4BF38C3B3D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{99E56C83-2B36-BE47-A8D1-3A4BF38C3B3D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10082,7 +10145,7 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="95250" cy="19050"/>
@@ -10091,7 +10154,7 @@
         <xdr:cNvPr id="41" name="image6.gif" descr="https://ebrg-test.fs.em2.oraclecloud.com/setup/afr/remote/H4sIAAAAAAAAAA%3D%3DW_OWgbW4iMEhvygxOSdVLzElLTOvJLUoLzFHrywztVyvKDM5Q68oNTe_JBVI-FeeXFiWnFuuFBvm45iXnp6QWBSSWZDilJubVSU%2BQ1P5hZcPDwFBRxCCQlViWqJeTmJeu55%2BUlZpc-woAAFQXltgxWGSUlBVb6%2BkDbdOEWQtyQX1oCtiYTqDk5P9fK0MDMwFg_JzUlPbVIv6hIn6ECAMfW-N%2BS0AAAA-/adf/images/t.gif">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9FC932F4-AE6E-5C4D-92F2-8615973C0885}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9FC932F4-AE6E-5C4D-92F2-8615973C0885}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10134,7 +10197,7 @@
         <xdr:cNvPr id="2" name="image6.gif" descr="https://ebrg-test.fs.em2.oraclecloud.com/setup/afr/remote/H4sIAAAAAAAAAA%3D%3DW_OWgbW4iMEhvygxOSdVLzElLTOvJLUoLzFHrywztVyvKDM5Q68oNTe_JBVI-FeeXFiWnFuuFBvm45iXnp6QWBSSWZDilJubVSU%2BQ1P5hZcPDwFBRxCCQlViWqJeTmJeu55%2BUlZpc-woAAFQXltgxWGSUlBVb6%2BkDbdOEWQtyQX1oCtiYTqDk5P9fK0MDMwFg_JzUlPbVIv6hIn6ECAMfW-N%2BS0AAAA-/adf/images/t.gif">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0F00-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10172,7 +10235,7 @@
         <xdr:cNvPr id="3" name="image6.gif" descr="https://ebrg-test.fs.em2.oraclecloud.com/setup/afr/remote/H4sIAAAAAAAAAA%3D%3DW_OWgbW4iMEhvygxOSdVLzElLTOvJLUoLzFHrywztVyvKDM5Q68oNTe_JBVI-FeeXFiWnFuuFBvm45iXnp6QWBSSWZDilJubVSU%2BQ1P5hZcPDwFBRxCCQlViWqJeTmJeu55%2BUlZpc-woAAFQXltgxWGSUlBVb6%2BkDbdOEWQtyQX1oCtiYTqDk5P9fK0MDMwFg_JzUlPbVIv6hIn6ECAMfW-N%2BS0AAAA-/adf/images/t.gif">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0F00-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10210,7 +10273,7 @@
         <xdr:cNvPr id="4" name="image6.gif" descr="https://ebrg-test.fs.em2.oraclecloud.com/setup/afr/remote/H4sIAAAAAAAAAA%3D%3DW_OWgbW4iMEhvygxOSdVLzElLTOvJLUoLzFHrywztVyvKDM5Q68oNTe_JBVI-FeeXFiWnFuuFBvm45iXnp6QWBSSWZDilJubVSU%2BQ1P5hZcPDwFBRxCCQlViWqJeTmJeu55%2BUlZpc-woAAFQXltgxWGSUlBVb6%2BkDbdOEWQtyQX1oCtiYTqDk5P9fK0MDMwFg_JzUlPbVIv6hIn6ECAMfW-N%2BS0AAAA-/adf/images/t.gif">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0F00-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10248,7 +10311,7 @@
         <xdr:cNvPr id="5" name="image6.gif" descr="https://ebrg-test.fs.em2.oraclecloud.com/setup/afr/remote/H4sIAAAAAAAAAA%3D%3DW_OWgbW4iMEhvygxOSdVLzElLTOvJLUoLzFHrywztVyvKDM5Q68oNTe_JBVI-FeeXFiWnFuuFBvm45iXnp6QWBSSWZDilJubVSU%2BQ1P5hZcPDwFBRxCCQlViWqJeTmJeu55%2BUlZpc-woAAFQXltgxWGSUlBVb6%2BkDbdOEWQtyQX1oCtiYTqDk5P9fK0MDMwFg_JzUlPbVIv6hIn6ECAMfW-N%2BS0AAAA-/adf/images/t.gif">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CD235340-311C-0D49-BF39-20959E84AD92}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CD235340-311C-0D49-BF39-20959E84AD92}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10286,7 +10349,7 @@
         <xdr:cNvPr id="6" name="image6.gif" descr="https://ebrg-test.fs.em2.oraclecloud.com/setup/afr/remote/H4sIAAAAAAAAAA%3D%3DW_OWgbW4iMEhvygxOSdVLzElLTOvJLUoLzFHrywztVyvKDM5Q68oNTe_JBVI-FeeXFiWnFuuFBvm45iXnp6QWBSSWZDilJubVSU%2BQ1P5hZcPDwFBRxCCQlViWqJeTmJeu55%2BUlZpc-woAAFQXltgxWGSUlBVb6%2BkDbdOEWQtyQX1oCtiYTqDk5P9fK0MDMwFg_JzUlPbVIv6hIn6ECAMfW-N%2BS0AAAA-/adf/images/t.gif">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{56CF3E09-D31A-344D-A3EA-AFDD6D33AF1D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{56CF3E09-D31A-344D-A3EA-AFDD6D33AF1D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10324,7 +10387,7 @@
         <xdr:cNvPr id="7" name="image6.gif" descr="https://ebrg-test.fs.em2.oraclecloud.com/setup/afr/remote/H4sIAAAAAAAAAA%3D%3DW_OWgbW4iMEhvygxOSdVLzElLTOvJLUoLzFHrywztVyvKDM5Q68oNTe_JBVI-FeeXFiWnFuuFBvm45iXnp6QWBSSWZDilJubVSU%2BQ1P5hZcPDwFBRxCCQlViWqJeTmJeu55%2BUlZpc-woAAFQXltgxWGSUlBVb6%2BkDbdOEWQtyQX1oCtiYTqDk5P9fK0MDMwFg_JzUlPbVIv6hIn6ECAMfW-N%2BS0AAAA-/adf/images/t.gif">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BECA4BD3-15AA-FF46-B2D5-9FD2E68AD093}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BECA4BD3-15AA-FF46-B2D5-9FD2E68AD093}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10362,7 +10425,7 @@
         <xdr:cNvPr id="8" name="image6.gif" descr="https://ebrg-test.fs.em2.oraclecloud.com/setup/afr/remote/H4sIAAAAAAAAAA%3D%3DW_OWgbW4iMEhvygxOSdVLzElLTOvJLUoLzFHrywztVyvKDM5Q68oNTe_JBVI-FeeXFiWnFuuFBvm45iXnp6QWBSSWZDilJubVSU%2BQ1P5hZcPDwFBRxCCQlViWqJeTmJeu55%2BUlZpc-woAAFQXltgxWGSUlBVb6%2BkDbdOEWQtyQX1oCtiYTqDk5P9fK0MDMwFg_JzUlPbVIv6hIn6ECAMfW-N%2BS0AAAA-/adf/images/t.gif">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{76B6FFF8-57F5-6748-8EE1-DC12CDC3CA29}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{76B6FFF8-57F5-6748-8EE1-DC12CDC3CA29}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10400,7 +10463,7 @@
         <xdr:cNvPr id="9" name="image6.gif" descr="https://ebrg-test.fs.em2.oraclecloud.com/setup/afr/remote/H4sIAAAAAAAAAA%3D%3DW_OWgbW4iMEhvygxOSdVLzElLTOvJLUoLzFHrywztVyvKDM5Q68oNTe_JBVI-FeeXFiWnFuuFBvm45iXnp6QWBSSWZDilJubVSU%2BQ1P5hZcPDwFBRxCCQlViWqJeTmJeu55%2BUlZpc-woAAFQXltgxWGSUlBVb6%2BkDbdOEWQtyQX1oCtiYTqDk5P9fK0MDMwFg_JzUlPbVIv6hIn6ECAMfW-N%2BS0AAAA-/adf/images/t.gif">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B4DC56FE-EF88-D442-9F43-801BC3F9FB04}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B4DC56FE-EF88-D442-9F43-801BC3F9FB04}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10438,7 +10501,7 @@
         <xdr:cNvPr id="10" name="image6.gif" descr="https://ebrg-test.fs.em2.oraclecloud.com/setup/afr/remote/H4sIAAAAAAAAAA%3D%3DW_OWgbW4iMEhvygxOSdVLzElLTOvJLUoLzFHrywztVyvKDM5Q68oNTe_JBVI-FeeXFiWnFuuFBvm45iXnp6QWBSSWZDilJubVSU%2BQ1P5hZcPDwFBRxCCQlViWqJeTmJeu55%2BUlZpc-woAAFQXltgxWGSUlBVb6%2BkDbdOEWQtyQX1oCtiYTqDk5P9fK0MDMwFg_JzUlPbVIv6hIn6ECAMfW-N%2BS0AAAA-/adf/images/t.gif">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{99E56C83-2B36-BE47-A8D1-3A4BF38C3B3D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{99E56C83-2B36-BE47-A8D1-3A4BF38C3B3D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10476,7 +10539,7 @@
         <xdr:cNvPr id="11" name="image6.gif" descr="https://ebrg-test.fs.em2.oraclecloud.com/setup/afr/remote/H4sIAAAAAAAAAA%3D%3DW_OWgbW4iMEhvygxOSdVLzElLTOvJLUoLzFHrywztVyvKDM5Q68oNTe_JBVI-FeeXFiWnFuuFBvm45iXnp6QWBSSWZDilJubVSU%2BQ1P5hZcPDwFBRxCCQlViWqJeTmJeu55%2BUlZpc-woAAFQXltgxWGSUlBVb6%2BkDbdOEWQtyQX1oCtiYTqDk5P9fK0MDMwFg_JzUlPbVIv6hIn6ECAMfW-N%2BS0AAAA-/adf/images/t.gif">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ACD36B5E-29AF-8946-8660-4BC5703F90ED}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{ACD36B5E-29AF-8946-8660-4BC5703F90ED}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10514,7 +10577,7 @@
         <xdr:cNvPr id="12" name="image6.gif" descr="https://ebrg-test.fs.em2.oraclecloud.com/setup/afr/remote/H4sIAAAAAAAAAA%3D%3DW_OWgbW4iMEhvygxOSdVLzElLTOvJLUoLzFHrywztVyvKDM5Q68oNTe_JBVI-FeeXFiWnFuuFBvm45iXnp6QWBSSWZDilJubVSU%2BQ1P5hZcPDwFBRxCCQlViWqJeTmJeu55%2BUlZpc-woAAFQXltgxWGSUlBVb6%2BkDbdOEWQtyQX1oCtiYTqDk5P9fK0MDMwFg_JzUlPbVIv6hIn6ECAMfW-N%2BS0AAAA-/adf/images/t.gif">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2E641FB0-6F11-C042-A992-F63BBF66BAC5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2E641FB0-6F11-C042-A992-F63BBF66BAC5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10552,7 +10615,7 @@
         <xdr:cNvPr id="13" name="image6.gif" descr="https://ebrg-test.fs.em2.oraclecloud.com/setup/afr/remote/H4sIAAAAAAAAAA%3D%3DW_OWgbW4iMEhvygxOSdVLzElLTOvJLUoLzFHrywztVyvKDM5Q68oNTe_JBVI-FeeXFiWnFuuFBvm45iXnp6QWBSSWZDilJubVSU%2BQ1P5hZcPDwFBRxCCQlViWqJeTmJeu55%2BUlZpc-woAAFQXltgxWGSUlBVb6%2BkDbdOEWQtyQX1oCtiYTqDk5P9fK0MDMwFg_JzUlPbVIv6hIn6ECAMfW-N%2BS0AAAA-/adf/images/t.gif">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9FC932F4-AE6E-5C4D-92F2-8615973C0885}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9FC932F4-AE6E-5C4D-92F2-8615973C0885}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10590,7 +10653,7 @@
         <xdr:cNvPr id="14" name="image6.gif" descr="https://ebrg-test.fs.em2.oraclecloud.com/setup/afr/remote/H4sIAAAAAAAAAA%3D%3DW_OWgbW4iMEhvygxOSdVLzElLTOvJLUoLzFHrywztVyvKDM5Q68oNTe_JBVI-FeeXFiWnFuuFBvm45iXnp6QWBSSWZDilJubVSU%2BQ1P5hZcPDwFBRxCCQlViWqJeTmJeu55%2BUlZpc-woAAFQXltgxWGSUlBVb6%2BkDbdOEWQtyQX1oCtiYTqDk5P9fK0MDMwFg_JzUlPbVIv6hIn6ECAMfW-N%2BS0AAAA-/adf/images/t.gif">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0F00-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10628,7 +10691,7 @@
         <xdr:cNvPr id="15" name="image6.gif" descr="https://ebrg-test.fs.em2.oraclecloud.com/setup/afr/remote/H4sIAAAAAAAAAA%3D%3DW_OWgbW4iMEhvygxOSdVLzElLTOvJLUoLzFHrywztVyvKDM5Q68oNTe_JBVI-FeeXFiWnFuuFBvm45iXnp6QWBSSWZDilJubVSU%2BQ1P5hZcPDwFBRxCCQlViWqJeTmJeu55%2BUlZpc-woAAFQXltgxWGSUlBVb6%2BkDbdOEWQtyQX1oCtiYTqDk5P9fK0MDMwFg_JzUlPbVIv6hIn6ECAMfW-N%2BS0AAAA-/adf/images/t.gif">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0F00-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10666,7 +10729,7 @@
         <xdr:cNvPr id="16" name="image6.gif" descr="https://ebrg-test.fs.em2.oraclecloud.com/setup/afr/remote/H4sIAAAAAAAAAA%3D%3DW_OWgbW4iMEhvygxOSdVLzElLTOvJLUoLzFHrywztVyvKDM5Q68oNTe_JBVI-FeeXFiWnFuuFBvm45iXnp6QWBSSWZDilJubVSU%2BQ1P5hZcPDwFBRxCCQlViWqJeTmJeu55%2BUlZpc-woAAFQXltgxWGSUlBVb6%2BkDbdOEWQtyQX1oCtiYTqDk5P9fK0MDMwFg_JzUlPbVIv6hIn6ECAMfW-N%2BS0AAAA-/adf/images/t.gif">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0F00-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10704,7 +10767,7 @@
         <xdr:cNvPr id="17" name="image6.gif" descr="https://ebrg-test.fs.em2.oraclecloud.com/setup/afr/remote/H4sIAAAAAAAAAA%3D%3DW_OWgbW4iMEhvygxOSdVLzElLTOvJLUoLzFHrywztVyvKDM5Q68oNTe_JBVI-FeeXFiWnFuuFBvm45iXnp6QWBSSWZDilJubVSU%2BQ1P5hZcPDwFBRxCCQlViWqJeTmJeu55%2BUlZpc-woAAFQXltgxWGSUlBVb6%2BkDbdOEWQtyQX1oCtiYTqDk5P9fK0MDMwFg_JzUlPbVIv6hIn6ECAMfW-N%2BS0AAAA-/adf/images/t.gif">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CD235340-311C-0D49-BF39-20959E84AD92}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CD235340-311C-0D49-BF39-20959E84AD92}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10742,7 +10805,7 @@
         <xdr:cNvPr id="18" name="image6.gif" descr="https://ebrg-test.fs.em2.oraclecloud.com/setup/afr/remote/H4sIAAAAAAAAAA%3D%3DW_OWgbW4iMEhvygxOSdVLzElLTOvJLUoLzFHrywztVyvKDM5Q68oNTe_JBVI-FeeXFiWnFuuFBvm45iXnp6QWBSSWZDilJubVSU%2BQ1P5hZcPDwFBRxCCQlViWqJeTmJeu55%2BUlZpc-woAAFQXltgxWGSUlBVb6%2BkDbdOEWQtyQX1oCtiYTqDk5P9fK0MDMwFg_JzUlPbVIv6hIn6ECAMfW-N%2BS0AAAA-/adf/images/t.gif">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{56CF3E09-D31A-344D-A3EA-AFDD6D33AF1D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{56CF3E09-D31A-344D-A3EA-AFDD6D33AF1D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10780,7 +10843,7 @@
         <xdr:cNvPr id="19" name="image6.gif" descr="https://ebrg-test.fs.em2.oraclecloud.com/setup/afr/remote/H4sIAAAAAAAAAA%3D%3DW_OWgbW4iMEhvygxOSdVLzElLTOvJLUoLzFHrywztVyvKDM5Q68oNTe_JBVI-FeeXFiWnFuuFBvm45iXnp6QWBSSWZDilJubVSU%2BQ1P5hZcPDwFBRxCCQlViWqJeTmJeu55%2BUlZpc-woAAFQXltgxWGSUlBVb6%2BkDbdOEWQtyQX1oCtiYTqDk5P9fK0MDMwFg_JzUlPbVIv6hIn6ECAMfW-N%2BS0AAAA-/adf/images/t.gif">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BECA4BD3-15AA-FF46-B2D5-9FD2E68AD093}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BECA4BD3-15AA-FF46-B2D5-9FD2E68AD093}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10818,7 +10881,7 @@
         <xdr:cNvPr id="20" name="image6.gif" descr="https://ebrg-test.fs.em2.oraclecloud.com/setup/afr/remote/H4sIAAAAAAAAAA%3D%3DW_OWgbW4iMEhvygxOSdVLzElLTOvJLUoLzFHrywztVyvKDM5Q68oNTe_JBVI-FeeXFiWnFuuFBvm45iXnp6QWBSSWZDilJubVSU%2BQ1P5hZcPDwFBRxCCQlViWqJeTmJeu55%2BUlZpc-woAAFQXltgxWGSUlBVb6%2BkDbdOEWQtyQX1oCtiYTqDk5P9fK0MDMwFg_JzUlPbVIv6hIn6ECAMfW-N%2BS0AAAA-/adf/images/t.gif">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{76B6FFF8-57F5-6748-8EE1-DC12CDC3CA29}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{76B6FFF8-57F5-6748-8EE1-DC12CDC3CA29}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10856,7 +10919,7 @@
         <xdr:cNvPr id="21" name="image6.gif" descr="https://ebrg-test.fs.em2.oraclecloud.com/setup/afr/remote/H4sIAAAAAAAAAA%3D%3DW_OWgbW4iMEhvygxOSdVLzElLTOvJLUoLzFHrywztVyvKDM5Q68oNTe_JBVI-FeeXFiWnFuuFBvm45iXnp6QWBSSWZDilJubVSU%2BQ1P5hZcPDwFBRxCCQlViWqJeTmJeu55%2BUlZpc-woAAFQXltgxWGSUlBVb6%2BkDbdOEWQtyQX1oCtiYTqDk5P9fK0MDMwFg_JzUlPbVIv6hIn6ECAMfW-N%2BS0AAAA-/adf/images/t.gif">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B4DC56FE-EF88-D442-9F43-801BC3F9FB04}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B4DC56FE-EF88-D442-9F43-801BC3F9FB04}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10894,7 +10957,7 @@
         <xdr:cNvPr id="22" name="image6.gif" descr="https://ebrg-test.fs.em2.oraclecloud.com/setup/afr/remote/H4sIAAAAAAAAAA%3D%3DW_OWgbW4iMEhvygxOSdVLzElLTOvJLUoLzFHrywztVyvKDM5Q68oNTe_JBVI-FeeXFiWnFuuFBvm45iXnp6QWBSSWZDilJubVSU%2BQ1P5hZcPDwFBRxCCQlViWqJeTmJeu55%2BUlZpc-woAAFQXltgxWGSUlBVb6%2BkDbdOEWQtyQX1oCtiYTqDk5P9fK0MDMwFg_JzUlPbVIv6hIn6ECAMfW-N%2BS0AAAA-/adf/images/t.gif">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{99E56C83-2B36-BE47-A8D1-3A4BF38C3B3D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{99E56C83-2B36-BE47-A8D1-3A4BF38C3B3D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10932,7 +10995,7 @@
         <xdr:cNvPr id="23" name="image6.gif" descr="https://ebrg-test.fs.em2.oraclecloud.com/setup/afr/remote/H4sIAAAAAAAAAA%3D%3DW_OWgbW4iMEhvygxOSdVLzElLTOvJLUoLzFHrywztVyvKDM5Q68oNTe_JBVI-FeeXFiWnFuuFBvm45iXnp6QWBSSWZDilJubVSU%2BQ1P5hZcPDwFBRxCCQlViWqJeTmJeu55%2BUlZpc-woAAFQXltgxWGSUlBVb6%2BkDbdOEWQtyQX1oCtiYTqDk5P9fK0MDMwFg_JzUlPbVIv6hIn6ECAMfW-N%2BS0AAAA-/adf/images/t.gif">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ACD36B5E-29AF-8946-8660-4BC5703F90ED}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{ACD36B5E-29AF-8946-8660-4BC5703F90ED}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10970,7 +11033,7 @@
         <xdr:cNvPr id="24" name="image6.gif" descr="https://ebrg-test.fs.em2.oraclecloud.com/setup/afr/remote/H4sIAAAAAAAAAA%3D%3DW_OWgbW4iMEhvygxOSdVLzElLTOvJLUoLzFHrywztVyvKDM5Q68oNTe_JBVI-FeeXFiWnFuuFBvm45iXnp6QWBSSWZDilJubVSU%2BQ1P5hZcPDwFBRxCCQlViWqJeTmJeu55%2BUlZpc-woAAFQXltgxWGSUlBVb6%2BkDbdOEWQtyQX1oCtiYTqDk5P9fK0MDMwFg_JzUlPbVIv6hIn6ECAMfW-N%2BS0AAAA-/adf/images/t.gif">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2E641FB0-6F11-C042-A992-F63BBF66BAC5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2E641FB0-6F11-C042-A992-F63BBF66BAC5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11008,7 +11071,7 @@
         <xdr:cNvPr id="25" name="image6.gif" descr="https://ebrg-test.fs.em2.oraclecloud.com/setup/afr/remote/H4sIAAAAAAAAAA%3D%3DW_OWgbW4iMEhvygxOSdVLzElLTOvJLUoLzFHrywztVyvKDM5Q68oNTe_JBVI-FeeXFiWnFuuFBvm45iXnp6QWBSSWZDilJubVSU%2BQ1P5hZcPDwFBRxCCQlViWqJeTmJeu55%2BUlZpc-woAAFQXltgxWGSUlBVb6%2BkDbdOEWQtyQX1oCtiYTqDk5P9fK0MDMwFg_JzUlPbVIv6hIn6ECAMfW-N%2BS0AAAA-/adf/images/t.gif">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9FC932F4-AE6E-5C4D-92F2-8615973C0885}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9FC932F4-AE6E-5C4D-92F2-8615973C0885}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11046,7 +11109,7 @@
         <xdr:cNvPr id="26" name="image6.gif" descr="https://ebrg-test.fs.em2.oraclecloud.com/setup/afr/remote/H4sIAAAAAAAAAA%3D%3DW_OWgbW4iMEhvygxOSdVLzElLTOvJLUoLzFHrywztVyvKDM5Q68oNTe_JBVI-FeeXFiWnFuuFBvm45iXnp6QWBSSWZDilJubVSU%2BQ1P5hZcPDwFBRxCCQlViWqJeTmJeu55%2BUlZpc-woAAFQXltgxWGSUlBVb6%2BkDbdOEWQtyQX1oCtiYTqDk5P9fK0MDMwFg_JzUlPbVIv6hIn6ECAMfW-N%2BS0AAAA-/adf/images/t.gif">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0F00-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11084,7 +11147,7 @@
         <xdr:cNvPr id="27" name="image6.gif" descr="https://ebrg-test.fs.em2.oraclecloud.com/setup/afr/remote/H4sIAAAAAAAAAA%3D%3DW_OWgbW4iMEhvygxOSdVLzElLTOvJLUoLzFHrywztVyvKDM5Q68oNTe_JBVI-FeeXFiWnFuuFBvm45iXnp6QWBSSWZDilJubVSU%2BQ1P5hZcPDwFBRxCCQlViWqJeTmJeu55%2BUlZpc-woAAFQXltgxWGSUlBVb6%2BkDbdOEWQtyQX1oCtiYTqDk5P9fK0MDMwFg_JzUlPbVIv6hIn6ECAMfW-N%2BS0AAAA-/adf/images/t.gif">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0F00-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11122,7 +11185,7 @@
         <xdr:cNvPr id="28" name="image6.gif" descr="https://ebrg-test.fs.em2.oraclecloud.com/setup/afr/remote/H4sIAAAAAAAAAA%3D%3DW_OWgbW4iMEhvygxOSdVLzElLTOvJLUoLzFHrywztVyvKDM5Q68oNTe_JBVI-FeeXFiWnFuuFBvm45iXnp6QWBSSWZDilJubVSU%2BQ1P5hZcPDwFBRxCCQlViWqJeTmJeu55%2BUlZpc-woAAFQXltgxWGSUlBVb6%2BkDbdOEWQtyQX1oCtiYTqDk5P9fK0MDMwFg_JzUlPbVIv6hIn6ECAMfW-N%2BS0AAAA-/adf/images/t.gif">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0F00-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11160,7 +11223,7 @@
         <xdr:cNvPr id="29" name="image6.gif" descr="https://ebrg-test.fs.em2.oraclecloud.com/setup/afr/remote/H4sIAAAAAAAAAA%3D%3DW_OWgbW4iMEhvygxOSdVLzElLTOvJLUoLzFHrywztVyvKDM5Q68oNTe_JBVI-FeeXFiWnFuuFBvm45iXnp6QWBSSWZDilJubVSU%2BQ1P5hZcPDwFBRxCCQlViWqJeTmJeu55%2BUlZpc-woAAFQXltgxWGSUlBVb6%2BkDbdOEWQtyQX1oCtiYTqDk5P9fK0MDMwFg_JzUlPbVIv6hIn6ECAMfW-N%2BS0AAAA-/adf/images/t.gif">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0F00-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11198,7 +11261,7 @@
         <xdr:cNvPr id="30" name="image6.gif" descr="https://ebrg-test.fs.em2.oraclecloud.com/setup/afr/remote/H4sIAAAAAAAAAA%3D%3DW_OWgbW4iMEhvygxOSdVLzElLTOvJLUoLzFHrywztVyvKDM5Q68oNTe_JBVI-FeeXFiWnFuuFBvm45iXnp6QWBSSWZDilJubVSU%2BQ1P5hZcPDwFBRxCCQlViWqJeTmJeu55%2BUlZpc-woAAFQXltgxWGSUlBVb6%2BkDbdOEWQtyQX1oCtiYTqDk5P9fK0MDMwFg_JzUlPbVIv6hIn6ECAMfW-N%2BS0AAAA-/adf/images/t.gif">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0F00-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11236,7 +11299,7 @@
         <xdr:cNvPr id="31" name="image6.gif" descr="https://ebrg-test.fs.em2.oraclecloud.com/setup/afr/remote/H4sIAAAAAAAAAA%3D%3DW_OWgbW4iMEhvygxOSdVLzElLTOvJLUoLzFHrywztVyvKDM5Q68oNTe_JBVI-FeeXFiWnFuuFBvm45iXnp6QWBSSWZDilJubVSU%2BQ1P5hZcPDwFBRxCCQlViWqJeTmJeu55%2BUlZpc-woAAFQXltgxWGSUlBVb6%2BkDbdOEWQtyQX1oCtiYTqDk5P9fK0MDMwFg_JzUlPbVIv6hIn6ECAMfW-N%2BS0AAAA-/adf/images/t.gif">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0F00-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -19510,1179 +19573,1258 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AK30"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13:AK13"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.6328125" defaultRowHeight="11"/>
+  <sheetFormatPr defaultColWidth="2.6640625" defaultRowHeight="10.8"/>
   <cols>
-    <col min="1" max="8" width="2.6328125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="2.81640625" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="2.6328125" style="1"/>
+    <col min="1" max="8" width="2.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="2.88671875" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="2.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" ht="11.5" thickBot="1"/>
-    <row r="2" spans="1:37" ht="11.5" thickBot="1">
-      <c r="A2" s="110" t="s">
+    <row r="1" spans="1:37" ht="11.4" thickBot="1"/>
+    <row r="2" spans="1:37" ht="11.4" thickBot="1">
+      <c r="A2" s="92" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="111"/>
-      <c r="C2" s="111"/>
-      <c r="D2" s="111"/>
-      <c r="E2" s="112"/>
-      <c r="F2" s="110" t="s">
+      <c r="B2" s="93"/>
+      <c r="C2" s="93"/>
+      <c r="D2" s="93"/>
+      <c r="E2" s="94"/>
+      <c r="F2" s="92" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="111"/>
-      <c r="H2" s="111"/>
-      <c r="I2" s="112"/>
-      <c r="J2" s="83" t="s">
+      <c r="G2" s="93"/>
+      <c r="H2" s="93"/>
+      <c r="I2" s="94"/>
+      <c r="J2" s="126" t="s">
         <v>2</v>
       </c>
-      <c r="K2" s="83"/>
-      <c r="L2" s="83"/>
-      <c r="M2" s="83"/>
-      <c r="N2" s="83"/>
-      <c r="O2" s="83"/>
-      <c r="P2" s="83"/>
-      <c r="Q2" s="83"/>
-      <c r="R2" s="83"/>
-      <c r="S2" s="83"/>
-      <c r="T2" s="83"/>
-      <c r="U2" s="83"/>
-      <c r="V2" s="83"/>
-      <c r="W2" s="83"/>
-      <c r="X2" s="83"/>
-      <c r="Y2" s="83"/>
-      <c r="Z2" s="83"/>
-      <c r="AA2" s="83"/>
-      <c r="AB2" s="83"/>
-      <c r="AC2" s="83"/>
-      <c r="AD2" s="83"/>
-      <c r="AE2" s="83"/>
-      <c r="AF2" s="83"/>
-      <c r="AG2" s="83"/>
-      <c r="AH2" s="83"/>
-      <c r="AI2" s="83"/>
-      <c r="AJ2" s="83"/>
-      <c r="AK2" s="84"/>
+      <c r="K2" s="126"/>
+      <c r="L2" s="126"/>
+      <c r="M2" s="126"/>
+      <c r="N2" s="126"/>
+      <c r="O2" s="126"/>
+      <c r="P2" s="126"/>
+      <c r="Q2" s="126"/>
+      <c r="R2" s="126"/>
+      <c r="S2" s="126"/>
+      <c r="T2" s="126"/>
+      <c r="U2" s="126"/>
+      <c r="V2" s="126"/>
+      <c r="W2" s="126"/>
+      <c r="X2" s="126"/>
+      <c r="Y2" s="126"/>
+      <c r="Z2" s="126"/>
+      <c r="AA2" s="126"/>
+      <c r="AB2" s="126"/>
+      <c r="AC2" s="126"/>
+      <c r="AD2" s="126"/>
+      <c r="AE2" s="126"/>
+      <c r="AF2" s="126"/>
+      <c r="AG2" s="126"/>
+      <c r="AH2" s="126"/>
+      <c r="AI2" s="126"/>
+      <c r="AJ2" s="126"/>
+      <c r="AK2" s="127"/>
     </row>
     <row r="3" spans="1:37">
-      <c r="A3" s="125">
+      <c r="A3" s="95">
         <v>44865</v>
       </c>
-      <c r="B3" s="86"/>
-      <c r="C3" s="86"/>
-      <c r="D3" s="86"/>
-      <c r="E3" s="87"/>
-      <c r="F3" s="116" t="s">
+      <c r="B3" s="96"/>
+      <c r="C3" s="96"/>
+      <c r="D3" s="96"/>
+      <c r="E3" s="97"/>
+      <c r="F3" s="114" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="117"/>
-      <c r="H3" s="117"/>
-      <c r="I3" s="118"/>
-      <c r="J3" s="85" t="s">
+      <c r="G3" s="115"/>
+      <c r="H3" s="115"/>
+      <c r="I3" s="116"/>
+      <c r="J3" s="128" t="s">
         <v>3</v>
       </c>
-      <c r="K3" s="86"/>
-      <c r="L3" s="86"/>
-      <c r="M3" s="86"/>
-      <c r="N3" s="86"/>
-      <c r="O3" s="86"/>
-      <c r="P3" s="86"/>
-      <c r="Q3" s="86"/>
-      <c r="R3" s="86"/>
-      <c r="S3" s="86"/>
-      <c r="T3" s="86"/>
-      <c r="U3" s="86"/>
-      <c r="V3" s="86"/>
-      <c r="W3" s="86"/>
-      <c r="X3" s="86"/>
-      <c r="Y3" s="86"/>
-      <c r="Z3" s="86"/>
-      <c r="AA3" s="86"/>
-      <c r="AB3" s="86"/>
-      <c r="AC3" s="86"/>
-      <c r="AD3" s="86"/>
-      <c r="AE3" s="86"/>
-      <c r="AF3" s="86"/>
-      <c r="AG3" s="86"/>
-      <c r="AH3" s="86"/>
-      <c r="AI3" s="86"/>
-      <c r="AJ3" s="86"/>
-      <c r="AK3" s="87"/>
+      <c r="K3" s="96"/>
+      <c r="L3" s="96"/>
+      <c r="M3" s="96"/>
+      <c r="N3" s="96"/>
+      <c r="O3" s="96"/>
+      <c r="P3" s="96"/>
+      <c r="Q3" s="96"/>
+      <c r="R3" s="96"/>
+      <c r="S3" s="96"/>
+      <c r="T3" s="96"/>
+      <c r="U3" s="96"/>
+      <c r="V3" s="96"/>
+      <c r="W3" s="96"/>
+      <c r="X3" s="96"/>
+      <c r="Y3" s="96"/>
+      <c r="Z3" s="96"/>
+      <c r="AA3" s="96"/>
+      <c r="AB3" s="96"/>
+      <c r="AC3" s="96"/>
+      <c r="AD3" s="96"/>
+      <c r="AE3" s="96"/>
+      <c r="AF3" s="96"/>
+      <c r="AG3" s="96"/>
+      <c r="AH3" s="96"/>
+      <c r="AI3" s="96"/>
+      <c r="AJ3" s="96"/>
+      <c r="AK3" s="97"/>
     </row>
     <row r="4" spans="1:37">
-      <c r="A4" s="126">
+      <c r="A4" s="98">
         <v>45041</v>
       </c>
-      <c r="B4" s="89"/>
-      <c r="C4" s="89"/>
-      <c r="D4" s="89"/>
-      <c r="E4" s="90"/>
-      <c r="F4" s="119" t="s">
+      <c r="B4" s="99"/>
+      <c r="C4" s="99"/>
+      <c r="D4" s="99"/>
+      <c r="E4" s="100"/>
+      <c r="F4" s="107" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="120"/>
-      <c r="H4" s="120"/>
-      <c r="I4" s="121"/>
-      <c r="J4" s="88" t="s">
+      <c r="G4" s="108"/>
+      <c r="H4" s="108"/>
+      <c r="I4" s="109"/>
+      <c r="J4" s="129" t="s">
         <v>117</v>
       </c>
-      <c r="K4" s="89"/>
-      <c r="L4" s="89"/>
-      <c r="M4" s="89"/>
-      <c r="N4" s="89"/>
-      <c r="O4" s="89"/>
-      <c r="P4" s="89"/>
-      <c r="Q4" s="89"/>
-      <c r="R4" s="89"/>
-      <c r="S4" s="89"/>
-      <c r="T4" s="89"/>
-      <c r="U4" s="89"/>
-      <c r="V4" s="89"/>
-      <c r="W4" s="89"/>
-      <c r="X4" s="89"/>
-      <c r="Y4" s="89"/>
-      <c r="Z4" s="89"/>
-      <c r="AA4" s="89"/>
-      <c r="AB4" s="89"/>
-      <c r="AC4" s="89"/>
-      <c r="AD4" s="89"/>
-      <c r="AE4" s="89"/>
-      <c r="AF4" s="89"/>
-      <c r="AG4" s="89"/>
-      <c r="AH4" s="89"/>
-      <c r="AI4" s="89"/>
-      <c r="AJ4" s="89"/>
-      <c r="AK4" s="90"/>
+      <c r="K4" s="99"/>
+      <c r="L4" s="99"/>
+      <c r="M4" s="99"/>
+      <c r="N4" s="99"/>
+      <c r="O4" s="99"/>
+      <c r="P4" s="99"/>
+      <c r="Q4" s="99"/>
+      <c r="R4" s="99"/>
+      <c r="S4" s="99"/>
+      <c r="T4" s="99"/>
+      <c r="U4" s="99"/>
+      <c r="V4" s="99"/>
+      <c r="W4" s="99"/>
+      <c r="X4" s="99"/>
+      <c r="Y4" s="99"/>
+      <c r="Z4" s="99"/>
+      <c r="AA4" s="99"/>
+      <c r="AB4" s="99"/>
+      <c r="AC4" s="99"/>
+      <c r="AD4" s="99"/>
+      <c r="AE4" s="99"/>
+      <c r="AF4" s="99"/>
+      <c r="AG4" s="99"/>
+      <c r="AH4" s="99"/>
+      <c r="AI4" s="99"/>
+      <c r="AJ4" s="99"/>
+      <c r="AK4" s="100"/>
     </row>
     <row r="5" spans="1:37">
-      <c r="A5" s="122">
+      <c r="A5" s="101">
         <v>45086</v>
       </c>
-      <c r="B5" s="123"/>
-      <c r="C5" s="123"/>
-      <c r="D5" s="123"/>
-      <c r="E5" s="124"/>
-      <c r="F5" s="119" t="s">
+      <c r="B5" s="102"/>
+      <c r="C5" s="102"/>
+      <c r="D5" s="102"/>
+      <c r="E5" s="103"/>
+      <c r="F5" s="107" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="120"/>
-      <c r="H5" s="120"/>
-      <c r="I5" s="121"/>
-      <c r="J5" s="91" t="s">
+      <c r="G5" s="108"/>
+      <c r="H5" s="108"/>
+      <c r="I5" s="109"/>
+      <c r="J5" s="130" t="s">
         <v>118</v>
       </c>
-      <c r="K5" s="92"/>
-      <c r="L5" s="92"/>
-      <c r="M5" s="92"/>
-      <c r="N5" s="92"/>
-      <c r="O5" s="92"/>
-      <c r="P5" s="92"/>
-      <c r="Q5" s="92"/>
-      <c r="R5" s="92"/>
-      <c r="S5" s="92"/>
-      <c r="T5" s="92"/>
-      <c r="U5" s="92"/>
-      <c r="V5" s="92"/>
-      <c r="W5" s="92"/>
-      <c r="X5" s="92"/>
-      <c r="Y5" s="92"/>
-      <c r="Z5" s="92"/>
-      <c r="AA5" s="92"/>
-      <c r="AB5" s="92"/>
-      <c r="AC5" s="92"/>
-      <c r="AD5" s="92"/>
-      <c r="AE5" s="92"/>
-      <c r="AF5" s="92"/>
-      <c r="AG5" s="92"/>
-      <c r="AH5" s="92"/>
-      <c r="AI5" s="92"/>
-      <c r="AJ5" s="92"/>
-      <c r="AK5" s="93"/>
+      <c r="K5" s="131"/>
+      <c r="L5" s="131"/>
+      <c r="M5" s="131"/>
+      <c r="N5" s="131"/>
+      <c r="O5" s="131"/>
+      <c r="P5" s="131"/>
+      <c r="Q5" s="131"/>
+      <c r="R5" s="131"/>
+      <c r="S5" s="131"/>
+      <c r="T5" s="131"/>
+      <c r="U5" s="131"/>
+      <c r="V5" s="131"/>
+      <c r="W5" s="131"/>
+      <c r="X5" s="131"/>
+      <c r="Y5" s="131"/>
+      <c r="Z5" s="131"/>
+      <c r="AA5" s="131"/>
+      <c r="AB5" s="131"/>
+      <c r="AC5" s="131"/>
+      <c r="AD5" s="131"/>
+      <c r="AE5" s="131"/>
+      <c r="AF5" s="131"/>
+      <c r="AG5" s="131"/>
+      <c r="AH5" s="131"/>
+      <c r="AI5" s="131"/>
+      <c r="AJ5" s="131"/>
+      <c r="AK5" s="132"/>
     </row>
     <row r="6" spans="1:37">
-      <c r="A6" s="126">
+      <c r="A6" s="98">
         <v>45250</v>
       </c>
-      <c r="B6" s="89"/>
-      <c r="C6" s="89"/>
-      <c r="D6" s="89"/>
-      <c r="E6" s="90"/>
-      <c r="F6" s="119" t="s">
+      <c r="B6" s="99"/>
+      <c r="C6" s="99"/>
+      <c r="D6" s="99"/>
+      <c r="E6" s="100"/>
+      <c r="F6" s="107" t="s">
         <v>121</v>
       </c>
-      <c r="G6" s="120"/>
-      <c r="H6" s="120"/>
-      <c r="I6" s="121"/>
-      <c r="J6" s="96" t="s">
+      <c r="G6" s="108"/>
+      <c r="H6" s="108"/>
+      <c r="I6" s="109"/>
+      <c r="J6" s="117" t="s">
         <v>122</v>
       </c>
-      <c r="K6" s="97"/>
-      <c r="L6" s="97"/>
-      <c r="M6" s="97"/>
-      <c r="N6" s="97"/>
-      <c r="O6" s="97"/>
-      <c r="P6" s="97"/>
-      <c r="Q6" s="97"/>
-      <c r="R6" s="97"/>
-      <c r="S6" s="97"/>
-      <c r="T6" s="97"/>
-      <c r="U6" s="97"/>
-      <c r="V6" s="97"/>
-      <c r="W6" s="97"/>
-      <c r="X6" s="97"/>
-      <c r="Y6" s="97"/>
-      <c r="Z6" s="97"/>
-      <c r="AA6" s="97"/>
-      <c r="AB6" s="97"/>
-      <c r="AC6" s="97"/>
-      <c r="AD6" s="97"/>
-      <c r="AE6" s="97"/>
-      <c r="AF6" s="97"/>
-      <c r="AG6" s="97"/>
-      <c r="AH6" s="97"/>
-      <c r="AI6" s="97"/>
-      <c r="AJ6" s="97"/>
-      <c r="AK6" s="98"/>
+      <c r="K6" s="118"/>
+      <c r="L6" s="118"/>
+      <c r="M6" s="118"/>
+      <c r="N6" s="118"/>
+      <c r="O6" s="118"/>
+      <c r="P6" s="118"/>
+      <c r="Q6" s="118"/>
+      <c r="R6" s="118"/>
+      <c r="S6" s="118"/>
+      <c r="T6" s="118"/>
+      <c r="U6" s="118"/>
+      <c r="V6" s="118"/>
+      <c r="W6" s="118"/>
+      <c r="X6" s="118"/>
+      <c r="Y6" s="118"/>
+      <c r="Z6" s="118"/>
+      <c r="AA6" s="118"/>
+      <c r="AB6" s="118"/>
+      <c r="AC6" s="118"/>
+      <c r="AD6" s="118"/>
+      <c r="AE6" s="118"/>
+      <c r="AF6" s="118"/>
+      <c r="AG6" s="118"/>
+      <c r="AH6" s="118"/>
+      <c r="AI6" s="118"/>
+      <c r="AJ6" s="118"/>
+      <c r="AK6" s="119"/>
     </row>
     <row r="7" spans="1:37">
-      <c r="A7" s="122"/>
-      <c r="B7" s="123"/>
-      <c r="C7" s="123"/>
-      <c r="D7" s="123"/>
-      <c r="E7" s="124"/>
-      <c r="F7" s="113"/>
-      <c r="G7" s="114"/>
-      <c r="H7" s="114"/>
-      <c r="I7" s="115"/>
-      <c r="J7" s="99"/>
-      <c r="K7" s="100"/>
-      <c r="L7" s="100"/>
-      <c r="M7" s="100"/>
-      <c r="N7" s="100"/>
-      <c r="O7" s="100"/>
-      <c r="P7" s="100"/>
-      <c r="Q7" s="100"/>
-      <c r="R7" s="100"/>
-      <c r="S7" s="100"/>
-      <c r="T7" s="100"/>
-      <c r="U7" s="100"/>
-      <c r="V7" s="100"/>
-      <c r="W7" s="100"/>
-      <c r="X7" s="100"/>
-      <c r="Y7" s="100"/>
-      <c r="Z7" s="100"/>
-      <c r="AA7" s="100"/>
-      <c r="AB7" s="100"/>
-      <c r="AC7" s="100"/>
-      <c r="AD7" s="100"/>
-      <c r="AE7" s="100"/>
-      <c r="AF7" s="100"/>
-      <c r="AG7" s="100"/>
-      <c r="AH7" s="100"/>
-      <c r="AI7" s="100"/>
-      <c r="AJ7" s="100"/>
-      <c r="AK7" s="101"/>
+      <c r="A7" s="133">
+        <v>45485</v>
+      </c>
+      <c r="B7" s="134"/>
+      <c r="C7" s="134"/>
+      <c r="D7" s="134"/>
+      <c r="E7" s="135"/>
+      <c r="F7" s="136" t="s">
+        <v>155</v>
+      </c>
+      <c r="G7" s="137"/>
+      <c r="H7" s="137"/>
+      <c r="I7" s="138"/>
+      <c r="J7" s="139" t="s">
+        <v>156</v>
+      </c>
+      <c r="K7" s="140"/>
+      <c r="L7" s="140"/>
+      <c r="M7" s="140"/>
+      <c r="N7" s="140"/>
+      <c r="O7" s="140"/>
+      <c r="P7" s="140"/>
+      <c r="Q7" s="140"/>
+      <c r="R7" s="140"/>
+      <c r="S7" s="140"/>
+      <c r="T7" s="140"/>
+      <c r="U7" s="140"/>
+      <c r="V7" s="140"/>
+      <c r="W7" s="140"/>
+      <c r="X7" s="140"/>
+      <c r="Y7" s="140"/>
+      <c r="Z7" s="140"/>
+      <c r="AA7" s="140"/>
+      <c r="AB7" s="140"/>
+      <c r="AC7" s="140"/>
+      <c r="AD7" s="140"/>
+      <c r="AE7" s="140"/>
+      <c r="AF7" s="140"/>
+      <c r="AG7" s="140"/>
+      <c r="AH7" s="140"/>
+      <c r="AI7" s="140"/>
+      <c r="AJ7" s="140"/>
+      <c r="AK7" s="141"/>
     </row>
     <row r="8" spans="1:37">
-      <c r="A8" s="122"/>
-      <c r="B8" s="123"/>
-      <c r="C8" s="123"/>
-      <c r="D8" s="123"/>
-      <c r="E8" s="124"/>
-      <c r="F8" s="113"/>
-      <c r="G8" s="114"/>
-      <c r="H8" s="114"/>
-      <c r="I8" s="115"/>
-      <c r="J8" s="99"/>
-      <c r="K8" s="100"/>
-      <c r="L8" s="100"/>
-      <c r="M8" s="100"/>
-      <c r="N8" s="100"/>
-      <c r="O8" s="100"/>
-      <c r="P8" s="100"/>
-      <c r="Q8" s="100"/>
-      <c r="R8" s="100"/>
-      <c r="S8" s="100"/>
-      <c r="T8" s="100"/>
-      <c r="U8" s="100"/>
-      <c r="V8" s="100"/>
-      <c r="W8" s="100"/>
-      <c r="X8" s="100"/>
-      <c r="Y8" s="100"/>
-      <c r="Z8" s="100"/>
-      <c r="AA8" s="100"/>
-      <c r="AB8" s="100"/>
-      <c r="AC8" s="100"/>
-      <c r="AD8" s="100"/>
-      <c r="AE8" s="100"/>
-      <c r="AF8" s="100"/>
-      <c r="AG8" s="100"/>
-      <c r="AH8" s="100"/>
-      <c r="AI8" s="100"/>
-      <c r="AJ8" s="100"/>
-      <c r="AK8" s="101"/>
+      <c r="A8" s="101"/>
+      <c r="B8" s="102"/>
+      <c r="C8" s="102"/>
+      <c r="D8" s="102"/>
+      <c r="E8" s="103"/>
+      <c r="F8" s="86"/>
+      <c r="G8" s="87"/>
+      <c r="H8" s="87"/>
+      <c r="I8" s="88"/>
+      <c r="J8" s="120"/>
+      <c r="K8" s="121"/>
+      <c r="L8" s="121"/>
+      <c r="M8" s="121"/>
+      <c r="N8" s="121"/>
+      <c r="O8" s="121"/>
+      <c r="P8" s="121"/>
+      <c r="Q8" s="121"/>
+      <c r="R8" s="121"/>
+      <c r="S8" s="121"/>
+      <c r="T8" s="121"/>
+      <c r="U8" s="121"/>
+      <c r="V8" s="121"/>
+      <c r="W8" s="121"/>
+      <c r="X8" s="121"/>
+      <c r="Y8" s="121"/>
+      <c r="Z8" s="121"/>
+      <c r="AA8" s="121"/>
+      <c r="AB8" s="121"/>
+      <c r="AC8" s="121"/>
+      <c r="AD8" s="121"/>
+      <c r="AE8" s="121"/>
+      <c r="AF8" s="121"/>
+      <c r="AG8" s="121"/>
+      <c r="AH8" s="121"/>
+      <c r="AI8" s="121"/>
+      <c r="AJ8" s="121"/>
+      <c r="AK8" s="122"/>
     </row>
     <row r="9" spans="1:37">
-      <c r="A9" s="127"/>
-      <c r="B9" s="128"/>
-      <c r="C9" s="128"/>
-      <c r="D9" s="128"/>
-      <c r="E9" s="129"/>
-      <c r="F9" s="130"/>
-      <c r="G9" s="131"/>
-      <c r="H9" s="131"/>
-      <c r="I9" s="132"/>
-      <c r="J9" s="102"/>
-      <c r="K9" s="103"/>
-      <c r="L9" s="103"/>
-      <c r="M9" s="103"/>
-      <c r="N9" s="103"/>
-      <c r="O9" s="103"/>
-      <c r="P9" s="103"/>
-      <c r="Q9" s="103"/>
-      <c r="R9" s="103"/>
-      <c r="S9" s="103"/>
-      <c r="T9" s="103"/>
-      <c r="U9" s="103"/>
-      <c r="V9" s="103"/>
-      <c r="W9" s="103"/>
-      <c r="X9" s="103"/>
-      <c r="Y9" s="103"/>
-      <c r="Z9" s="103"/>
-      <c r="AA9" s="103"/>
-      <c r="AB9" s="103"/>
-      <c r="AC9" s="103"/>
-      <c r="AD9" s="103"/>
-      <c r="AE9" s="103"/>
-      <c r="AF9" s="103"/>
-      <c r="AG9" s="103"/>
-      <c r="AH9" s="103"/>
-      <c r="AI9" s="103"/>
-      <c r="AJ9" s="103"/>
-      <c r="AK9" s="104"/>
+      <c r="A9" s="104"/>
+      <c r="B9" s="105"/>
+      <c r="C9" s="105"/>
+      <c r="D9" s="105"/>
+      <c r="E9" s="106"/>
+      <c r="F9" s="89"/>
+      <c r="G9" s="90"/>
+      <c r="H9" s="90"/>
+      <c r="I9" s="91"/>
+      <c r="J9" s="123"/>
+      <c r="K9" s="124"/>
+      <c r="L9" s="124"/>
+      <c r="M9" s="124"/>
+      <c r="N9" s="124"/>
+      <c r="O9" s="124"/>
+      <c r="P9" s="124"/>
+      <c r="Q9" s="124"/>
+      <c r="R9" s="124"/>
+      <c r="S9" s="124"/>
+      <c r="T9" s="124"/>
+      <c r="U9" s="124"/>
+      <c r="V9" s="124"/>
+      <c r="W9" s="124"/>
+      <c r="X9" s="124"/>
+      <c r="Y9" s="124"/>
+      <c r="Z9" s="124"/>
+      <c r="AA9" s="124"/>
+      <c r="AB9" s="124"/>
+      <c r="AC9" s="124"/>
+      <c r="AD9" s="124"/>
+      <c r="AE9" s="124"/>
+      <c r="AF9" s="124"/>
+      <c r="AG9" s="124"/>
+      <c r="AH9" s="124"/>
+      <c r="AI9" s="124"/>
+      <c r="AJ9" s="124"/>
+      <c r="AK9" s="125"/>
     </row>
     <row r="10" spans="1:37">
-      <c r="A10" s="122"/>
-      <c r="B10" s="123"/>
-      <c r="C10" s="123"/>
-      <c r="D10" s="123"/>
-      <c r="E10" s="124"/>
-      <c r="F10" s="113"/>
-      <c r="G10" s="114"/>
-      <c r="H10" s="114"/>
-      <c r="I10" s="115"/>
-      <c r="J10" s="99"/>
-      <c r="K10" s="100"/>
-      <c r="L10" s="100"/>
-      <c r="M10" s="100"/>
-      <c r="N10" s="100"/>
-      <c r="O10" s="100"/>
-      <c r="P10" s="100"/>
-      <c r="Q10" s="100"/>
-      <c r="R10" s="100"/>
-      <c r="S10" s="100"/>
-      <c r="T10" s="100"/>
-      <c r="U10" s="100"/>
-      <c r="V10" s="100"/>
-      <c r="W10" s="100"/>
-      <c r="X10" s="100"/>
-      <c r="Y10" s="100"/>
-      <c r="Z10" s="100"/>
-      <c r="AA10" s="100"/>
-      <c r="AB10" s="100"/>
-      <c r="AC10" s="100"/>
-      <c r="AD10" s="100"/>
-      <c r="AE10" s="100"/>
-      <c r="AF10" s="100"/>
-      <c r="AG10" s="100"/>
-      <c r="AH10" s="100"/>
-      <c r="AI10" s="100"/>
-      <c r="AJ10" s="100"/>
-      <c r="AK10" s="101"/>
+      <c r="A10" s="101"/>
+      <c r="B10" s="102"/>
+      <c r="C10" s="102"/>
+      <c r="D10" s="102"/>
+      <c r="E10" s="103"/>
+      <c r="F10" s="86"/>
+      <c r="G10" s="87"/>
+      <c r="H10" s="87"/>
+      <c r="I10" s="88"/>
+      <c r="J10" s="120"/>
+      <c r="K10" s="121"/>
+      <c r="L10" s="121"/>
+      <c r="M10" s="121"/>
+      <c r="N10" s="121"/>
+      <c r="O10" s="121"/>
+      <c r="P10" s="121"/>
+      <c r="Q10" s="121"/>
+      <c r="R10" s="121"/>
+      <c r="S10" s="121"/>
+      <c r="T10" s="121"/>
+      <c r="U10" s="121"/>
+      <c r="V10" s="121"/>
+      <c r="W10" s="121"/>
+      <c r="X10" s="121"/>
+      <c r="Y10" s="121"/>
+      <c r="Z10" s="121"/>
+      <c r="AA10" s="121"/>
+      <c r="AB10" s="121"/>
+      <c r="AC10" s="121"/>
+      <c r="AD10" s="121"/>
+      <c r="AE10" s="121"/>
+      <c r="AF10" s="121"/>
+      <c r="AG10" s="121"/>
+      <c r="AH10" s="121"/>
+      <c r="AI10" s="121"/>
+      <c r="AJ10" s="121"/>
+      <c r="AK10" s="122"/>
     </row>
     <row r="11" spans="1:37">
-      <c r="A11" s="113"/>
-      <c r="B11" s="114"/>
-      <c r="C11" s="114"/>
-      <c r="D11" s="114"/>
-      <c r="E11" s="115"/>
-      <c r="F11" s="113"/>
-      <c r="G11" s="114"/>
-      <c r="H11" s="114"/>
-      <c r="I11" s="115"/>
-      <c r="J11" s="94"/>
-      <c r="K11" s="94"/>
-      <c r="L11" s="94"/>
-      <c r="M11" s="94"/>
-      <c r="N11" s="94"/>
-      <c r="O11" s="94"/>
-      <c r="P11" s="94"/>
-      <c r="Q11" s="94"/>
-      <c r="R11" s="94"/>
-      <c r="S11" s="94"/>
-      <c r="T11" s="94"/>
-      <c r="U11" s="94"/>
-      <c r="V11" s="94"/>
-      <c r="W11" s="94"/>
-      <c r="X11" s="94"/>
-      <c r="Y11" s="94"/>
-      <c r="Z11" s="94"/>
-      <c r="AA11" s="94"/>
-      <c r="AB11" s="94"/>
-      <c r="AC11" s="94"/>
-      <c r="AD11" s="94"/>
-      <c r="AE11" s="94"/>
-      <c r="AF11" s="94"/>
-      <c r="AG11" s="94"/>
-      <c r="AH11" s="94"/>
-      <c r="AI11" s="94"/>
-      <c r="AJ11" s="94"/>
-      <c r="AK11" s="95"/>
+      <c r="A11" s="86"/>
+      <c r="B11" s="87"/>
+      <c r="C11" s="87"/>
+      <c r="D11" s="87"/>
+      <c r="E11" s="88"/>
+      <c r="F11" s="86"/>
+      <c r="G11" s="87"/>
+      <c r="H11" s="87"/>
+      <c r="I11" s="88"/>
+      <c r="J11" s="110"/>
+      <c r="K11" s="110"/>
+      <c r="L11" s="110"/>
+      <c r="M11" s="110"/>
+      <c r="N11" s="110"/>
+      <c r="O11" s="110"/>
+      <c r="P11" s="110"/>
+      <c r="Q11" s="110"/>
+      <c r="R11" s="110"/>
+      <c r="S11" s="110"/>
+      <c r="T11" s="110"/>
+      <c r="U11" s="110"/>
+      <c r="V11" s="110"/>
+      <c r="W11" s="110"/>
+      <c r="X11" s="110"/>
+      <c r="Y11" s="110"/>
+      <c r="Z11" s="110"/>
+      <c r="AA11" s="110"/>
+      <c r="AB11" s="110"/>
+      <c r="AC11" s="110"/>
+      <c r="AD11" s="110"/>
+      <c r="AE11" s="110"/>
+      <c r="AF11" s="110"/>
+      <c r="AG11" s="110"/>
+      <c r="AH11" s="110"/>
+      <c r="AI11" s="110"/>
+      <c r="AJ11" s="110"/>
+      <c r="AK11" s="111"/>
     </row>
     <row r="12" spans="1:37">
-      <c r="A12" s="113"/>
-      <c r="B12" s="114"/>
-      <c r="C12" s="114"/>
-      <c r="D12" s="114"/>
-      <c r="E12" s="115"/>
-      <c r="F12" s="113"/>
-      <c r="G12" s="114"/>
-      <c r="H12" s="114"/>
-      <c r="I12" s="115"/>
-      <c r="J12" s="94"/>
-      <c r="K12" s="94"/>
-      <c r="L12" s="94"/>
-      <c r="M12" s="94"/>
-      <c r="N12" s="94"/>
-      <c r="O12" s="94"/>
-      <c r="P12" s="94"/>
-      <c r="Q12" s="94"/>
-      <c r="R12" s="94"/>
-      <c r="S12" s="94"/>
-      <c r="T12" s="94"/>
-      <c r="U12" s="94"/>
-      <c r="V12" s="94"/>
-      <c r="W12" s="94"/>
-      <c r="X12" s="94"/>
-      <c r="Y12" s="94"/>
-      <c r="Z12" s="94"/>
-      <c r="AA12" s="94"/>
-      <c r="AB12" s="94"/>
-      <c r="AC12" s="94"/>
-      <c r="AD12" s="94"/>
-      <c r="AE12" s="94"/>
-      <c r="AF12" s="94"/>
-      <c r="AG12" s="94"/>
-      <c r="AH12" s="94"/>
-      <c r="AI12" s="94"/>
-      <c r="AJ12" s="94"/>
-      <c r="AK12" s="95"/>
+      <c r="A12" s="86"/>
+      <c r="B12" s="87"/>
+      <c r="C12" s="87"/>
+      <c r="D12" s="87"/>
+      <c r="E12" s="88"/>
+      <c r="F12" s="86"/>
+      <c r="G12" s="87"/>
+      <c r="H12" s="87"/>
+      <c r="I12" s="88"/>
+      <c r="J12" s="110"/>
+      <c r="K12" s="110"/>
+      <c r="L12" s="110"/>
+      <c r="M12" s="110"/>
+      <c r="N12" s="110"/>
+      <c r="O12" s="110"/>
+      <c r="P12" s="110"/>
+      <c r="Q12" s="110"/>
+      <c r="R12" s="110"/>
+      <c r="S12" s="110"/>
+      <c r="T12" s="110"/>
+      <c r="U12" s="110"/>
+      <c r="V12" s="110"/>
+      <c r="W12" s="110"/>
+      <c r="X12" s="110"/>
+      <c r="Y12" s="110"/>
+      <c r="Z12" s="110"/>
+      <c r="AA12" s="110"/>
+      <c r="AB12" s="110"/>
+      <c r="AC12" s="110"/>
+      <c r="AD12" s="110"/>
+      <c r="AE12" s="110"/>
+      <c r="AF12" s="110"/>
+      <c r="AG12" s="110"/>
+      <c r="AH12" s="110"/>
+      <c r="AI12" s="110"/>
+      <c r="AJ12" s="110"/>
+      <c r="AK12" s="111"/>
     </row>
     <row r="13" spans="1:37">
-      <c r="A13" s="113"/>
-      <c r="B13" s="114"/>
-      <c r="C13" s="114"/>
-      <c r="D13" s="114"/>
-      <c r="E13" s="115"/>
-      <c r="F13" s="113"/>
-      <c r="G13" s="114"/>
-      <c r="H13" s="114"/>
-      <c r="I13" s="115"/>
-      <c r="J13" s="94"/>
-      <c r="K13" s="94"/>
-      <c r="L13" s="94"/>
-      <c r="M13" s="94"/>
-      <c r="N13" s="94"/>
-      <c r="O13" s="94"/>
-      <c r="P13" s="94"/>
-      <c r="Q13" s="94"/>
-      <c r="R13" s="94"/>
-      <c r="S13" s="94"/>
-      <c r="T13" s="94"/>
-      <c r="U13" s="94"/>
-      <c r="V13" s="94"/>
-      <c r="W13" s="94"/>
-      <c r="X13" s="94"/>
-      <c r="Y13" s="94"/>
-      <c r="Z13" s="94"/>
-      <c r="AA13" s="94"/>
-      <c r="AB13" s="94"/>
-      <c r="AC13" s="94"/>
-      <c r="AD13" s="94"/>
-      <c r="AE13" s="94"/>
-      <c r="AF13" s="94"/>
-      <c r="AG13" s="94"/>
-      <c r="AH13" s="94"/>
-      <c r="AI13" s="94"/>
-      <c r="AJ13" s="94"/>
-      <c r="AK13" s="95"/>
+      <c r="A13" s="86"/>
+      <c r="B13" s="87"/>
+      <c r="C13" s="87"/>
+      <c r="D13" s="87"/>
+      <c r="E13" s="88"/>
+      <c r="F13" s="86"/>
+      <c r="G13" s="87"/>
+      <c r="H13" s="87"/>
+      <c r="I13" s="88"/>
+      <c r="J13" s="110"/>
+      <c r="K13" s="110"/>
+      <c r="L13" s="110"/>
+      <c r="M13" s="110"/>
+      <c r="N13" s="110"/>
+      <c r="O13" s="110"/>
+      <c r="P13" s="110"/>
+      <c r="Q13" s="110"/>
+      <c r="R13" s="110"/>
+      <c r="S13" s="110"/>
+      <c r="T13" s="110"/>
+      <c r="U13" s="110"/>
+      <c r="V13" s="110"/>
+      <c r="W13" s="110"/>
+      <c r="X13" s="110"/>
+      <c r="Y13" s="110"/>
+      <c r="Z13" s="110"/>
+      <c r="AA13" s="110"/>
+      <c r="AB13" s="110"/>
+      <c r="AC13" s="110"/>
+      <c r="AD13" s="110"/>
+      <c r="AE13" s="110"/>
+      <c r="AF13" s="110"/>
+      <c r="AG13" s="110"/>
+      <c r="AH13" s="110"/>
+      <c r="AI13" s="110"/>
+      <c r="AJ13" s="110"/>
+      <c r="AK13" s="111"/>
     </row>
     <row r="14" spans="1:37">
-      <c r="A14" s="113"/>
-      <c r="B14" s="114"/>
-      <c r="C14" s="114"/>
-      <c r="D14" s="114"/>
-      <c r="E14" s="115"/>
-      <c r="F14" s="113"/>
-      <c r="G14" s="114"/>
-      <c r="H14" s="114"/>
-      <c r="I14" s="115"/>
-      <c r="J14" s="94"/>
-      <c r="K14" s="94"/>
-      <c r="L14" s="94"/>
-      <c r="M14" s="94"/>
-      <c r="N14" s="94"/>
-      <c r="O14" s="94"/>
-      <c r="P14" s="94"/>
-      <c r="Q14" s="94"/>
-      <c r="R14" s="94"/>
-      <c r="S14" s="94"/>
-      <c r="T14" s="94"/>
-      <c r="U14" s="94"/>
-      <c r="V14" s="94"/>
-      <c r="W14" s="94"/>
-      <c r="X14" s="94"/>
-      <c r="Y14" s="94"/>
-      <c r="Z14" s="94"/>
-      <c r="AA14" s="94"/>
-      <c r="AB14" s="94"/>
-      <c r="AC14" s="94"/>
-      <c r="AD14" s="94"/>
-      <c r="AE14" s="94"/>
-      <c r="AF14" s="94"/>
-      <c r="AG14" s="94"/>
-      <c r="AH14" s="94"/>
-      <c r="AI14" s="94"/>
-      <c r="AJ14" s="94"/>
-      <c r="AK14" s="95"/>
+      <c r="A14" s="86"/>
+      <c r="B14" s="87"/>
+      <c r="C14" s="87"/>
+      <c r="D14" s="87"/>
+      <c r="E14" s="88"/>
+      <c r="F14" s="86"/>
+      <c r="G14" s="87"/>
+      <c r="H14" s="87"/>
+      <c r="I14" s="88"/>
+      <c r="J14" s="110"/>
+      <c r="K14" s="110"/>
+      <c r="L14" s="110"/>
+      <c r="M14" s="110"/>
+      <c r="N14" s="110"/>
+      <c r="O14" s="110"/>
+      <c r="P14" s="110"/>
+      <c r="Q14" s="110"/>
+      <c r="R14" s="110"/>
+      <c r="S14" s="110"/>
+      <c r="T14" s="110"/>
+      <c r="U14" s="110"/>
+      <c r="V14" s="110"/>
+      <c r="W14" s="110"/>
+      <c r="X14" s="110"/>
+      <c r="Y14" s="110"/>
+      <c r="Z14" s="110"/>
+      <c r="AA14" s="110"/>
+      <c r="AB14" s="110"/>
+      <c r="AC14" s="110"/>
+      <c r="AD14" s="110"/>
+      <c r="AE14" s="110"/>
+      <c r="AF14" s="110"/>
+      <c r="AG14" s="110"/>
+      <c r="AH14" s="110"/>
+      <c r="AI14" s="110"/>
+      <c r="AJ14" s="110"/>
+      <c r="AK14" s="111"/>
     </row>
     <row r="15" spans="1:37">
-      <c r="A15" s="113"/>
-      <c r="B15" s="114"/>
-      <c r="C15" s="114"/>
-      <c r="D15" s="114"/>
-      <c r="E15" s="115"/>
-      <c r="F15" s="113"/>
-      <c r="G15" s="114"/>
-      <c r="H15" s="114"/>
-      <c r="I15" s="115"/>
-      <c r="J15" s="94"/>
-      <c r="K15" s="94"/>
-      <c r="L15" s="94"/>
-      <c r="M15" s="94"/>
-      <c r="N15" s="94"/>
-      <c r="O15" s="94"/>
-      <c r="P15" s="94"/>
-      <c r="Q15" s="94"/>
-      <c r="R15" s="94"/>
-      <c r="S15" s="94"/>
-      <c r="T15" s="94"/>
-      <c r="U15" s="94"/>
-      <c r="V15" s="94"/>
-      <c r="W15" s="94"/>
-      <c r="X15" s="94"/>
-      <c r="Y15" s="94"/>
-      <c r="Z15" s="94"/>
-      <c r="AA15" s="94"/>
-      <c r="AB15" s="94"/>
-      <c r="AC15" s="94"/>
-      <c r="AD15" s="94"/>
-      <c r="AE15" s="94"/>
-      <c r="AF15" s="94"/>
-      <c r="AG15" s="94"/>
-      <c r="AH15" s="94"/>
-      <c r="AI15" s="94"/>
-      <c r="AJ15" s="94"/>
-      <c r="AK15" s="95"/>
+      <c r="A15" s="86"/>
+      <c r="B15" s="87"/>
+      <c r="C15" s="87"/>
+      <c r="D15" s="87"/>
+      <c r="E15" s="88"/>
+      <c r="F15" s="86"/>
+      <c r="G15" s="87"/>
+      <c r="H15" s="87"/>
+      <c r="I15" s="88"/>
+      <c r="J15" s="110"/>
+      <c r="K15" s="110"/>
+      <c r="L15" s="110"/>
+      <c r="M15" s="110"/>
+      <c r="N15" s="110"/>
+      <c r="O15" s="110"/>
+      <c r="P15" s="110"/>
+      <c r="Q15" s="110"/>
+      <c r="R15" s="110"/>
+      <c r="S15" s="110"/>
+      <c r="T15" s="110"/>
+      <c r="U15" s="110"/>
+      <c r="V15" s="110"/>
+      <c r="W15" s="110"/>
+      <c r="X15" s="110"/>
+      <c r="Y15" s="110"/>
+      <c r="Z15" s="110"/>
+      <c r="AA15" s="110"/>
+      <c r="AB15" s="110"/>
+      <c r="AC15" s="110"/>
+      <c r="AD15" s="110"/>
+      <c r="AE15" s="110"/>
+      <c r="AF15" s="110"/>
+      <c r="AG15" s="110"/>
+      <c r="AH15" s="110"/>
+      <c r="AI15" s="110"/>
+      <c r="AJ15" s="110"/>
+      <c r="AK15" s="111"/>
     </row>
     <row r="16" spans="1:37">
-      <c r="A16" s="113"/>
-      <c r="B16" s="114"/>
-      <c r="C16" s="114"/>
-      <c r="D16" s="114"/>
-      <c r="E16" s="115"/>
-      <c r="F16" s="113"/>
-      <c r="G16" s="114"/>
-      <c r="H16" s="114"/>
-      <c r="I16" s="115"/>
-      <c r="J16" s="94"/>
-      <c r="K16" s="94"/>
-      <c r="L16" s="94"/>
-      <c r="M16" s="94"/>
-      <c r="N16" s="94"/>
-      <c r="O16" s="94"/>
-      <c r="P16" s="94"/>
-      <c r="Q16" s="94"/>
-      <c r="R16" s="94"/>
-      <c r="S16" s="94"/>
-      <c r="T16" s="94"/>
-      <c r="U16" s="94"/>
-      <c r="V16" s="94"/>
-      <c r="W16" s="94"/>
-      <c r="X16" s="94"/>
-      <c r="Y16" s="94"/>
-      <c r="Z16" s="94"/>
-      <c r="AA16" s="94"/>
-      <c r="AB16" s="94"/>
-      <c r="AC16" s="94"/>
-      <c r="AD16" s="94"/>
-      <c r="AE16" s="94"/>
-      <c r="AF16" s="94"/>
-      <c r="AG16" s="94"/>
-      <c r="AH16" s="94"/>
-      <c r="AI16" s="94"/>
-      <c r="AJ16" s="94"/>
-      <c r="AK16" s="95"/>
+      <c r="A16" s="86"/>
+      <c r="B16" s="87"/>
+      <c r="C16" s="87"/>
+      <c r="D16" s="87"/>
+      <c r="E16" s="88"/>
+      <c r="F16" s="86"/>
+      <c r="G16" s="87"/>
+      <c r="H16" s="87"/>
+      <c r="I16" s="88"/>
+      <c r="J16" s="110"/>
+      <c r="K16" s="110"/>
+      <c r="L16" s="110"/>
+      <c r="M16" s="110"/>
+      <c r="N16" s="110"/>
+      <c r="O16" s="110"/>
+      <c r="P16" s="110"/>
+      <c r="Q16" s="110"/>
+      <c r="R16" s="110"/>
+      <c r="S16" s="110"/>
+      <c r="T16" s="110"/>
+      <c r="U16" s="110"/>
+      <c r="V16" s="110"/>
+      <c r="W16" s="110"/>
+      <c r="X16" s="110"/>
+      <c r="Y16" s="110"/>
+      <c r="Z16" s="110"/>
+      <c r="AA16" s="110"/>
+      <c r="AB16" s="110"/>
+      <c r="AC16" s="110"/>
+      <c r="AD16" s="110"/>
+      <c r="AE16" s="110"/>
+      <c r="AF16" s="110"/>
+      <c r="AG16" s="110"/>
+      <c r="AH16" s="110"/>
+      <c r="AI16" s="110"/>
+      <c r="AJ16" s="110"/>
+      <c r="AK16" s="111"/>
     </row>
     <row r="17" spans="1:37">
-      <c r="A17" s="113"/>
-      <c r="B17" s="114"/>
-      <c r="C17" s="114"/>
-      <c r="D17" s="114"/>
-      <c r="E17" s="115"/>
-      <c r="F17" s="113"/>
-      <c r="G17" s="114"/>
-      <c r="H17" s="114"/>
-      <c r="I17" s="115"/>
-      <c r="J17" s="94"/>
-      <c r="K17" s="94"/>
-      <c r="L17" s="94"/>
-      <c r="M17" s="94"/>
-      <c r="N17" s="94"/>
-      <c r="O17" s="94"/>
-      <c r="P17" s="94"/>
-      <c r="Q17" s="94"/>
-      <c r="R17" s="94"/>
-      <c r="S17" s="94"/>
-      <c r="T17" s="94"/>
-      <c r="U17" s="94"/>
-      <c r="V17" s="94"/>
-      <c r="W17" s="94"/>
-      <c r="X17" s="94"/>
-      <c r="Y17" s="94"/>
-      <c r="Z17" s="94"/>
-      <c r="AA17" s="94"/>
-      <c r="AB17" s="94"/>
-      <c r="AC17" s="94"/>
-      <c r="AD17" s="94"/>
-      <c r="AE17" s="94"/>
-      <c r="AF17" s="94"/>
-      <c r="AG17" s="94"/>
-      <c r="AH17" s="94"/>
-      <c r="AI17" s="94"/>
-      <c r="AJ17" s="94"/>
-      <c r="AK17" s="95"/>
+      <c r="A17" s="86"/>
+      <c r="B17" s="87"/>
+      <c r="C17" s="87"/>
+      <c r="D17" s="87"/>
+      <c r="E17" s="88"/>
+      <c r="F17" s="86"/>
+      <c r="G17" s="87"/>
+      <c r="H17" s="87"/>
+      <c r="I17" s="88"/>
+      <c r="J17" s="110"/>
+      <c r="K17" s="110"/>
+      <c r="L17" s="110"/>
+      <c r="M17" s="110"/>
+      <c r="N17" s="110"/>
+      <c r="O17" s="110"/>
+      <c r="P17" s="110"/>
+      <c r="Q17" s="110"/>
+      <c r="R17" s="110"/>
+      <c r="S17" s="110"/>
+      <c r="T17" s="110"/>
+      <c r="U17" s="110"/>
+      <c r="V17" s="110"/>
+      <c r="W17" s="110"/>
+      <c r="X17" s="110"/>
+      <c r="Y17" s="110"/>
+      <c r="Z17" s="110"/>
+      <c r="AA17" s="110"/>
+      <c r="AB17" s="110"/>
+      <c r="AC17" s="110"/>
+      <c r="AD17" s="110"/>
+      <c r="AE17" s="110"/>
+      <c r="AF17" s="110"/>
+      <c r="AG17" s="110"/>
+      <c r="AH17" s="110"/>
+      <c r="AI17" s="110"/>
+      <c r="AJ17" s="110"/>
+      <c r="AK17" s="111"/>
     </row>
     <row r="18" spans="1:37">
-      <c r="A18" s="113"/>
-      <c r="B18" s="114"/>
-      <c r="C18" s="114"/>
-      <c r="D18" s="114"/>
-      <c r="E18" s="115"/>
-      <c r="F18" s="113"/>
-      <c r="G18" s="114"/>
-      <c r="H18" s="114"/>
-      <c r="I18" s="115"/>
-      <c r="J18" s="94"/>
-      <c r="K18" s="94"/>
-      <c r="L18" s="94"/>
-      <c r="M18" s="94"/>
-      <c r="N18" s="94"/>
-      <c r="O18" s="94"/>
-      <c r="P18" s="94"/>
-      <c r="Q18" s="94"/>
-      <c r="R18" s="94"/>
-      <c r="S18" s="94"/>
-      <c r="T18" s="94"/>
-      <c r="U18" s="94"/>
-      <c r="V18" s="94"/>
-      <c r="W18" s="94"/>
-      <c r="X18" s="94"/>
-      <c r="Y18" s="94"/>
-      <c r="Z18" s="94"/>
-      <c r="AA18" s="94"/>
-      <c r="AB18" s="94"/>
-      <c r="AC18" s="94"/>
-      <c r="AD18" s="94"/>
-      <c r="AE18" s="94"/>
-      <c r="AF18" s="94"/>
-      <c r="AG18" s="94"/>
-      <c r="AH18" s="94"/>
-      <c r="AI18" s="94"/>
-      <c r="AJ18" s="94"/>
-      <c r="AK18" s="95"/>
+      <c r="A18" s="86"/>
+      <c r="B18" s="87"/>
+      <c r="C18" s="87"/>
+      <c r="D18" s="87"/>
+      <c r="E18" s="88"/>
+      <c r="F18" s="86"/>
+      <c r="G18" s="87"/>
+      <c r="H18" s="87"/>
+      <c r="I18" s="88"/>
+      <c r="J18" s="110"/>
+      <c r="K18" s="110"/>
+      <c r="L18" s="110"/>
+      <c r="M18" s="110"/>
+      <c r="N18" s="110"/>
+      <c r="O18" s="110"/>
+      <c r="P18" s="110"/>
+      <c r="Q18" s="110"/>
+      <c r="R18" s="110"/>
+      <c r="S18" s="110"/>
+      <c r="T18" s="110"/>
+      <c r="U18" s="110"/>
+      <c r="V18" s="110"/>
+      <c r="W18" s="110"/>
+      <c r="X18" s="110"/>
+      <c r="Y18" s="110"/>
+      <c r="Z18" s="110"/>
+      <c r="AA18" s="110"/>
+      <c r="AB18" s="110"/>
+      <c r="AC18" s="110"/>
+      <c r="AD18" s="110"/>
+      <c r="AE18" s="110"/>
+      <c r="AF18" s="110"/>
+      <c r="AG18" s="110"/>
+      <c r="AH18" s="110"/>
+      <c r="AI18" s="110"/>
+      <c r="AJ18" s="110"/>
+      <c r="AK18" s="111"/>
     </row>
     <row r="19" spans="1:37">
-      <c r="A19" s="113"/>
-      <c r="B19" s="114"/>
-      <c r="C19" s="114"/>
-      <c r="D19" s="114"/>
-      <c r="E19" s="115"/>
-      <c r="F19" s="113"/>
-      <c r="G19" s="114"/>
-      <c r="H19" s="114"/>
-      <c r="I19" s="115"/>
-      <c r="J19" s="94"/>
-      <c r="K19" s="94"/>
-      <c r="L19" s="94"/>
-      <c r="M19" s="94"/>
-      <c r="N19" s="94"/>
-      <c r="O19" s="94"/>
-      <c r="P19" s="94"/>
-      <c r="Q19" s="94"/>
-      <c r="R19" s="94"/>
-      <c r="S19" s="94"/>
-      <c r="T19" s="94"/>
-      <c r="U19" s="94"/>
-      <c r="V19" s="94"/>
-      <c r="W19" s="94"/>
-      <c r="X19" s="94"/>
-      <c r="Y19" s="94"/>
-      <c r="Z19" s="94"/>
-      <c r="AA19" s="94"/>
-      <c r="AB19" s="94"/>
-      <c r="AC19" s="94"/>
-      <c r="AD19" s="94"/>
-      <c r="AE19" s="94"/>
-      <c r="AF19" s="94"/>
-      <c r="AG19" s="94"/>
-      <c r="AH19" s="94"/>
-      <c r="AI19" s="94"/>
-      <c r="AJ19" s="94"/>
-      <c r="AK19" s="95"/>
+      <c r="A19" s="86"/>
+      <c r="B19" s="87"/>
+      <c r="C19" s="87"/>
+      <c r="D19" s="87"/>
+      <c r="E19" s="88"/>
+      <c r="F19" s="86"/>
+      <c r="G19" s="87"/>
+      <c r="H19" s="87"/>
+      <c r="I19" s="88"/>
+      <c r="J19" s="110"/>
+      <c r="K19" s="110"/>
+      <c r="L19" s="110"/>
+      <c r="M19" s="110"/>
+      <c r="N19" s="110"/>
+      <c r="O19" s="110"/>
+      <c r="P19" s="110"/>
+      <c r="Q19" s="110"/>
+      <c r="R19" s="110"/>
+      <c r="S19" s="110"/>
+      <c r="T19" s="110"/>
+      <c r="U19" s="110"/>
+      <c r="V19" s="110"/>
+      <c r="W19" s="110"/>
+      <c r="X19" s="110"/>
+      <c r="Y19" s="110"/>
+      <c r="Z19" s="110"/>
+      <c r="AA19" s="110"/>
+      <c r="AB19" s="110"/>
+      <c r="AC19" s="110"/>
+      <c r="AD19" s="110"/>
+      <c r="AE19" s="110"/>
+      <c r="AF19" s="110"/>
+      <c r="AG19" s="110"/>
+      <c r="AH19" s="110"/>
+      <c r="AI19" s="110"/>
+      <c r="AJ19" s="110"/>
+      <c r="AK19" s="111"/>
     </row>
     <row r="20" spans="1:37">
-      <c r="A20" s="113"/>
-      <c r="B20" s="114"/>
-      <c r="C20" s="114"/>
-      <c r="D20" s="114"/>
-      <c r="E20" s="115"/>
-      <c r="F20" s="113"/>
-      <c r="G20" s="114"/>
-      <c r="H20" s="114"/>
-      <c r="I20" s="115"/>
-      <c r="J20" s="94"/>
-      <c r="K20" s="94"/>
-      <c r="L20" s="94"/>
-      <c r="M20" s="94"/>
-      <c r="N20" s="94"/>
-      <c r="O20" s="94"/>
-      <c r="P20" s="94"/>
-      <c r="Q20" s="94"/>
-      <c r="R20" s="94"/>
-      <c r="S20" s="94"/>
-      <c r="T20" s="94"/>
-      <c r="U20" s="94"/>
-      <c r="V20" s="94"/>
-      <c r="W20" s="94"/>
-      <c r="X20" s="94"/>
-      <c r="Y20" s="94"/>
-      <c r="Z20" s="94"/>
-      <c r="AA20" s="94"/>
-      <c r="AB20" s="94"/>
-      <c r="AC20" s="94"/>
-      <c r="AD20" s="94"/>
-      <c r="AE20" s="94"/>
-      <c r="AF20" s="94"/>
-      <c r="AG20" s="94"/>
-      <c r="AH20" s="94"/>
-      <c r="AI20" s="94"/>
-      <c r="AJ20" s="94"/>
-      <c r="AK20" s="95"/>
+      <c r="A20" s="86"/>
+      <c r="B20" s="87"/>
+      <c r="C20" s="87"/>
+      <c r="D20" s="87"/>
+      <c r="E20" s="88"/>
+      <c r="F20" s="86"/>
+      <c r="G20" s="87"/>
+      <c r="H20" s="87"/>
+      <c r="I20" s="88"/>
+      <c r="J20" s="110"/>
+      <c r="K20" s="110"/>
+      <c r="L20" s="110"/>
+      <c r="M20" s="110"/>
+      <c r="N20" s="110"/>
+      <c r="O20" s="110"/>
+      <c r="P20" s="110"/>
+      <c r="Q20" s="110"/>
+      <c r="R20" s="110"/>
+      <c r="S20" s="110"/>
+      <c r="T20" s="110"/>
+      <c r="U20" s="110"/>
+      <c r="V20" s="110"/>
+      <c r="W20" s="110"/>
+      <c r="X20" s="110"/>
+      <c r="Y20" s="110"/>
+      <c r="Z20" s="110"/>
+      <c r="AA20" s="110"/>
+      <c r="AB20" s="110"/>
+      <c r="AC20" s="110"/>
+      <c r="AD20" s="110"/>
+      <c r="AE20" s="110"/>
+      <c r="AF20" s="110"/>
+      <c r="AG20" s="110"/>
+      <c r="AH20" s="110"/>
+      <c r="AI20" s="110"/>
+      <c r="AJ20" s="110"/>
+      <c r="AK20" s="111"/>
     </row>
     <row r="21" spans="1:37">
-      <c r="A21" s="113"/>
-      <c r="B21" s="114"/>
-      <c r="C21" s="114"/>
-      <c r="D21" s="114"/>
-      <c r="E21" s="115"/>
-      <c r="F21" s="113"/>
-      <c r="G21" s="114"/>
-      <c r="H21" s="114"/>
-      <c r="I21" s="115"/>
-      <c r="J21" s="94"/>
-      <c r="K21" s="94"/>
-      <c r="L21" s="94"/>
-      <c r="M21" s="94"/>
-      <c r="N21" s="94"/>
-      <c r="O21" s="94"/>
-      <c r="P21" s="94"/>
-      <c r="Q21" s="94"/>
-      <c r="R21" s="94"/>
-      <c r="S21" s="94"/>
-      <c r="T21" s="94"/>
-      <c r="U21" s="94"/>
-      <c r="V21" s="94"/>
-      <c r="W21" s="94"/>
-      <c r="X21" s="94"/>
-      <c r="Y21" s="94"/>
-      <c r="Z21" s="94"/>
-      <c r="AA21" s="94"/>
-      <c r="AB21" s="94"/>
-      <c r="AC21" s="94"/>
-      <c r="AD21" s="94"/>
-      <c r="AE21" s="94"/>
-      <c r="AF21" s="94"/>
-      <c r="AG21" s="94"/>
-      <c r="AH21" s="94"/>
-      <c r="AI21" s="94"/>
-      <c r="AJ21" s="94"/>
-      <c r="AK21" s="95"/>
+      <c r="A21" s="86"/>
+      <c r="B21" s="87"/>
+      <c r="C21" s="87"/>
+      <c r="D21" s="87"/>
+      <c r="E21" s="88"/>
+      <c r="F21" s="86"/>
+      <c r="G21" s="87"/>
+      <c r="H21" s="87"/>
+      <c r="I21" s="88"/>
+      <c r="J21" s="110"/>
+      <c r="K21" s="110"/>
+      <c r="L21" s="110"/>
+      <c r="M21" s="110"/>
+      <c r="N21" s="110"/>
+      <c r="O21" s="110"/>
+      <c r="P21" s="110"/>
+      <c r="Q21" s="110"/>
+      <c r="R21" s="110"/>
+      <c r="S21" s="110"/>
+      <c r="T21" s="110"/>
+      <c r="U21" s="110"/>
+      <c r="V21" s="110"/>
+      <c r="W21" s="110"/>
+      <c r="X21" s="110"/>
+      <c r="Y21" s="110"/>
+      <c r="Z21" s="110"/>
+      <c r="AA21" s="110"/>
+      <c r="AB21" s="110"/>
+      <c r="AC21" s="110"/>
+      <c r="AD21" s="110"/>
+      <c r="AE21" s="110"/>
+      <c r="AF21" s="110"/>
+      <c r="AG21" s="110"/>
+      <c r="AH21" s="110"/>
+      <c r="AI21" s="110"/>
+      <c r="AJ21" s="110"/>
+      <c r="AK21" s="111"/>
     </row>
     <row r="22" spans="1:37">
-      <c r="A22" s="113"/>
-      <c r="B22" s="114"/>
-      <c r="C22" s="114"/>
-      <c r="D22" s="114"/>
-      <c r="E22" s="115"/>
-      <c r="F22" s="113"/>
-      <c r="G22" s="114"/>
-      <c r="H22" s="114"/>
-      <c r="I22" s="115"/>
-      <c r="J22" s="94"/>
-      <c r="K22" s="94"/>
-      <c r="L22" s="94"/>
-      <c r="M22" s="94"/>
-      <c r="N22" s="94"/>
-      <c r="O22" s="94"/>
-      <c r="P22" s="94"/>
-      <c r="Q22" s="94"/>
-      <c r="R22" s="94"/>
-      <c r="S22" s="94"/>
-      <c r="T22" s="94"/>
-      <c r="U22" s="94"/>
-      <c r="V22" s="94"/>
-      <c r="W22" s="94"/>
-      <c r="X22" s="94"/>
-      <c r="Y22" s="94"/>
-      <c r="Z22" s="94"/>
-      <c r="AA22" s="94"/>
-      <c r="AB22" s="94"/>
-      <c r="AC22" s="94"/>
-      <c r="AD22" s="94"/>
-      <c r="AE22" s="94"/>
-      <c r="AF22" s="94"/>
-      <c r="AG22" s="94"/>
-      <c r="AH22" s="94"/>
-      <c r="AI22" s="94"/>
-      <c r="AJ22" s="94"/>
-      <c r="AK22" s="95"/>
+      <c r="A22" s="86"/>
+      <c r="B22" s="87"/>
+      <c r="C22" s="87"/>
+      <c r="D22" s="87"/>
+      <c r="E22" s="88"/>
+      <c r="F22" s="86"/>
+      <c r="G22" s="87"/>
+      <c r="H22" s="87"/>
+      <c r="I22" s="88"/>
+      <c r="J22" s="110"/>
+      <c r="K22" s="110"/>
+      <c r="L22" s="110"/>
+      <c r="M22" s="110"/>
+      <c r="N22" s="110"/>
+      <c r="O22" s="110"/>
+      <c r="P22" s="110"/>
+      <c r="Q22" s="110"/>
+      <c r="R22" s="110"/>
+      <c r="S22" s="110"/>
+      <c r="T22" s="110"/>
+      <c r="U22" s="110"/>
+      <c r="V22" s="110"/>
+      <c r="W22" s="110"/>
+      <c r="X22" s="110"/>
+      <c r="Y22" s="110"/>
+      <c r="Z22" s="110"/>
+      <c r="AA22" s="110"/>
+      <c r="AB22" s="110"/>
+      <c r="AC22" s="110"/>
+      <c r="AD22" s="110"/>
+      <c r="AE22" s="110"/>
+      <c r="AF22" s="110"/>
+      <c r="AG22" s="110"/>
+      <c r="AH22" s="110"/>
+      <c r="AI22" s="110"/>
+      <c r="AJ22" s="110"/>
+      <c r="AK22" s="111"/>
     </row>
     <row r="23" spans="1:37">
-      <c r="A23" s="113"/>
-      <c r="B23" s="114"/>
-      <c r="C23" s="114"/>
-      <c r="D23" s="114"/>
-      <c r="E23" s="115"/>
-      <c r="F23" s="113"/>
-      <c r="G23" s="114"/>
-      <c r="H23" s="114"/>
-      <c r="I23" s="115"/>
-      <c r="J23" s="94"/>
-      <c r="K23" s="94"/>
-      <c r="L23" s="94"/>
-      <c r="M23" s="94"/>
-      <c r="N23" s="94"/>
-      <c r="O23" s="94"/>
-      <c r="P23" s="94"/>
-      <c r="Q23" s="94"/>
-      <c r="R23" s="94"/>
-      <c r="S23" s="94"/>
-      <c r="T23" s="94"/>
-      <c r="U23" s="94"/>
-      <c r="V23" s="94"/>
-      <c r="W23" s="94"/>
-      <c r="X23" s="94"/>
-      <c r="Y23" s="94"/>
-      <c r="Z23" s="94"/>
-      <c r="AA23" s="94"/>
-      <c r="AB23" s="94"/>
-      <c r="AC23" s="94"/>
-      <c r="AD23" s="94"/>
-      <c r="AE23" s="94"/>
-      <c r="AF23" s="94"/>
-      <c r="AG23" s="94"/>
-      <c r="AH23" s="94"/>
-      <c r="AI23" s="94"/>
-      <c r="AJ23" s="94"/>
-      <c r="AK23" s="95"/>
+      <c r="A23" s="86"/>
+      <c r="B23" s="87"/>
+      <c r="C23" s="87"/>
+      <c r="D23" s="87"/>
+      <c r="E23" s="88"/>
+      <c r="F23" s="86"/>
+      <c r="G23" s="87"/>
+      <c r="H23" s="87"/>
+      <c r="I23" s="88"/>
+      <c r="J23" s="110"/>
+      <c r="K23" s="110"/>
+      <c r="L23" s="110"/>
+      <c r="M23" s="110"/>
+      <c r="N23" s="110"/>
+      <c r="O23" s="110"/>
+      <c r="P23" s="110"/>
+      <c r="Q23" s="110"/>
+      <c r="R23" s="110"/>
+      <c r="S23" s="110"/>
+      <c r="T23" s="110"/>
+      <c r="U23" s="110"/>
+      <c r="V23" s="110"/>
+      <c r="W23" s="110"/>
+      <c r="X23" s="110"/>
+      <c r="Y23" s="110"/>
+      <c r="Z23" s="110"/>
+      <c r="AA23" s="110"/>
+      <c r="AB23" s="110"/>
+      <c r="AC23" s="110"/>
+      <c r="AD23" s="110"/>
+      <c r="AE23" s="110"/>
+      <c r="AF23" s="110"/>
+      <c r="AG23" s="110"/>
+      <c r="AH23" s="110"/>
+      <c r="AI23" s="110"/>
+      <c r="AJ23" s="110"/>
+      <c r="AK23" s="111"/>
     </row>
     <row r="24" spans="1:37">
-      <c r="A24" s="113"/>
-      <c r="B24" s="114"/>
-      <c r="C24" s="114"/>
-      <c r="D24" s="114"/>
-      <c r="E24" s="115"/>
-      <c r="F24" s="113"/>
-      <c r="G24" s="114"/>
-      <c r="H24" s="114"/>
-      <c r="I24" s="115"/>
-      <c r="J24" s="94"/>
-      <c r="K24" s="94"/>
-      <c r="L24" s="94"/>
-      <c r="M24" s="94"/>
-      <c r="N24" s="94"/>
-      <c r="O24" s="94"/>
-      <c r="P24" s="94"/>
-      <c r="Q24" s="94"/>
-      <c r="R24" s="94"/>
-      <c r="S24" s="94"/>
-      <c r="T24" s="94"/>
-      <c r="U24" s="94"/>
-      <c r="V24" s="94"/>
-      <c r="W24" s="94"/>
-      <c r="X24" s="94"/>
-      <c r="Y24" s="94"/>
-      <c r="Z24" s="94"/>
-      <c r="AA24" s="94"/>
-      <c r="AB24" s="94"/>
-      <c r="AC24" s="94"/>
-      <c r="AD24" s="94"/>
-      <c r="AE24" s="94"/>
-      <c r="AF24" s="94"/>
-      <c r="AG24" s="94"/>
-      <c r="AH24" s="94"/>
-      <c r="AI24" s="94"/>
-      <c r="AJ24" s="94"/>
-      <c r="AK24" s="95"/>
+      <c r="A24" s="86"/>
+      <c r="B24" s="87"/>
+      <c r="C24" s="87"/>
+      <c r="D24" s="87"/>
+      <c r="E24" s="88"/>
+      <c r="F24" s="86"/>
+      <c r="G24" s="87"/>
+      <c r="H24" s="87"/>
+      <c r="I24" s="88"/>
+      <c r="J24" s="110"/>
+      <c r="K24" s="110"/>
+      <c r="L24" s="110"/>
+      <c r="M24" s="110"/>
+      <c r="N24" s="110"/>
+      <c r="O24" s="110"/>
+      <c r="P24" s="110"/>
+      <c r="Q24" s="110"/>
+      <c r="R24" s="110"/>
+      <c r="S24" s="110"/>
+      <c r="T24" s="110"/>
+      <c r="U24" s="110"/>
+      <c r="V24" s="110"/>
+      <c r="W24" s="110"/>
+      <c r="X24" s="110"/>
+      <c r="Y24" s="110"/>
+      <c r="Z24" s="110"/>
+      <c r="AA24" s="110"/>
+      <c r="AB24" s="110"/>
+      <c r="AC24" s="110"/>
+      <c r="AD24" s="110"/>
+      <c r="AE24" s="110"/>
+      <c r="AF24" s="110"/>
+      <c r="AG24" s="110"/>
+      <c r="AH24" s="110"/>
+      <c r="AI24" s="110"/>
+      <c r="AJ24" s="110"/>
+      <c r="AK24" s="111"/>
     </row>
     <row r="25" spans="1:37">
-      <c r="A25" s="113"/>
-      <c r="B25" s="114"/>
-      <c r="C25" s="114"/>
-      <c r="D25" s="114"/>
-      <c r="E25" s="115"/>
-      <c r="F25" s="113"/>
-      <c r="G25" s="114"/>
-      <c r="H25" s="114"/>
-      <c r="I25" s="115"/>
-      <c r="J25" s="94"/>
-      <c r="K25" s="94"/>
-      <c r="L25" s="94"/>
-      <c r="M25" s="94"/>
-      <c r="N25" s="94"/>
-      <c r="O25" s="94"/>
-      <c r="P25" s="94"/>
-      <c r="Q25" s="94"/>
-      <c r="R25" s="94"/>
-      <c r="S25" s="94"/>
-      <c r="T25" s="94"/>
-      <c r="U25" s="94"/>
-      <c r="V25" s="94"/>
-      <c r="W25" s="94"/>
-      <c r="X25" s="94"/>
-      <c r="Y25" s="94"/>
-      <c r="Z25" s="94"/>
-      <c r="AA25" s="94"/>
-      <c r="AB25" s="94"/>
-      <c r="AC25" s="94"/>
-      <c r="AD25" s="94"/>
-      <c r="AE25" s="94"/>
-      <c r="AF25" s="94"/>
-      <c r="AG25" s="94"/>
-      <c r="AH25" s="94"/>
-      <c r="AI25" s="94"/>
-      <c r="AJ25" s="94"/>
-      <c r="AK25" s="95"/>
+      <c r="A25" s="86"/>
+      <c r="B25" s="87"/>
+      <c r="C25" s="87"/>
+      <c r="D25" s="87"/>
+      <c r="E25" s="88"/>
+      <c r="F25" s="86"/>
+      <c r="G25" s="87"/>
+      <c r="H25" s="87"/>
+      <c r="I25" s="88"/>
+      <c r="J25" s="110"/>
+      <c r="K25" s="110"/>
+      <c r="L25" s="110"/>
+      <c r="M25" s="110"/>
+      <c r="N25" s="110"/>
+      <c r="O25" s="110"/>
+      <c r="P25" s="110"/>
+      <c r="Q25" s="110"/>
+      <c r="R25" s="110"/>
+      <c r="S25" s="110"/>
+      <c r="T25" s="110"/>
+      <c r="U25" s="110"/>
+      <c r="V25" s="110"/>
+      <c r="W25" s="110"/>
+      <c r="X25" s="110"/>
+      <c r="Y25" s="110"/>
+      <c r="Z25" s="110"/>
+      <c r="AA25" s="110"/>
+      <c r="AB25" s="110"/>
+      <c r="AC25" s="110"/>
+      <c r="AD25" s="110"/>
+      <c r="AE25" s="110"/>
+      <c r="AF25" s="110"/>
+      <c r="AG25" s="110"/>
+      <c r="AH25" s="110"/>
+      <c r="AI25" s="110"/>
+      <c r="AJ25" s="110"/>
+      <c r="AK25" s="111"/>
     </row>
     <row r="26" spans="1:37">
-      <c r="A26" s="113"/>
-      <c r="B26" s="114"/>
-      <c r="C26" s="114"/>
-      <c r="D26" s="114"/>
-      <c r="E26" s="115"/>
-      <c r="F26" s="113"/>
-      <c r="G26" s="114"/>
-      <c r="H26" s="114"/>
-      <c r="I26" s="115"/>
-      <c r="J26" s="94"/>
-      <c r="K26" s="94"/>
-      <c r="L26" s="94"/>
-      <c r="M26" s="94"/>
-      <c r="N26" s="94"/>
-      <c r="O26" s="94"/>
-      <c r="P26" s="94"/>
-      <c r="Q26" s="94"/>
-      <c r="R26" s="94"/>
-      <c r="S26" s="94"/>
-      <c r="T26" s="94"/>
-      <c r="U26" s="94"/>
-      <c r="V26" s="94"/>
-      <c r="W26" s="94"/>
-      <c r="X26" s="94"/>
-      <c r="Y26" s="94"/>
-      <c r="Z26" s="94"/>
-      <c r="AA26" s="94"/>
-      <c r="AB26" s="94"/>
-      <c r="AC26" s="94"/>
-      <c r="AD26" s="94"/>
-      <c r="AE26" s="94"/>
-      <c r="AF26" s="94"/>
-      <c r="AG26" s="94"/>
-      <c r="AH26" s="94"/>
-      <c r="AI26" s="94"/>
-      <c r="AJ26" s="94"/>
-      <c r="AK26" s="95"/>
+      <c r="A26" s="86"/>
+      <c r="B26" s="87"/>
+      <c r="C26" s="87"/>
+      <c r="D26" s="87"/>
+      <c r="E26" s="88"/>
+      <c r="F26" s="86"/>
+      <c r="G26" s="87"/>
+      <c r="H26" s="87"/>
+      <c r="I26" s="88"/>
+      <c r="J26" s="110"/>
+      <c r="K26" s="110"/>
+      <c r="L26" s="110"/>
+      <c r="M26" s="110"/>
+      <c r="N26" s="110"/>
+      <c r="O26" s="110"/>
+      <c r="P26" s="110"/>
+      <c r="Q26" s="110"/>
+      <c r="R26" s="110"/>
+      <c r="S26" s="110"/>
+      <c r="T26" s="110"/>
+      <c r="U26" s="110"/>
+      <c r="V26" s="110"/>
+      <c r="W26" s="110"/>
+      <c r="X26" s="110"/>
+      <c r="Y26" s="110"/>
+      <c r="Z26" s="110"/>
+      <c r="AA26" s="110"/>
+      <c r="AB26" s="110"/>
+      <c r="AC26" s="110"/>
+      <c r="AD26" s="110"/>
+      <c r="AE26" s="110"/>
+      <c r="AF26" s="110"/>
+      <c r="AG26" s="110"/>
+      <c r="AH26" s="110"/>
+      <c r="AI26" s="110"/>
+      <c r="AJ26" s="110"/>
+      <c r="AK26" s="111"/>
     </row>
     <row r="27" spans="1:37">
-      <c r="A27" s="113"/>
-      <c r="B27" s="114"/>
-      <c r="C27" s="114"/>
-      <c r="D27" s="114"/>
-      <c r="E27" s="115"/>
-      <c r="F27" s="113"/>
-      <c r="G27" s="114"/>
-      <c r="H27" s="114"/>
-      <c r="I27" s="115"/>
-      <c r="J27" s="94"/>
-      <c r="K27" s="94"/>
-      <c r="L27" s="94"/>
-      <c r="M27" s="94"/>
-      <c r="N27" s="94"/>
-      <c r="O27" s="94"/>
-      <c r="P27" s="94"/>
-      <c r="Q27" s="94"/>
-      <c r="R27" s="94"/>
-      <c r="S27" s="94"/>
-      <c r="T27" s="94"/>
-      <c r="U27" s="94"/>
-      <c r="V27" s="94"/>
-      <c r="W27" s="94"/>
-      <c r="X27" s="94"/>
-      <c r="Y27" s="94"/>
-      <c r="Z27" s="94"/>
-      <c r="AA27" s="94"/>
-      <c r="AB27" s="94"/>
-      <c r="AC27" s="94"/>
-      <c r="AD27" s="94"/>
-      <c r="AE27" s="94"/>
-      <c r="AF27" s="94"/>
-      <c r="AG27" s="94"/>
-      <c r="AH27" s="94"/>
-      <c r="AI27" s="94"/>
-      <c r="AJ27" s="94"/>
-      <c r="AK27" s="95"/>
+      <c r="A27" s="86"/>
+      <c r="B27" s="87"/>
+      <c r="C27" s="87"/>
+      <c r="D27" s="87"/>
+      <c r="E27" s="88"/>
+      <c r="F27" s="86"/>
+      <c r="G27" s="87"/>
+      <c r="H27" s="87"/>
+      <c r="I27" s="88"/>
+      <c r="J27" s="110"/>
+      <c r="K27" s="110"/>
+      <c r="L27" s="110"/>
+      <c r="M27" s="110"/>
+      <c r="N27" s="110"/>
+      <c r="O27" s="110"/>
+      <c r="P27" s="110"/>
+      <c r="Q27" s="110"/>
+      <c r="R27" s="110"/>
+      <c r="S27" s="110"/>
+      <c r="T27" s="110"/>
+      <c r="U27" s="110"/>
+      <c r="V27" s="110"/>
+      <c r="W27" s="110"/>
+      <c r="X27" s="110"/>
+      <c r="Y27" s="110"/>
+      <c r="Z27" s="110"/>
+      <c r="AA27" s="110"/>
+      <c r="AB27" s="110"/>
+      <c r="AC27" s="110"/>
+      <c r="AD27" s="110"/>
+      <c r="AE27" s="110"/>
+      <c r="AF27" s="110"/>
+      <c r="AG27" s="110"/>
+      <c r="AH27" s="110"/>
+      <c r="AI27" s="110"/>
+      <c r="AJ27" s="110"/>
+      <c r="AK27" s="111"/>
     </row>
     <row r="28" spans="1:37">
-      <c r="A28" s="113"/>
-      <c r="B28" s="114"/>
-      <c r="C28" s="114"/>
-      <c r="D28" s="114"/>
-      <c r="E28" s="115"/>
-      <c r="F28" s="113"/>
-      <c r="G28" s="114"/>
-      <c r="H28" s="114"/>
-      <c r="I28" s="115"/>
-      <c r="J28" s="94"/>
-      <c r="K28" s="94"/>
-      <c r="L28" s="94"/>
-      <c r="M28" s="94"/>
-      <c r="N28" s="94"/>
-      <c r="O28" s="94"/>
-      <c r="P28" s="94"/>
-      <c r="Q28" s="94"/>
-      <c r="R28" s="94"/>
-      <c r="S28" s="94"/>
-      <c r="T28" s="94"/>
-      <c r="U28" s="94"/>
-      <c r="V28" s="94"/>
-      <c r="W28" s="94"/>
-      <c r="X28" s="94"/>
-      <c r="Y28" s="94"/>
-      <c r="Z28" s="94"/>
-      <c r="AA28" s="94"/>
-      <c r="AB28" s="94"/>
-      <c r="AC28" s="94"/>
-      <c r="AD28" s="94"/>
-      <c r="AE28" s="94"/>
-      <c r="AF28" s="94"/>
-      <c r="AG28" s="94"/>
-      <c r="AH28" s="94"/>
-      <c r="AI28" s="94"/>
-      <c r="AJ28" s="94"/>
-      <c r="AK28" s="95"/>
+      <c r="A28" s="86"/>
+      <c r="B28" s="87"/>
+      <c r="C28" s="87"/>
+      <c r="D28" s="87"/>
+      <c r="E28" s="88"/>
+      <c r="F28" s="86"/>
+      <c r="G28" s="87"/>
+      <c r="H28" s="87"/>
+      <c r="I28" s="88"/>
+      <c r="J28" s="110"/>
+      <c r="K28" s="110"/>
+      <c r="L28" s="110"/>
+      <c r="M28" s="110"/>
+      <c r="N28" s="110"/>
+      <c r="O28" s="110"/>
+      <c r="P28" s="110"/>
+      <c r="Q28" s="110"/>
+      <c r="R28" s="110"/>
+      <c r="S28" s="110"/>
+      <c r="T28" s="110"/>
+      <c r="U28" s="110"/>
+      <c r="V28" s="110"/>
+      <c r="W28" s="110"/>
+      <c r="X28" s="110"/>
+      <c r="Y28" s="110"/>
+      <c r="Z28" s="110"/>
+      <c r="AA28" s="110"/>
+      <c r="AB28" s="110"/>
+      <c r="AC28" s="110"/>
+      <c r="AD28" s="110"/>
+      <c r="AE28" s="110"/>
+      <c r="AF28" s="110"/>
+      <c r="AG28" s="110"/>
+      <c r="AH28" s="110"/>
+      <c r="AI28" s="110"/>
+      <c r="AJ28" s="110"/>
+      <c r="AK28" s="111"/>
     </row>
     <row r="29" spans="1:37">
-      <c r="A29" s="113"/>
-      <c r="B29" s="114"/>
-      <c r="C29" s="114"/>
-      <c r="D29" s="114"/>
-      <c r="E29" s="115"/>
-      <c r="F29" s="113"/>
-      <c r="G29" s="114"/>
-      <c r="H29" s="114"/>
-      <c r="I29" s="115"/>
-      <c r="J29" s="94"/>
-      <c r="K29" s="94"/>
-      <c r="L29" s="94"/>
-      <c r="M29" s="94"/>
-      <c r="N29" s="94"/>
-      <c r="O29" s="94"/>
-      <c r="P29" s="94"/>
-      <c r="Q29" s="94"/>
-      <c r="R29" s="94"/>
-      <c r="S29" s="94"/>
-      <c r="T29" s="94"/>
-      <c r="U29" s="94"/>
-      <c r="V29" s="94"/>
-      <c r="W29" s="94"/>
-      <c r="X29" s="94"/>
-      <c r="Y29" s="94"/>
-      <c r="Z29" s="94"/>
-      <c r="AA29" s="94"/>
-      <c r="AB29" s="94"/>
-      <c r="AC29" s="94"/>
-      <c r="AD29" s="94"/>
-      <c r="AE29" s="94"/>
-      <c r="AF29" s="94"/>
-      <c r="AG29" s="94"/>
-      <c r="AH29" s="94"/>
-      <c r="AI29" s="94"/>
-      <c r="AJ29" s="94"/>
-      <c r="AK29" s="95"/>
-    </row>
-    <row r="30" spans="1:37" ht="11.5" thickBot="1">
-      <c r="A30" s="107"/>
-      <c r="B30" s="108"/>
-      <c r="C30" s="108"/>
-      <c r="D30" s="108"/>
-      <c r="E30" s="109"/>
-      <c r="F30" s="107"/>
-      <c r="G30" s="108"/>
-      <c r="H30" s="108"/>
-      <c r="I30" s="109"/>
-      <c r="J30" s="105"/>
-      <c r="K30" s="105"/>
-      <c r="L30" s="105"/>
-      <c r="M30" s="105"/>
-      <c r="N30" s="105"/>
-      <c r="O30" s="105"/>
-      <c r="P30" s="105"/>
-      <c r="Q30" s="105"/>
-      <c r="R30" s="105"/>
-      <c r="S30" s="105"/>
-      <c r="T30" s="105"/>
-      <c r="U30" s="105"/>
-      <c r="V30" s="105"/>
-      <c r="W30" s="105"/>
-      <c r="X30" s="105"/>
-      <c r="Y30" s="105"/>
-      <c r="Z30" s="105"/>
-      <c r="AA30" s="105"/>
-      <c r="AB30" s="105"/>
-      <c r="AC30" s="105"/>
-      <c r="AD30" s="105"/>
-      <c r="AE30" s="105"/>
-      <c r="AF30" s="105"/>
-      <c r="AG30" s="105"/>
-      <c r="AH30" s="105"/>
-      <c r="AI30" s="105"/>
-      <c r="AJ30" s="105"/>
-      <c r="AK30" s="106"/>
+      <c r="A29" s="86"/>
+      <c r="B29" s="87"/>
+      <c r="C29" s="87"/>
+      <c r="D29" s="87"/>
+      <c r="E29" s="88"/>
+      <c r="F29" s="86"/>
+      <c r="G29" s="87"/>
+      <c r="H29" s="87"/>
+      <c r="I29" s="88"/>
+      <c r="J29" s="110"/>
+      <c r="K29" s="110"/>
+      <c r="L29" s="110"/>
+      <c r="M29" s="110"/>
+      <c r="N29" s="110"/>
+      <c r="O29" s="110"/>
+      <c r="P29" s="110"/>
+      <c r="Q29" s="110"/>
+      <c r="R29" s="110"/>
+      <c r="S29" s="110"/>
+      <c r="T29" s="110"/>
+      <c r="U29" s="110"/>
+      <c r="V29" s="110"/>
+      <c r="W29" s="110"/>
+      <c r="X29" s="110"/>
+      <c r="Y29" s="110"/>
+      <c r="Z29" s="110"/>
+      <c r="AA29" s="110"/>
+      <c r="AB29" s="110"/>
+      <c r="AC29" s="110"/>
+      <c r="AD29" s="110"/>
+      <c r="AE29" s="110"/>
+      <c r="AF29" s="110"/>
+      <c r="AG29" s="110"/>
+      <c r="AH29" s="110"/>
+      <c r="AI29" s="110"/>
+      <c r="AJ29" s="110"/>
+      <c r="AK29" s="111"/>
+    </row>
+    <row r="30" spans="1:37" ht="11.4" thickBot="1">
+      <c r="A30" s="83"/>
+      <c r="B30" s="84"/>
+      <c r="C30" s="84"/>
+      <c r="D30" s="84"/>
+      <c r="E30" s="85"/>
+      <c r="F30" s="83"/>
+      <c r="G30" s="84"/>
+      <c r="H30" s="84"/>
+      <c r="I30" s="85"/>
+      <c r="J30" s="112"/>
+      <c r="K30" s="112"/>
+      <c r="L30" s="112"/>
+      <c r="M30" s="112"/>
+      <c r="N30" s="112"/>
+      <c r="O30" s="112"/>
+      <c r="P30" s="112"/>
+      <c r="Q30" s="112"/>
+      <c r="R30" s="112"/>
+      <c r="S30" s="112"/>
+      <c r="T30" s="112"/>
+      <c r="U30" s="112"/>
+      <c r="V30" s="112"/>
+      <c r="W30" s="112"/>
+      <c r="X30" s="112"/>
+      <c r="Y30" s="112"/>
+      <c r="Z30" s="112"/>
+      <c r="AA30" s="112"/>
+      <c r="AB30" s="112"/>
+      <c r="AC30" s="112"/>
+      <c r="AD30" s="112"/>
+      <c r="AE30" s="112"/>
+      <c r="AF30" s="112"/>
+      <c r="AG30" s="112"/>
+      <c r="AH30" s="112"/>
+      <c r="AI30" s="112"/>
+      <c r="AJ30" s="112"/>
+      <c r="AK30" s="113"/>
     </row>
   </sheetData>
   <mergeCells count="87">
+    <mergeCell ref="J2:AK2"/>
+    <mergeCell ref="J3:AK3"/>
+    <mergeCell ref="J4:AK4"/>
+    <mergeCell ref="J5:AK5"/>
+    <mergeCell ref="J11:AK11"/>
+    <mergeCell ref="J12:AK12"/>
+    <mergeCell ref="J6:AK6"/>
+    <mergeCell ref="J7:AK7"/>
+    <mergeCell ref="J8:AK8"/>
+    <mergeCell ref="J9:AK9"/>
+    <mergeCell ref="J10:AK10"/>
+    <mergeCell ref="J13:AK13"/>
+    <mergeCell ref="J14:AK14"/>
+    <mergeCell ref="J15:AK15"/>
+    <mergeCell ref="J16:AK16"/>
+    <mergeCell ref="J17:AK17"/>
+    <mergeCell ref="J24:AK24"/>
+    <mergeCell ref="J25:AK25"/>
+    <mergeCell ref="J26:AK26"/>
+    <mergeCell ref="J27:AK27"/>
+    <mergeCell ref="J18:AK18"/>
+    <mergeCell ref="J19:AK19"/>
+    <mergeCell ref="J20:AK20"/>
+    <mergeCell ref="J21:AK21"/>
+    <mergeCell ref="J22:AK22"/>
+    <mergeCell ref="J28:AK28"/>
+    <mergeCell ref="J29:AK29"/>
+    <mergeCell ref="J30:AK30"/>
+    <mergeCell ref="F30:I30"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="F26:I26"/>
+    <mergeCell ref="F27:I27"/>
+    <mergeCell ref="F28:I28"/>
+    <mergeCell ref="F29:I29"/>
+    <mergeCell ref="F22:I22"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="F16:I16"/>
+    <mergeCell ref="F3:I3"/>
+    <mergeCell ref="F4:I4"/>
+    <mergeCell ref="F5:I5"/>
+    <mergeCell ref="J23:AK23"/>
+    <mergeCell ref="F6:I6"/>
+    <mergeCell ref="A12:E12"/>
+    <mergeCell ref="F17:I17"/>
+    <mergeCell ref="F24:I24"/>
+    <mergeCell ref="F25:I25"/>
+    <mergeCell ref="F18:I18"/>
+    <mergeCell ref="F19:I19"/>
+    <mergeCell ref="F20:I20"/>
+    <mergeCell ref="F21:I21"/>
+    <mergeCell ref="A24:E24"/>
+    <mergeCell ref="A17:E17"/>
+    <mergeCell ref="A18:E18"/>
+    <mergeCell ref="A19:E19"/>
+    <mergeCell ref="A20:E20"/>
+    <mergeCell ref="F13:I13"/>
+    <mergeCell ref="F14:I14"/>
+    <mergeCell ref="F15:I15"/>
+    <mergeCell ref="A7:E7"/>
+    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="F10:I10"/>
+    <mergeCell ref="F11:I11"/>
+    <mergeCell ref="A11:E11"/>
+    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="F7:I7"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="A9:E9"/>
+    <mergeCell ref="A6:E6"/>
     <mergeCell ref="A30:E30"/>
     <mergeCell ref="F8:I8"/>
     <mergeCell ref="F9:I9"/>
@@ -20699,77 +20841,6 @@
     <mergeCell ref="A16:E16"/>
     <mergeCell ref="A23:E23"/>
     <mergeCell ref="F12:I12"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="A5:E5"/>
-    <mergeCell ref="A9:E9"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="F15:I15"/>
-    <mergeCell ref="A7:E7"/>
-    <mergeCell ref="A8:E8"/>
-    <mergeCell ref="F10:I10"/>
-    <mergeCell ref="F11:I11"/>
-    <mergeCell ref="A11:E11"/>
-    <mergeCell ref="A10:E10"/>
-    <mergeCell ref="F7:I7"/>
-    <mergeCell ref="F6:I6"/>
-    <mergeCell ref="A12:E12"/>
-    <mergeCell ref="F17:I17"/>
-    <mergeCell ref="F24:I24"/>
-    <mergeCell ref="F25:I25"/>
-    <mergeCell ref="F18:I18"/>
-    <mergeCell ref="F19:I19"/>
-    <mergeCell ref="F20:I20"/>
-    <mergeCell ref="F21:I21"/>
-    <mergeCell ref="A24:E24"/>
-    <mergeCell ref="A17:E17"/>
-    <mergeCell ref="A18:E18"/>
-    <mergeCell ref="A19:E19"/>
-    <mergeCell ref="A20:E20"/>
-    <mergeCell ref="F13:I13"/>
-    <mergeCell ref="F14:I14"/>
-    <mergeCell ref="J28:AK28"/>
-    <mergeCell ref="J29:AK29"/>
-    <mergeCell ref="J30:AK30"/>
-    <mergeCell ref="F30:I30"/>
-    <mergeCell ref="F2:I2"/>
-    <mergeCell ref="F26:I26"/>
-    <mergeCell ref="F27:I27"/>
-    <mergeCell ref="F28:I28"/>
-    <mergeCell ref="F29:I29"/>
-    <mergeCell ref="F22:I22"/>
-    <mergeCell ref="F23:I23"/>
-    <mergeCell ref="F16:I16"/>
-    <mergeCell ref="F3:I3"/>
-    <mergeCell ref="F4:I4"/>
-    <mergeCell ref="F5:I5"/>
-    <mergeCell ref="J23:AK23"/>
-    <mergeCell ref="J24:AK24"/>
-    <mergeCell ref="J25:AK25"/>
-    <mergeCell ref="J26:AK26"/>
-    <mergeCell ref="J27:AK27"/>
-    <mergeCell ref="J18:AK18"/>
-    <mergeCell ref="J19:AK19"/>
-    <mergeCell ref="J20:AK20"/>
-    <mergeCell ref="J21:AK21"/>
-    <mergeCell ref="J22:AK22"/>
-    <mergeCell ref="J13:AK13"/>
-    <mergeCell ref="J14:AK14"/>
-    <mergeCell ref="J15:AK15"/>
-    <mergeCell ref="J16:AK16"/>
-    <mergeCell ref="J17:AK17"/>
-    <mergeCell ref="J12:AK12"/>
-    <mergeCell ref="J6:AK6"/>
-    <mergeCell ref="J7:AK7"/>
-    <mergeCell ref="J8:AK8"/>
-    <mergeCell ref="J9:AK9"/>
-    <mergeCell ref="J10:AK10"/>
-    <mergeCell ref="J2:AK2"/>
-    <mergeCell ref="J3:AK3"/>
-    <mergeCell ref="J4:AK4"/>
-    <mergeCell ref="J5:AK5"/>
-    <mergeCell ref="J11:AK11"/>
   </mergeCells>
   <phoneticPr fontId="36"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51200000000000001" footer="0.51200000000000001"/>
@@ -20782,41 +20853,41 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.81640625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.88671875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="73" customWidth="1"/>
-    <col min="2" max="2" width="25.6328125" style="74" customWidth="1"/>
-    <col min="3" max="5" width="37.6328125" style="74" customWidth="1"/>
-    <col min="6" max="16384" width="9.81640625" style="73"/>
+    <col min="1" max="1" width="5.44140625" style="73" customWidth="1"/>
+    <col min="2" max="2" width="25.6640625" style="74" customWidth="1"/>
+    <col min="3" max="5" width="37.6640625" style="74" customWidth="1"/>
+    <col min="6" max="16384" width="9.88671875" style="73"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="76" customFormat="1" ht="11"/>
-    <row r="2" spans="1:11" s="77" customFormat="1" ht="13.5">
+    <row r="1" spans="1:11" s="76" customFormat="1" ht="11.4"/>
+    <row r="2" spans="1:11" s="77" customFormat="1" ht="14.4">
       <c r="B2" s="78"/>
       <c r="C2" s="79"/>
       <c r="D2" s="79"/>
       <c r="E2" s="79"/>
     </row>
-    <row r="3" spans="1:11" s="77" customFormat="1" ht="19.5">
+    <row r="3" spans="1:11" s="77" customFormat="1" ht="18.600000000000001">
       <c r="B3" s="80" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="4" spans="1:11" s="77" customFormat="1" ht="13.5">
+    <row r="4" spans="1:11" s="77" customFormat="1" ht="14.4">
       <c r="B4" s="78"/>
       <c r="C4" s="79"/>
       <c r="D4" s="79"/>
       <c r="E4" s="79"/>
     </row>
-    <row r="5" spans="1:11" s="77" customFormat="1" ht="16">
+    <row r="5" spans="1:11" s="77" customFormat="1" ht="16.2">
       <c r="B5" s="81" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="6" spans="1:11" s="77" customFormat="1" ht="14" thickBot="1"/>
-    <row r="7" spans="1:11" s="64" customFormat="1" ht="13.5">
+    <row r="6" spans="1:11" s="77" customFormat="1" thickBot="1"/>
+    <row r="7" spans="1:11" s="64" customFormat="1" ht="14.4">
       <c r="A7" s="77"/>
       <c r="B7" s="61" t="s">
         <v>144</v>
@@ -20831,7 +20902,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="8" spans="1:11" s="64" customFormat="1" ht="13.5">
+    <row r="8" spans="1:11" s="64" customFormat="1" ht="14.4">
       <c r="A8" s="77"/>
       <c r="B8" s="65" t="s">
         <v>129</v>
@@ -20846,7 +20917,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="9" spans="1:11" s="64" customFormat="1" ht="13.5">
+    <row r="9" spans="1:11" s="64" customFormat="1" ht="14.4">
       <c r="A9" s="77"/>
       <c r="B9" s="65" t="s">
         <v>130</v>
@@ -20861,7 +20932,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="10" spans="1:11" s="64" customFormat="1" ht="13.5">
+    <row r="10" spans="1:11" s="64" customFormat="1" ht="14.4">
       <c r="A10" s="77"/>
       <c r="B10" s="65" t="s">
         <v>131</v>
@@ -20876,7 +20947,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="11" spans="1:11" s="64" customFormat="1" ht="27">
+    <row r="11" spans="1:11" s="64" customFormat="1" ht="28.8">
       <c r="A11" s="77"/>
       <c r="B11" s="65" t="s">
         <v>132</v>
@@ -20891,7 +20962,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="12" spans="1:11" s="64" customFormat="1" ht="27.5" thickBot="1">
+    <row r="12" spans="1:11" s="64" customFormat="1" ht="29.4" thickBot="1">
       <c r="A12" s="77"/>
       <c r="B12" s="75" t="s">
         <v>133</v>
@@ -20913,7 +20984,7 @@
       <c r="D13" s="70"/>
       <c r="E13" s="70"/>
     </row>
-    <row r="14" spans="1:11" s="77" customFormat="1" ht="13.5">
+    <row r="14" spans="1:11" s="77" customFormat="1" ht="14.4">
       <c r="B14" s="78"/>
       <c r="C14" s="79"/>
       <c r="D14" s="79"/>
@@ -20925,7 +20996,7 @@
       <c r="J14" s="79"/>
       <c r="K14" s="79"/>
     </row>
-    <row r="15" spans="1:11" s="77" customFormat="1" ht="16">
+    <row r="15" spans="1:11" s="77" customFormat="1" ht="16.2">
       <c r="B15" s="81" t="s">
         <v>125</v>
       </c>
@@ -20975,14 +21046,14 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="44" style="2" customWidth="1"/>
-    <col min="2" max="2" width="56.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.36328125" style="2" customWidth="1"/>
-    <col min="4" max="5" width="17.90625" style="2" customWidth="1"/>
-    <col min="6" max="8" width="7.90625" style="2" customWidth="1"/>
-    <col min="9" max="16384" width="12.453125" style="2"/>
+    <col min="2" max="2" width="56.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.33203125" style="2" customWidth="1"/>
+    <col min="4" max="5" width="17.88671875" style="2" customWidth="1"/>
+    <col min="6" max="8" width="7.88671875" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="12.44140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" customHeight="1">
@@ -26357,14 +26428,14 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="44" style="2" customWidth="1"/>
-    <col min="2" max="2" width="56.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.36328125" style="2" customWidth="1"/>
-    <col min="4" max="5" width="17.90625" style="2" customWidth="1"/>
-    <col min="6" max="8" width="7.90625" style="2" customWidth="1"/>
-    <col min="9" max="16384" width="12.453125" style="2"/>
+    <col min="2" max="2" width="56.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.33203125" style="2" customWidth="1"/>
+    <col min="4" max="5" width="17.88671875" style="2" customWidth="1"/>
+    <col min="6" max="8" width="7.88671875" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="12.44140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" customHeight="1">
@@ -30645,14 +30716,14 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="44" style="2" customWidth="1"/>
-    <col min="2" max="2" width="56.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.36328125" style="2" customWidth="1"/>
-    <col min="4" max="5" width="17.90625" style="2" customWidth="1"/>
-    <col min="6" max="8" width="7.90625" style="2" customWidth="1"/>
-    <col min="9" max="16384" width="12.453125" style="2"/>
+    <col min="2" max="2" width="56.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.33203125" style="2" customWidth="1"/>
+    <col min="4" max="5" width="17.88671875" style="2" customWidth="1"/>
+    <col min="6" max="8" width="7.88671875" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="12.44140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" customHeight="1">
@@ -37508,18 +37579,18 @@
     <tabColor rgb="FFFF99CC"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H453"/>
+  <dimension ref="A1:H462"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="44" style="2" customWidth="1"/>
-    <col min="2" max="2" width="56.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.36328125" style="2" customWidth="1"/>
-    <col min="4" max="5" width="17.90625" style="2" customWidth="1"/>
-    <col min="6" max="8" width="7.90625" style="2" customWidth="1"/>
-    <col min="9" max="16384" width="12.453125" style="2"/>
+    <col min="2" max="2" width="56.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.33203125" style="2" customWidth="1"/>
+    <col min="4" max="5" width="17.88671875" style="2" customWidth="1"/>
+    <col min="6" max="8" width="7.88671875" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="12.44140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" customHeight="1">
@@ -37682,7 +37753,7 @@
       <c r="A14" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="56" t="s">
+      <c r="B14" s="16" t="s">
         <v>26</v>
       </c>
       <c r="C14" s="6"/>
@@ -37696,7 +37767,7 @@
       <c r="A15" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="B15" s="57" t="s">
+      <c r="B15" s="55" t="s">
         <v>119</v>
       </c>
       <c r="C15" s="4"/>
@@ -37710,7 +37781,7 @@
       <c r="A16" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="B16" s="58" t="s">
+      <c r="B16" s="21" t="s">
         <v>120</v>
       </c>
       <c r="C16" s="4"/>
@@ -37724,7 +37795,7 @@
       <c r="A17" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="B17" s="59"/>
+      <c r="B17" s="46"/>
       <c r="C17" s="47"/>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
@@ -37736,7 +37807,7 @@
       <c r="A18" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="B18" s="60"/>
+      <c r="B18" s="48"/>
       <c r="C18" s="47"/>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
@@ -37777,21 +37848,25 @@
       <c r="H21" s="4"/>
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A22" s="10"/>
-      <c r="B22" s="49"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="10"/>
+      <c r="A22" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B22" s="11"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
       <c r="G22" s="4"/>
       <c r="H22" s="4"/>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A23" s="4" t="s">
-        <v>5</v>
+      <c r="A23" s="14" t="s">
+        <v>21</v>
       </c>
-      <c r="B23" s="11"/>
-      <c r="C23" s="4"/>
+      <c r="B23" s="56" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" s="6"/>
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
@@ -37800,12 +37875,12 @@
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1">
       <c r="A24" s="14" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
-      <c r="B24" s="16" t="s">
-        <v>26</v>
+      <c r="B24" s="57" t="s">
+        <v>153</v>
       </c>
-      <c r="C24" s="6"/>
+      <c r="C24" s="4"/>
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
@@ -37814,10 +37889,10 @@
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1">
       <c r="A25" s="14" t="s">
-        <v>24</v>
+        <v>87</v>
       </c>
-      <c r="B25" s="55" t="s">
-        <v>91</v>
+      <c r="B25" s="58" t="s">
+        <v>154</v>
       </c>
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
@@ -37828,12 +37903,10 @@
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1">
       <c r="A26" s="14" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
-      <c r="B26" s="21" t="s">
-        <v>92</v>
-      </c>
-      <c r="C26" s="4"/>
+      <c r="B26" s="59"/>
+      <c r="C26" s="47"/>
       <c r="D26" s="4"/>
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
@@ -37842,9 +37915,9 @@
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1">
       <c r="A27" s="14" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
-      <c r="B27" s="46"/>
+      <c r="B27" s="60"/>
       <c r="C27" s="47"/>
       <c r="D27" s="4"/>
       <c r="E27" s="4"/>
@@ -37853,11 +37926,9 @@
       <c r="H27" s="4"/>
     </row>
     <row r="28" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A28" s="14" t="s">
-        <v>90</v>
-      </c>
-      <c r="B28" s="48"/>
-      <c r="C28" s="47"/>
+      <c r="A28" s="4"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
       <c r="D28" s="4"/>
       <c r="E28" s="4"/>
       <c r="F28" s="4"/>
@@ -37865,7 +37936,9 @@
       <c r="H28" s="4"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A29" s="4"/>
+      <c r="A29" s="4" t="s">
+        <v>85</v>
+      </c>
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
       <c r="D29" s="4"/>
@@ -37875,12 +37948,10 @@
       <c r="H29" s="4"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A30" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="B30" s="4"/>
-      <c r="C30" s="4"/>
-      <c r="D30" s="4"/>
+      <c r="A30" s="10"/>
+      <c r="B30" s="10"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="10"/>
       <c r="E30" s="4"/>
       <c r="F30" s="4"/>
       <c r="G30" s="4"/>
@@ -37888,7 +37959,7 @@
     </row>
     <row r="31" spans="1:8" ht="15.75" customHeight="1">
       <c r="A31" s="10"/>
-      <c r="B31" s="10"/>
+      <c r="B31" s="49"/>
       <c r="C31" s="10"/>
       <c r="D31" s="10"/>
       <c r="E31" s="4"/>
@@ -37896,24 +37967,26 @@
       <c r="G31" s="4"/>
       <c r="H31" s="4"/>
     </row>
-    <row r="32" spans="1:8" s="53" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A32" s="51" t="s">
-        <v>112</v>
-      </c>
-      <c r="B32" s="52"/>
-      <c r="C32" s="52"/>
-      <c r="D32" s="52"/>
-      <c r="E32" s="52"/>
-      <c r="F32" s="52"/>
-      <c r="G32" s="52"/>
-      <c r="H32" s="52"/>
-    </row>
-    <row r="33" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A33" s="4" t="s">
+    <row r="32" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A32" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B33" s="4"/>
-      <c r="C33" s="4"/>
+      <c r="B32" s="11"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="4"/>
+    </row>
+    <row r="33" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A33" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B33" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" s="6"/>
       <c r="D33" s="4"/>
       <c r="E33" s="4"/>
       <c r="F33" s="4"/>
@@ -37922,10 +37995,10 @@
     </row>
     <row r="34" spans="1:8" ht="15.75" customHeight="1">
       <c r="A34" s="14" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
-      <c r="B34" s="16" t="s">
-        <v>98</v>
+      <c r="B34" s="55" t="s">
+        <v>91</v>
       </c>
       <c r="C34" s="4"/>
       <c r="D34" s="4"/>
@@ -37936,10 +38009,10 @@
     </row>
     <row r="35" spans="1:8" ht="15.75" customHeight="1">
       <c r="A35" s="14" t="s">
-        <v>24</v>
+        <v>87</v>
       </c>
-      <c r="B35" s="55" t="s">
-        <v>86</v>
+      <c r="B35" s="21" t="s">
+        <v>92</v>
       </c>
       <c r="C35" s="4"/>
       <c r="D35" s="4"/>
@@ -37950,12 +38023,10 @@
     </row>
     <row r="36" spans="1:8" ht="15.75" customHeight="1">
       <c r="A36" s="14" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
-      <c r="B36" s="21" t="s">
-        <v>88</v>
-      </c>
-      <c r="C36" s="4"/>
+      <c r="B36" s="46"/>
+      <c r="C36" s="47"/>
       <c r="D36" s="4"/>
       <c r="E36" s="4"/>
       <c r="F36" s="4"/>
@@ -37964,9 +38035,9 @@
     </row>
     <row r="37" spans="1:8" ht="15.75" customHeight="1">
       <c r="A37" s="14" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
-      <c r="B37" s="46"/>
+      <c r="B37" s="48"/>
       <c r="C37" s="47"/>
       <c r="D37" s="4"/>
       <c r="E37" s="4"/>
@@ -37975,11 +38046,9 @@
       <c r="H37" s="4"/>
     </row>
     <row r="38" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A38" s="14" t="s">
-        <v>90</v>
-      </c>
-      <c r="B38" s="48"/>
-      <c r="C38" s="47"/>
+      <c r="A38" s="4"/>
+      <c r="B38" s="4"/>
+      <c r="C38" s="4"/>
       <c r="D38" s="4"/>
       <c r="E38" s="4"/>
       <c r="F38" s="4"/>
@@ -37987,7 +38056,9 @@
       <c r="H38" s="4"/>
     </row>
     <row r="39" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A39" s="4"/>
+      <c r="A39" s="4" t="s">
+        <v>85</v>
+      </c>
       <c r="B39" s="4"/>
       <c r="C39" s="4"/>
       <c r="D39" s="4"/>
@@ -37997,34 +38068,32 @@
       <c r="H39" s="4"/>
     </row>
     <row r="40" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A40" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="B40" s="4"/>
-      <c r="C40" s="4"/>
-      <c r="D40" s="4"/>
+      <c r="A40" s="10"/>
+      <c r="B40" s="10"/>
+      <c r="C40" s="10"/>
+      <c r="D40" s="10"/>
       <c r="E40" s="4"/>
       <c r="F40" s="4"/>
       <c r="G40" s="4"/>
       <c r="H40" s="4"/>
     </row>
-    <row r="41" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A41" s="10"/>
-      <c r="B41" s="10"/>
-      <c r="C41" s="10"/>
-      <c r="D41" s="10"/>
-      <c r="E41" s="4"/>
-      <c r="F41" s="4"/>
-      <c r="G41" s="4"/>
-      <c r="H41" s="4"/>
+    <row r="41" spans="1:8" s="53" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A41" s="51" t="s">
+        <v>112</v>
+      </c>
+      <c r="B41" s="52"/>
+      <c r="C41" s="52"/>
+      <c r="D41" s="52"/>
+      <c r="E41" s="52"/>
+      <c r="F41" s="52"/>
+      <c r="G41" s="52"/>
+      <c r="H41" s="52"/>
     </row>
     <row r="42" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A42" s="14" t="s">
-        <v>21</v>
+      <c r="A42" s="4" t="s">
+        <v>5</v>
       </c>
-      <c r="B42" s="16" t="s">
-        <v>98</v>
-      </c>
+      <c r="B42" s="4"/>
       <c r="C42" s="4"/>
       <c r="D42" s="4"/>
       <c r="E42" s="4"/>
@@ -38034,10 +38103,10 @@
     </row>
     <row r="43" spans="1:8" ht="15.75" customHeight="1">
       <c r="A43" s="14" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
-      <c r="B43" s="55" t="s">
-        <v>108</v>
+      <c r="B43" s="16" t="s">
+        <v>98</v>
       </c>
       <c r="C43" s="4"/>
       <c r="D43" s="4"/>
@@ -38048,10 +38117,10 @@
     </row>
     <row r="44" spans="1:8" ht="15.75" customHeight="1">
       <c r="A44" s="14" t="s">
-        <v>87</v>
+        <v>24</v>
       </c>
-      <c r="B44" s="21" t="s">
-        <v>92</v>
+      <c r="B44" s="55" t="s">
+        <v>86</v>
       </c>
       <c r="C44" s="4"/>
       <c r="D44" s="4"/>
@@ -38062,10 +38131,12 @@
     </row>
     <row r="45" spans="1:8" ht="15.75" customHeight="1">
       <c r="A45" s="14" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
-      <c r="B45" s="46"/>
-      <c r="C45" s="47"/>
+      <c r="B45" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="C45" s="4"/>
       <c r="D45" s="4"/>
       <c r="E45" s="4"/>
       <c r="F45" s="4"/>
@@ -38074,9 +38145,9 @@
     </row>
     <row r="46" spans="1:8" ht="15.75" customHeight="1">
       <c r="A46" s="14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
-      <c r="B46" s="48"/>
+      <c r="B46" s="46"/>
       <c r="C46" s="47"/>
       <c r="D46" s="4"/>
       <c r="E46" s="4"/>
@@ -38085,9 +38156,11 @@
       <c r="H46" s="4"/>
     </row>
     <row r="47" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A47" s="4"/>
-      <c r="B47" s="4"/>
-      <c r="C47" s="4"/>
+      <c r="A47" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="B47" s="48"/>
+      <c r="C47" s="47"/>
       <c r="D47" s="4"/>
       <c r="E47" s="4"/>
       <c r="F47" s="4"/>
@@ -38095,9 +38168,7 @@
       <c r="H47" s="4"/>
     </row>
     <row r="48" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A48" s="4" t="s">
-        <v>85</v>
-      </c>
+      <c r="A48" s="4"/>
       <c r="B48" s="4"/>
       <c r="C48" s="4"/>
       <c r="D48" s="4"/>
@@ -38107,7 +38178,9 @@
       <c r="H48" s="4"/>
     </row>
     <row r="49" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A49" s="4"/>
+      <c r="A49" s="4" t="s">
+        <v>85</v>
+      </c>
       <c r="B49" s="4"/>
       <c r="C49" s="4"/>
       <c r="D49" s="4"/>
@@ -38117,18 +38190,22 @@
       <c r="H49" s="4"/>
     </row>
     <row r="50" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A50" s="4"/>
-      <c r="B50" s="4"/>
-      <c r="C50" s="4"/>
-      <c r="D50" s="4"/>
+      <c r="A50" s="10"/>
+      <c r="B50" s="10"/>
+      <c r="C50" s="10"/>
+      <c r="D50" s="10"/>
       <c r="E50" s="4"/>
       <c r="F50" s="4"/>
       <c r="G50" s="4"/>
       <c r="H50" s="4"/>
     </row>
     <row r="51" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A51" s="4"/>
-      <c r="B51" s="4"/>
+      <c r="A51" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B51" s="16" t="s">
+        <v>98</v>
+      </c>
       <c r="C51" s="4"/>
       <c r="D51" s="4"/>
       <c r="E51" s="4"/>
@@ -38137,8 +38214,12 @@
       <c r="H51" s="4"/>
     </row>
     <row r="52" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A52" s="4"/>
-      <c r="B52" s="4"/>
+      <c r="A52" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B52" s="55" t="s">
+        <v>108</v>
+      </c>
       <c r="C52" s="4"/>
       <c r="D52" s="4"/>
       <c r="E52" s="4"/>
@@ -38147,8 +38228,12 @@
       <c r="H52" s="4"/>
     </row>
     <row r="53" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A53" s="4"/>
-      <c r="B53" s="4"/>
+      <c r="A53" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="B53" s="21" t="s">
+        <v>92</v>
+      </c>
       <c r="C53" s="4"/>
       <c r="D53" s="4"/>
       <c r="E53" s="4"/>
@@ -38157,9 +38242,11 @@
       <c r="H53" s="4"/>
     </row>
     <row r="54" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A54" s="4"/>
-      <c r="B54" s="4"/>
-      <c r="C54" s="4"/>
+      <c r="A54" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="B54" s="46"/>
+      <c r="C54" s="47"/>
       <c r="D54" s="4"/>
       <c r="E54" s="4"/>
       <c r="F54" s="4"/>
@@ -38167,9 +38254,11 @@
       <c r="H54" s="4"/>
     </row>
     <row r="55" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A55" s="4"/>
-      <c r="B55" s="4"/>
-      <c r="C55" s="4"/>
+      <c r="A55" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="B55" s="48"/>
+      <c r="C55" s="47"/>
       <c r="D55" s="4"/>
       <c r="E55" s="4"/>
       <c r="F55" s="4"/>
@@ -38187,7 +38276,9 @@
       <c r="H56" s="4"/>
     </row>
     <row r="57" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A57" s="4"/>
+      <c r="A57" s="4" t="s">
+        <v>85</v>
+      </c>
       <c r="B57" s="4"/>
       <c r="C57" s="4"/>
       <c r="D57" s="4"/>
@@ -42155,6 +42246,96 @@
       <c r="F453" s="4"/>
       <c r="G453" s="4"/>
       <c r="H453" s="4"/>
+    </row>
+    <row r="454" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A454" s="4"/>
+      <c r="B454" s="4"/>
+      <c r="C454" s="4"/>
+      <c r="D454" s="4"/>
+      <c r="E454" s="4"/>
+      <c r="F454" s="4"/>
+      <c r="G454" s="4"/>
+      <c r="H454" s="4"/>
+    </row>
+    <row r="455" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A455" s="4"/>
+      <c r="B455" s="4"/>
+      <c r="C455" s="4"/>
+      <c r="D455" s="4"/>
+      <c r="E455" s="4"/>
+      <c r="F455" s="4"/>
+      <c r="G455" s="4"/>
+      <c r="H455" s="4"/>
+    </row>
+    <row r="456" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A456" s="4"/>
+      <c r="B456" s="4"/>
+      <c r="C456" s="4"/>
+      <c r="D456" s="4"/>
+      <c r="E456" s="4"/>
+      <c r="F456" s="4"/>
+      <c r="G456" s="4"/>
+      <c r="H456" s="4"/>
+    </row>
+    <row r="457" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A457" s="4"/>
+      <c r="B457" s="4"/>
+      <c r="C457" s="4"/>
+      <c r="D457" s="4"/>
+      <c r="E457" s="4"/>
+      <c r="F457" s="4"/>
+      <c r="G457" s="4"/>
+      <c r="H457" s="4"/>
+    </row>
+    <row r="458" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A458" s="4"/>
+      <c r="B458" s="4"/>
+      <c r="C458" s="4"/>
+      <c r="D458" s="4"/>
+      <c r="E458" s="4"/>
+      <c r="F458" s="4"/>
+      <c r="G458" s="4"/>
+      <c r="H458" s="4"/>
+    </row>
+    <row r="459" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A459" s="4"/>
+      <c r="B459" s="4"/>
+      <c r="C459" s="4"/>
+      <c r="D459" s="4"/>
+      <c r="E459" s="4"/>
+      <c r="F459" s="4"/>
+      <c r="G459" s="4"/>
+      <c r="H459" s="4"/>
+    </row>
+    <row r="460" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A460" s="4"/>
+      <c r="B460" s="4"/>
+      <c r="C460" s="4"/>
+      <c r="D460" s="4"/>
+      <c r="E460" s="4"/>
+      <c r="F460" s="4"/>
+      <c r="G460" s="4"/>
+      <c r="H460" s="4"/>
+    </row>
+    <row r="461" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A461" s="4"/>
+      <c r="B461" s="4"/>
+      <c r="C461" s="4"/>
+      <c r="D461" s="4"/>
+      <c r="E461" s="4"/>
+      <c r="F461" s="4"/>
+      <c r="G461" s="4"/>
+      <c r="H461" s="4"/>
+    </row>
+    <row r="462" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A462" s="4"/>
+      <c r="B462" s="4"/>
+      <c r="C462" s="4"/>
+      <c r="D462" s="4"/>
+      <c r="E462" s="4"/>
+      <c r="F462" s="4"/>
+      <c r="G462" s="4"/>
+      <c r="H462" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="36"/>
@@ -42170,21 +42351,20 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
-    <tabColor rgb="FFFF99CC"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:H449"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="44" style="2" customWidth="1"/>
-    <col min="2" max="2" width="56.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.36328125" style="2" customWidth="1"/>
-    <col min="4" max="5" width="17.90625" style="2" customWidth="1"/>
-    <col min="6" max="8" width="7.90625" style="2" customWidth="1"/>
-    <col min="9" max="16384" width="12.453125" style="2"/>
+    <col min="2" max="2" width="56.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.33203125" style="2" customWidth="1"/>
+    <col min="4" max="5" width="17.88671875" style="2" customWidth="1"/>
+    <col min="6" max="8" width="7.88671875" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="12.44140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" customHeight="1">

--- a/20_営業/07_会計/BR100/ERP_T_BR100_CFO_GL-011_1_会計構成の定義.xlsx
+++ b/20_営業/07_会計/BR100/ERP_T_BR100_CFO_GL-011_1_会計構成の定義.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\acomsv01\障害対応\E_本稼動_20101～20200\E_本稼動_20102直営店対応\20_成果物\BR100\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\acomsv01\障害対応\E_本稼動_20201～20300\E_本稼動_20246_【会計】基幹システムバージョンアップ（会計領域　GL部門入力）\20_成果物\セットアップ定義書\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="408" yWindow="2448" windowWidth="14712" windowHeight="8820"/>
+    <workbookView xWindow="405" yWindow="2445" windowWidth="14715" windowHeight="8820"/>
   </bookViews>
   <sheets>
     <sheet name="変更履歴" sheetId="2" r:id="rId1"/>
@@ -1822,12 +1822,12 @@
     <definedName name="列長" localSheetId="1">#REF!</definedName>
     <definedName name="列長">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="114210"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="167">
   <si>
     <t>変更日</t>
     <rPh sb="0" eb="3">
@@ -2274,10 +2274,6 @@
     <phoneticPr fontId="36"/>
   </si>
   <si>
-    <t>IFRS-SOB</t>
-    <phoneticPr fontId="36"/>
-  </si>
-  <si>
     <t>SALES-SOB</t>
     <phoneticPr fontId="36"/>
   </si>
@@ -2680,6 +2676,74 @@
     </rPh>
     <phoneticPr fontId="36"/>
   </si>
+  <si>
+    <t>Yes</t>
+    <phoneticPr fontId="36"/>
+  </si>
+  <si>
+    <t>SCSK　宇田川</t>
+    <rPh sb="5" eb="8">
+      <t>ウダガワ</t>
+    </rPh>
+    <phoneticPr fontId="36"/>
+  </si>
+  <si>
+    <t>STEP4　GL部門入力対応　11.1.3の仕訳承認区分を「Yes」に変更</t>
+    <rPh sb="8" eb="12">
+      <t>ブモンニュウリョク</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>タイオウ</t>
+    </rPh>
+    <rPh sb="22" eb="26">
+      <t>シワケショウニン</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>クブン</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="36"/>
+  </si>
+  <si>
+    <t>IFRS-SOB　※タスク右側のスコープをIFRS-SOBに変更</t>
+    <rPh sb="13" eb="15">
+      <t>ミギガワ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="36"/>
+  </si>
+  <si>
+    <t>バージョン</t>
+    <phoneticPr fontId="36"/>
+  </si>
+  <si>
+    <t>1.0.0</t>
+    <phoneticPr fontId="36"/>
+  </si>
+  <si>
+    <t>1.0.1</t>
+    <phoneticPr fontId="36"/>
+  </si>
+  <si>
+    <t>1.0.2</t>
+    <phoneticPr fontId="36"/>
+  </si>
+  <si>
+    <t>1.0.3</t>
+    <phoneticPr fontId="36"/>
+  </si>
+  <si>
+    <t>1.0.4</t>
+    <phoneticPr fontId="36"/>
+  </si>
+  <si>
+    <t>1.0.5</t>
+    <phoneticPr fontId="36"/>
+  </si>
 </sst>
 </file>
 
@@ -2689,7 +2753,7 @@
     <numFmt numFmtId="176" formatCode="#,##0;\-#,##0;&quot;-&quot;"/>
     <numFmt numFmtId="177" formatCode="&quot;SFr.&quot;#,##0;[Red]&quot;SFr.&quot;\-#,##0"/>
   </numFmts>
-  <fonts count="60">
+  <fonts count="61">
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -3088,6 +3152,13 @@
     <font>
       <sz val="9"/>
       <color rgb="FFFF00FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
@@ -3808,7 +3879,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="142">
+  <cellXfs count="147">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="37" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="61" applyFont="1" applyAlignment="1"/>
@@ -3965,20 +4036,8 @@
     <xf numFmtId="49" fontId="41" fillId="0" borderId="25" xfId="61" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="41" fillId="18" borderId="4" xfId="61" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="41" fillId="18" borderId="25" xfId="61" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="41" fillId="18" borderId="25" xfId="61" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="41" fillId="18" borderId="25" xfId="61" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="18" borderId="25" xfId="61" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="56" fillId="20" borderId="29" xfId="62" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -4036,15 +4095,6 @@
     </xf>
     <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="64" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="64" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="37" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="37" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4054,13 +4104,13 @@
     <xf numFmtId="0" fontId="37" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="38" fillId="13" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4099,6 +4149,24 @@
     <xf numFmtId="0" fontId="37" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="14" fontId="60" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="59" fillId="8" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="14" fontId="39" fillId="8" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -4107,6 +4175,33 @@
     </xf>
     <xf numFmtId="0" fontId="39" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -4147,13 +4242,22 @@
     <xf numFmtId="0" fontId="37" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="39" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4163,6 +4267,15 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="39" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="38" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4182,33 +4295,6 @@
     </xf>
     <xf numFmtId="0" fontId="37" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="37" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="59" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="65">
     <cellStyle name="Calc Currency (0)" xfId="1"/>
@@ -19571,1219 +19657,1384 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AK30"/>
+  <dimension ref="A1:AP30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13:AK13"/>
+      <selection activeCell="A2" sqref="A2:E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.6640625" defaultRowHeight="10.8"/>
+  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="11.25"/>
   <cols>
-    <col min="1" max="8" width="2.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="2.88671875" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="2.6640625" style="1"/>
+    <col min="1" max="8" width="2.625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="2.875" style="1" customWidth="1"/>
+    <col min="10" max="14" width="2.625" style="1" customWidth="1"/>
+    <col min="15" max="16384" width="2.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" ht="11.4" thickBot="1"/>
-    <row r="2" spans="1:37" ht="11.4" thickBot="1">
-      <c r="A2" s="92" t="s">
+    <row r="1" spans="1:42" ht="12" thickBot="1"/>
+    <row r="2" spans="1:42" ht="12" thickBot="1">
+      <c r="A2" s="85" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="93"/>
-      <c r="C2" s="93"/>
-      <c r="D2" s="93"/>
-      <c r="E2" s="94"/>
-      <c r="F2" s="92" t="s">
+      <c r="B2" s="86"/>
+      <c r="C2" s="86"/>
+      <c r="D2" s="86"/>
+      <c r="E2" s="87"/>
+      <c r="F2" s="85" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="93"/>
-      <c r="H2" s="93"/>
-      <c r="I2" s="94"/>
-      <c r="J2" s="126" t="s">
+      <c r="G2" s="86"/>
+      <c r="H2" s="86"/>
+      <c r="I2" s="87"/>
+      <c r="J2" s="85" t="s">
+        <v>160</v>
+      </c>
+      <c r="K2" s="86"/>
+      <c r="L2" s="86"/>
+      <c r="M2" s="86"/>
+      <c r="N2" s="87"/>
+      <c r="O2" s="140" t="s">
         <v>2</v>
       </c>
-      <c r="K2" s="126"/>
-      <c r="L2" s="126"/>
-      <c r="M2" s="126"/>
-      <c r="N2" s="126"/>
-      <c r="O2" s="126"/>
-      <c r="P2" s="126"/>
-      <c r="Q2" s="126"/>
-      <c r="R2" s="126"/>
-      <c r="S2" s="126"/>
-      <c r="T2" s="126"/>
-      <c r="U2" s="126"/>
-      <c r="V2" s="126"/>
-      <c r="W2" s="126"/>
-      <c r="X2" s="126"/>
-      <c r="Y2" s="126"/>
-      <c r="Z2" s="126"/>
-      <c r="AA2" s="126"/>
-      <c r="AB2" s="126"/>
-      <c r="AC2" s="126"/>
-      <c r="AD2" s="126"/>
-      <c r="AE2" s="126"/>
-      <c r="AF2" s="126"/>
-      <c r="AG2" s="126"/>
-      <c r="AH2" s="126"/>
-      <c r="AI2" s="126"/>
-      <c r="AJ2" s="126"/>
-      <c r="AK2" s="127"/>
-    </row>
-    <row r="3" spans="1:37">
-      <c r="A3" s="95">
+      <c r="P2" s="140"/>
+      <c r="Q2" s="140"/>
+      <c r="R2" s="140"/>
+      <c r="S2" s="140"/>
+      <c r="T2" s="140"/>
+      <c r="U2" s="140"/>
+      <c r="V2" s="140"/>
+      <c r="W2" s="140"/>
+      <c r="X2" s="140"/>
+      <c r="Y2" s="140"/>
+      <c r="Z2" s="140"/>
+      <c r="AA2" s="140"/>
+      <c r="AB2" s="140"/>
+      <c r="AC2" s="140"/>
+      <c r="AD2" s="140"/>
+      <c r="AE2" s="140"/>
+      <c r="AF2" s="140"/>
+      <c r="AG2" s="140"/>
+      <c r="AH2" s="140"/>
+      <c r="AI2" s="140"/>
+      <c r="AJ2" s="140"/>
+      <c r="AK2" s="140"/>
+      <c r="AL2" s="140"/>
+      <c r="AM2" s="140"/>
+      <c r="AN2" s="140"/>
+      <c r="AO2" s="140"/>
+      <c r="AP2" s="141"/>
+    </row>
+    <row r="3" spans="1:42">
+      <c r="A3" s="88">
         <v>44865</v>
       </c>
-      <c r="B3" s="96"/>
-      <c r="C3" s="96"/>
-      <c r="D3" s="96"/>
-      <c r="E3" s="97"/>
-      <c r="F3" s="114" t="s">
+      <c r="B3" s="89"/>
+      <c r="C3" s="89"/>
+      <c r="D3" s="89"/>
+      <c r="E3" s="90"/>
+      <c r="F3" s="122" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="115"/>
-      <c r="H3" s="115"/>
-      <c r="I3" s="116"/>
-      <c r="J3" s="128" t="s">
+      <c r="G3" s="123"/>
+      <c r="H3" s="123"/>
+      <c r="I3" s="124"/>
+      <c r="J3" s="88" t="s">
+        <v>161</v>
+      </c>
+      <c r="K3" s="89"/>
+      <c r="L3" s="89"/>
+      <c r="M3" s="89"/>
+      <c r="N3" s="90"/>
+      <c r="O3" s="142" t="s">
         <v>3</v>
       </c>
-      <c r="K3" s="96"/>
-      <c r="L3" s="96"/>
-      <c r="M3" s="96"/>
-      <c r="N3" s="96"/>
-      <c r="O3" s="96"/>
-      <c r="P3" s="96"/>
-      <c r="Q3" s="96"/>
-      <c r="R3" s="96"/>
-      <c r="S3" s="96"/>
-      <c r="T3" s="96"/>
-      <c r="U3" s="96"/>
-      <c r="V3" s="96"/>
-      <c r="W3" s="96"/>
-      <c r="X3" s="96"/>
-      <c r="Y3" s="96"/>
-      <c r="Z3" s="96"/>
-      <c r="AA3" s="96"/>
-      <c r="AB3" s="96"/>
-      <c r="AC3" s="96"/>
-      <c r="AD3" s="96"/>
-      <c r="AE3" s="96"/>
-      <c r="AF3" s="96"/>
-      <c r="AG3" s="96"/>
-      <c r="AH3" s="96"/>
-      <c r="AI3" s="96"/>
-      <c r="AJ3" s="96"/>
-      <c r="AK3" s="97"/>
-    </row>
-    <row r="4" spans="1:37">
-      <c r="A4" s="98">
+      <c r="P3" s="89"/>
+      <c r="Q3" s="89"/>
+      <c r="R3" s="89"/>
+      <c r="S3" s="89"/>
+      <c r="T3" s="89"/>
+      <c r="U3" s="89"/>
+      <c r="V3" s="89"/>
+      <c r="W3" s="89"/>
+      <c r="X3" s="89"/>
+      <c r="Y3" s="89"/>
+      <c r="Z3" s="89"/>
+      <c r="AA3" s="89"/>
+      <c r="AB3" s="89"/>
+      <c r="AC3" s="89"/>
+      <c r="AD3" s="89"/>
+      <c r="AE3" s="89"/>
+      <c r="AF3" s="89"/>
+      <c r="AG3" s="89"/>
+      <c r="AH3" s="89"/>
+      <c r="AI3" s="89"/>
+      <c r="AJ3" s="89"/>
+      <c r="AK3" s="89"/>
+      <c r="AL3" s="89"/>
+      <c r="AM3" s="89"/>
+      <c r="AN3" s="89"/>
+      <c r="AO3" s="89"/>
+      <c r="AP3" s="90"/>
+    </row>
+    <row r="4" spans="1:42">
+      <c r="A4" s="91">
         <v>45041</v>
       </c>
-      <c r="B4" s="99"/>
-      <c r="C4" s="99"/>
-      <c r="D4" s="99"/>
-      <c r="E4" s="100"/>
-      <c r="F4" s="107" t="s">
+      <c r="B4" s="92"/>
+      <c r="C4" s="92"/>
+      <c r="D4" s="92"/>
+      <c r="E4" s="93"/>
+      <c r="F4" s="115" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="108"/>
-      <c r="H4" s="108"/>
-      <c r="I4" s="109"/>
-      <c r="J4" s="129" t="s">
+      <c r="G4" s="116"/>
+      <c r="H4" s="116"/>
+      <c r="I4" s="117"/>
+      <c r="J4" s="91" t="s">
+        <v>162</v>
+      </c>
+      <c r="K4" s="92"/>
+      <c r="L4" s="92"/>
+      <c r="M4" s="92"/>
+      <c r="N4" s="93"/>
+      <c r="O4" s="143" t="s">
+        <v>116</v>
+      </c>
+      <c r="P4" s="92"/>
+      <c r="Q4" s="92"/>
+      <c r="R4" s="92"/>
+      <c r="S4" s="92"/>
+      <c r="T4" s="92"/>
+      <c r="U4" s="92"/>
+      <c r="V4" s="92"/>
+      <c r="W4" s="92"/>
+      <c r="X4" s="92"/>
+      <c r="Y4" s="92"/>
+      <c r="Z4" s="92"/>
+      <c r="AA4" s="92"/>
+      <c r="AB4" s="92"/>
+      <c r="AC4" s="92"/>
+      <c r="AD4" s="92"/>
+      <c r="AE4" s="92"/>
+      <c r="AF4" s="92"/>
+      <c r="AG4" s="92"/>
+      <c r="AH4" s="92"/>
+      <c r="AI4" s="92"/>
+      <c r="AJ4" s="92"/>
+      <c r="AK4" s="92"/>
+      <c r="AL4" s="92"/>
+      <c r="AM4" s="92"/>
+      <c r="AN4" s="92"/>
+      <c r="AO4" s="92"/>
+      <c r="AP4" s="93"/>
+    </row>
+    <row r="5" spans="1:42">
+      <c r="A5" s="94">
+        <v>45086</v>
+      </c>
+      <c r="B5" s="95"/>
+      <c r="C5" s="95"/>
+      <c r="D5" s="95"/>
+      <c r="E5" s="96"/>
+      <c r="F5" s="115" t="s">
+        <v>4</v>
+      </c>
+      <c r="G5" s="116"/>
+      <c r="H5" s="116"/>
+      <c r="I5" s="117"/>
+      <c r="J5" s="94" t="s">
+        <v>163</v>
+      </c>
+      <c r="K5" s="95"/>
+      <c r="L5" s="95"/>
+      <c r="M5" s="95"/>
+      <c r="N5" s="96"/>
+      <c r="O5" s="144" t="s">
         <v>117</v>
       </c>
-      <c r="K4" s="99"/>
-      <c r="L4" s="99"/>
-      <c r="M4" s="99"/>
-      <c r="N4" s="99"/>
-      <c r="O4" s="99"/>
-      <c r="P4" s="99"/>
-      <c r="Q4" s="99"/>
-      <c r="R4" s="99"/>
-      <c r="S4" s="99"/>
-      <c r="T4" s="99"/>
-      <c r="U4" s="99"/>
-      <c r="V4" s="99"/>
-      <c r="W4" s="99"/>
-      <c r="X4" s="99"/>
-      <c r="Y4" s="99"/>
-      <c r="Z4" s="99"/>
-      <c r="AA4" s="99"/>
-      <c r="AB4" s="99"/>
-      <c r="AC4" s="99"/>
-      <c r="AD4" s="99"/>
-      <c r="AE4" s="99"/>
-      <c r="AF4" s="99"/>
-      <c r="AG4" s="99"/>
-      <c r="AH4" s="99"/>
-      <c r="AI4" s="99"/>
-      <c r="AJ4" s="99"/>
-      <c r="AK4" s="100"/>
-    </row>
-    <row r="5" spans="1:37">
-      <c r="A5" s="101">
-        <v>45086</v>
-      </c>
-      <c r="B5" s="102"/>
-      <c r="C5" s="102"/>
-      <c r="D5" s="102"/>
-      <c r="E5" s="103"/>
-      <c r="F5" s="107" t="s">
-        <v>4</v>
-      </c>
-      <c r="G5" s="108"/>
-      <c r="H5" s="108"/>
-      <c r="I5" s="109"/>
-      <c r="J5" s="130" t="s">
-        <v>118</v>
-      </c>
-      <c r="K5" s="131"/>
-      <c r="L5" s="131"/>
-      <c r="M5" s="131"/>
-      <c r="N5" s="131"/>
-      <c r="O5" s="131"/>
-      <c r="P5" s="131"/>
-      <c r="Q5" s="131"/>
-      <c r="R5" s="131"/>
-      <c r="S5" s="131"/>
-      <c r="T5" s="131"/>
-      <c r="U5" s="131"/>
-      <c r="V5" s="131"/>
-      <c r="W5" s="131"/>
-      <c r="X5" s="131"/>
-      <c r="Y5" s="131"/>
-      <c r="Z5" s="131"/>
-      <c r="AA5" s="131"/>
-      <c r="AB5" s="131"/>
-      <c r="AC5" s="131"/>
-      <c r="AD5" s="131"/>
-      <c r="AE5" s="131"/>
-      <c r="AF5" s="131"/>
-      <c r="AG5" s="131"/>
-      <c r="AH5" s="131"/>
-      <c r="AI5" s="131"/>
-      <c r="AJ5" s="131"/>
-      <c r="AK5" s="132"/>
-    </row>
-    <row r="6" spans="1:37">
-      <c r="A6" s="98">
+      <c r="P5" s="145"/>
+      <c r="Q5" s="145"/>
+      <c r="R5" s="145"/>
+      <c r="S5" s="145"/>
+      <c r="T5" s="145"/>
+      <c r="U5" s="145"/>
+      <c r="V5" s="145"/>
+      <c r="W5" s="145"/>
+      <c r="X5" s="145"/>
+      <c r="Y5" s="145"/>
+      <c r="Z5" s="145"/>
+      <c r="AA5" s="145"/>
+      <c r="AB5" s="145"/>
+      <c r="AC5" s="145"/>
+      <c r="AD5" s="145"/>
+      <c r="AE5" s="145"/>
+      <c r="AF5" s="145"/>
+      <c r="AG5" s="145"/>
+      <c r="AH5" s="145"/>
+      <c r="AI5" s="145"/>
+      <c r="AJ5" s="145"/>
+      <c r="AK5" s="145"/>
+      <c r="AL5" s="145"/>
+      <c r="AM5" s="145"/>
+      <c r="AN5" s="145"/>
+      <c r="AO5" s="145"/>
+      <c r="AP5" s="146"/>
+    </row>
+    <row r="6" spans="1:42">
+      <c r="A6" s="91">
         <v>45250</v>
       </c>
-      <c r="B6" s="99"/>
-      <c r="C6" s="99"/>
-      <c r="D6" s="99"/>
-      <c r="E6" s="100"/>
-      <c r="F6" s="107" t="s">
+      <c r="B6" s="92"/>
+      <c r="C6" s="92"/>
+      <c r="D6" s="92"/>
+      <c r="E6" s="93"/>
+      <c r="F6" s="115" t="s">
+        <v>120</v>
+      </c>
+      <c r="G6" s="116"/>
+      <c r="H6" s="116"/>
+      <c r="I6" s="117"/>
+      <c r="J6" s="91" t="s">
+        <v>164</v>
+      </c>
+      <c r="K6" s="92"/>
+      <c r="L6" s="92"/>
+      <c r="M6" s="92"/>
+      <c r="N6" s="93"/>
+      <c r="O6" s="125" t="s">
         <v>121</v>
       </c>
-      <c r="G6" s="108"/>
-      <c r="H6" s="108"/>
-      <c r="I6" s="109"/>
-      <c r="J6" s="117" t="s">
-        <v>122</v>
-      </c>
-      <c r="K6" s="118"/>
-      <c r="L6" s="118"/>
-      <c r="M6" s="118"/>
-      <c r="N6" s="118"/>
-      <c r="O6" s="118"/>
-      <c r="P6" s="118"/>
-      <c r="Q6" s="118"/>
-      <c r="R6" s="118"/>
-      <c r="S6" s="118"/>
-      <c r="T6" s="118"/>
-      <c r="U6" s="118"/>
-      <c r="V6" s="118"/>
-      <c r="W6" s="118"/>
-      <c r="X6" s="118"/>
-      <c r="Y6" s="118"/>
-      <c r="Z6" s="118"/>
-      <c r="AA6" s="118"/>
-      <c r="AB6" s="118"/>
-      <c r="AC6" s="118"/>
-      <c r="AD6" s="118"/>
-      <c r="AE6" s="118"/>
-      <c r="AF6" s="118"/>
-      <c r="AG6" s="118"/>
-      <c r="AH6" s="118"/>
-      <c r="AI6" s="118"/>
-      <c r="AJ6" s="118"/>
-      <c r="AK6" s="119"/>
-    </row>
-    <row r="7" spans="1:37">
-      <c r="A7" s="133">
+      <c r="P6" s="126"/>
+      <c r="Q6" s="126"/>
+      <c r="R6" s="126"/>
+      <c r="S6" s="126"/>
+      <c r="T6" s="126"/>
+      <c r="U6" s="126"/>
+      <c r="V6" s="126"/>
+      <c r="W6" s="126"/>
+      <c r="X6" s="126"/>
+      <c r="Y6" s="126"/>
+      <c r="Z6" s="126"/>
+      <c r="AA6" s="126"/>
+      <c r="AB6" s="126"/>
+      <c r="AC6" s="126"/>
+      <c r="AD6" s="126"/>
+      <c r="AE6" s="126"/>
+      <c r="AF6" s="126"/>
+      <c r="AG6" s="126"/>
+      <c r="AH6" s="126"/>
+      <c r="AI6" s="126"/>
+      <c r="AJ6" s="126"/>
+      <c r="AK6" s="126"/>
+      <c r="AL6" s="126"/>
+      <c r="AM6" s="126"/>
+      <c r="AN6" s="126"/>
+      <c r="AO6" s="126"/>
+      <c r="AP6" s="127"/>
+    </row>
+    <row r="7" spans="1:42">
+      <c r="A7" s="97">
         <v>45485</v>
       </c>
-      <c r="B7" s="134"/>
-      <c r="C7" s="134"/>
-      <c r="D7" s="134"/>
-      <c r="E7" s="135"/>
-      <c r="F7" s="136" t="s">
+      <c r="B7" s="98"/>
+      <c r="C7" s="98"/>
+      <c r="D7" s="98"/>
+      <c r="E7" s="99"/>
+      <c r="F7" s="112" t="s">
+        <v>154</v>
+      </c>
+      <c r="G7" s="113"/>
+      <c r="H7" s="113"/>
+      <c r="I7" s="114"/>
+      <c r="J7" s="97" t="s">
+        <v>165</v>
+      </c>
+      <c r="K7" s="98"/>
+      <c r="L7" s="98"/>
+      <c r="M7" s="98"/>
+      <c r="N7" s="99"/>
+      <c r="O7" s="128" t="s">
         <v>155</v>
       </c>
-      <c r="G7" s="137"/>
-      <c r="H7" s="137"/>
-      <c r="I7" s="138"/>
-      <c r="J7" s="139" t="s">
-        <v>156</v>
+      <c r="P7" s="129"/>
+      <c r="Q7" s="129"/>
+      <c r="R7" s="129"/>
+      <c r="S7" s="129"/>
+      <c r="T7" s="129"/>
+      <c r="U7" s="129"/>
+      <c r="V7" s="129"/>
+      <c r="W7" s="129"/>
+      <c r="X7" s="129"/>
+      <c r="Y7" s="129"/>
+      <c r="Z7" s="129"/>
+      <c r="AA7" s="129"/>
+      <c r="AB7" s="129"/>
+      <c r="AC7" s="129"/>
+      <c r="AD7" s="129"/>
+      <c r="AE7" s="129"/>
+      <c r="AF7" s="129"/>
+      <c r="AG7" s="129"/>
+      <c r="AH7" s="129"/>
+      <c r="AI7" s="129"/>
+      <c r="AJ7" s="129"/>
+      <c r="AK7" s="129"/>
+      <c r="AL7" s="129"/>
+      <c r="AM7" s="129"/>
+      <c r="AN7" s="129"/>
+      <c r="AO7" s="129"/>
+      <c r="AP7" s="130"/>
+    </row>
+    <row r="8" spans="1:42">
+      <c r="A8" s="100">
+        <v>45576</v>
       </c>
-      <c r="K7" s="140"/>
-      <c r="L7" s="140"/>
-      <c r="M7" s="140"/>
-      <c r="N7" s="140"/>
-      <c r="O7" s="140"/>
-      <c r="P7" s="140"/>
-      <c r="Q7" s="140"/>
-      <c r="R7" s="140"/>
-      <c r="S7" s="140"/>
-      <c r="T7" s="140"/>
-      <c r="U7" s="140"/>
-      <c r="V7" s="140"/>
-      <c r="W7" s="140"/>
-      <c r="X7" s="140"/>
-      <c r="Y7" s="140"/>
-      <c r="Z7" s="140"/>
-      <c r="AA7" s="140"/>
-      <c r="AB7" s="140"/>
-      <c r="AC7" s="140"/>
-      <c r="AD7" s="140"/>
-      <c r="AE7" s="140"/>
-      <c r="AF7" s="140"/>
-      <c r="AG7" s="140"/>
-      <c r="AH7" s="140"/>
-      <c r="AI7" s="140"/>
-      <c r="AJ7" s="140"/>
-      <c r="AK7" s="141"/>
-    </row>
-    <row r="8" spans="1:37">
-      <c r="A8" s="101"/>
-      <c r="B8" s="102"/>
-      <c r="C8" s="102"/>
-      <c r="D8" s="102"/>
-      <c r="E8" s="103"/>
-      <c r="F8" s="86"/>
-      <c r="G8" s="87"/>
-      <c r="H8" s="87"/>
-      <c r="I8" s="88"/>
-      <c r="J8" s="120"/>
-      <c r="K8" s="121"/>
-      <c r="L8" s="121"/>
-      <c r="M8" s="121"/>
-      <c r="N8" s="121"/>
-      <c r="O8" s="121"/>
-      <c r="P8" s="121"/>
-      <c r="Q8" s="121"/>
-      <c r="R8" s="121"/>
-      <c r="S8" s="121"/>
-      <c r="T8" s="121"/>
-      <c r="U8" s="121"/>
-      <c r="V8" s="121"/>
-      <c r="W8" s="121"/>
-      <c r="X8" s="121"/>
-      <c r="Y8" s="121"/>
-      <c r="Z8" s="121"/>
-      <c r="AA8" s="121"/>
-      <c r="AB8" s="121"/>
-      <c r="AC8" s="121"/>
-      <c r="AD8" s="121"/>
-      <c r="AE8" s="121"/>
-      <c r="AF8" s="121"/>
-      <c r="AG8" s="121"/>
-      <c r="AH8" s="121"/>
-      <c r="AI8" s="121"/>
-      <c r="AJ8" s="121"/>
-      <c r="AK8" s="122"/>
-    </row>
-    <row r="9" spans="1:37">
-      <c r="A9" s="104"/>
-      <c r="B9" s="105"/>
-      <c r="C9" s="105"/>
-      <c r="D9" s="105"/>
-      <c r="E9" s="106"/>
-      <c r="F9" s="89"/>
-      <c r="G9" s="90"/>
-      <c r="H9" s="90"/>
-      <c r="I9" s="91"/>
-      <c r="J9" s="123"/>
-      <c r="K9" s="124"/>
-      <c r="L9" s="124"/>
-      <c r="M9" s="124"/>
-      <c r="N9" s="124"/>
-      <c r="O9" s="124"/>
-      <c r="P9" s="124"/>
-      <c r="Q9" s="124"/>
-      <c r="R9" s="124"/>
-      <c r="S9" s="124"/>
-      <c r="T9" s="124"/>
-      <c r="U9" s="124"/>
-      <c r="V9" s="124"/>
-      <c r="W9" s="124"/>
-      <c r="X9" s="124"/>
-      <c r="Y9" s="124"/>
-      <c r="Z9" s="124"/>
-      <c r="AA9" s="124"/>
-      <c r="AB9" s="124"/>
-      <c r="AC9" s="124"/>
-      <c r="AD9" s="124"/>
-      <c r="AE9" s="124"/>
-      <c r="AF9" s="124"/>
-      <c r="AG9" s="124"/>
-      <c r="AH9" s="124"/>
-      <c r="AI9" s="124"/>
-      <c r="AJ9" s="124"/>
-      <c r="AK9" s="125"/>
-    </row>
-    <row r="10" spans="1:37">
-      <c r="A10" s="101"/>
-      <c r="B10" s="102"/>
-      <c r="C10" s="102"/>
-      <c r="D10" s="102"/>
-      <c r="E10" s="103"/>
-      <c r="F10" s="86"/>
-      <c r="G10" s="87"/>
-      <c r="H10" s="87"/>
-      <c r="I10" s="88"/>
-      <c r="J10" s="120"/>
-      <c r="K10" s="121"/>
-      <c r="L10" s="121"/>
-      <c r="M10" s="121"/>
-      <c r="N10" s="121"/>
-      <c r="O10" s="121"/>
-      <c r="P10" s="121"/>
-      <c r="Q10" s="121"/>
-      <c r="R10" s="121"/>
-      <c r="S10" s="121"/>
-      <c r="T10" s="121"/>
-      <c r="U10" s="121"/>
-      <c r="V10" s="121"/>
-      <c r="W10" s="121"/>
-      <c r="X10" s="121"/>
-      <c r="Y10" s="121"/>
-      <c r="Z10" s="121"/>
-      <c r="AA10" s="121"/>
-      <c r="AB10" s="121"/>
-      <c r="AC10" s="121"/>
-      <c r="AD10" s="121"/>
-      <c r="AE10" s="121"/>
-      <c r="AF10" s="121"/>
-      <c r="AG10" s="121"/>
-      <c r="AH10" s="121"/>
-      <c r="AI10" s="121"/>
-      <c r="AJ10" s="121"/>
-      <c r="AK10" s="122"/>
-    </row>
-    <row r="11" spans="1:37">
-      <c r="A11" s="86"/>
-      <c r="B11" s="87"/>
-      <c r="C11" s="87"/>
-      <c r="D11" s="87"/>
-      <c r="E11" s="88"/>
-      <c r="F11" s="86"/>
-      <c r="G11" s="87"/>
-      <c r="H11" s="87"/>
-      <c r="I11" s="88"/>
-      <c r="J11" s="110"/>
-      <c r="K11" s="110"/>
-      <c r="L11" s="110"/>
-      <c r="M11" s="110"/>
-      <c r="N11" s="110"/>
-      <c r="O11" s="110"/>
-      <c r="P11" s="110"/>
-      <c r="Q11" s="110"/>
-      <c r="R11" s="110"/>
-      <c r="S11" s="110"/>
-      <c r="T11" s="110"/>
-      <c r="U11" s="110"/>
-      <c r="V11" s="110"/>
-      <c r="W11" s="110"/>
-      <c r="X11" s="110"/>
-      <c r="Y11" s="110"/>
-      <c r="Z11" s="110"/>
-      <c r="AA11" s="110"/>
-      <c r="AB11" s="110"/>
-      <c r="AC11" s="110"/>
-      <c r="AD11" s="110"/>
-      <c r="AE11" s="110"/>
-      <c r="AF11" s="110"/>
-      <c r="AG11" s="110"/>
-      <c r="AH11" s="110"/>
-      <c r="AI11" s="110"/>
-      <c r="AJ11" s="110"/>
-      <c r="AK11" s="111"/>
-    </row>
-    <row r="12" spans="1:37">
-      <c r="A12" s="86"/>
-      <c r="B12" s="87"/>
-      <c r="C12" s="87"/>
-      <c r="D12" s="87"/>
-      <c r="E12" s="88"/>
-      <c r="F12" s="86"/>
-      <c r="G12" s="87"/>
-      <c r="H12" s="87"/>
-      <c r="I12" s="88"/>
-      <c r="J12" s="110"/>
-      <c r="K12" s="110"/>
-      <c r="L12" s="110"/>
-      <c r="M12" s="110"/>
-      <c r="N12" s="110"/>
-      <c r="O12" s="110"/>
-      <c r="P12" s="110"/>
-      <c r="Q12" s="110"/>
-      <c r="R12" s="110"/>
-      <c r="S12" s="110"/>
-      <c r="T12" s="110"/>
-      <c r="U12" s="110"/>
-      <c r="V12" s="110"/>
-      <c r="W12" s="110"/>
-      <c r="X12" s="110"/>
-      <c r="Y12" s="110"/>
-      <c r="Z12" s="110"/>
-      <c r="AA12" s="110"/>
-      <c r="AB12" s="110"/>
-      <c r="AC12" s="110"/>
-      <c r="AD12" s="110"/>
-      <c r="AE12" s="110"/>
-      <c r="AF12" s="110"/>
-      <c r="AG12" s="110"/>
-      <c r="AH12" s="110"/>
-      <c r="AI12" s="110"/>
-      <c r="AJ12" s="110"/>
-      <c r="AK12" s="111"/>
-    </row>
-    <row r="13" spans="1:37">
-      <c r="A13" s="86"/>
-      <c r="B13" s="87"/>
-      <c r="C13" s="87"/>
-      <c r="D13" s="87"/>
-      <c r="E13" s="88"/>
-      <c r="F13" s="86"/>
-      <c r="G13" s="87"/>
-      <c r="H13" s="87"/>
-      <c r="I13" s="88"/>
-      <c r="J13" s="110"/>
-      <c r="K13" s="110"/>
-      <c r="L13" s="110"/>
-      <c r="M13" s="110"/>
-      <c r="N13" s="110"/>
-      <c r="O13" s="110"/>
-      <c r="P13" s="110"/>
-      <c r="Q13" s="110"/>
-      <c r="R13" s="110"/>
-      <c r="S13" s="110"/>
-      <c r="T13" s="110"/>
-      <c r="U13" s="110"/>
-      <c r="V13" s="110"/>
-      <c r="W13" s="110"/>
-      <c r="X13" s="110"/>
-      <c r="Y13" s="110"/>
-      <c r="Z13" s="110"/>
-      <c r="AA13" s="110"/>
-      <c r="AB13" s="110"/>
-      <c r="AC13" s="110"/>
-      <c r="AD13" s="110"/>
-      <c r="AE13" s="110"/>
-      <c r="AF13" s="110"/>
-      <c r="AG13" s="110"/>
-      <c r="AH13" s="110"/>
-      <c r="AI13" s="110"/>
-      <c r="AJ13" s="110"/>
-      <c r="AK13" s="111"/>
-    </row>
-    <row r="14" spans="1:37">
-      <c r="A14" s="86"/>
-      <c r="B14" s="87"/>
-      <c r="C14" s="87"/>
-      <c r="D14" s="87"/>
-      <c r="E14" s="88"/>
-      <c r="F14" s="86"/>
-      <c r="G14" s="87"/>
-      <c r="H14" s="87"/>
-      <c r="I14" s="88"/>
-      <c r="J14" s="110"/>
-      <c r="K14" s="110"/>
-      <c r="L14" s="110"/>
-      <c r="M14" s="110"/>
-      <c r="N14" s="110"/>
-      <c r="O14" s="110"/>
-      <c r="P14" s="110"/>
-      <c r="Q14" s="110"/>
-      <c r="R14" s="110"/>
-      <c r="S14" s="110"/>
-      <c r="T14" s="110"/>
-      <c r="U14" s="110"/>
-      <c r="V14" s="110"/>
-      <c r="W14" s="110"/>
-      <c r="X14" s="110"/>
-      <c r="Y14" s="110"/>
-      <c r="Z14" s="110"/>
-      <c r="AA14" s="110"/>
-      <c r="AB14" s="110"/>
-      <c r="AC14" s="110"/>
-      <c r="AD14" s="110"/>
-      <c r="AE14" s="110"/>
-      <c r="AF14" s="110"/>
-      <c r="AG14" s="110"/>
-      <c r="AH14" s="110"/>
-      <c r="AI14" s="110"/>
-      <c r="AJ14" s="110"/>
-      <c r="AK14" s="111"/>
-    </row>
-    <row r="15" spans="1:37">
-      <c r="A15" s="86"/>
-      <c r="B15" s="87"/>
-      <c r="C15" s="87"/>
-      <c r="D15" s="87"/>
-      <c r="E15" s="88"/>
-      <c r="F15" s="86"/>
-      <c r="G15" s="87"/>
-      <c r="H15" s="87"/>
-      <c r="I15" s="88"/>
-      <c r="J15" s="110"/>
-      <c r="K15" s="110"/>
-      <c r="L15" s="110"/>
-      <c r="M15" s="110"/>
-      <c r="N15" s="110"/>
-      <c r="O15" s="110"/>
-      <c r="P15" s="110"/>
-      <c r="Q15" s="110"/>
-      <c r="R15" s="110"/>
-      <c r="S15" s="110"/>
-      <c r="T15" s="110"/>
-      <c r="U15" s="110"/>
-      <c r="V15" s="110"/>
-      <c r="W15" s="110"/>
-      <c r="X15" s="110"/>
-      <c r="Y15" s="110"/>
-      <c r="Z15" s="110"/>
-      <c r="AA15" s="110"/>
-      <c r="AB15" s="110"/>
-      <c r="AC15" s="110"/>
-      <c r="AD15" s="110"/>
-      <c r="AE15" s="110"/>
-      <c r="AF15" s="110"/>
-      <c r="AG15" s="110"/>
-      <c r="AH15" s="110"/>
-      <c r="AI15" s="110"/>
-      <c r="AJ15" s="110"/>
-      <c r="AK15" s="111"/>
-    </row>
-    <row r="16" spans="1:37">
-      <c r="A16" s="86"/>
-      <c r="B16" s="87"/>
-      <c r="C16" s="87"/>
-      <c r="D16" s="87"/>
-      <c r="E16" s="88"/>
-      <c r="F16" s="86"/>
-      <c r="G16" s="87"/>
-      <c r="H16" s="87"/>
-      <c r="I16" s="88"/>
-      <c r="J16" s="110"/>
-      <c r="K16" s="110"/>
-      <c r="L16" s="110"/>
-      <c r="M16" s="110"/>
-      <c r="N16" s="110"/>
-      <c r="O16" s="110"/>
-      <c r="P16" s="110"/>
-      <c r="Q16" s="110"/>
-      <c r="R16" s="110"/>
-      <c r="S16" s="110"/>
-      <c r="T16" s="110"/>
-      <c r="U16" s="110"/>
-      <c r="V16" s="110"/>
-      <c r="W16" s="110"/>
-      <c r="X16" s="110"/>
-      <c r="Y16" s="110"/>
-      <c r="Z16" s="110"/>
-      <c r="AA16" s="110"/>
-      <c r="AB16" s="110"/>
-      <c r="AC16" s="110"/>
-      <c r="AD16" s="110"/>
-      <c r="AE16" s="110"/>
-      <c r="AF16" s="110"/>
-      <c r="AG16" s="110"/>
-      <c r="AH16" s="110"/>
-      <c r="AI16" s="110"/>
-      <c r="AJ16" s="110"/>
-      <c r="AK16" s="111"/>
-    </row>
-    <row r="17" spans="1:37">
-      <c r="A17" s="86"/>
-      <c r="B17" s="87"/>
-      <c r="C17" s="87"/>
-      <c r="D17" s="87"/>
-      <c r="E17" s="88"/>
-      <c r="F17" s="86"/>
-      <c r="G17" s="87"/>
-      <c r="H17" s="87"/>
-      <c r="I17" s="88"/>
-      <c r="J17" s="110"/>
-      <c r="K17" s="110"/>
-      <c r="L17" s="110"/>
-      <c r="M17" s="110"/>
-      <c r="N17" s="110"/>
-      <c r="O17" s="110"/>
-      <c r="P17" s="110"/>
-      <c r="Q17" s="110"/>
-      <c r="R17" s="110"/>
-      <c r="S17" s="110"/>
-      <c r="T17" s="110"/>
-      <c r="U17" s="110"/>
-      <c r="V17" s="110"/>
-      <c r="W17" s="110"/>
-      <c r="X17" s="110"/>
-      <c r="Y17" s="110"/>
-      <c r="Z17" s="110"/>
-      <c r="AA17" s="110"/>
-      <c r="AB17" s="110"/>
-      <c r="AC17" s="110"/>
-      <c r="AD17" s="110"/>
-      <c r="AE17" s="110"/>
-      <c r="AF17" s="110"/>
-      <c r="AG17" s="110"/>
-      <c r="AH17" s="110"/>
-      <c r="AI17" s="110"/>
-      <c r="AJ17" s="110"/>
-      <c r="AK17" s="111"/>
-    </row>
-    <row r="18" spans="1:37">
-      <c r="A18" s="86"/>
-      <c r="B18" s="87"/>
-      <c r="C18" s="87"/>
-      <c r="D18" s="87"/>
-      <c r="E18" s="88"/>
-      <c r="F18" s="86"/>
-      <c r="G18" s="87"/>
-      <c r="H18" s="87"/>
-      <c r="I18" s="88"/>
-      <c r="J18" s="110"/>
-      <c r="K18" s="110"/>
-      <c r="L18" s="110"/>
-      <c r="M18" s="110"/>
-      <c r="N18" s="110"/>
-      <c r="O18" s="110"/>
-      <c r="P18" s="110"/>
-      <c r="Q18" s="110"/>
-      <c r="R18" s="110"/>
-      <c r="S18" s="110"/>
-      <c r="T18" s="110"/>
-      <c r="U18" s="110"/>
-      <c r="V18" s="110"/>
-      <c r="W18" s="110"/>
-      <c r="X18" s="110"/>
-      <c r="Y18" s="110"/>
-      <c r="Z18" s="110"/>
-      <c r="AA18" s="110"/>
-      <c r="AB18" s="110"/>
-      <c r="AC18" s="110"/>
-      <c r="AD18" s="110"/>
-      <c r="AE18" s="110"/>
-      <c r="AF18" s="110"/>
-      <c r="AG18" s="110"/>
-      <c r="AH18" s="110"/>
-      <c r="AI18" s="110"/>
-      <c r="AJ18" s="110"/>
-      <c r="AK18" s="111"/>
-    </row>
-    <row r="19" spans="1:37">
-      <c r="A19" s="86"/>
-      <c r="B19" s="87"/>
-      <c r="C19" s="87"/>
-      <c r="D19" s="87"/>
-      <c r="E19" s="88"/>
-      <c r="F19" s="86"/>
-      <c r="G19" s="87"/>
-      <c r="H19" s="87"/>
-      <c r="I19" s="88"/>
-      <c r="J19" s="110"/>
-      <c r="K19" s="110"/>
-      <c r="L19" s="110"/>
-      <c r="M19" s="110"/>
-      <c r="N19" s="110"/>
-      <c r="O19" s="110"/>
-      <c r="P19" s="110"/>
-      <c r="Q19" s="110"/>
-      <c r="R19" s="110"/>
-      <c r="S19" s="110"/>
-      <c r="T19" s="110"/>
-      <c r="U19" s="110"/>
-      <c r="V19" s="110"/>
-      <c r="W19" s="110"/>
-      <c r="X19" s="110"/>
-      <c r="Y19" s="110"/>
-      <c r="Z19" s="110"/>
-      <c r="AA19" s="110"/>
-      <c r="AB19" s="110"/>
-      <c r="AC19" s="110"/>
-      <c r="AD19" s="110"/>
-      <c r="AE19" s="110"/>
-      <c r="AF19" s="110"/>
-      <c r="AG19" s="110"/>
-      <c r="AH19" s="110"/>
-      <c r="AI19" s="110"/>
-      <c r="AJ19" s="110"/>
-      <c r="AK19" s="111"/>
-    </row>
-    <row r="20" spans="1:37">
-      <c r="A20" s="86"/>
-      <c r="B20" s="87"/>
-      <c r="C20" s="87"/>
-      <c r="D20" s="87"/>
-      <c r="E20" s="88"/>
-      <c r="F20" s="86"/>
-      <c r="G20" s="87"/>
-      <c r="H20" s="87"/>
-      <c r="I20" s="88"/>
-      <c r="J20" s="110"/>
-      <c r="K20" s="110"/>
-      <c r="L20" s="110"/>
-      <c r="M20" s="110"/>
-      <c r="N20" s="110"/>
-      <c r="O20" s="110"/>
-      <c r="P20" s="110"/>
-      <c r="Q20" s="110"/>
-      <c r="R20" s="110"/>
-      <c r="S20" s="110"/>
-      <c r="T20" s="110"/>
-      <c r="U20" s="110"/>
-      <c r="V20" s="110"/>
-      <c r="W20" s="110"/>
-      <c r="X20" s="110"/>
-      <c r="Y20" s="110"/>
-      <c r="Z20" s="110"/>
-      <c r="AA20" s="110"/>
-      <c r="AB20" s="110"/>
-      <c r="AC20" s="110"/>
-      <c r="AD20" s="110"/>
-      <c r="AE20" s="110"/>
-      <c r="AF20" s="110"/>
-      <c r="AG20" s="110"/>
-      <c r="AH20" s="110"/>
-      <c r="AI20" s="110"/>
-      <c r="AJ20" s="110"/>
-      <c r="AK20" s="111"/>
-    </row>
-    <row r="21" spans="1:37">
-      <c r="A21" s="86"/>
-      <c r="B21" s="87"/>
-      <c r="C21" s="87"/>
-      <c r="D21" s="87"/>
-      <c r="E21" s="88"/>
-      <c r="F21" s="86"/>
-      <c r="G21" s="87"/>
-      <c r="H21" s="87"/>
-      <c r="I21" s="88"/>
-      <c r="J21" s="110"/>
-      <c r="K21" s="110"/>
-      <c r="L21" s="110"/>
-      <c r="M21" s="110"/>
-      <c r="N21" s="110"/>
-      <c r="O21" s="110"/>
-      <c r="P21" s="110"/>
-      <c r="Q21" s="110"/>
-      <c r="R21" s="110"/>
-      <c r="S21" s="110"/>
-      <c r="T21" s="110"/>
-      <c r="U21" s="110"/>
-      <c r="V21" s="110"/>
-      <c r="W21" s="110"/>
-      <c r="X21" s="110"/>
-      <c r="Y21" s="110"/>
-      <c r="Z21" s="110"/>
-      <c r="AA21" s="110"/>
-      <c r="AB21" s="110"/>
-      <c r="AC21" s="110"/>
-      <c r="AD21" s="110"/>
-      <c r="AE21" s="110"/>
-      <c r="AF21" s="110"/>
-      <c r="AG21" s="110"/>
-      <c r="AH21" s="110"/>
-      <c r="AI21" s="110"/>
-      <c r="AJ21" s="110"/>
-      <c r="AK21" s="111"/>
-    </row>
-    <row r="22" spans="1:37">
-      <c r="A22" s="86"/>
-      <c r="B22" s="87"/>
-      <c r="C22" s="87"/>
-      <c r="D22" s="87"/>
-      <c r="E22" s="88"/>
-      <c r="F22" s="86"/>
-      <c r="G22" s="87"/>
-      <c r="H22" s="87"/>
-      <c r="I22" s="88"/>
-      <c r="J22" s="110"/>
-      <c r="K22" s="110"/>
-      <c r="L22" s="110"/>
-      <c r="M22" s="110"/>
-      <c r="N22" s="110"/>
-      <c r="O22" s="110"/>
-      <c r="P22" s="110"/>
-      <c r="Q22" s="110"/>
-      <c r="R22" s="110"/>
-      <c r="S22" s="110"/>
-      <c r="T22" s="110"/>
-      <c r="U22" s="110"/>
-      <c r="V22" s="110"/>
-      <c r="W22" s="110"/>
-      <c r="X22" s="110"/>
-      <c r="Y22" s="110"/>
-      <c r="Z22" s="110"/>
-      <c r="AA22" s="110"/>
-      <c r="AB22" s="110"/>
-      <c r="AC22" s="110"/>
-      <c r="AD22" s="110"/>
-      <c r="AE22" s="110"/>
-      <c r="AF22" s="110"/>
-      <c r="AG22" s="110"/>
-      <c r="AH22" s="110"/>
-      <c r="AI22" s="110"/>
-      <c r="AJ22" s="110"/>
-      <c r="AK22" s="111"/>
-    </row>
-    <row r="23" spans="1:37">
-      <c r="A23" s="86"/>
-      <c r="B23" s="87"/>
-      <c r="C23" s="87"/>
-      <c r="D23" s="87"/>
-      <c r="E23" s="88"/>
-      <c r="F23" s="86"/>
-      <c r="G23" s="87"/>
-      <c r="H23" s="87"/>
-      <c r="I23" s="88"/>
-      <c r="J23" s="110"/>
-      <c r="K23" s="110"/>
-      <c r="L23" s="110"/>
-      <c r="M23" s="110"/>
-      <c r="N23" s="110"/>
-      <c r="O23" s="110"/>
-      <c r="P23" s="110"/>
-      <c r="Q23" s="110"/>
-      <c r="R23" s="110"/>
-      <c r="S23" s="110"/>
-      <c r="T23" s="110"/>
-      <c r="U23" s="110"/>
-      <c r="V23" s="110"/>
-      <c r="W23" s="110"/>
-      <c r="X23" s="110"/>
-      <c r="Y23" s="110"/>
-      <c r="Z23" s="110"/>
-      <c r="AA23" s="110"/>
-      <c r="AB23" s="110"/>
-      <c r="AC23" s="110"/>
-      <c r="AD23" s="110"/>
-      <c r="AE23" s="110"/>
-      <c r="AF23" s="110"/>
-      <c r="AG23" s="110"/>
-      <c r="AH23" s="110"/>
-      <c r="AI23" s="110"/>
-      <c r="AJ23" s="110"/>
-      <c r="AK23" s="111"/>
-    </row>
-    <row r="24" spans="1:37">
-      <c r="A24" s="86"/>
-      <c r="B24" s="87"/>
-      <c r="C24" s="87"/>
-      <c r="D24" s="87"/>
-      <c r="E24" s="88"/>
-      <c r="F24" s="86"/>
-      <c r="G24" s="87"/>
-      <c r="H24" s="87"/>
-      <c r="I24" s="88"/>
-      <c r="J24" s="110"/>
-      <c r="K24" s="110"/>
-      <c r="L24" s="110"/>
-      <c r="M24" s="110"/>
-      <c r="N24" s="110"/>
-      <c r="O24" s="110"/>
-      <c r="P24" s="110"/>
-      <c r="Q24" s="110"/>
-      <c r="R24" s="110"/>
-      <c r="S24" s="110"/>
-      <c r="T24" s="110"/>
-      <c r="U24" s="110"/>
-      <c r="V24" s="110"/>
-      <c r="W24" s="110"/>
-      <c r="X24" s="110"/>
-      <c r="Y24" s="110"/>
-      <c r="Z24" s="110"/>
-      <c r="AA24" s="110"/>
-      <c r="AB24" s="110"/>
-      <c r="AC24" s="110"/>
-      <c r="AD24" s="110"/>
-      <c r="AE24" s="110"/>
-      <c r="AF24" s="110"/>
-      <c r="AG24" s="110"/>
-      <c r="AH24" s="110"/>
-      <c r="AI24" s="110"/>
-      <c r="AJ24" s="110"/>
-      <c r="AK24" s="111"/>
-    </row>
-    <row r="25" spans="1:37">
-      <c r="A25" s="86"/>
-      <c r="B25" s="87"/>
-      <c r="C25" s="87"/>
-      <c r="D25" s="87"/>
-      <c r="E25" s="88"/>
-      <c r="F25" s="86"/>
-      <c r="G25" s="87"/>
-      <c r="H25" s="87"/>
-      <c r="I25" s="88"/>
-      <c r="J25" s="110"/>
-      <c r="K25" s="110"/>
-      <c r="L25" s="110"/>
-      <c r="M25" s="110"/>
-      <c r="N25" s="110"/>
-      <c r="O25" s="110"/>
-      <c r="P25" s="110"/>
-      <c r="Q25" s="110"/>
-      <c r="R25" s="110"/>
-      <c r="S25" s="110"/>
-      <c r="T25" s="110"/>
-      <c r="U25" s="110"/>
-      <c r="V25" s="110"/>
-      <c r="W25" s="110"/>
-      <c r="X25" s="110"/>
-      <c r="Y25" s="110"/>
-      <c r="Z25" s="110"/>
-      <c r="AA25" s="110"/>
-      <c r="AB25" s="110"/>
-      <c r="AC25" s="110"/>
-      <c r="AD25" s="110"/>
-      <c r="AE25" s="110"/>
-      <c r="AF25" s="110"/>
-      <c r="AG25" s="110"/>
-      <c r="AH25" s="110"/>
-      <c r="AI25" s="110"/>
-      <c r="AJ25" s="110"/>
-      <c r="AK25" s="111"/>
-    </row>
-    <row r="26" spans="1:37">
-      <c r="A26" s="86"/>
-      <c r="B26" s="87"/>
-      <c r="C26" s="87"/>
-      <c r="D26" s="87"/>
-      <c r="E26" s="88"/>
-      <c r="F26" s="86"/>
-      <c r="G26" s="87"/>
-      <c r="H26" s="87"/>
-      <c r="I26" s="88"/>
-      <c r="J26" s="110"/>
-      <c r="K26" s="110"/>
-      <c r="L26" s="110"/>
-      <c r="M26" s="110"/>
-      <c r="N26" s="110"/>
-      <c r="O26" s="110"/>
-      <c r="P26" s="110"/>
-      <c r="Q26" s="110"/>
-      <c r="R26" s="110"/>
-      <c r="S26" s="110"/>
-      <c r="T26" s="110"/>
-      <c r="U26" s="110"/>
-      <c r="V26" s="110"/>
-      <c r="W26" s="110"/>
-      <c r="X26" s="110"/>
-      <c r="Y26" s="110"/>
-      <c r="Z26" s="110"/>
-      <c r="AA26" s="110"/>
-      <c r="AB26" s="110"/>
-      <c r="AC26" s="110"/>
-      <c r="AD26" s="110"/>
-      <c r="AE26" s="110"/>
-      <c r="AF26" s="110"/>
-      <c r="AG26" s="110"/>
-      <c r="AH26" s="110"/>
-      <c r="AI26" s="110"/>
-      <c r="AJ26" s="110"/>
-      <c r="AK26" s="111"/>
-    </row>
-    <row r="27" spans="1:37">
-      <c r="A27" s="86"/>
-      <c r="B27" s="87"/>
-      <c r="C27" s="87"/>
-      <c r="D27" s="87"/>
-      <c r="E27" s="88"/>
-      <c r="F27" s="86"/>
-      <c r="G27" s="87"/>
-      <c r="H27" s="87"/>
-      <c r="I27" s="88"/>
-      <c r="J27" s="110"/>
-      <c r="K27" s="110"/>
-      <c r="L27" s="110"/>
-      <c r="M27" s="110"/>
-      <c r="N27" s="110"/>
-      <c r="O27" s="110"/>
-      <c r="P27" s="110"/>
-      <c r="Q27" s="110"/>
-      <c r="R27" s="110"/>
-      <c r="S27" s="110"/>
-      <c r="T27" s="110"/>
-      <c r="U27" s="110"/>
-      <c r="V27" s="110"/>
-      <c r="W27" s="110"/>
-      <c r="X27" s="110"/>
-      <c r="Y27" s="110"/>
-      <c r="Z27" s="110"/>
-      <c r="AA27" s="110"/>
-      <c r="AB27" s="110"/>
-      <c r="AC27" s="110"/>
-      <c r="AD27" s="110"/>
-      <c r="AE27" s="110"/>
-      <c r="AF27" s="110"/>
-      <c r="AG27" s="110"/>
-      <c r="AH27" s="110"/>
-      <c r="AI27" s="110"/>
-      <c r="AJ27" s="110"/>
-      <c r="AK27" s="111"/>
-    </row>
-    <row r="28" spans="1:37">
-      <c r="A28" s="86"/>
-      <c r="B28" s="87"/>
-      <c r="C28" s="87"/>
-      <c r="D28" s="87"/>
-      <c r="E28" s="88"/>
-      <c r="F28" s="86"/>
-      <c r="G28" s="87"/>
-      <c r="H28" s="87"/>
-      <c r="I28" s="88"/>
-      <c r="J28" s="110"/>
-      <c r="K28" s="110"/>
-      <c r="L28" s="110"/>
-      <c r="M28" s="110"/>
-      <c r="N28" s="110"/>
-      <c r="O28" s="110"/>
-      <c r="P28" s="110"/>
-      <c r="Q28" s="110"/>
-      <c r="R28" s="110"/>
-      <c r="S28" s="110"/>
-      <c r="T28" s="110"/>
-      <c r="U28" s="110"/>
-      <c r="V28" s="110"/>
-      <c r="W28" s="110"/>
-      <c r="X28" s="110"/>
-      <c r="Y28" s="110"/>
-      <c r="Z28" s="110"/>
-      <c r="AA28" s="110"/>
-      <c r="AB28" s="110"/>
-      <c r="AC28" s="110"/>
-      <c r="AD28" s="110"/>
-      <c r="AE28" s="110"/>
-      <c r="AF28" s="110"/>
-      <c r="AG28" s="110"/>
-      <c r="AH28" s="110"/>
-      <c r="AI28" s="110"/>
-      <c r="AJ28" s="110"/>
-      <c r="AK28" s="111"/>
-    </row>
-    <row r="29" spans="1:37">
-      <c r="A29" s="86"/>
-      <c r="B29" s="87"/>
-      <c r="C29" s="87"/>
-      <c r="D29" s="87"/>
-      <c r="E29" s="88"/>
-      <c r="F29" s="86"/>
-      <c r="G29" s="87"/>
-      <c r="H29" s="87"/>
-      <c r="I29" s="88"/>
-      <c r="J29" s="110"/>
-      <c r="K29" s="110"/>
-      <c r="L29" s="110"/>
-      <c r="M29" s="110"/>
-      <c r="N29" s="110"/>
-      <c r="O29" s="110"/>
-      <c r="P29" s="110"/>
-      <c r="Q29" s="110"/>
-      <c r="R29" s="110"/>
-      <c r="S29" s="110"/>
-      <c r="T29" s="110"/>
-      <c r="U29" s="110"/>
-      <c r="V29" s="110"/>
-      <c r="W29" s="110"/>
-      <c r="X29" s="110"/>
-      <c r="Y29" s="110"/>
-      <c r="Z29" s="110"/>
-      <c r="AA29" s="110"/>
-      <c r="AB29" s="110"/>
-      <c r="AC29" s="110"/>
-      <c r="AD29" s="110"/>
-      <c r="AE29" s="110"/>
-      <c r="AF29" s="110"/>
-      <c r="AG29" s="110"/>
-      <c r="AH29" s="110"/>
-      <c r="AI29" s="110"/>
-      <c r="AJ29" s="110"/>
-      <c r="AK29" s="111"/>
-    </row>
-    <row r="30" spans="1:37" ht="11.4" thickBot="1">
-      <c r="A30" s="83"/>
-      <c r="B30" s="84"/>
-      <c r="C30" s="84"/>
-      <c r="D30" s="84"/>
-      <c r="E30" s="85"/>
-      <c r="F30" s="83"/>
-      <c r="G30" s="84"/>
-      <c r="H30" s="84"/>
-      <c r="I30" s="85"/>
-      <c r="J30" s="112"/>
-      <c r="K30" s="112"/>
-      <c r="L30" s="112"/>
-      <c r="M30" s="112"/>
-      <c r="N30" s="112"/>
-      <c r="O30" s="112"/>
-      <c r="P30" s="112"/>
-      <c r="Q30" s="112"/>
-      <c r="R30" s="112"/>
-      <c r="S30" s="112"/>
-      <c r="T30" s="112"/>
-      <c r="U30" s="112"/>
-      <c r="V30" s="112"/>
-      <c r="W30" s="112"/>
-      <c r="X30" s="112"/>
-      <c r="Y30" s="112"/>
-      <c r="Z30" s="112"/>
-      <c r="AA30" s="112"/>
-      <c r="AB30" s="112"/>
-      <c r="AC30" s="112"/>
-      <c r="AD30" s="112"/>
-      <c r="AE30" s="112"/>
-      <c r="AF30" s="112"/>
-      <c r="AG30" s="112"/>
-      <c r="AH30" s="112"/>
-      <c r="AI30" s="112"/>
-      <c r="AJ30" s="112"/>
-      <c r="AK30" s="113"/>
+      <c r="B8" s="101"/>
+      <c r="C8" s="101"/>
+      <c r="D8" s="101"/>
+      <c r="E8" s="102"/>
+      <c r="F8" s="106" t="s">
+        <v>157</v>
+      </c>
+      <c r="G8" s="107"/>
+      <c r="H8" s="107"/>
+      <c r="I8" s="108"/>
+      <c r="J8" s="100" t="s">
+        <v>166</v>
+      </c>
+      <c r="K8" s="101"/>
+      <c r="L8" s="101"/>
+      <c r="M8" s="101"/>
+      <c r="N8" s="102"/>
+      <c r="O8" s="131" t="s">
+        <v>158</v>
+      </c>
+      <c r="P8" s="132"/>
+      <c r="Q8" s="132"/>
+      <c r="R8" s="132"/>
+      <c r="S8" s="132"/>
+      <c r="T8" s="132"/>
+      <c r="U8" s="132"/>
+      <c r="V8" s="132"/>
+      <c r="W8" s="132"/>
+      <c r="X8" s="132"/>
+      <c r="Y8" s="132"/>
+      <c r="Z8" s="132"/>
+      <c r="AA8" s="132"/>
+      <c r="AB8" s="132"/>
+      <c r="AC8" s="132"/>
+      <c r="AD8" s="132"/>
+      <c r="AE8" s="132"/>
+      <c r="AF8" s="132"/>
+      <c r="AG8" s="132"/>
+      <c r="AH8" s="132"/>
+      <c r="AI8" s="132"/>
+      <c r="AJ8" s="132"/>
+      <c r="AK8" s="132"/>
+      <c r="AL8" s="132"/>
+      <c r="AM8" s="132"/>
+      <c r="AN8" s="132"/>
+      <c r="AO8" s="132"/>
+      <c r="AP8" s="133"/>
+    </row>
+    <row r="9" spans="1:42">
+      <c r="A9" s="103"/>
+      <c r="B9" s="104"/>
+      <c r="C9" s="104"/>
+      <c r="D9" s="104"/>
+      <c r="E9" s="105"/>
+      <c r="F9" s="109"/>
+      <c r="G9" s="110"/>
+      <c r="H9" s="110"/>
+      <c r="I9" s="111"/>
+      <c r="J9" s="103"/>
+      <c r="K9" s="104"/>
+      <c r="L9" s="104"/>
+      <c r="M9" s="104"/>
+      <c r="N9" s="105"/>
+      <c r="O9" s="134"/>
+      <c r="P9" s="135"/>
+      <c r="Q9" s="135"/>
+      <c r="R9" s="135"/>
+      <c r="S9" s="135"/>
+      <c r="T9" s="135"/>
+      <c r="U9" s="135"/>
+      <c r="V9" s="135"/>
+      <c r="W9" s="135"/>
+      <c r="X9" s="135"/>
+      <c r="Y9" s="135"/>
+      <c r="Z9" s="135"/>
+      <c r="AA9" s="135"/>
+      <c r="AB9" s="135"/>
+      <c r="AC9" s="135"/>
+      <c r="AD9" s="135"/>
+      <c r="AE9" s="135"/>
+      <c r="AF9" s="135"/>
+      <c r="AG9" s="135"/>
+      <c r="AH9" s="135"/>
+      <c r="AI9" s="135"/>
+      <c r="AJ9" s="135"/>
+      <c r="AK9" s="135"/>
+      <c r="AL9" s="135"/>
+      <c r="AM9" s="135"/>
+      <c r="AN9" s="135"/>
+      <c r="AO9" s="135"/>
+      <c r="AP9" s="136"/>
+    </row>
+    <row r="10" spans="1:42">
+      <c r="A10" s="94"/>
+      <c r="B10" s="95"/>
+      <c r="C10" s="95"/>
+      <c r="D10" s="95"/>
+      <c r="E10" s="96"/>
+      <c r="F10" s="79"/>
+      <c r="G10" s="80"/>
+      <c r="H10" s="80"/>
+      <c r="I10" s="81"/>
+      <c r="J10" s="94"/>
+      <c r="K10" s="95"/>
+      <c r="L10" s="95"/>
+      <c r="M10" s="95"/>
+      <c r="N10" s="96"/>
+      <c r="O10" s="137"/>
+      <c r="P10" s="138"/>
+      <c r="Q10" s="138"/>
+      <c r="R10" s="138"/>
+      <c r="S10" s="138"/>
+      <c r="T10" s="138"/>
+      <c r="U10" s="138"/>
+      <c r="V10" s="138"/>
+      <c r="W10" s="138"/>
+      <c r="X10" s="138"/>
+      <c r="Y10" s="138"/>
+      <c r="Z10" s="138"/>
+      <c r="AA10" s="138"/>
+      <c r="AB10" s="138"/>
+      <c r="AC10" s="138"/>
+      <c r="AD10" s="138"/>
+      <c r="AE10" s="138"/>
+      <c r="AF10" s="138"/>
+      <c r="AG10" s="138"/>
+      <c r="AH10" s="138"/>
+      <c r="AI10" s="138"/>
+      <c r="AJ10" s="138"/>
+      <c r="AK10" s="138"/>
+      <c r="AL10" s="138"/>
+      <c r="AM10" s="138"/>
+      <c r="AN10" s="138"/>
+      <c r="AO10" s="138"/>
+      <c r="AP10" s="139"/>
+    </row>
+    <row r="11" spans="1:42">
+      <c r="A11" s="79"/>
+      <c r="B11" s="80"/>
+      <c r="C11" s="80"/>
+      <c r="D11" s="80"/>
+      <c r="E11" s="81"/>
+      <c r="F11" s="79"/>
+      <c r="G11" s="80"/>
+      <c r="H11" s="80"/>
+      <c r="I11" s="81"/>
+      <c r="J11" s="79"/>
+      <c r="K11" s="80"/>
+      <c r="L11" s="80"/>
+      <c r="M11" s="80"/>
+      <c r="N11" s="81"/>
+      <c r="O11" s="118"/>
+      <c r="P11" s="118"/>
+      <c r="Q11" s="118"/>
+      <c r="R11" s="118"/>
+      <c r="S11" s="118"/>
+      <c r="T11" s="118"/>
+      <c r="U11" s="118"/>
+      <c r="V11" s="118"/>
+      <c r="W11" s="118"/>
+      <c r="X11" s="118"/>
+      <c r="Y11" s="118"/>
+      <c r="Z11" s="118"/>
+      <c r="AA11" s="118"/>
+      <c r="AB11" s="118"/>
+      <c r="AC11" s="118"/>
+      <c r="AD11" s="118"/>
+      <c r="AE11" s="118"/>
+      <c r="AF11" s="118"/>
+      <c r="AG11" s="118"/>
+      <c r="AH11" s="118"/>
+      <c r="AI11" s="118"/>
+      <c r="AJ11" s="118"/>
+      <c r="AK11" s="118"/>
+      <c r="AL11" s="118"/>
+      <c r="AM11" s="118"/>
+      <c r="AN11" s="118"/>
+      <c r="AO11" s="118"/>
+      <c r="AP11" s="119"/>
+    </row>
+    <row r="12" spans="1:42">
+      <c r="A12" s="79"/>
+      <c r="B12" s="80"/>
+      <c r="C12" s="80"/>
+      <c r="D12" s="80"/>
+      <c r="E12" s="81"/>
+      <c r="F12" s="79"/>
+      <c r="G12" s="80"/>
+      <c r="H12" s="80"/>
+      <c r="I12" s="81"/>
+      <c r="J12" s="79"/>
+      <c r="K12" s="80"/>
+      <c r="L12" s="80"/>
+      <c r="M12" s="80"/>
+      <c r="N12" s="81"/>
+      <c r="O12" s="118"/>
+      <c r="P12" s="118"/>
+      <c r="Q12" s="118"/>
+      <c r="R12" s="118"/>
+      <c r="S12" s="118"/>
+      <c r="T12" s="118"/>
+      <c r="U12" s="118"/>
+      <c r="V12" s="118"/>
+      <c r="W12" s="118"/>
+      <c r="X12" s="118"/>
+      <c r="Y12" s="118"/>
+      <c r="Z12" s="118"/>
+      <c r="AA12" s="118"/>
+      <c r="AB12" s="118"/>
+      <c r="AC12" s="118"/>
+      <c r="AD12" s="118"/>
+      <c r="AE12" s="118"/>
+      <c r="AF12" s="118"/>
+      <c r="AG12" s="118"/>
+      <c r="AH12" s="118"/>
+      <c r="AI12" s="118"/>
+      <c r="AJ12" s="118"/>
+      <c r="AK12" s="118"/>
+      <c r="AL12" s="118"/>
+      <c r="AM12" s="118"/>
+      <c r="AN12" s="118"/>
+      <c r="AO12" s="118"/>
+      <c r="AP12" s="119"/>
+    </row>
+    <row r="13" spans="1:42">
+      <c r="A13" s="79"/>
+      <c r="B13" s="80"/>
+      <c r="C13" s="80"/>
+      <c r="D13" s="80"/>
+      <c r="E13" s="81"/>
+      <c r="F13" s="79"/>
+      <c r="G13" s="80"/>
+      <c r="H13" s="80"/>
+      <c r="I13" s="81"/>
+      <c r="J13" s="79"/>
+      <c r="K13" s="80"/>
+      <c r="L13" s="80"/>
+      <c r="M13" s="80"/>
+      <c r="N13" s="81"/>
+      <c r="O13" s="118"/>
+      <c r="P13" s="118"/>
+      <c r="Q13" s="118"/>
+      <c r="R13" s="118"/>
+      <c r="S13" s="118"/>
+      <c r="T13" s="118"/>
+      <c r="U13" s="118"/>
+      <c r="V13" s="118"/>
+      <c r="W13" s="118"/>
+      <c r="X13" s="118"/>
+      <c r="Y13" s="118"/>
+      <c r="Z13" s="118"/>
+      <c r="AA13" s="118"/>
+      <c r="AB13" s="118"/>
+      <c r="AC13" s="118"/>
+      <c r="AD13" s="118"/>
+      <c r="AE13" s="118"/>
+      <c r="AF13" s="118"/>
+      <c r="AG13" s="118"/>
+      <c r="AH13" s="118"/>
+      <c r="AI13" s="118"/>
+      <c r="AJ13" s="118"/>
+      <c r="AK13" s="118"/>
+      <c r="AL13" s="118"/>
+      <c r="AM13" s="118"/>
+      <c r="AN13" s="118"/>
+      <c r="AO13" s="118"/>
+      <c r="AP13" s="119"/>
+    </row>
+    <row r="14" spans="1:42">
+      <c r="A14" s="79"/>
+      <c r="B14" s="80"/>
+      <c r="C14" s="80"/>
+      <c r="D14" s="80"/>
+      <c r="E14" s="81"/>
+      <c r="F14" s="79"/>
+      <c r="G14" s="80"/>
+      <c r="H14" s="80"/>
+      <c r="I14" s="81"/>
+      <c r="J14" s="79"/>
+      <c r="K14" s="80"/>
+      <c r="L14" s="80"/>
+      <c r="M14" s="80"/>
+      <c r="N14" s="81"/>
+      <c r="O14" s="118"/>
+      <c r="P14" s="118"/>
+      <c r="Q14" s="118"/>
+      <c r="R14" s="118"/>
+      <c r="S14" s="118"/>
+      <c r="T14" s="118"/>
+      <c r="U14" s="118"/>
+      <c r="V14" s="118"/>
+      <c r="W14" s="118"/>
+      <c r="X14" s="118"/>
+      <c r="Y14" s="118"/>
+      <c r="Z14" s="118"/>
+      <c r="AA14" s="118"/>
+      <c r="AB14" s="118"/>
+      <c r="AC14" s="118"/>
+      <c r="AD14" s="118"/>
+      <c r="AE14" s="118"/>
+      <c r="AF14" s="118"/>
+      <c r="AG14" s="118"/>
+      <c r="AH14" s="118"/>
+      <c r="AI14" s="118"/>
+      <c r="AJ14" s="118"/>
+      <c r="AK14" s="118"/>
+      <c r="AL14" s="118"/>
+      <c r="AM14" s="118"/>
+      <c r="AN14" s="118"/>
+      <c r="AO14" s="118"/>
+      <c r="AP14" s="119"/>
+    </row>
+    <row r="15" spans="1:42">
+      <c r="A15" s="79"/>
+      <c r="B15" s="80"/>
+      <c r="C15" s="80"/>
+      <c r="D15" s="80"/>
+      <c r="E15" s="81"/>
+      <c r="F15" s="79"/>
+      <c r="G15" s="80"/>
+      <c r="H15" s="80"/>
+      <c r="I15" s="81"/>
+      <c r="J15" s="79"/>
+      <c r="K15" s="80"/>
+      <c r="L15" s="80"/>
+      <c r="M15" s="80"/>
+      <c r="N15" s="81"/>
+      <c r="O15" s="118"/>
+      <c r="P15" s="118"/>
+      <c r="Q15" s="118"/>
+      <c r="R15" s="118"/>
+      <c r="S15" s="118"/>
+      <c r="T15" s="118"/>
+      <c r="U15" s="118"/>
+      <c r="V15" s="118"/>
+      <c r="W15" s="118"/>
+      <c r="X15" s="118"/>
+      <c r="Y15" s="118"/>
+      <c r="Z15" s="118"/>
+      <c r="AA15" s="118"/>
+      <c r="AB15" s="118"/>
+      <c r="AC15" s="118"/>
+      <c r="AD15" s="118"/>
+      <c r="AE15" s="118"/>
+      <c r="AF15" s="118"/>
+      <c r="AG15" s="118"/>
+      <c r="AH15" s="118"/>
+      <c r="AI15" s="118"/>
+      <c r="AJ15" s="118"/>
+      <c r="AK15" s="118"/>
+      <c r="AL15" s="118"/>
+      <c r="AM15" s="118"/>
+      <c r="AN15" s="118"/>
+      <c r="AO15" s="118"/>
+      <c r="AP15" s="119"/>
+    </row>
+    <row r="16" spans="1:42">
+      <c r="A16" s="79"/>
+      <c r="B16" s="80"/>
+      <c r="C16" s="80"/>
+      <c r="D16" s="80"/>
+      <c r="E16" s="81"/>
+      <c r="F16" s="79"/>
+      <c r="G16" s="80"/>
+      <c r="H16" s="80"/>
+      <c r="I16" s="81"/>
+      <c r="J16" s="79"/>
+      <c r="K16" s="80"/>
+      <c r="L16" s="80"/>
+      <c r="M16" s="80"/>
+      <c r="N16" s="81"/>
+      <c r="O16" s="118"/>
+      <c r="P16" s="118"/>
+      <c r="Q16" s="118"/>
+      <c r="R16" s="118"/>
+      <c r="S16" s="118"/>
+      <c r="T16" s="118"/>
+      <c r="U16" s="118"/>
+      <c r="V16" s="118"/>
+      <c r="W16" s="118"/>
+      <c r="X16" s="118"/>
+      <c r="Y16" s="118"/>
+      <c r="Z16" s="118"/>
+      <c r="AA16" s="118"/>
+      <c r="AB16" s="118"/>
+      <c r="AC16" s="118"/>
+      <c r="AD16" s="118"/>
+      <c r="AE16" s="118"/>
+      <c r="AF16" s="118"/>
+      <c r="AG16" s="118"/>
+      <c r="AH16" s="118"/>
+      <c r="AI16" s="118"/>
+      <c r="AJ16" s="118"/>
+      <c r="AK16" s="118"/>
+      <c r="AL16" s="118"/>
+      <c r="AM16" s="118"/>
+      <c r="AN16" s="118"/>
+      <c r="AO16" s="118"/>
+      <c r="AP16" s="119"/>
+    </row>
+    <row r="17" spans="1:42">
+      <c r="A17" s="79"/>
+      <c r="B17" s="80"/>
+      <c r="C17" s="80"/>
+      <c r="D17" s="80"/>
+      <c r="E17" s="81"/>
+      <c r="F17" s="79"/>
+      <c r="G17" s="80"/>
+      <c r="H17" s="80"/>
+      <c r="I17" s="81"/>
+      <c r="J17" s="79"/>
+      <c r="K17" s="80"/>
+      <c r="L17" s="80"/>
+      <c r="M17" s="80"/>
+      <c r="N17" s="81"/>
+      <c r="O17" s="118"/>
+      <c r="P17" s="118"/>
+      <c r="Q17" s="118"/>
+      <c r="R17" s="118"/>
+      <c r="S17" s="118"/>
+      <c r="T17" s="118"/>
+      <c r="U17" s="118"/>
+      <c r="V17" s="118"/>
+      <c r="W17" s="118"/>
+      <c r="X17" s="118"/>
+      <c r="Y17" s="118"/>
+      <c r="Z17" s="118"/>
+      <c r="AA17" s="118"/>
+      <c r="AB17" s="118"/>
+      <c r="AC17" s="118"/>
+      <c r="AD17" s="118"/>
+      <c r="AE17" s="118"/>
+      <c r="AF17" s="118"/>
+      <c r="AG17" s="118"/>
+      <c r="AH17" s="118"/>
+      <c r="AI17" s="118"/>
+      <c r="AJ17" s="118"/>
+      <c r="AK17" s="118"/>
+      <c r="AL17" s="118"/>
+      <c r="AM17" s="118"/>
+      <c r="AN17" s="118"/>
+      <c r="AO17" s="118"/>
+      <c r="AP17" s="119"/>
+    </row>
+    <row r="18" spans="1:42">
+      <c r="A18" s="79"/>
+      <c r="B18" s="80"/>
+      <c r="C18" s="80"/>
+      <c r="D18" s="80"/>
+      <c r="E18" s="81"/>
+      <c r="F18" s="79"/>
+      <c r="G18" s="80"/>
+      <c r="H18" s="80"/>
+      <c r="I18" s="81"/>
+      <c r="J18" s="79"/>
+      <c r="K18" s="80"/>
+      <c r="L18" s="80"/>
+      <c r="M18" s="80"/>
+      <c r="N18" s="81"/>
+      <c r="O18" s="118"/>
+      <c r="P18" s="118"/>
+      <c r="Q18" s="118"/>
+      <c r="R18" s="118"/>
+      <c r="S18" s="118"/>
+      <c r="T18" s="118"/>
+      <c r="U18" s="118"/>
+      <c r="V18" s="118"/>
+      <c r="W18" s="118"/>
+      <c r="X18" s="118"/>
+      <c r="Y18" s="118"/>
+      <c r="Z18" s="118"/>
+      <c r="AA18" s="118"/>
+      <c r="AB18" s="118"/>
+      <c r="AC18" s="118"/>
+      <c r="AD18" s="118"/>
+      <c r="AE18" s="118"/>
+      <c r="AF18" s="118"/>
+      <c r="AG18" s="118"/>
+      <c r="AH18" s="118"/>
+      <c r="AI18" s="118"/>
+      <c r="AJ18" s="118"/>
+      <c r="AK18" s="118"/>
+      <c r="AL18" s="118"/>
+      <c r="AM18" s="118"/>
+      <c r="AN18" s="118"/>
+      <c r="AO18" s="118"/>
+      <c r="AP18" s="119"/>
+    </row>
+    <row r="19" spans="1:42">
+      <c r="A19" s="79"/>
+      <c r="B19" s="80"/>
+      <c r="C19" s="80"/>
+      <c r="D19" s="80"/>
+      <c r="E19" s="81"/>
+      <c r="F19" s="79"/>
+      <c r="G19" s="80"/>
+      <c r="H19" s="80"/>
+      <c r="I19" s="81"/>
+      <c r="J19" s="79"/>
+      <c r="K19" s="80"/>
+      <c r="L19" s="80"/>
+      <c r="M19" s="80"/>
+      <c r="N19" s="81"/>
+      <c r="O19" s="118"/>
+      <c r="P19" s="118"/>
+      <c r="Q19" s="118"/>
+      <c r="R19" s="118"/>
+      <c r="S19" s="118"/>
+      <c r="T19" s="118"/>
+      <c r="U19" s="118"/>
+      <c r="V19" s="118"/>
+      <c r="W19" s="118"/>
+      <c r="X19" s="118"/>
+      <c r="Y19" s="118"/>
+      <c r="Z19" s="118"/>
+      <c r="AA19" s="118"/>
+      <c r="AB19" s="118"/>
+      <c r="AC19" s="118"/>
+      <c r="AD19" s="118"/>
+      <c r="AE19" s="118"/>
+      <c r="AF19" s="118"/>
+      <c r="AG19" s="118"/>
+      <c r="AH19" s="118"/>
+      <c r="AI19" s="118"/>
+      <c r="AJ19" s="118"/>
+      <c r="AK19" s="118"/>
+      <c r="AL19" s="118"/>
+      <c r="AM19" s="118"/>
+      <c r="AN19" s="118"/>
+      <c r="AO19" s="118"/>
+      <c r="AP19" s="119"/>
+    </row>
+    <row r="20" spans="1:42">
+      <c r="A20" s="79"/>
+      <c r="B20" s="80"/>
+      <c r="C20" s="80"/>
+      <c r="D20" s="80"/>
+      <c r="E20" s="81"/>
+      <c r="F20" s="79"/>
+      <c r="G20" s="80"/>
+      <c r="H20" s="80"/>
+      <c r="I20" s="81"/>
+      <c r="J20" s="79"/>
+      <c r="K20" s="80"/>
+      <c r="L20" s="80"/>
+      <c r="M20" s="80"/>
+      <c r="N20" s="81"/>
+      <c r="O20" s="118"/>
+      <c r="P20" s="118"/>
+      <c r="Q20" s="118"/>
+      <c r="R20" s="118"/>
+      <c r="S20" s="118"/>
+      <c r="T20" s="118"/>
+      <c r="U20" s="118"/>
+      <c r="V20" s="118"/>
+      <c r="W20" s="118"/>
+      <c r="X20" s="118"/>
+      <c r="Y20" s="118"/>
+      <c r="Z20" s="118"/>
+      <c r="AA20" s="118"/>
+      <c r="AB20" s="118"/>
+      <c r="AC20" s="118"/>
+      <c r="AD20" s="118"/>
+      <c r="AE20" s="118"/>
+      <c r="AF20" s="118"/>
+      <c r="AG20" s="118"/>
+      <c r="AH20" s="118"/>
+      <c r="AI20" s="118"/>
+      <c r="AJ20" s="118"/>
+      <c r="AK20" s="118"/>
+      <c r="AL20" s="118"/>
+      <c r="AM20" s="118"/>
+      <c r="AN20" s="118"/>
+      <c r="AO20" s="118"/>
+      <c r="AP20" s="119"/>
+    </row>
+    <row r="21" spans="1:42">
+      <c r="A21" s="79"/>
+      <c r="B21" s="80"/>
+      <c r="C21" s="80"/>
+      <c r="D21" s="80"/>
+      <c r="E21" s="81"/>
+      <c r="F21" s="79"/>
+      <c r="G21" s="80"/>
+      <c r="H21" s="80"/>
+      <c r="I21" s="81"/>
+      <c r="J21" s="79"/>
+      <c r="K21" s="80"/>
+      <c r="L21" s="80"/>
+      <c r="M21" s="80"/>
+      <c r="N21" s="81"/>
+      <c r="O21" s="118"/>
+      <c r="P21" s="118"/>
+      <c r="Q21" s="118"/>
+      <c r="R21" s="118"/>
+      <c r="S21" s="118"/>
+      <c r="T21" s="118"/>
+      <c r="U21" s="118"/>
+      <c r="V21" s="118"/>
+      <c r="W21" s="118"/>
+      <c r="X21" s="118"/>
+      <c r="Y21" s="118"/>
+      <c r="Z21" s="118"/>
+      <c r="AA21" s="118"/>
+      <c r="AB21" s="118"/>
+      <c r="AC21" s="118"/>
+      <c r="AD21" s="118"/>
+      <c r="AE21" s="118"/>
+      <c r="AF21" s="118"/>
+      <c r="AG21" s="118"/>
+      <c r="AH21" s="118"/>
+      <c r="AI21" s="118"/>
+      <c r="AJ21" s="118"/>
+      <c r="AK21" s="118"/>
+      <c r="AL21" s="118"/>
+      <c r="AM21" s="118"/>
+      <c r="AN21" s="118"/>
+      <c r="AO21" s="118"/>
+      <c r="AP21" s="119"/>
+    </row>
+    <row r="22" spans="1:42">
+      <c r="A22" s="79"/>
+      <c r="B22" s="80"/>
+      <c r="C22" s="80"/>
+      <c r="D22" s="80"/>
+      <c r="E22" s="81"/>
+      <c r="F22" s="79"/>
+      <c r="G22" s="80"/>
+      <c r="H22" s="80"/>
+      <c r="I22" s="81"/>
+      <c r="J22" s="79"/>
+      <c r="K22" s="80"/>
+      <c r="L22" s="80"/>
+      <c r="M22" s="80"/>
+      <c r="N22" s="81"/>
+      <c r="O22" s="118"/>
+      <c r="P22" s="118"/>
+      <c r="Q22" s="118"/>
+      <c r="R22" s="118"/>
+      <c r="S22" s="118"/>
+      <c r="T22" s="118"/>
+      <c r="U22" s="118"/>
+      <c r="V22" s="118"/>
+      <c r="W22" s="118"/>
+      <c r="X22" s="118"/>
+      <c r="Y22" s="118"/>
+      <c r="Z22" s="118"/>
+      <c r="AA22" s="118"/>
+      <c r="AB22" s="118"/>
+      <c r="AC22" s="118"/>
+      <c r="AD22" s="118"/>
+      <c r="AE22" s="118"/>
+      <c r="AF22" s="118"/>
+      <c r="AG22" s="118"/>
+      <c r="AH22" s="118"/>
+      <c r="AI22" s="118"/>
+      <c r="AJ22" s="118"/>
+      <c r="AK22" s="118"/>
+      <c r="AL22" s="118"/>
+      <c r="AM22" s="118"/>
+      <c r="AN22" s="118"/>
+      <c r="AO22" s="118"/>
+      <c r="AP22" s="119"/>
+    </row>
+    <row r="23" spans="1:42">
+      <c r="A23" s="79"/>
+      <c r="B23" s="80"/>
+      <c r="C23" s="80"/>
+      <c r="D23" s="80"/>
+      <c r="E23" s="81"/>
+      <c r="F23" s="79"/>
+      <c r="G23" s="80"/>
+      <c r="H23" s="80"/>
+      <c r="I23" s="81"/>
+      <c r="J23" s="79"/>
+      <c r="K23" s="80"/>
+      <c r="L23" s="80"/>
+      <c r="M23" s="80"/>
+      <c r="N23" s="81"/>
+      <c r="O23" s="118"/>
+      <c r="P23" s="118"/>
+      <c r="Q23" s="118"/>
+      <c r="R23" s="118"/>
+      <c r="S23" s="118"/>
+      <c r="T23" s="118"/>
+      <c r="U23" s="118"/>
+      <c r="V23" s="118"/>
+      <c r="W23" s="118"/>
+      <c r="X23" s="118"/>
+      <c r="Y23" s="118"/>
+      <c r="Z23" s="118"/>
+      <c r="AA23" s="118"/>
+      <c r="AB23" s="118"/>
+      <c r="AC23" s="118"/>
+      <c r="AD23" s="118"/>
+      <c r="AE23" s="118"/>
+      <c r="AF23" s="118"/>
+      <c r="AG23" s="118"/>
+      <c r="AH23" s="118"/>
+      <c r="AI23" s="118"/>
+      <c r="AJ23" s="118"/>
+      <c r="AK23" s="118"/>
+      <c r="AL23" s="118"/>
+      <c r="AM23" s="118"/>
+      <c r="AN23" s="118"/>
+      <c r="AO23" s="118"/>
+      <c r="AP23" s="119"/>
+    </row>
+    <row r="24" spans="1:42">
+      <c r="A24" s="79"/>
+      <c r="B24" s="80"/>
+      <c r="C24" s="80"/>
+      <c r="D24" s="80"/>
+      <c r="E24" s="81"/>
+      <c r="F24" s="79"/>
+      <c r="G24" s="80"/>
+      <c r="H24" s="80"/>
+      <c r="I24" s="81"/>
+      <c r="J24" s="79"/>
+      <c r="K24" s="80"/>
+      <c r="L24" s="80"/>
+      <c r="M24" s="80"/>
+      <c r="N24" s="81"/>
+      <c r="O24" s="118"/>
+      <c r="P24" s="118"/>
+      <c r="Q24" s="118"/>
+      <c r="R24" s="118"/>
+      <c r="S24" s="118"/>
+      <c r="T24" s="118"/>
+      <c r="U24" s="118"/>
+      <c r="V24" s="118"/>
+      <c r="W24" s="118"/>
+      <c r="X24" s="118"/>
+      <c r="Y24" s="118"/>
+      <c r="Z24" s="118"/>
+      <c r="AA24" s="118"/>
+      <c r="AB24" s="118"/>
+      <c r="AC24" s="118"/>
+      <c r="AD24" s="118"/>
+      <c r="AE24" s="118"/>
+      <c r="AF24" s="118"/>
+      <c r="AG24" s="118"/>
+      <c r="AH24" s="118"/>
+      <c r="AI24" s="118"/>
+      <c r="AJ24" s="118"/>
+      <c r="AK24" s="118"/>
+      <c r="AL24" s="118"/>
+      <c r="AM24" s="118"/>
+      <c r="AN24" s="118"/>
+      <c r="AO24" s="118"/>
+      <c r="AP24" s="119"/>
+    </row>
+    <row r="25" spans="1:42">
+      <c r="A25" s="79"/>
+      <c r="B25" s="80"/>
+      <c r="C25" s="80"/>
+      <c r="D25" s="80"/>
+      <c r="E25" s="81"/>
+      <c r="F25" s="79"/>
+      <c r="G25" s="80"/>
+      <c r="H25" s="80"/>
+      <c r="I25" s="81"/>
+      <c r="J25" s="79"/>
+      <c r="K25" s="80"/>
+      <c r="L25" s="80"/>
+      <c r="M25" s="80"/>
+      <c r="N25" s="81"/>
+      <c r="O25" s="118"/>
+      <c r="P25" s="118"/>
+      <c r="Q25" s="118"/>
+      <c r="R25" s="118"/>
+      <c r="S25" s="118"/>
+      <c r="T25" s="118"/>
+      <c r="U25" s="118"/>
+      <c r="V25" s="118"/>
+      <c r="W25" s="118"/>
+      <c r="X25" s="118"/>
+      <c r="Y25" s="118"/>
+      <c r="Z25" s="118"/>
+      <c r="AA25" s="118"/>
+      <c r="AB25" s="118"/>
+      <c r="AC25" s="118"/>
+      <c r="AD25" s="118"/>
+      <c r="AE25" s="118"/>
+      <c r="AF25" s="118"/>
+      <c r="AG25" s="118"/>
+      <c r="AH25" s="118"/>
+      <c r="AI25" s="118"/>
+      <c r="AJ25" s="118"/>
+      <c r="AK25" s="118"/>
+      <c r="AL25" s="118"/>
+      <c r="AM25" s="118"/>
+      <c r="AN25" s="118"/>
+      <c r="AO25" s="118"/>
+      <c r="AP25" s="119"/>
+    </row>
+    <row r="26" spans="1:42">
+      <c r="A26" s="79"/>
+      <c r="B26" s="80"/>
+      <c r="C26" s="80"/>
+      <c r="D26" s="80"/>
+      <c r="E26" s="81"/>
+      <c r="F26" s="79"/>
+      <c r="G26" s="80"/>
+      <c r="H26" s="80"/>
+      <c r="I26" s="81"/>
+      <c r="J26" s="79"/>
+      <c r="K26" s="80"/>
+      <c r="L26" s="80"/>
+      <c r="M26" s="80"/>
+      <c r="N26" s="81"/>
+      <c r="O26" s="118"/>
+      <c r="P26" s="118"/>
+      <c r="Q26" s="118"/>
+      <c r="R26" s="118"/>
+      <c r="S26" s="118"/>
+      <c r="T26" s="118"/>
+      <c r="U26" s="118"/>
+      <c r="V26" s="118"/>
+      <c r="W26" s="118"/>
+      <c r="X26" s="118"/>
+      <c r="Y26" s="118"/>
+      <c r="Z26" s="118"/>
+      <c r="AA26" s="118"/>
+      <c r="AB26" s="118"/>
+      <c r="AC26" s="118"/>
+      <c r="AD26" s="118"/>
+      <c r="AE26" s="118"/>
+      <c r="AF26" s="118"/>
+      <c r="AG26" s="118"/>
+      <c r="AH26" s="118"/>
+      <c r="AI26" s="118"/>
+      <c r="AJ26" s="118"/>
+      <c r="AK26" s="118"/>
+      <c r="AL26" s="118"/>
+      <c r="AM26" s="118"/>
+      <c r="AN26" s="118"/>
+      <c r="AO26" s="118"/>
+      <c r="AP26" s="119"/>
+    </row>
+    <row r="27" spans="1:42">
+      <c r="A27" s="79"/>
+      <c r="B27" s="80"/>
+      <c r="C27" s="80"/>
+      <c r="D27" s="80"/>
+      <c r="E27" s="81"/>
+      <c r="F27" s="79"/>
+      <c r="G27" s="80"/>
+      <c r="H27" s="80"/>
+      <c r="I27" s="81"/>
+      <c r="J27" s="79"/>
+      <c r="K27" s="80"/>
+      <c r="L27" s="80"/>
+      <c r="M27" s="80"/>
+      <c r="N27" s="81"/>
+      <c r="O27" s="118"/>
+      <c r="P27" s="118"/>
+      <c r="Q27" s="118"/>
+      <c r="R27" s="118"/>
+      <c r="S27" s="118"/>
+      <c r="T27" s="118"/>
+      <c r="U27" s="118"/>
+      <c r="V27" s="118"/>
+      <c r="W27" s="118"/>
+      <c r="X27" s="118"/>
+      <c r="Y27" s="118"/>
+      <c r="Z27" s="118"/>
+      <c r="AA27" s="118"/>
+      <c r="AB27" s="118"/>
+      <c r="AC27" s="118"/>
+      <c r="AD27" s="118"/>
+      <c r="AE27" s="118"/>
+      <c r="AF27" s="118"/>
+      <c r="AG27" s="118"/>
+      <c r="AH27" s="118"/>
+      <c r="AI27" s="118"/>
+      <c r="AJ27" s="118"/>
+      <c r="AK27" s="118"/>
+      <c r="AL27" s="118"/>
+      <c r="AM27" s="118"/>
+      <c r="AN27" s="118"/>
+      <c r="AO27" s="118"/>
+      <c r="AP27" s="119"/>
+    </row>
+    <row r="28" spans="1:42">
+      <c r="A28" s="79"/>
+      <c r="B28" s="80"/>
+      <c r="C28" s="80"/>
+      <c r="D28" s="80"/>
+      <c r="E28" s="81"/>
+      <c r="F28" s="79"/>
+      <c r="G28" s="80"/>
+      <c r="H28" s="80"/>
+      <c r="I28" s="81"/>
+      <c r="J28" s="79"/>
+      <c r="K28" s="80"/>
+      <c r="L28" s="80"/>
+      <c r="M28" s="80"/>
+      <c r="N28" s="81"/>
+      <c r="O28" s="118"/>
+      <c r="P28" s="118"/>
+      <c r="Q28" s="118"/>
+      <c r="R28" s="118"/>
+      <c r="S28" s="118"/>
+      <c r="T28" s="118"/>
+      <c r="U28" s="118"/>
+      <c r="V28" s="118"/>
+      <c r="W28" s="118"/>
+      <c r="X28" s="118"/>
+      <c r="Y28" s="118"/>
+      <c r="Z28" s="118"/>
+      <c r="AA28" s="118"/>
+      <c r="AB28" s="118"/>
+      <c r="AC28" s="118"/>
+      <c r="AD28" s="118"/>
+      <c r="AE28" s="118"/>
+      <c r="AF28" s="118"/>
+      <c r="AG28" s="118"/>
+      <c r="AH28" s="118"/>
+      <c r="AI28" s="118"/>
+      <c r="AJ28" s="118"/>
+      <c r="AK28" s="118"/>
+      <c r="AL28" s="118"/>
+      <c r="AM28" s="118"/>
+      <c r="AN28" s="118"/>
+      <c r="AO28" s="118"/>
+      <c r="AP28" s="119"/>
+    </row>
+    <row r="29" spans="1:42">
+      <c r="A29" s="79"/>
+      <c r="B29" s="80"/>
+      <c r="C29" s="80"/>
+      <c r="D29" s="80"/>
+      <c r="E29" s="81"/>
+      <c r="F29" s="79"/>
+      <c r="G29" s="80"/>
+      <c r="H29" s="80"/>
+      <c r="I29" s="81"/>
+      <c r="J29" s="79"/>
+      <c r="K29" s="80"/>
+      <c r="L29" s="80"/>
+      <c r="M29" s="80"/>
+      <c r="N29" s="81"/>
+      <c r="O29" s="118"/>
+      <c r="P29" s="118"/>
+      <c r="Q29" s="118"/>
+      <c r="R29" s="118"/>
+      <c r="S29" s="118"/>
+      <c r="T29" s="118"/>
+      <c r="U29" s="118"/>
+      <c r="V29" s="118"/>
+      <c r="W29" s="118"/>
+      <c r="X29" s="118"/>
+      <c r="Y29" s="118"/>
+      <c r="Z29" s="118"/>
+      <c r="AA29" s="118"/>
+      <c r="AB29" s="118"/>
+      <c r="AC29" s="118"/>
+      <c r="AD29" s="118"/>
+      <c r="AE29" s="118"/>
+      <c r="AF29" s="118"/>
+      <c r="AG29" s="118"/>
+      <c r="AH29" s="118"/>
+      <c r="AI29" s="118"/>
+      <c r="AJ29" s="118"/>
+      <c r="AK29" s="118"/>
+      <c r="AL29" s="118"/>
+      <c r="AM29" s="118"/>
+      <c r="AN29" s="118"/>
+      <c r="AO29" s="118"/>
+      <c r="AP29" s="119"/>
+    </row>
+    <row r="30" spans="1:42" ht="12" thickBot="1">
+      <c r="A30" s="82"/>
+      <c r="B30" s="83"/>
+      <c r="C30" s="83"/>
+      <c r="D30" s="83"/>
+      <c r="E30" s="84"/>
+      <c r="F30" s="82"/>
+      <c r="G30" s="83"/>
+      <c r="H30" s="83"/>
+      <c r="I30" s="84"/>
+      <c r="J30" s="82"/>
+      <c r="K30" s="83"/>
+      <c r="L30" s="83"/>
+      <c r="M30" s="83"/>
+      <c r="N30" s="84"/>
+      <c r="O30" s="120"/>
+      <c r="P30" s="120"/>
+      <c r="Q30" s="120"/>
+      <c r="R30" s="120"/>
+      <c r="S30" s="120"/>
+      <c r="T30" s="120"/>
+      <c r="U30" s="120"/>
+      <c r="V30" s="120"/>
+      <c r="W30" s="120"/>
+      <c r="X30" s="120"/>
+      <c r="Y30" s="120"/>
+      <c r="Z30" s="120"/>
+      <c r="AA30" s="120"/>
+      <c r="AB30" s="120"/>
+      <c r="AC30" s="120"/>
+      <c r="AD30" s="120"/>
+      <c r="AE30" s="120"/>
+      <c r="AF30" s="120"/>
+      <c r="AG30" s="120"/>
+      <c r="AH30" s="120"/>
+      <c r="AI30" s="120"/>
+      <c r="AJ30" s="120"/>
+      <c r="AK30" s="120"/>
+      <c r="AL30" s="120"/>
+      <c r="AM30" s="120"/>
+      <c r="AN30" s="120"/>
+      <c r="AO30" s="120"/>
+      <c r="AP30" s="121"/>
     </row>
   </sheetData>
-  <mergeCells count="87">
-    <mergeCell ref="J2:AK2"/>
-    <mergeCell ref="J3:AK3"/>
-    <mergeCell ref="J4:AK4"/>
-    <mergeCell ref="J5:AK5"/>
-    <mergeCell ref="J11:AK11"/>
-    <mergeCell ref="J12:AK12"/>
-    <mergeCell ref="J6:AK6"/>
-    <mergeCell ref="J7:AK7"/>
-    <mergeCell ref="J8:AK8"/>
-    <mergeCell ref="J9:AK9"/>
-    <mergeCell ref="J10:AK10"/>
-    <mergeCell ref="J13:AK13"/>
-    <mergeCell ref="J14:AK14"/>
-    <mergeCell ref="J15:AK15"/>
-    <mergeCell ref="J16:AK16"/>
-    <mergeCell ref="J17:AK17"/>
-    <mergeCell ref="J24:AK24"/>
-    <mergeCell ref="J25:AK25"/>
-    <mergeCell ref="J26:AK26"/>
-    <mergeCell ref="J27:AK27"/>
-    <mergeCell ref="J18:AK18"/>
-    <mergeCell ref="J19:AK19"/>
-    <mergeCell ref="J20:AK20"/>
-    <mergeCell ref="J21:AK21"/>
-    <mergeCell ref="J22:AK22"/>
-    <mergeCell ref="J28:AK28"/>
-    <mergeCell ref="J29:AK29"/>
-    <mergeCell ref="J30:AK30"/>
+  <mergeCells count="116">
+    <mergeCell ref="O11:AP11"/>
+    <mergeCell ref="O6:AP6"/>
+    <mergeCell ref="O7:AP7"/>
+    <mergeCell ref="O8:AP8"/>
+    <mergeCell ref="O9:AP9"/>
+    <mergeCell ref="O10:AP10"/>
+    <mergeCell ref="O2:AP2"/>
+    <mergeCell ref="O3:AP3"/>
+    <mergeCell ref="O4:AP4"/>
+    <mergeCell ref="O5:AP5"/>
+    <mergeCell ref="O20:AP20"/>
+    <mergeCell ref="O21:AP21"/>
+    <mergeCell ref="O22:AP22"/>
+    <mergeCell ref="O13:AP13"/>
+    <mergeCell ref="O14:AP14"/>
+    <mergeCell ref="O15:AP15"/>
+    <mergeCell ref="O16:AP16"/>
+    <mergeCell ref="O17:AP17"/>
+    <mergeCell ref="O12:AP12"/>
+    <mergeCell ref="A17:E17"/>
+    <mergeCell ref="A18:E18"/>
+    <mergeCell ref="A19:E19"/>
+    <mergeCell ref="A20:E20"/>
+    <mergeCell ref="F13:I13"/>
+    <mergeCell ref="F14:I14"/>
+    <mergeCell ref="O28:AP28"/>
+    <mergeCell ref="O29:AP29"/>
+    <mergeCell ref="O30:AP30"/>
     <mergeCell ref="F30:I30"/>
-    <mergeCell ref="F2:I2"/>
     <mergeCell ref="F26:I26"/>
     <mergeCell ref="F27:I27"/>
     <mergeCell ref="F28:I28"/>
@@ -20791,26 +21042,19 @@
     <mergeCell ref="F22:I22"/>
     <mergeCell ref="F23:I23"/>
     <mergeCell ref="F16:I16"/>
-    <mergeCell ref="F3:I3"/>
-    <mergeCell ref="F4:I4"/>
-    <mergeCell ref="F5:I5"/>
-    <mergeCell ref="J23:AK23"/>
-    <mergeCell ref="F6:I6"/>
-    <mergeCell ref="A12:E12"/>
-    <mergeCell ref="F17:I17"/>
-    <mergeCell ref="F24:I24"/>
-    <mergeCell ref="F25:I25"/>
-    <mergeCell ref="F18:I18"/>
-    <mergeCell ref="F19:I19"/>
-    <mergeCell ref="F20:I20"/>
-    <mergeCell ref="F21:I21"/>
-    <mergeCell ref="A24:E24"/>
-    <mergeCell ref="A17:E17"/>
-    <mergeCell ref="A18:E18"/>
-    <mergeCell ref="A19:E19"/>
-    <mergeCell ref="A20:E20"/>
-    <mergeCell ref="F13:I13"/>
-    <mergeCell ref="F14:I14"/>
+    <mergeCell ref="O23:AP23"/>
+    <mergeCell ref="O24:AP24"/>
+    <mergeCell ref="O25:AP25"/>
+    <mergeCell ref="O26:AP26"/>
+    <mergeCell ref="O27:AP27"/>
+    <mergeCell ref="O18:AP18"/>
+    <mergeCell ref="O19:AP19"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="A9:E9"/>
+    <mergeCell ref="A6:E6"/>
     <mergeCell ref="F15:I15"/>
     <mergeCell ref="A7:E7"/>
     <mergeCell ref="A8:E8"/>
@@ -20819,12 +21063,12 @@
     <mergeCell ref="A11:E11"/>
     <mergeCell ref="A10:E10"/>
     <mergeCell ref="F7:I7"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="A5:E5"/>
-    <mergeCell ref="A9:E9"/>
-    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="F6:I6"/>
+    <mergeCell ref="A12:E12"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="F3:I3"/>
+    <mergeCell ref="F4:I4"/>
+    <mergeCell ref="F5:I5"/>
     <mergeCell ref="A30:E30"/>
     <mergeCell ref="F8:I8"/>
     <mergeCell ref="F9:I9"/>
@@ -20841,6 +21085,43 @@
     <mergeCell ref="A16:E16"/>
     <mergeCell ref="A23:E23"/>
     <mergeCell ref="F12:I12"/>
+    <mergeCell ref="F17:I17"/>
+    <mergeCell ref="F24:I24"/>
+    <mergeCell ref="F25:I25"/>
+    <mergeCell ref="F18:I18"/>
+    <mergeCell ref="F19:I19"/>
+    <mergeCell ref="F20:I20"/>
+    <mergeCell ref="F21:I21"/>
+    <mergeCell ref="A24:E24"/>
+    <mergeCell ref="J14:N14"/>
+    <mergeCell ref="J15:N15"/>
+    <mergeCell ref="J16:N16"/>
+    <mergeCell ref="J17:N17"/>
+    <mergeCell ref="J18:N18"/>
+    <mergeCell ref="J2:N2"/>
+    <mergeCell ref="J3:N3"/>
+    <mergeCell ref="J4:N4"/>
+    <mergeCell ref="J5:N5"/>
+    <mergeCell ref="J6:N6"/>
+    <mergeCell ref="J7:N7"/>
+    <mergeCell ref="J8:N8"/>
+    <mergeCell ref="J9:N9"/>
+    <mergeCell ref="J10:N10"/>
+    <mergeCell ref="J11:N11"/>
+    <mergeCell ref="J12:N12"/>
+    <mergeCell ref="J13:N13"/>
+    <mergeCell ref="J29:N29"/>
+    <mergeCell ref="J30:N30"/>
+    <mergeCell ref="J24:N24"/>
+    <mergeCell ref="J25:N25"/>
+    <mergeCell ref="J26:N26"/>
+    <mergeCell ref="J27:N27"/>
+    <mergeCell ref="J28:N28"/>
+    <mergeCell ref="J19:N19"/>
+    <mergeCell ref="J20:N20"/>
+    <mergeCell ref="J21:N21"/>
+    <mergeCell ref="J22:N22"/>
+    <mergeCell ref="J23:N23"/>
   </mergeCells>
   <phoneticPr fontId="36"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51200000000000001" footer="0.51200000000000001"/>
@@ -20855,180 +21136,180 @@
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.88671875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.875" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="5.44140625" style="73" customWidth="1"/>
-    <col min="2" max="2" width="25.6640625" style="74" customWidth="1"/>
-    <col min="3" max="5" width="37.6640625" style="74" customWidth="1"/>
-    <col min="6" max="16384" width="9.88671875" style="73"/>
+    <col min="1" max="1" width="5.5" style="69" customWidth="1"/>
+    <col min="2" max="2" width="25.625" style="70" customWidth="1"/>
+    <col min="3" max="5" width="37.625" style="70" customWidth="1"/>
+    <col min="6" max="16384" width="9.875" style="69"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="76" customFormat="1" ht="11.4"/>
-    <row r="2" spans="1:11" s="77" customFormat="1" ht="14.4">
-      <c r="B2" s="78"/>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="79"/>
-    </row>
-    <row r="3" spans="1:11" s="77" customFormat="1" ht="18.600000000000001">
-      <c r="B3" s="80" t="s">
+    <row r="1" spans="1:11" s="72" customFormat="1" ht="12"/>
+    <row r="2" spans="1:11" s="73" customFormat="1" ht="14.25">
+      <c r="B2" s="74"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="75"/>
+    </row>
+    <row r="3" spans="1:11" s="73" customFormat="1" ht="19.5">
+      <c r="B3" s="76" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" s="73" customFormat="1" ht="14.25">
+      <c r="B4" s="74"/>
+      <c r="C4" s="75"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="75"/>
+    </row>
+    <row r="5" spans="1:11" s="73" customFormat="1" ht="16.5">
+      <c r="B5" s="77" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" s="73" customFormat="1" ht="15" thickBot="1"/>
+    <row r="7" spans="1:11" s="60" customFormat="1" ht="14.25">
+      <c r="A7" s="73"/>
+      <c r="B7" s="57" t="s">
+        <v>143</v>
+      </c>
+      <c r="C7" s="58" t="s">
+        <v>142</v>
+      </c>
+      <c r="D7" s="58" t="s">
+        <v>144</v>
+      </c>
+      <c r="E7" s="59" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="4" spans="1:11" s="77" customFormat="1" ht="14.4">
-      <c r="B4" s="78"/>
-      <c r="C4" s="79"/>
-      <c r="D4" s="79"/>
-      <c r="E4" s="79"/>
-    </row>
-    <row r="5" spans="1:11" s="77" customFormat="1" ht="16.2">
-      <c r="B5" s="81" t="s">
-        <v>143</v>
+    <row r="8" spans="1:11" s="60" customFormat="1" ht="14.25">
+      <c r="A8" s="73"/>
+      <c r="B8" s="61" t="s">
+        <v>128</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" s="77" customFormat="1" thickBot="1"/>
-    <row r="7" spans="1:11" s="64" customFormat="1" ht="14.4">
-      <c r="A7" s="77"/>
-      <c r="B7" s="61" t="s">
-        <v>144</v>
-      </c>
-      <c r="C7" s="62" t="s">
-        <v>143</v>
-      </c>
-      <c r="D7" s="62" t="s">
+      <c r="C8" s="62" t="s">
         <v>145</v>
       </c>
-      <c r="E7" s="63" t="s">
+      <c r="D8" s="62" t="s">
+        <v>150</v>
+      </c>
+      <c r="E8" s="63" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" s="60" customFormat="1" ht="14.25">
+      <c r="A9" s="73"/>
+      <c r="B9" s="61" t="s">
+        <v>129</v>
+      </c>
+      <c r="C9" s="62" t="s">
+        <v>145</v>
+      </c>
+      <c r="D9" s="62" t="s">
+        <v>146</v>
+      </c>
+      <c r="E9" s="63" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" s="60" customFormat="1" ht="14.25">
+      <c r="A10" s="73"/>
+      <c r="B10" s="61" t="s">
+        <v>130</v>
+      </c>
+      <c r="C10" s="62" t="s">
+        <v>145</v>
+      </c>
+      <c r="D10" s="62" t="s">
+        <v>147</v>
+      </c>
+      <c r="E10" s="63" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" s="60" customFormat="1" ht="28.5">
+      <c r="A11" s="73"/>
+      <c r="B11" s="61" t="s">
+        <v>131</v>
+      </c>
+      <c r="C11" s="62" t="s">
+        <v>145</v>
+      </c>
+      <c r="D11" s="62" t="s">
+        <v>148</v>
+      </c>
+      <c r="E11" s="63" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" s="60" customFormat="1" ht="15" thickBot="1">
+      <c r="A12" s="73"/>
+      <c r="B12" s="71" t="s">
+        <v>132</v>
+      </c>
+      <c r="C12" s="64" t="s">
+        <v>145</v>
+      </c>
+      <c r="D12" s="64" t="s">
+        <v>149</v>
+      </c>
+      <c r="E12" s="65" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" s="68" customFormat="1">
+      <c r="A13" s="78"/>
+      <c r="B13" s="66"/>
+      <c r="C13" s="67"/>
+      <c r="D13" s="66"/>
+      <c r="E13" s="66"/>
+    </row>
+    <row r="14" spans="1:11" s="73" customFormat="1" ht="14.25">
+      <c r="B14" s="74"/>
+      <c r="C14" s="75"/>
+      <c r="D14" s="75"/>
+      <c r="E14" s="75"/>
+      <c r="F14" s="75"/>
+      <c r="G14" s="75"/>
+      <c r="H14" s="75"/>
+      <c r="I14" s="75"/>
+      <c r="J14" s="75"/>
+      <c r="K14" s="75"/>
+    </row>
+    <row r="15" spans="1:11" s="73" customFormat="1" ht="16.5">
+      <c r="B15" s="77" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="8" spans="1:11" s="64" customFormat="1" ht="14.4">
-      <c r="A8" s="77"/>
-      <c r="B8" s="65" t="s">
-        <v>129</v>
-      </c>
-      <c r="C8" s="66" t="s">
-        <v>146</v>
-      </c>
-      <c r="D8" s="66" t="s">
-        <v>151</v>
-      </c>
-      <c r="E8" s="67" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" s="64" customFormat="1" ht="14.4">
-      <c r="A9" s="77"/>
-      <c r="B9" s="65" t="s">
-        <v>130</v>
-      </c>
-      <c r="C9" s="66" t="s">
-        <v>146</v>
-      </c>
-      <c r="D9" s="66" t="s">
-        <v>147</v>
-      </c>
-      <c r="E9" s="67" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" s="64" customFormat="1" ht="14.4">
-      <c r="A10" s="77"/>
-      <c r="B10" s="65" t="s">
-        <v>131</v>
-      </c>
-      <c r="C10" s="66" t="s">
-        <v>146</v>
-      </c>
-      <c r="D10" s="66" t="s">
-        <v>148</v>
-      </c>
-      <c r="E10" s="67" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" s="64" customFormat="1" ht="28.8">
-      <c r="A11" s="77"/>
-      <c r="B11" s="65" t="s">
-        <v>132</v>
-      </c>
-      <c r="C11" s="66" t="s">
-        <v>146</v>
-      </c>
-      <c r="D11" s="66" t="s">
-        <v>149</v>
-      </c>
-      <c r="E11" s="67" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" s="64" customFormat="1" ht="29.4" thickBot="1">
-      <c r="A12" s="77"/>
-      <c r="B12" s="75" t="s">
-        <v>133</v>
-      </c>
-      <c r="C12" s="68" t="s">
-        <v>146</v>
-      </c>
-      <c r="D12" s="68" t="s">
-        <v>150</v>
-      </c>
-      <c r="E12" s="69" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" s="72" customFormat="1">
-      <c r="A13" s="82"/>
-      <c r="B13" s="70"/>
-      <c r="C13" s="71"/>
-      <c r="D13" s="70"/>
-      <c r="E13" s="70"/>
-    </row>
-    <row r="14" spans="1:11" s="77" customFormat="1" ht="14.4">
-      <c r="B14" s="78"/>
-      <c r="C14" s="79"/>
-      <c r="D14" s="79"/>
-      <c r="E14" s="79"/>
-      <c r="F14" s="79"/>
-      <c r="G14" s="79"/>
-      <c r="H14" s="79"/>
-      <c r="I14" s="79"/>
-      <c r="J14" s="79"/>
-      <c r="K14" s="79"/>
-    </row>
-    <row r="15" spans="1:11" s="77" customFormat="1" ht="16.2">
-      <c r="B15" s="81" t="s">
+    <row r="17" spans="2:2">
+      <c r="B17" s="70" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="17" spans="2:2">
-      <c r="B17" s="74" t="s">
+    <row r="33" spans="1:11" s="70" customFormat="1">
+      <c r="A33" s="69"/>
+      <c r="B33" s="70" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="33" spans="1:11" s="74" customFormat="1">
-      <c r="A33" s="73"/>
-      <c r="B33" s="74" t="s">
+      <c r="F33" s="69"/>
+      <c r="G33" s="69"/>
+      <c r="H33" s="69"/>
+      <c r="I33" s="69"/>
+      <c r="J33" s="69"/>
+      <c r="K33" s="69"/>
+    </row>
+    <row r="34" spans="1:11" s="70" customFormat="1">
+      <c r="A34" s="69"/>
+      <c r="B34" s="70" t="s">
         <v>127</v>
       </c>
-      <c r="F33" s="73"/>
-      <c r="G33" s="73"/>
-      <c r="H33" s="73"/>
-      <c r="I33" s="73"/>
-      <c r="J33" s="73"/>
-      <c r="K33" s="73"/>
-    </row>
-    <row r="34" spans="1:11" s="74" customFormat="1">
-      <c r="A34" s="73"/>
-      <c r="B34" s="74" t="s">
-        <v>128</v>
-      </c>
-      <c r="F34" s="73"/>
-      <c r="G34" s="73"/>
-      <c r="H34" s="73"/>
-      <c r="I34" s="73"/>
-      <c r="J34" s="73"/>
-      <c r="K34" s="73"/>
+      <c r="F34" s="69"/>
+      <c r="G34" s="69"/>
+      <c r="H34" s="69"/>
+      <c r="I34" s="69"/>
+      <c r="J34" s="69"/>
+      <c r="K34" s="69"/>
     </row>
   </sheetData>
   <phoneticPr fontId="36"/>
@@ -21046,14 +21327,14 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.5" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="44" style="2" customWidth="1"/>
-    <col min="2" max="2" width="56.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.33203125" style="2" customWidth="1"/>
-    <col min="4" max="5" width="17.88671875" style="2" customWidth="1"/>
-    <col min="6" max="8" width="7.88671875" style="2" customWidth="1"/>
-    <col min="9" max="16384" width="12.44140625" style="2"/>
+    <col min="2" max="2" width="56.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.375" style="2" customWidth="1"/>
+    <col min="4" max="5" width="17.875" style="2" customWidth="1"/>
+    <col min="6" max="8" width="7.875" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="12.5" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" customHeight="1">
@@ -21068,7 +21349,7 @@
     </row>
     <row r="2" spans="1:8" s="9" customFormat="1" ht="15.75" customHeight="1">
       <c r="A2" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B2" s="8"/>
       <c r="C2" s="8"/>
@@ -26428,14 +26709,14 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.5" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="44" style="2" customWidth="1"/>
-    <col min="2" max="2" width="56.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.33203125" style="2" customWidth="1"/>
-    <col min="4" max="5" width="17.88671875" style="2" customWidth="1"/>
-    <col min="6" max="8" width="7.88671875" style="2" customWidth="1"/>
-    <col min="9" max="16384" width="12.44140625" style="2"/>
+    <col min="2" max="2" width="56.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.375" style="2" customWidth="1"/>
+    <col min="4" max="5" width="17.875" style="2" customWidth="1"/>
+    <col min="6" max="8" width="7.875" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="12.5" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" customHeight="1">
@@ -26450,7 +26731,7 @@
     </row>
     <row r="2" spans="1:8" s="9" customFormat="1" ht="15.75" customHeight="1">
       <c r="A2" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B2" s="8"/>
       <c r="C2" s="8"/>
@@ -30710,20 +30991,23 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
+    <tabColor rgb="FFFF00FF"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:H648"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" topLeftCell="A58" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A68" sqref="A68"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.5" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="44" style="2" customWidth="1"/>
-    <col min="2" max="2" width="56.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.33203125" style="2" customWidth="1"/>
-    <col min="4" max="5" width="17.88671875" style="2" customWidth="1"/>
-    <col min="6" max="8" width="7.88671875" style="2" customWidth="1"/>
-    <col min="9" max="16384" width="12.44140625" style="2"/>
+    <col min="2" max="2" width="56.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.375" style="2" customWidth="1"/>
+    <col min="4" max="5" width="17.875" style="2" customWidth="1"/>
+    <col min="6" max="8" width="7.875" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="12.5" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" customHeight="1">
@@ -30738,7 +31022,7 @@
     </row>
     <row r="2" spans="1:8" s="9" customFormat="1" ht="15.75" customHeight="1">
       <c r="A2" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B2" s="8"/>
       <c r="C2" s="8"/>
@@ -30760,7 +31044,7 @@
     </row>
     <row r="4" spans="1:8" s="53" customFormat="1" ht="15.75" customHeight="1">
       <c r="A4" s="51" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B4" s="52"/>
       <c r="C4" s="52"/>
@@ -31126,7 +31410,7 @@
       <c r="G32" s="4"/>
       <c r="H32" s="4"/>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:8" ht="15.75">
       <c r="A33" s="31" t="s">
         <v>56</v>
       </c>
@@ -31152,7 +31436,7 @@
     </row>
     <row r="35" spans="1:8" ht="15.75" customHeight="1">
       <c r="A35" s="33" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B35" s="13"/>
       <c r="C35" s="11"/>
@@ -31164,7 +31448,7 @@
     </row>
     <row r="36" spans="1:8" ht="15.75" customHeight="1">
       <c r="A36" s="33" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B36" s="28" t="s">
         <v>45</v>
@@ -31218,8 +31502,8 @@
       <c r="A40" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="B40" s="21" t="s">
-        <v>45</v>
+      <c r="B40" s="56" t="s">
+        <v>156</v>
       </c>
       <c r="C40" s="11"/>
       <c r="D40" s="4"/>
@@ -31401,7 +31685,7 @@
     </row>
     <row r="54" spans="1:8" ht="15.75" customHeight="1">
       <c r="A54" s="38" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B54" s="4"/>
       <c r="C54" s="4"/>
@@ -31569,7 +31853,7 @@
     </row>
     <row r="67" spans="1:8" s="53" customFormat="1" ht="15.75" customHeight="1">
       <c r="A67" s="51" t="s">
-        <v>109</v>
+        <v>159</v>
       </c>
       <c r="B67" s="52"/>
       <c r="C67" s="52"/>
@@ -31931,7 +32215,7 @@
       <c r="G95" s="4"/>
       <c r="H95" s="4"/>
     </row>
-    <row r="96" spans="1:8">
+    <row r="96" spans="1:8" ht="15.75">
       <c r="A96" s="20" t="s">
         <v>56</v>
       </c>
@@ -31957,7 +32241,7 @@
     </row>
     <row r="98" spans="1:8" ht="15.75" customHeight="1">
       <c r="A98" s="33" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B98" s="13"/>
       <c r="C98" s="11"/>
@@ -31969,7 +32253,7 @@
     </row>
     <row r="99" spans="1:8" ht="15.75" customHeight="1">
       <c r="A99" s="33" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B99" s="28" t="s">
         <v>45</v>
@@ -32023,8 +32307,8 @@
       <c r="A103" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="B103" s="21" t="s">
-        <v>104</v>
+      <c r="B103" s="56" t="s">
+        <v>156</v>
       </c>
       <c r="C103" s="11"/>
       <c r="D103" s="4"/>
@@ -32206,7 +32490,7 @@
     </row>
     <row r="117" spans="1:8" ht="15.75" customHeight="1">
       <c r="A117" s="38" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B117" s="4"/>
       <c r="C117" s="4"/>
@@ -37576,21 +37860,22 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
-    <tabColor rgb="FFFF99CC"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:H462"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B27" sqref="B23:B27"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.5" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="44" style="2" customWidth="1"/>
-    <col min="2" max="2" width="56.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.33203125" style="2" customWidth="1"/>
-    <col min="4" max="5" width="17.88671875" style="2" customWidth="1"/>
-    <col min="6" max="8" width="7.88671875" style="2" customWidth="1"/>
-    <col min="9" max="16384" width="12.44140625" style="2"/>
+    <col min="2" max="2" width="56.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.375" style="2" customWidth="1"/>
+    <col min="4" max="5" width="17.875" style="2" customWidth="1"/>
+    <col min="6" max="8" width="7.875" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="12.5" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" customHeight="1">
@@ -37605,7 +37890,7 @@
     </row>
     <row r="2" spans="1:8" s="9" customFormat="1" ht="15.75" customHeight="1">
       <c r="A2" s="7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B2" s="8"/>
       <c r="C2" s="8"/>
@@ -37627,7 +37912,7 @@
     </row>
     <row r="4" spans="1:8" s="53" customFormat="1" ht="15.75" customHeight="1">
       <c r="A4" s="51" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B4" s="52"/>
       <c r="C4" s="52"/>
@@ -37768,7 +38053,7 @@
         <v>24</v>
       </c>
       <c r="B15" s="55" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
@@ -37782,7 +38067,7 @@
         <v>87</v>
       </c>
       <c r="B16" s="21" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
@@ -37863,7 +38148,7 @@
       <c r="A23" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="B23" s="56" t="s">
+      <c r="B23" s="16" t="s">
         <v>26</v>
       </c>
       <c r="C23" s="6"/>
@@ -37877,8 +38162,8 @@
       <c r="A24" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="B24" s="57" t="s">
-        <v>153</v>
+      <c r="B24" s="55" t="s">
+        <v>152</v>
       </c>
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
@@ -37891,8 +38176,8 @@
       <c r="A25" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="B25" s="58" t="s">
-        <v>154</v>
+      <c r="B25" s="21" t="s">
+        <v>153</v>
       </c>
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
@@ -37905,7 +38190,7 @@
       <c r="A26" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="B26" s="59"/>
+      <c r="B26" s="46"/>
       <c r="C26" s="47"/>
       <c r="D26" s="4"/>
       <c r="E26" s="4"/>
@@ -37917,7 +38202,7 @@
       <c r="A27" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="B27" s="60"/>
+      <c r="B27" s="48"/>
       <c r="C27" s="47"/>
       <c r="D27" s="4"/>
       <c r="E27" s="4"/>
@@ -38079,7 +38364,7 @@
     </row>
     <row r="41" spans="1:8" s="53" customFormat="1" ht="15.75" customHeight="1">
       <c r="A41" s="51" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B41" s="52"/>
       <c r="C41" s="52"/>
@@ -42357,14 +42642,14 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.5" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="44" style="2" customWidth="1"/>
-    <col min="2" max="2" width="56.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.33203125" style="2" customWidth="1"/>
-    <col min="4" max="5" width="17.88671875" style="2" customWidth="1"/>
-    <col min="6" max="8" width="7.88671875" style="2" customWidth="1"/>
-    <col min="9" max="16384" width="12.44140625" style="2"/>
+    <col min="2" max="2" width="56.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.375" style="2" customWidth="1"/>
+    <col min="4" max="5" width="17.875" style="2" customWidth="1"/>
+    <col min="6" max="8" width="7.875" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="12.5" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" customHeight="1">
@@ -42379,7 +42664,7 @@
     </row>
     <row r="2" spans="1:8" s="9" customFormat="1" ht="15.75" customHeight="1">
       <c r="A2" s="7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B2" s="8"/>
       <c r="C2" s="8"/>
@@ -42391,7 +42676,7 @@
     </row>
     <row r="3" spans="1:8" s="53" customFormat="1" ht="15.75" customHeight="1">
       <c r="A3" s="51" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B3" s="52"/>
       <c r="C3" s="52"/>
@@ -43025,7 +43310,7 @@
     </row>
     <row r="66" spans="1:8" s="53" customFormat="1" ht="15.75" customHeight="1">
       <c r="A66" s="51" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B66" s="52"/>
       <c r="C66" s="52"/>

--- a/20_営業/07_会計/BR100/ERP_T_BR100_CFO_GL-011_1_会計構成の定義.xlsx
+++ b/20_営業/07_会計/BR100/ERP_T_BR100_CFO_GL-011_1_会計構成の定義.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\acomsv01\障害対応\E_本稼動_20201～20300\E_本稼動_20246_【会計】基幹システムバージョンアップ（会計領域　GL部門入力）\20_成果物\セットアップ定義書\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\acomsv01\障害対応\E_本稼動_20201～20300\E_本稼動_20246_【会計】基幹システムバージョンアップ（会計領域　GL部門入力）\20_成果物\07_本番リリース\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="405" yWindow="2445" windowWidth="14715" windowHeight="8820"/>
+    <workbookView xWindow="405" yWindow="2445" windowWidth="14715" windowHeight="8820" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="変更履歴" sheetId="2" r:id="rId1"/>
@@ -1822,12 +1822,12 @@
     <definedName name="列長" localSheetId="1">#REF!</definedName>
     <definedName name="列長">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="152511" calcMode="manual"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="171">
   <si>
     <t>変更日</t>
     <rPh sb="0" eb="3">
@@ -1882,7 +1882,7 @@
     <rPh sb="0" eb="2">
       <t>エイギョウ</t>
     </rPh>
-    <phoneticPr fontId="44"/>
+    <phoneticPr fontId="43"/>
   </si>
   <si>
     <t>勘定体系</t>
@@ -2221,7 +2221,7 @@
     <rPh sb="4" eb="6">
       <t>チョウボ</t>
     </rPh>
-    <phoneticPr fontId="49"/>
+    <phoneticPr fontId="48"/>
   </si>
   <si>
     <t>JPY</t>
@@ -2374,7 +2374,7 @@
     <rPh sb="0" eb="2">
       <t>テジュン</t>
     </rPh>
-    <phoneticPr fontId="54"/>
+    <phoneticPr fontId="53"/>
   </si>
   <si>
     <t>説明、その他</t>
@@ -2428,7 +2428,7 @@
     <rPh sb="45" eb="47">
       <t>ヘンコウ</t>
     </rPh>
-    <phoneticPr fontId="57"/>
+    <phoneticPr fontId="56"/>
   </si>
   <si>
     <t>画面左の機能領域から該当のタスク種別を選択し、画面右に表示されたタスク名をクリックします。</t>
@@ -2519,7 +2519,7 @@
     <rPh sb="21" eb="23">
       <t>センタク</t>
     </rPh>
-    <phoneticPr fontId="54"/>
+    <phoneticPr fontId="53"/>
   </si>
   <si>
     <t>「元帳オプションの指定」をタスク一覧から選択</t>
@@ -2529,7 +2529,7 @@
     <rPh sb="20" eb="22">
       <t>センタク</t>
     </rPh>
-    <phoneticPr fontId="54"/>
+    <phoneticPr fontId="53"/>
   </si>
   <si>
     <t>「貸借一致セグメント値を法的エンティティに割当」をタスク一覧から選択</t>
@@ -2539,7 +2539,7 @@
     <rPh sb="32" eb="34">
       <t>センタク</t>
     </rPh>
-    <phoneticPr fontId="54"/>
+    <phoneticPr fontId="53"/>
   </si>
   <si>
     <t>「会計構成のレビューおよび発行」をタスク一覧から選択</t>
@@ -2549,7 +2549,7 @@
     <rPh sb="24" eb="26">
       <t>センタク</t>
     </rPh>
-    <phoneticPr fontId="54"/>
+    <phoneticPr fontId="53"/>
   </si>
   <si>
     <t>設定および保守 &gt; 設定：財務 &gt; 一般会計 &gt; プライマリ元帳の管理</t>
@@ -2608,7 +2608,7 @@
     <rPh sb="9" eb="11">
       <t>ワリアテ</t>
     </rPh>
-    <phoneticPr fontId="54"/>
+    <phoneticPr fontId="53"/>
   </si>
   <si>
     <t>元帳オプションの指定</t>
@@ -2618,7 +2618,7 @@
     <rPh sb="8" eb="10">
       <t>シテイ</t>
     </rPh>
-    <phoneticPr fontId="54"/>
+    <phoneticPr fontId="53"/>
   </si>
   <si>
     <t>貸借一致セグメント値を法的エンティティに割当</t>
@@ -2636,7 +2636,7 @@
     <rPh sb="9" eb="11">
       <t>カンリ</t>
     </rPh>
-    <phoneticPr fontId="54"/>
+    <phoneticPr fontId="53"/>
   </si>
   <si>
     <t>「プライマリ元帳の 管理」をタスク一覧から選択</t>
@@ -2646,7 +2646,7 @@
     <rPh sb="21" eb="23">
       <t>センタク</t>
     </rPh>
-    <phoneticPr fontId="54"/>
+    <phoneticPr fontId="53"/>
   </si>
   <si>
     <t>003</t>
@@ -2741,7 +2741,44 @@
     <phoneticPr fontId="36"/>
   </si>
   <si>
+    <t>SCSK 佐藤</t>
+    <rPh sb="5" eb="7">
+      <t>サトウ</t>
+    </rPh>
+    <phoneticPr fontId="36"/>
+  </si>
+  <si>
+    <t>1.0.6</t>
+    <phoneticPr fontId="36"/>
+  </si>
+  <si>
     <t>1.0.5</t>
+    <phoneticPr fontId="36"/>
+  </si>
+  <si>
+    <t>XXCFO_REVERSAL_SET</t>
+    <phoneticPr fontId="36"/>
+  </si>
+  <si>
+    <t>STEP4　GL部門入力対応　11.1.3の逆仕訳基準セットを登録</t>
+    <rPh sb="8" eb="12">
+      <t>ブモンニュウリョク</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>タイオウ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ギャク</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>シワケ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>キジュン</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>トウロク</t>
+    </rPh>
     <phoneticPr fontId="36"/>
   </si>
 </sst>
@@ -2753,7 +2790,7 @@
     <numFmt numFmtId="176" formatCode="#,##0;\-#,##0;&quot;-&quot;"/>
     <numFmt numFmtId="177" formatCode="&quot;SFr.&quot;#,##0;[Red]&quot;SFr.&quot;\-#,##0"/>
   </numFmts>
-  <fonts count="61">
+  <fonts count="63">
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -3012,13 +3049,6 @@
       <charset val="128"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color rgb="FFFF66FF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
@@ -3162,6 +3192,26 @@
       <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="21">
@@ -3872,229 +3922,232 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="147">
+  <cellXfs count="142">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="37" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="61" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="42" fillId="14" borderId="25" xfId="61" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="61" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="41" fillId="14" borderId="25" xfId="61" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="61" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="61" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="25" xfId="61" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="25" xfId="61" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="61" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="15" borderId="0" xfId="61" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="61" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="41" fillId="15" borderId="0" xfId="61" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="15" borderId="0" xfId="61" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="61" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="40" fillId="15" borderId="0" xfId="61" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="61" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="39" fillId="15" borderId="0" xfId="61" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="61" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="14" borderId="26" xfId="61" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="61" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="14" borderId="26" xfId="61" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="4" xfId="61" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="4" xfId="61" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="14" borderId="25" xfId="61" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="41" fillId="14" borderId="25" xfId="61" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="27" xfId="61" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="27" xfId="61" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="41" fillId="0" borderId="4" xfId="61" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="40" fillId="0" borderId="4" xfId="61" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="41" fillId="0" borderId="25" xfId="61" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="40" fillId="0" borderId="25" xfId="61" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="25" xfId="61" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="25" xfId="61" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="41" fillId="0" borderId="0" xfId="61" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="40" fillId="0" borderId="0" xfId="61" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="14" borderId="25" xfId="61" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="41" fillId="14" borderId="25" xfId="61" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="25" xfId="61" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="25" xfId="61" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="45" fillId="0" borderId="25" xfId="61" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="44" fillId="0" borderId="25" xfId="61" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="61" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="61" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="25" xfId="61" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="25" xfId="61" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="25" xfId="61" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="25" xfId="61" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="61" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="61" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="25" xfId="61" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="61" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="61" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="14" borderId="28" xfId="61" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="28" xfId="61" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="14" borderId="4" xfId="61" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="61" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="61" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="25" xfId="61" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="25" xfId="61" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="25" xfId="61" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="61" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="61" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="14" borderId="28" xfId="61" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="28" xfId="61" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="14" borderId="4" xfId="61" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="61" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="25" xfId="61" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="25" xfId="61" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="25" xfId="61" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="16" borderId="0" xfId="61" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="61" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="61" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="61" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="14" borderId="25" xfId="61" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="25" xfId="61" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="25" xfId="61" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="41" fillId="16" borderId="0" xfId="61" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="61" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="61" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="61" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="61" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="14" borderId="25" xfId="61" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="25" xfId="61" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="16" borderId="0" xfId="61" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="61" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="41" fillId="0" borderId="25" xfId="61" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="40" fillId="0" borderId="25" xfId="61" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="41" fillId="0" borderId="0" xfId="61" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="40" fillId="0" borderId="0" xfId="61" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="25" xfId="61" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="25" xfId="61" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="61" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="61" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="4" xfId="61" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="17" borderId="0" xfId="61" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="4" xfId="61" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="41" fillId="17" borderId="0" xfId="61" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="17" borderId="0" xfId="61" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="28" xfId="61" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="40" fillId="17" borderId="0" xfId="61" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="41" fillId="0" borderId="25" xfId="61" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="39" fillId="17" borderId="0" xfId="61" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="28" xfId="61" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="40" fillId="0" borderId="25" xfId="61" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="18" borderId="25" xfId="61" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="40" fillId="18" borderId="25" xfId="61" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="56" fillId="20" borderId="29" xfId="62" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="55" fillId="20" borderId="29" xfId="62" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="56" fillId="20" borderId="30" xfId="62" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="55" fillId="20" borderId="30" xfId="62" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="56" fillId="20" borderId="31" xfId="62" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="55" fillId="20" borderId="31" xfId="62" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="51" fillId="0" borderId="0" xfId="62" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="50" fillId="0" borderId="0" xfId="62" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="51" fillId="0" borderId="32" xfId="62" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="50" fillId="0" borderId="32" xfId="62" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="51" fillId="0" borderId="4" xfId="62" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="50" fillId="0" borderId="4" xfId="62" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="51" fillId="0" borderId="14" xfId="62" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="50" fillId="0" borderId="14" xfId="62" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="51" fillId="0" borderId="15" xfId="62" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="50" fillId="0" borderId="15" xfId="62" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="51" fillId="0" borderId="16" xfId="62" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="50" fillId="0" borderId="16" xfId="62" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="45" fillId="0" borderId="0" xfId="62" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="44" fillId="0" borderId="0" xfId="62" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="45" fillId="0" borderId="0" xfId="62" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="44" fillId="0" borderId="0" xfId="62" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="45" fillId="0" borderId="0" xfId="62" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="44" fillId="0" borderId="0" xfId="62" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="63" applyFont="1"/>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="63" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="63" applyFont="1"/>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="63" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="51" fillId="0" borderId="33" xfId="62" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="50" fillId="0" borderId="33" xfId="62" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="64" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="64" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="64" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="52" fillId="19" borderId="0" xfId="64" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="64" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="51" fillId="19" borderId="0" xfId="64" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="19" borderId="0" xfId="64" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="64" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="50" fillId="19" borderId="0" xfId="64" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="64" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="64" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="64" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="64" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="64" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="61" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="61" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="61" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="37" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4149,58 +4202,40 @@
     <xf numFmtId="0" fontId="37" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="60" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="59" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="59" fillId="8" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="58" fillId="8" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="59" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="58" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="59" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="58" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="39" fillId="8" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="59" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="59" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="59" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="58" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="58" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="58" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4210,6 +4245,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4224,15 +4268,6 @@
     <xf numFmtId="0" fontId="37" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -4242,31 +4277,22 @@
     <xf numFmtId="0" fontId="37" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="59" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="58" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="59" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="58" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="59" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="58" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4295,6 +4321,9 @@
     </xf>
     <xf numFmtId="0" fontId="37" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="37" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="45" fillId="18" borderId="28" xfId="61" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="65">
     <cellStyle name="Calc Currency (0)" xfId="1"/>
@@ -4367,8 +4396,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFF99CC"/>
       <color rgb="FFFF00FF"/>
-      <color rgb="FFFF99CC"/>
       <color rgb="FFFF99FF"/>
     </mruColors>
   </colors>
@@ -19659,8 +19688,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AP30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:E2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J11" sqref="J11:N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="11.25"/>
@@ -19673,318 +19702,318 @@
   <sheetData>
     <row r="1" spans="1:42" ht="12" thickBot="1"/>
     <row r="2" spans="1:42" ht="12" thickBot="1">
-      <c r="A2" s="85" t="s">
+      <c r="A2" s="88" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="86"/>
-      <c r="C2" s="86"/>
-      <c r="D2" s="86"/>
-      <c r="E2" s="87"/>
-      <c r="F2" s="85" t="s">
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="90"/>
+      <c r="F2" s="88" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="86"/>
-      <c r="H2" s="86"/>
-      <c r="I2" s="87"/>
-      <c r="J2" s="85" t="s">
+      <c r="G2" s="89"/>
+      <c r="H2" s="89"/>
+      <c r="I2" s="90"/>
+      <c r="J2" s="88" t="s">
         <v>160</v>
       </c>
-      <c r="K2" s="86"/>
-      <c r="L2" s="86"/>
-      <c r="M2" s="86"/>
-      <c r="N2" s="87"/>
-      <c r="O2" s="140" t="s">
+      <c r="K2" s="89"/>
+      <c r="L2" s="89"/>
+      <c r="M2" s="89"/>
+      <c r="N2" s="90"/>
+      <c r="O2" s="134" t="s">
         <v>2</v>
       </c>
-      <c r="P2" s="140"/>
-      <c r="Q2" s="140"/>
-      <c r="R2" s="140"/>
-      <c r="S2" s="140"/>
-      <c r="T2" s="140"/>
-      <c r="U2" s="140"/>
-      <c r="V2" s="140"/>
-      <c r="W2" s="140"/>
-      <c r="X2" s="140"/>
-      <c r="Y2" s="140"/>
-      <c r="Z2" s="140"/>
-      <c r="AA2" s="140"/>
-      <c r="AB2" s="140"/>
-      <c r="AC2" s="140"/>
-      <c r="AD2" s="140"/>
-      <c r="AE2" s="140"/>
-      <c r="AF2" s="140"/>
-      <c r="AG2" s="140"/>
-      <c r="AH2" s="140"/>
-      <c r="AI2" s="140"/>
-      <c r="AJ2" s="140"/>
-      <c r="AK2" s="140"/>
-      <c r="AL2" s="140"/>
-      <c r="AM2" s="140"/>
-      <c r="AN2" s="140"/>
-      <c r="AO2" s="140"/>
-      <c r="AP2" s="141"/>
+      <c r="P2" s="134"/>
+      <c r="Q2" s="134"/>
+      <c r="R2" s="134"/>
+      <c r="S2" s="134"/>
+      <c r="T2" s="134"/>
+      <c r="U2" s="134"/>
+      <c r="V2" s="134"/>
+      <c r="W2" s="134"/>
+      <c r="X2" s="134"/>
+      <c r="Y2" s="134"/>
+      <c r="Z2" s="134"/>
+      <c r="AA2" s="134"/>
+      <c r="AB2" s="134"/>
+      <c r="AC2" s="134"/>
+      <c r="AD2" s="134"/>
+      <c r="AE2" s="134"/>
+      <c r="AF2" s="134"/>
+      <c r="AG2" s="134"/>
+      <c r="AH2" s="134"/>
+      <c r="AI2" s="134"/>
+      <c r="AJ2" s="134"/>
+      <c r="AK2" s="134"/>
+      <c r="AL2" s="134"/>
+      <c r="AM2" s="134"/>
+      <c r="AN2" s="134"/>
+      <c r="AO2" s="134"/>
+      <c r="AP2" s="135"/>
     </row>
     <row r="3" spans="1:42">
-      <c r="A3" s="88">
+      <c r="A3" s="91">
         <v>44865</v>
       </c>
-      <c r="B3" s="89"/>
-      <c r="C3" s="89"/>
-      <c r="D3" s="89"/>
-      <c r="E3" s="90"/>
-      <c r="F3" s="122" t="s">
+      <c r="B3" s="92"/>
+      <c r="C3" s="92"/>
+      <c r="D3" s="92"/>
+      <c r="E3" s="93"/>
+      <c r="F3" s="115" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="123"/>
-      <c r="H3" s="123"/>
-      <c r="I3" s="124"/>
-      <c r="J3" s="88" t="s">
+      <c r="G3" s="116"/>
+      <c r="H3" s="116"/>
+      <c r="I3" s="117"/>
+      <c r="J3" s="91" t="s">
         <v>161</v>
       </c>
-      <c r="K3" s="89"/>
-      <c r="L3" s="89"/>
-      <c r="M3" s="89"/>
-      <c r="N3" s="90"/>
-      <c r="O3" s="142" t="s">
+      <c r="K3" s="92"/>
+      <c r="L3" s="92"/>
+      <c r="M3" s="92"/>
+      <c r="N3" s="93"/>
+      <c r="O3" s="136" t="s">
         <v>3</v>
       </c>
-      <c r="P3" s="89"/>
-      <c r="Q3" s="89"/>
-      <c r="R3" s="89"/>
-      <c r="S3" s="89"/>
-      <c r="T3" s="89"/>
-      <c r="U3" s="89"/>
-      <c r="V3" s="89"/>
-      <c r="W3" s="89"/>
-      <c r="X3" s="89"/>
-      <c r="Y3" s="89"/>
-      <c r="Z3" s="89"/>
-      <c r="AA3" s="89"/>
-      <c r="AB3" s="89"/>
-      <c r="AC3" s="89"/>
-      <c r="AD3" s="89"/>
-      <c r="AE3" s="89"/>
-      <c r="AF3" s="89"/>
-      <c r="AG3" s="89"/>
-      <c r="AH3" s="89"/>
-      <c r="AI3" s="89"/>
-      <c r="AJ3" s="89"/>
-      <c r="AK3" s="89"/>
-      <c r="AL3" s="89"/>
-      <c r="AM3" s="89"/>
-      <c r="AN3" s="89"/>
-      <c r="AO3" s="89"/>
-      <c r="AP3" s="90"/>
+      <c r="P3" s="92"/>
+      <c r="Q3" s="92"/>
+      <c r="R3" s="92"/>
+      <c r="S3" s="92"/>
+      <c r="T3" s="92"/>
+      <c r="U3" s="92"/>
+      <c r="V3" s="92"/>
+      <c r="W3" s="92"/>
+      <c r="X3" s="92"/>
+      <c r="Y3" s="92"/>
+      <c r="Z3" s="92"/>
+      <c r="AA3" s="92"/>
+      <c r="AB3" s="92"/>
+      <c r="AC3" s="92"/>
+      <c r="AD3" s="92"/>
+      <c r="AE3" s="92"/>
+      <c r="AF3" s="92"/>
+      <c r="AG3" s="92"/>
+      <c r="AH3" s="92"/>
+      <c r="AI3" s="92"/>
+      <c r="AJ3" s="92"/>
+      <c r="AK3" s="92"/>
+      <c r="AL3" s="92"/>
+      <c r="AM3" s="92"/>
+      <c r="AN3" s="92"/>
+      <c r="AO3" s="92"/>
+      <c r="AP3" s="93"/>
     </row>
     <row r="4" spans="1:42">
-      <c r="A4" s="91">
+      <c r="A4" s="94">
         <v>45041</v>
       </c>
-      <c r="B4" s="92"/>
-      <c r="C4" s="92"/>
-      <c r="D4" s="92"/>
-      <c r="E4" s="93"/>
-      <c r="F4" s="115" t="s">
+      <c r="B4" s="95"/>
+      <c r="C4" s="95"/>
+      <c r="D4" s="95"/>
+      <c r="E4" s="96"/>
+      <c r="F4" s="112" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="116"/>
-      <c r="H4" s="116"/>
-      <c r="I4" s="117"/>
-      <c r="J4" s="91" t="s">
+      <c r="G4" s="113"/>
+      <c r="H4" s="113"/>
+      <c r="I4" s="114"/>
+      <c r="J4" s="94" t="s">
         <v>162</v>
       </c>
-      <c r="K4" s="92"/>
-      <c r="L4" s="92"/>
-      <c r="M4" s="92"/>
-      <c r="N4" s="93"/>
-      <c r="O4" s="143" t="s">
+      <c r="K4" s="95"/>
+      <c r="L4" s="95"/>
+      <c r="M4" s="95"/>
+      <c r="N4" s="96"/>
+      <c r="O4" s="137" t="s">
         <v>116</v>
       </c>
-      <c r="P4" s="92"/>
-      <c r="Q4" s="92"/>
-      <c r="R4" s="92"/>
-      <c r="S4" s="92"/>
-      <c r="T4" s="92"/>
-      <c r="U4" s="92"/>
-      <c r="V4" s="92"/>
-      <c r="W4" s="92"/>
-      <c r="X4" s="92"/>
-      <c r="Y4" s="92"/>
-      <c r="Z4" s="92"/>
-      <c r="AA4" s="92"/>
-      <c r="AB4" s="92"/>
-      <c r="AC4" s="92"/>
-      <c r="AD4" s="92"/>
-      <c r="AE4" s="92"/>
-      <c r="AF4" s="92"/>
-      <c r="AG4" s="92"/>
-      <c r="AH4" s="92"/>
-      <c r="AI4" s="92"/>
-      <c r="AJ4" s="92"/>
-      <c r="AK4" s="92"/>
-      <c r="AL4" s="92"/>
-      <c r="AM4" s="92"/>
-      <c r="AN4" s="92"/>
-      <c r="AO4" s="92"/>
-      <c r="AP4" s="93"/>
+      <c r="P4" s="95"/>
+      <c r="Q4" s="95"/>
+      <c r="R4" s="95"/>
+      <c r="S4" s="95"/>
+      <c r="T4" s="95"/>
+      <c r="U4" s="95"/>
+      <c r="V4" s="95"/>
+      <c r="W4" s="95"/>
+      <c r="X4" s="95"/>
+      <c r="Y4" s="95"/>
+      <c r="Z4" s="95"/>
+      <c r="AA4" s="95"/>
+      <c r="AB4" s="95"/>
+      <c r="AC4" s="95"/>
+      <c r="AD4" s="95"/>
+      <c r="AE4" s="95"/>
+      <c r="AF4" s="95"/>
+      <c r="AG4" s="95"/>
+      <c r="AH4" s="95"/>
+      <c r="AI4" s="95"/>
+      <c r="AJ4" s="95"/>
+      <c r="AK4" s="95"/>
+      <c r="AL4" s="95"/>
+      <c r="AM4" s="95"/>
+      <c r="AN4" s="95"/>
+      <c r="AO4" s="95"/>
+      <c r="AP4" s="96"/>
     </row>
     <row r="5" spans="1:42">
-      <c r="A5" s="94">
+      <c r="A5" s="97">
         <v>45086</v>
       </c>
-      <c r="B5" s="95"/>
-      <c r="C5" s="95"/>
-      <c r="D5" s="95"/>
-      <c r="E5" s="96"/>
-      <c r="F5" s="115" t="s">
+      <c r="B5" s="98"/>
+      <c r="C5" s="98"/>
+      <c r="D5" s="98"/>
+      <c r="E5" s="99"/>
+      <c r="F5" s="112" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="116"/>
-      <c r="H5" s="116"/>
-      <c r="I5" s="117"/>
-      <c r="J5" s="94" t="s">
+      <c r="G5" s="113"/>
+      <c r="H5" s="113"/>
+      <c r="I5" s="114"/>
+      <c r="J5" s="97" t="s">
         <v>163</v>
       </c>
-      <c r="K5" s="95"/>
-      <c r="L5" s="95"/>
-      <c r="M5" s="95"/>
-      <c r="N5" s="96"/>
-      <c r="O5" s="144" t="s">
+      <c r="K5" s="98"/>
+      <c r="L5" s="98"/>
+      <c r="M5" s="98"/>
+      <c r="N5" s="99"/>
+      <c r="O5" s="138" t="s">
         <v>117</v>
       </c>
-      <c r="P5" s="145"/>
-      <c r="Q5" s="145"/>
-      <c r="R5" s="145"/>
-      <c r="S5" s="145"/>
-      <c r="T5" s="145"/>
-      <c r="U5" s="145"/>
-      <c r="V5" s="145"/>
-      <c r="W5" s="145"/>
-      <c r="X5" s="145"/>
-      <c r="Y5" s="145"/>
-      <c r="Z5" s="145"/>
-      <c r="AA5" s="145"/>
-      <c r="AB5" s="145"/>
-      <c r="AC5" s="145"/>
-      <c r="AD5" s="145"/>
-      <c r="AE5" s="145"/>
-      <c r="AF5" s="145"/>
-      <c r="AG5" s="145"/>
-      <c r="AH5" s="145"/>
-      <c r="AI5" s="145"/>
-      <c r="AJ5" s="145"/>
-      <c r="AK5" s="145"/>
-      <c r="AL5" s="145"/>
-      <c r="AM5" s="145"/>
-      <c r="AN5" s="145"/>
-      <c r="AO5" s="145"/>
-      <c r="AP5" s="146"/>
+      <c r="P5" s="139"/>
+      <c r="Q5" s="139"/>
+      <c r="R5" s="139"/>
+      <c r="S5" s="139"/>
+      <c r="T5" s="139"/>
+      <c r="U5" s="139"/>
+      <c r="V5" s="139"/>
+      <c r="W5" s="139"/>
+      <c r="X5" s="139"/>
+      <c r="Y5" s="139"/>
+      <c r="Z5" s="139"/>
+      <c r="AA5" s="139"/>
+      <c r="AB5" s="139"/>
+      <c r="AC5" s="139"/>
+      <c r="AD5" s="139"/>
+      <c r="AE5" s="139"/>
+      <c r="AF5" s="139"/>
+      <c r="AG5" s="139"/>
+      <c r="AH5" s="139"/>
+      <c r="AI5" s="139"/>
+      <c r="AJ5" s="139"/>
+      <c r="AK5" s="139"/>
+      <c r="AL5" s="139"/>
+      <c r="AM5" s="139"/>
+      <c r="AN5" s="139"/>
+      <c r="AO5" s="139"/>
+      <c r="AP5" s="140"/>
     </row>
     <row r="6" spans="1:42">
-      <c r="A6" s="91">
+      <c r="A6" s="94">
         <v>45250</v>
       </c>
-      <c r="B6" s="92"/>
-      <c r="C6" s="92"/>
-      <c r="D6" s="92"/>
-      <c r="E6" s="93"/>
-      <c r="F6" s="115" t="s">
+      <c r="B6" s="95"/>
+      <c r="C6" s="95"/>
+      <c r="D6" s="95"/>
+      <c r="E6" s="96"/>
+      <c r="F6" s="112" t="s">
         <v>120</v>
       </c>
-      <c r="G6" s="116"/>
-      <c r="H6" s="116"/>
-      <c r="I6" s="117"/>
-      <c r="J6" s="91" t="s">
+      <c r="G6" s="113"/>
+      <c r="H6" s="113"/>
+      <c r="I6" s="114"/>
+      <c r="J6" s="94" t="s">
         <v>164</v>
       </c>
-      <c r="K6" s="92"/>
-      <c r="L6" s="92"/>
-      <c r="M6" s="92"/>
-      <c r="N6" s="93"/>
-      <c r="O6" s="125" t="s">
+      <c r="K6" s="95"/>
+      <c r="L6" s="95"/>
+      <c r="M6" s="95"/>
+      <c r="N6" s="96"/>
+      <c r="O6" s="122" t="s">
         <v>121</v>
       </c>
-      <c r="P6" s="126"/>
-      <c r="Q6" s="126"/>
-      <c r="R6" s="126"/>
-      <c r="S6" s="126"/>
-      <c r="T6" s="126"/>
-      <c r="U6" s="126"/>
-      <c r="V6" s="126"/>
-      <c r="W6" s="126"/>
-      <c r="X6" s="126"/>
-      <c r="Y6" s="126"/>
-      <c r="Z6" s="126"/>
-      <c r="AA6" s="126"/>
-      <c r="AB6" s="126"/>
-      <c r="AC6" s="126"/>
-      <c r="AD6" s="126"/>
-      <c r="AE6" s="126"/>
-      <c r="AF6" s="126"/>
-      <c r="AG6" s="126"/>
-      <c r="AH6" s="126"/>
-      <c r="AI6" s="126"/>
-      <c r="AJ6" s="126"/>
-      <c r="AK6" s="126"/>
-      <c r="AL6" s="126"/>
-      <c r="AM6" s="126"/>
-      <c r="AN6" s="126"/>
-      <c r="AO6" s="126"/>
-      <c r="AP6" s="127"/>
+      <c r="P6" s="123"/>
+      <c r="Q6" s="123"/>
+      <c r="R6" s="123"/>
+      <c r="S6" s="123"/>
+      <c r="T6" s="123"/>
+      <c r="U6" s="123"/>
+      <c r="V6" s="123"/>
+      <c r="W6" s="123"/>
+      <c r="X6" s="123"/>
+      <c r="Y6" s="123"/>
+      <c r="Z6" s="123"/>
+      <c r="AA6" s="123"/>
+      <c r="AB6" s="123"/>
+      <c r="AC6" s="123"/>
+      <c r="AD6" s="123"/>
+      <c r="AE6" s="123"/>
+      <c r="AF6" s="123"/>
+      <c r="AG6" s="123"/>
+      <c r="AH6" s="123"/>
+      <c r="AI6" s="123"/>
+      <c r="AJ6" s="123"/>
+      <c r="AK6" s="123"/>
+      <c r="AL6" s="123"/>
+      <c r="AM6" s="123"/>
+      <c r="AN6" s="123"/>
+      <c r="AO6" s="123"/>
+      <c r="AP6" s="124"/>
     </row>
     <row r="7" spans="1:42">
-      <c r="A7" s="97">
+      <c r="A7" s="100">
         <v>45485</v>
       </c>
-      <c r="B7" s="98"/>
-      <c r="C7" s="98"/>
-      <c r="D7" s="98"/>
-      <c r="E7" s="99"/>
-      <c r="F7" s="112" t="s">
+      <c r="B7" s="101"/>
+      <c r="C7" s="101"/>
+      <c r="D7" s="101"/>
+      <c r="E7" s="102"/>
+      <c r="F7" s="106" t="s">
         <v>154</v>
       </c>
-      <c r="G7" s="113"/>
-      <c r="H7" s="113"/>
-      <c r="I7" s="114"/>
-      <c r="J7" s="97" t="s">
+      <c r="G7" s="107"/>
+      <c r="H7" s="107"/>
+      <c r="I7" s="108"/>
+      <c r="J7" s="100" t="s">
         <v>165</v>
       </c>
-      <c r="K7" s="98"/>
-      <c r="L7" s="98"/>
-      <c r="M7" s="98"/>
-      <c r="N7" s="99"/>
-      <c r="O7" s="128" t="s">
+      <c r="K7" s="101"/>
+      <c r="L7" s="101"/>
+      <c r="M7" s="101"/>
+      <c r="N7" s="102"/>
+      <c r="O7" s="125" t="s">
         <v>155</v>
       </c>
-      <c r="P7" s="129"/>
-      <c r="Q7" s="129"/>
-      <c r="R7" s="129"/>
-      <c r="S7" s="129"/>
-      <c r="T7" s="129"/>
-      <c r="U7" s="129"/>
-      <c r="V7" s="129"/>
-      <c r="W7" s="129"/>
-      <c r="X7" s="129"/>
-      <c r="Y7" s="129"/>
-      <c r="Z7" s="129"/>
-      <c r="AA7" s="129"/>
-      <c r="AB7" s="129"/>
-      <c r="AC7" s="129"/>
-      <c r="AD7" s="129"/>
-      <c r="AE7" s="129"/>
-      <c r="AF7" s="129"/>
-      <c r="AG7" s="129"/>
-      <c r="AH7" s="129"/>
-      <c r="AI7" s="129"/>
-      <c r="AJ7" s="129"/>
-      <c r="AK7" s="129"/>
-      <c r="AL7" s="129"/>
-      <c r="AM7" s="129"/>
-      <c r="AN7" s="129"/>
-      <c r="AO7" s="129"/>
-      <c r="AP7" s="130"/>
-    </row>
-    <row r="8" spans="1:42">
+      <c r="P7" s="126"/>
+      <c r="Q7" s="126"/>
+      <c r="R7" s="126"/>
+      <c r="S7" s="126"/>
+      <c r="T7" s="126"/>
+      <c r="U7" s="126"/>
+      <c r="V7" s="126"/>
+      <c r="W7" s="126"/>
+      <c r="X7" s="126"/>
+      <c r="Y7" s="126"/>
+      <c r="Z7" s="126"/>
+      <c r="AA7" s="126"/>
+      <c r="AB7" s="126"/>
+      <c r="AC7" s="126"/>
+      <c r="AD7" s="126"/>
+      <c r="AE7" s="126"/>
+      <c r="AF7" s="126"/>
+      <c r="AG7" s="126"/>
+      <c r="AH7" s="126"/>
+      <c r="AI7" s="126"/>
+      <c r="AJ7" s="126"/>
+      <c r="AK7" s="126"/>
+      <c r="AL7" s="126"/>
+      <c r="AM7" s="126"/>
+      <c r="AN7" s="126"/>
+      <c r="AO7" s="126"/>
+      <c r="AP7" s="127"/>
+    </row>
+    <row r="8" spans="1:42" ht="11.25" customHeight="1">
       <c r="A8" s="100">
         <v>45576</v>
       </c>
@@ -19999,146 +20028,154 @@
       <c r="H8" s="107"/>
       <c r="I8" s="108"/>
       <c r="J8" s="100" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="K8" s="101"/>
       <c r="L8" s="101"/>
       <c r="M8" s="101"/>
       <c r="N8" s="102"/>
-      <c r="O8" s="131" t="s">
+      <c r="O8" s="125" t="s">
         <v>158</v>
       </c>
-      <c r="P8" s="132"/>
-      <c r="Q8" s="132"/>
-      <c r="R8" s="132"/>
-      <c r="S8" s="132"/>
-      <c r="T8" s="132"/>
-      <c r="U8" s="132"/>
-      <c r="V8" s="132"/>
-      <c r="W8" s="132"/>
-      <c r="X8" s="132"/>
-      <c r="Y8" s="132"/>
-      <c r="Z8" s="132"/>
-      <c r="AA8" s="132"/>
-      <c r="AB8" s="132"/>
-      <c r="AC8" s="132"/>
-      <c r="AD8" s="132"/>
-      <c r="AE8" s="132"/>
-      <c r="AF8" s="132"/>
-      <c r="AG8" s="132"/>
-      <c r="AH8" s="132"/>
-      <c r="AI8" s="132"/>
-      <c r="AJ8" s="132"/>
-      <c r="AK8" s="132"/>
-      <c r="AL8" s="132"/>
-      <c r="AM8" s="132"/>
-      <c r="AN8" s="132"/>
-      <c r="AO8" s="132"/>
-      <c r="AP8" s="133"/>
-    </row>
-    <row r="9" spans="1:42">
-      <c r="A9" s="103"/>
+      <c r="P8" s="126"/>
+      <c r="Q8" s="126"/>
+      <c r="R8" s="126"/>
+      <c r="S8" s="126"/>
+      <c r="T8" s="126"/>
+      <c r="U8" s="126"/>
+      <c r="V8" s="126"/>
+      <c r="W8" s="126"/>
+      <c r="X8" s="126"/>
+      <c r="Y8" s="126"/>
+      <c r="Z8" s="126"/>
+      <c r="AA8" s="126"/>
+      <c r="AB8" s="126"/>
+      <c r="AC8" s="126"/>
+      <c r="AD8" s="126"/>
+      <c r="AE8" s="126"/>
+      <c r="AF8" s="126"/>
+      <c r="AG8" s="126"/>
+      <c r="AH8" s="126"/>
+      <c r="AI8" s="126"/>
+      <c r="AJ8" s="126"/>
+      <c r="AK8" s="126"/>
+      <c r="AL8" s="126"/>
+      <c r="AM8" s="126"/>
+      <c r="AN8" s="126"/>
+      <c r="AO8" s="126"/>
+      <c r="AP8" s="127"/>
+    </row>
+    <row r="9" spans="1:42" ht="11.25" customHeight="1">
+      <c r="A9" s="103">
+        <v>45680</v>
+      </c>
       <c r="B9" s="104"/>
       <c r="C9" s="104"/>
       <c r="D9" s="104"/>
       <c r="E9" s="105"/>
-      <c r="F9" s="109"/>
+      <c r="F9" s="109" t="s">
+        <v>166</v>
+      </c>
       <c r="G9" s="110"/>
       <c r="H9" s="110"/>
       <c r="I9" s="111"/>
-      <c r="J9" s="103"/>
+      <c r="J9" s="103" t="s">
+        <v>167</v>
+      </c>
       <c r="K9" s="104"/>
       <c r="L9" s="104"/>
       <c r="M9" s="104"/>
       <c r="N9" s="105"/>
-      <c r="O9" s="134"/>
-      <c r="P9" s="135"/>
-      <c r="Q9" s="135"/>
-      <c r="R9" s="135"/>
-      <c r="S9" s="135"/>
-      <c r="T9" s="135"/>
-      <c r="U9" s="135"/>
-      <c r="V9" s="135"/>
-      <c r="W9" s="135"/>
-      <c r="X9" s="135"/>
-      <c r="Y9" s="135"/>
-      <c r="Z9" s="135"/>
-      <c r="AA9" s="135"/>
-      <c r="AB9" s="135"/>
-      <c r="AC9" s="135"/>
-      <c r="AD9" s="135"/>
-      <c r="AE9" s="135"/>
-      <c r="AF9" s="135"/>
-      <c r="AG9" s="135"/>
-      <c r="AH9" s="135"/>
-      <c r="AI9" s="135"/>
-      <c r="AJ9" s="135"/>
-      <c r="AK9" s="135"/>
-      <c r="AL9" s="135"/>
-      <c r="AM9" s="135"/>
-      <c r="AN9" s="135"/>
-      <c r="AO9" s="135"/>
-      <c r="AP9" s="136"/>
+      <c r="O9" s="128" t="s">
+        <v>170</v>
+      </c>
+      <c r="P9" s="129"/>
+      <c r="Q9" s="129"/>
+      <c r="R9" s="129"/>
+      <c r="S9" s="129"/>
+      <c r="T9" s="129"/>
+      <c r="U9" s="129"/>
+      <c r="V9" s="129"/>
+      <c r="W9" s="129"/>
+      <c r="X9" s="129"/>
+      <c r="Y9" s="129"/>
+      <c r="Z9" s="129"/>
+      <c r="AA9" s="129"/>
+      <c r="AB9" s="129"/>
+      <c r="AC9" s="129"/>
+      <c r="AD9" s="129"/>
+      <c r="AE9" s="129"/>
+      <c r="AF9" s="129"/>
+      <c r="AG9" s="129"/>
+      <c r="AH9" s="129"/>
+      <c r="AI9" s="129"/>
+      <c r="AJ9" s="129"/>
+      <c r="AK9" s="129"/>
+      <c r="AL9" s="129"/>
+      <c r="AM9" s="129"/>
+      <c r="AN9" s="129"/>
+      <c r="AO9" s="129"/>
+      <c r="AP9" s="130"/>
     </row>
     <row r="10" spans="1:42">
-      <c r="A10" s="94"/>
-      <c r="B10" s="95"/>
-      <c r="C10" s="95"/>
-      <c r="D10" s="95"/>
-      <c r="E10" s="96"/>
-      <c r="F10" s="79"/>
-      <c r="G10" s="80"/>
-      <c r="H10" s="80"/>
-      <c r="I10" s="81"/>
-      <c r="J10" s="94"/>
-      <c r="K10" s="95"/>
-      <c r="L10" s="95"/>
-      <c r="M10" s="95"/>
-      <c r="N10" s="96"/>
-      <c r="O10" s="137"/>
-      <c r="P10" s="138"/>
-      <c r="Q10" s="138"/>
-      <c r="R10" s="138"/>
-      <c r="S10" s="138"/>
-      <c r="T10" s="138"/>
-      <c r="U10" s="138"/>
-      <c r="V10" s="138"/>
-      <c r="W10" s="138"/>
-      <c r="X10" s="138"/>
-      <c r="Y10" s="138"/>
-      <c r="Z10" s="138"/>
-      <c r="AA10" s="138"/>
-      <c r="AB10" s="138"/>
-      <c r="AC10" s="138"/>
-      <c r="AD10" s="138"/>
-      <c r="AE10" s="138"/>
-      <c r="AF10" s="138"/>
-      <c r="AG10" s="138"/>
-      <c r="AH10" s="138"/>
-      <c r="AI10" s="138"/>
-      <c r="AJ10" s="138"/>
-      <c r="AK10" s="138"/>
-      <c r="AL10" s="138"/>
-      <c r="AM10" s="138"/>
-      <c r="AN10" s="138"/>
-      <c r="AO10" s="138"/>
-      <c r="AP10" s="139"/>
+      <c r="A10" s="97"/>
+      <c r="B10" s="98"/>
+      <c r="C10" s="98"/>
+      <c r="D10" s="98"/>
+      <c r="E10" s="99"/>
+      <c r="F10" s="82"/>
+      <c r="G10" s="83"/>
+      <c r="H10" s="83"/>
+      <c r="I10" s="84"/>
+      <c r="J10" s="97"/>
+      <c r="K10" s="98"/>
+      <c r="L10" s="98"/>
+      <c r="M10" s="98"/>
+      <c r="N10" s="99"/>
+      <c r="O10" s="131"/>
+      <c r="P10" s="132"/>
+      <c r="Q10" s="132"/>
+      <c r="R10" s="132"/>
+      <c r="S10" s="132"/>
+      <c r="T10" s="132"/>
+      <c r="U10" s="132"/>
+      <c r="V10" s="132"/>
+      <c r="W10" s="132"/>
+      <c r="X10" s="132"/>
+      <c r="Y10" s="132"/>
+      <c r="Z10" s="132"/>
+      <c r="AA10" s="132"/>
+      <c r="AB10" s="132"/>
+      <c r="AC10" s="132"/>
+      <c r="AD10" s="132"/>
+      <c r="AE10" s="132"/>
+      <c r="AF10" s="132"/>
+      <c r="AG10" s="132"/>
+      <c r="AH10" s="132"/>
+      <c r="AI10" s="132"/>
+      <c r="AJ10" s="132"/>
+      <c r="AK10" s="132"/>
+      <c r="AL10" s="132"/>
+      <c r="AM10" s="132"/>
+      <c r="AN10" s="132"/>
+      <c r="AO10" s="132"/>
+      <c r="AP10" s="133"/>
     </row>
     <row r="11" spans="1:42">
-      <c r="A11" s="79"/>
-      <c r="B11" s="80"/>
-      <c r="C11" s="80"/>
-      <c r="D11" s="80"/>
-      <c r="E11" s="81"/>
-      <c r="F11" s="79"/>
-      <c r="G11" s="80"/>
-      <c r="H11" s="80"/>
-      <c r="I11" s="81"/>
-      <c r="J11" s="79"/>
-      <c r="K11" s="80"/>
-      <c r="L11" s="80"/>
-      <c r="M11" s="80"/>
-      <c r="N11" s="81"/>
+      <c r="A11" s="82"/>
+      <c r="B11" s="83"/>
+      <c r="C11" s="83"/>
+      <c r="D11" s="83"/>
+      <c r="E11" s="84"/>
+      <c r="F11" s="82"/>
+      <c r="G11" s="83"/>
+      <c r="H11" s="83"/>
+      <c r="I11" s="84"/>
+      <c r="J11" s="82"/>
+      <c r="K11" s="83"/>
+      <c r="L11" s="83"/>
+      <c r="M11" s="83"/>
+      <c r="N11" s="84"/>
       <c r="O11" s="118"/>
       <c r="P11" s="118"/>
       <c r="Q11" s="118"/>
@@ -20169,20 +20206,20 @@
       <c r="AP11" s="119"/>
     </row>
     <row r="12" spans="1:42">
-      <c r="A12" s="79"/>
-      <c r="B12" s="80"/>
-      <c r="C12" s="80"/>
-      <c r="D12" s="80"/>
-      <c r="E12" s="81"/>
-      <c r="F12" s="79"/>
-      <c r="G12" s="80"/>
-      <c r="H12" s="80"/>
-      <c r="I12" s="81"/>
-      <c r="J12" s="79"/>
-      <c r="K12" s="80"/>
-      <c r="L12" s="80"/>
-      <c r="M12" s="80"/>
-      <c r="N12" s="81"/>
+      <c r="A12" s="82"/>
+      <c r="B12" s="83"/>
+      <c r="C12" s="83"/>
+      <c r="D12" s="83"/>
+      <c r="E12" s="84"/>
+      <c r="F12" s="82"/>
+      <c r="G12" s="83"/>
+      <c r="H12" s="83"/>
+      <c r="I12" s="84"/>
+      <c r="J12" s="82"/>
+      <c r="K12" s="83"/>
+      <c r="L12" s="83"/>
+      <c r="M12" s="83"/>
+      <c r="N12" s="84"/>
       <c r="O12" s="118"/>
       <c r="P12" s="118"/>
       <c r="Q12" s="118"/>
@@ -20213,20 +20250,20 @@
       <c r="AP12" s="119"/>
     </row>
     <row r="13" spans="1:42">
-      <c r="A13" s="79"/>
-      <c r="B13" s="80"/>
-      <c r="C13" s="80"/>
-      <c r="D13" s="80"/>
-      <c r="E13" s="81"/>
-      <c r="F13" s="79"/>
-      <c r="G13" s="80"/>
-      <c r="H13" s="80"/>
-      <c r="I13" s="81"/>
-      <c r="J13" s="79"/>
-      <c r="K13" s="80"/>
-      <c r="L13" s="80"/>
-      <c r="M13" s="80"/>
-      <c r="N13" s="81"/>
+      <c r="A13" s="82"/>
+      <c r="B13" s="83"/>
+      <c r="C13" s="83"/>
+      <c r="D13" s="83"/>
+      <c r="E13" s="84"/>
+      <c r="F13" s="82"/>
+      <c r="G13" s="83"/>
+      <c r="H13" s="83"/>
+      <c r="I13" s="84"/>
+      <c r="J13" s="82"/>
+      <c r="K13" s="83"/>
+      <c r="L13" s="83"/>
+      <c r="M13" s="83"/>
+      <c r="N13" s="84"/>
       <c r="O13" s="118"/>
       <c r="P13" s="118"/>
       <c r="Q13" s="118"/>
@@ -20257,20 +20294,20 @@
       <c r="AP13" s="119"/>
     </row>
     <row r="14" spans="1:42">
-      <c r="A14" s="79"/>
-      <c r="B14" s="80"/>
-      <c r="C14" s="80"/>
-      <c r="D14" s="80"/>
-      <c r="E14" s="81"/>
-      <c r="F14" s="79"/>
-      <c r="G14" s="80"/>
-      <c r="H14" s="80"/>
-      <c r="I14" s="81"/>
-      <c r="J14" s="79"/>
-      <c r="K14" s="80"/>
-      <c r="L14" s="80"/>
-      <c r="M14" s="80"/>
-      <c r="N14" s="81"/>
+      <c r="A14" s="82"/>
+      <c r="B14" s="83"/>
+      <c r="C14" s="83"/>
+      <c r="D14" s="83"/>
+      <c r="E14" s="84"/>
+      <c r="F14" s="82"/>
+      <c r="G14" s="83"/>
+      <c r="H14" s="83"/>
+      <c r="I14" s="84"/>
+      <c r="J14" s="82"/>
+      <c r="K14" s="83"/>
+      <c r="L14" s="83"/>
+      <c r="M14" s="83"/>
+      <c r="N14" s="84"/>
       <c r="O14" s="118"/>
       <c r="P14" s="118"/>
       <c r="Q14" s="118"/>
@@ -20301,20 +20338,20 @@
       <c r="AP14" s="119"/>
     </row>
     <row r="15" spans="1:42">
-      <c r="A15" s="79"/>
-      <c r="B15" s="80"/>
-      <c r="C15" s="80"/>
-      <c r="D15" s="80"/>
-      <c r="E15" s="81"/>
-      <c r="F15" s="79"/>
-      <c r="G15" s="80"/>
-      <c r="H15" s="80"/>
-      <c r="I15" s="81"/>
-      <c r="J15" s="79"/>
-      <c r="K15" s="80"/>
-      <c r="L15" s="80"/>
-      <c r="M15" s="80"/>
-      <c r="N15" s="81"/>
+      <c r="A15" s="82"/>
+      <c r="B15" s="83"/>
+      <c r="C15" s="83"/>
+      <c r="D15" s="83"/>
+      <c r="E15" s="84"/>
+      <c r="F15" s="82"/>
+      <c r="G15" s="83"/>
+      <c r="H15" s="83"/>
+      <c r="I15" s="84"/>
+      <c r="J15" s="82"/>
+      <c r="K15" s="83"/>
+      <c r="L15" s="83"/>
+      <c r="M15" s="83"/>
+      <c r="N15" s="84"/>
       <c r="O15" s="118"/>
       <c r="P15" s="118"/>
       <c r="Q15" s="118"/>
@@ -20345,20 +20382,20 @@
       <c r="AP15" s="119"/>
     </row>
     <row r="16" spans="1:42">
-      <c r="A16" s="79"/>
-      <c r="B16" s="80"/>
-      <c r="C16" s="80"/>
-      <c r="D16" s="80"/>
-      <c r="E16" s="81"/>
-      <c r="F16" s="79"/>
-      <c r="G16" s="80"/>
-      <c r="H16" s="80"/>
-      <c r="I16" s="81"/>
-      <c r="J16" s="79"/>
-      <c r="K16" s="80"/>
-      <c r="L16" s="80"/>
-      <c r="M16" s="80"/>
-      <c r="N16" s="81"/>
+      <c r="A16" s="82"/>
+      <c r="B16" s="83"/>
+      <c r="C16" s="83"/>
+      <c r="D16" s="83"/>
+      <c r="E16" s="84"/>
+      <c r="F16" s="82"/>
+      <c r="G16" s="83"/>
+      <c r="H16" s="83"/>
+      <c r="I16" s="84"/>
+      <c r="J16" s="82"/>
+      <c r="K16" s="83"/>
+      <c r="L16" s="83"/>
+      <c r="M16" s="83"/>
+      <c r="N16" s="84"/>
       <c r="O16" s="118"/>
       <c r="P16" s="118"/>
       <c r="Q16" s="118"/>
@@ -20389,20 +20426,20 @@
       <c r="AP16" s="119"/>
     </row>
     <row r="17" spans="1:42">
-      <c r="A17" s="79"/>
-      <c r="B17" s="80"/>
-      <c r="C17" s="80"/>
-      <c r="D17" s="80"/>
-      <c r="E17" s="81"/>
-      <c r="F17" s="79"/>
-      <c r="G17" s="80"/>
-      <c r="H17" s="80"/>
-      <c r="I17" s="81"/>
-      <c r="J17" s="79"/>
-      <c r="K17" s="80"/>
-      <c r="L17" s="80"/>
-      <c r="M17" s="80"/>
-      <c r="N17" s="81"/>
+      <c r="A17" s="82"/>
+      <c r="B17" s="83"/>
+      <c r="C17" s="83"/>
+      <c r="D17" s="83"/>
+      <c r="E17" s="84"/>
+      <c r="F17" s="82"/>
+      <c r="G17" s="83"/>
+      <c r="H17" s="83"/>
+      <c r="I17" s="84"/>
+      <c r="J17" s="82"/>
+      <c r="K17" s="83"/>
+      <c r="L17" s="83"/>
+      <c r="M17" s="83"/>
+      <c r="N17" s="84"/>
       <c r="O17" s="118"/>
       <c r="P17" s="118"/>
       <c r="Q17" s="118"/>
@@ -20433,20 +20470,20 @@
       <c r="AP17" s="119"/>
     </row>
     <row r="18" spans="1:42">
-      <c r="A18" s="79"/>
-      <c r="B18" s="80"/>
-      <c r="C18" s="80"/>
-      <c r="D18" s="80"/>
-      <c r="E18" s="81"/>
-      <c r="F18" s="79"/>
-      <c r="G18" s="80"/>
-      <c r="H18" s="80"/>
-      <c r="I18" s="81"/>
-      <c r="J18" s="79"/>
-      <c r="K18" s="80"/>
-      <c r="L18" s="80"/>
-      <c r="M18" s="80"/>
-      <c r="N18" s="81"/>
+      <c r="A18" s="82"/>
+      <c r="B18" s="83"/>
+      <c r="C18" s="83"/>
+      <c r="D18" s="83"/>
+      <c r="E18" s="84"/>
+      <c r="F18" s="82"/>
+      <c r="G18" s="83"/>
+      <c r="H18" s="83"/>
+      <c r="I18" s="84"/>
+      <c r="J18" s="82"/>
+      <c r="K18" s="83"/>
+      <c r="L18" s="83"/>
+      <c r="M18" s="83"/>
+      <c r="N18" s="84"/>
       <c r="O18" s="118"/>
       <c r="P18" s="118"/>
       <c r="Q18" s="118"/>
@@ -20477,20 +20514,20 @@
       <c r="AP18" s="119"/>
     </row>
     <row r="19" spans="1:42">
-      <c r="A19" s="79"/>
-      <c r="B19" s="80"/>
-      <c r="C19" s="80"/>
-      <c r="D19" s="80"/>
-      <c r="E19" s="81"/>
-      <c r="F19" s="79"/>
-      <c r="G19" s="80"/>
-      <c r="H19" s="80"/>
-      <c r="I19" s="81"/>
-      <c r="J19" s="79"/>
-      <c r="K19" s="80"/>
-      <c r="L19" s="80"/>
-      <c r="M19" s="80"/>
-      <c r="N19" s="81"/>
+      <c r="A19" s="82"/>
+      <c r="B19" s="83"/>
+      <c r="C19" s="83"/>
+      <c r="D19" s="83"/>
+      <c r="E19" s="84"/>
+      <c r="F19" s="82"/>
+      <c r="G19" s="83"/>
+      <c r="H19" s="83"/>
+      <c r="I19" s="84"/>
+      <c r="J19" s="82"/>
+      <c r="K19" s="83"/>
+      <c r="L19" s="83"/>
+      <c r="M19" s="83"/>
+      <c r="N19" s="84"/>
       <c r="O19" s="118"/>
       <c r="P19" s="118"/>
       <c r="Q19" s="118"/>
@@ -20521,20 +20558,20 @@
       <c r="AP19" s="119"/>
     </row>
     <row r="20" spans="1:42">
-      <c r="A20" s="79"/>
-      <c r="B20" s="80"/>
-      <c r="C20" s="80"/>
-      <c r="D20" s="80"/>
-      <c r="E20" s="81"/>
-      <c r="F20" s="79"/>
-      <c r="G20" s="80"/>
-      <c r="H20" s="80"/>
-      <c r="I20" s="81"/>
-      <c r="J20" s="79"/>
-      <c r="K20" s="80"/>
-      <c r="L20" s="80"/>
-      <c r="M20" s="80"/>
-      <c r="N20" s="81"/>
+      <c r="A20" s="82"/>
+      <c r="B20" s="83"/>
+      <c r="C20" s="83"/>
+      <c r="D20" s="83"/>
+      <c r="E20" s="84"/>
+      <c r="F20" s="82"/>
+      <c r="G20" s="83"/>
+      <c r="H20" s="83"/>
+      <c r="I20" s="84"/>
+      <c r="J20" s="82"/>
+      <c r="K20" s="83"/>
+      <c r="L20" s="83"/>
+      <c r="M20" s="83"/>
+      <c r="N20" s="84"/>
       <c r="O20" s="118"/>
       <c r="P20" s="118"/>
       <c r="Q20" s="118"/>
@@ -20565,20 +20602,20 @@
       <c r="AP20" s="119"/>
     </row>
     <row r="21" spans="1:42">
-      <c r="A21" s="79"/>
-      <c r="B21" s="80"/>
-      <c r="C21" s="80"/>
-      <c r="D21" s="80"/>
-      <c r="E21" s="81"/>
-      <c r="F21" s="79"/>
-      <c r="G21" s="80"/>
-      <c r="H21" s="80"/>
-      <c r="I21" s="81"/>
-      <c r="J21" s="79"/>
-      <c r="K21" s="80"/>
-      <c r="L21" s="80"/>
-      <c r="M21" s="80"/>
-      <c r="N21" s="81"/>
+      <c r="A21" s="82"/>
+      <c r="B21" s="83"/>
+      <c r="C21" s="83"/>
+      <c r="D21" s="83"/>
+      <c r="E21" s="84"/>
+      <c r="F21" s="82"/>
+      <c r="G21" s="83"/>
+      <c r="H21" s="83"/>
+      <c r="I21" s="84"/>
+      <c r="J21" s="82"/>
+      <c r="K21" s="83"/>
+      <c r="L21" s="83"/>
+      <c r="M21" s="83"/>
+      <c r="N21" s="84"/>
       <c r="O21" s="118"/>
       <c r="P21" s="118"/>
       <c r="Q21" s="118"/>
@@ -20609,20 +20646,20 @@
       <c r="AP21" s="119"/>
     </row>
     <row r="22" spans="1:42">
-      <c r="A22" s="79"/>
-      <c r="B22" s="80"/>
-      <c r="C22" s="80"/>
-      <c r="D22" s="80"/>
-      <c r="E22" s="81"/>
-      <c r="F22" s="79"/>
-      <c r="G22" s="80"/>
-      <c r="H22" s="80"/>
-      <c r="I22" s="81"/>
-      <c r="J22" s="79"/>
-      <c r="K22" s="80"/>
-      <c r="L22" s="80"/>
-      <c r="M22" s="80"/>
-      <c r="N22" s="81"/>
+      <c r="A22" s="82"/>
+      <c r="B22" s="83"/>
+      <c r="C22" s="83"/>
+      <c r="D22" s="83"/>
+      <c r="E22" s="84"/>
+      <c r="F22" s="82"/>
+      <c r="G22" s="83"/>
+      <c r="H22" s="83"/>
+      <c r="I22" s="84"/>
+      <c r="J22" s="82"/>
+      <c r="K22" s="83"/>
+      <c r="L22" s="83"/>
+      <c r="M22" s="83"/>
+      <c r="N22" s="84"/>
       <c r="O22" s="118"/>
       <c r="P22" s="118"/>
       <c r="Q22" s="118"/>
@@ -20653,20 +20690,20 @@
       <c r="AP22" s="119"/>
     </row>
     <row r="23" spans="1:42">
-      <c r="A23" s="79"/>
-      <c r="B23" s="80"/>
-      <c r="C23" s="80"/>
-      <c r="D23" s="80"/>
-      <c r="E23" s="81"/>
-      <c r="F23" s="79"/>
-      <c r="G23" s="80"/>
-      <c r="H23" s="80"/>
-      <c r="I23" s="81"/>
-      <c r="J23" s="79"/>
-      <c r="K23" s="80"/>
-      <c r="L23" s="80"/>
-      <c r="M23" s="80"/>
-      <c r="N23" s="81"/>
+      <c r="A23" s="82"/>
+      <c r="B23" s="83"/>
+      <c r="C23" s="83"/>
+      <c r="D23" s="83"/>
+      <c r="E23" s="84"/>
+      <c r="F23" s="82"/>
+      <c r="G23" s="83"/>
+      <c r="H23" s="83"/>
+      <c r="I23" s="84"/>
+      <c r="J23" s="82"/>
+      <c r="K23" s="83"/>
+      <c r="L23" s="83"/>
+      <c r="M23" s="83"/>
+      <c r="N23" s="84"/>
       <c r="O23" s="118"/>
       <c r="P23" s="118"/>
       <c r="Q23" s="118"/>
@@ -20697,20 +20734,20 @@
       <c r="AP23" s="119"/>
     </row>
     <row r="24" spans="1:42">
-      <c r="A24" s="79"/>
-      <c r="B24" s="80"/>
-      <c r="C24" s="80"/>
-      <c r="D24" s="80"/>
-      <c r="E24" s="81"/>
-      <c r="F24" s="79"/>
-      <c r="G24" s="80"/>
-      <c r="H24" s="80"/>
-      <c r="I24" s="81"/>
-      <c r="J24" s="79"/>
-      <c r="K24" s="80"/>
-      <c r="L24" s="80"/>
-      <c r="M24" s="80"/>
-      <c r="N24" s="81"/>
+      <c r="A24" s="82"/>
+      <c r="B24" s="83"/>
+      <c r="C24" s="83"/>
+      <c r="D24" s="83"/>
+      <c r="E24" s="84"/>
+      <c r="F24" s="82"/>
+      <c r="G24" s="83"/>
+      <c r="H24" s="83"/>
+      <c r="I24" s="84"/>
+      <c r="J24" s="82"/>
+      <c r="K24" s="83"/>
+      <c r="L24" s="83"/>
+      <c r="M24" s="83"/>
+      <c r="N24" s="84"/>
       <c r="O24" s="118"/>
       <c r="P24" s="118"/>
       <c r="Q24" s="118"/>
@@ -20741,20 +20778,20 @@
       <c r="AP24" s="119"/>
     </row>
     <row r="25" spans="1:42">
-      <c r="A25" s="79"/>
-      <c r="B25" s="80"/>
-      <c r="C25" s="80"/>
-      <c r="D25" s="80"/>
-      <c r="E25" s="81"/>
-      <c r="F25" s="79"/>
-      <c r="G25" s="80"/>
-      <c r="H25" s="80"/>
-      <c r="I25" s="81"/>
-      <c r="J25" s="79"/>
-      <c r="K25" s="80"/>
-      <c r="L25" s="80"/>
-      <c r="M25" s="80"/>
-      <c r="N25" s="81"/>
+      <c r="A25" s="82"/>
+      <c r="B25" s="83"/>
+      <c r="C25" s="83"/>
+      <c r="D25" s="83"/>
+      <c r="E25" s="84"/>
+      <c r="F25" s="82"/>
+      <c r="G25" s="83"/>
+      <c r="H25" s="83"/>
+      <c r="I25" s="84"/>
+      <c r="J25" s="82"/>
+      <c r="K25" s="83"/>
+      <c r="L25" s="83"/>
+      <c r="M25" s="83"/>
+      <c r="N25" s="84"/>
       <c r="O25" s="118"/>
       <c r="P25" s="118"/>
       <c r="Q25" s="118"/>
@@ -20785,20 +20822,20 @@
       <c r="AP25" s="119"/>
     </row>
     <row r="26" spans="1:42">
-      <c r="A26" s="79"/>
-      <c r="B26" s="80"/>
-      <c r="C26" s="80"/>
-      <c r="D26" s="80"/>
-      <c r="E26" s="81"/>
-      <c r="F26" s="79"/>
-      <c r="G26" s="80"/>
-      <c r="H26" s="80"/>
-      <c r="I26" s="81"/>
-      <c r="J26" s="79"/>
-      <c r="K26" s="80"/>
-      <c r="L26" s="80"/>
-      <c r="M26" s="80"/>
-      <c r="N26" s="81"/>
+      <c r="A26" s="82"/>
+      <c r="B26" s="83"/>
+      <c r="C26" s="83"/>
+      <c r="D26" s="83"/>
+      <c r="E26" s="84"/>
+      <c r="F26" s="82"/>
+      <c r="G26" s="83"/>
+      <c r="H26" s="83"/>
+      <c r="I26" s="84"/>
+      <c r="J26" s="82"/>
+      <c r="K26" s="83"/>
+      <c r="L26" s="83"/>
+      <c r="M26" s="83"/>
+      <c r="N26" s="84"/>
       <c r="O26" s="118"/>
       <c r="P26" s="118"/>
       <c r="Q26" s="118"/>
@@ -20829,20 +20866,20 @@
       <c r="AP26" s="119"/>
     </row>
     <row r="27" spans="1:42">
-      <c r="A27" s="79"/>
-      <c r="B27" s="80"/>
-      <c r="C27" s="80"/>
-      <c r="D27" s="80"/>
-      <c r="E27" s="81"/>
-      <c r="F27" s="79"/>
-      <c r="G27" s="80"/>
-      <c r="H27" s="80"/>
-      <c r="I27" s="81"/>
-      <c r="J27" s="79"/>
-      <c r="K27" s="80"/>
-      <c r="L27" s="80"/>
-      <c r="M27" s="80"/>
-      <c r="N27" s="81"/>
+      <c r="A27" s="82"/>
+      <c r="B27" s="83"/>
+      <c r="C27" s="83"/>
+      <c r="D27" s="83"/>
+      <c r="E27" s="84"/>
+      <c r="F27" s="82"/>
+      <c r="G27" s="83"/>
+      <c r="H27" s="83"/>
+      <c r="I27" s="84"/>
+      <c r="J27" s="82"/>
+      <c r="K27" s="83"/>
+      <c r="L27" s="83"/>
+      <c r="M27" s="83"/>
+      <c r="N27" s="84"/>
       <c r="O27" s="118"/>
       <c r="P27" s="118"/>
       <c r="Q27" s="118"/>
@@ -20873,20 +20910,20 @@
       <c r="AP27" s="119"/>
     </row>
     <row r="28" spans="1:42">
-      <c r="A28" s="79"/>
-      <c r="B28" s="80"/>
-      <c r="C28" s="80"/>
-      <c r="D28" s="80"/>
-      <c r="E28" s="81"/>
-      <c r="F28" s="79"/>
-      <c r="G28" s="80"/>
-      <c r="H28" s="80"/>
-      <c r="I28" s="81"/>
-      <c r="J28" s="79"/>
-      <c r="K28" s="80"/>
-      <c r="L28" s="80"/>
-      <c r="M28" s="80"/>
-      <c r="N28" s="81"/>
+      <c r="A28" s="82"/>
+      <c r="B28" s="83"/>
+      <c r="C28" s="83"/>
+      <c r="D28" s="83"/>
+      <c r="E28" s="84"/>
+      <c r="F28" s="82"/>
+      <c r="G28" s="83"/>
+      <c r="H28" s="83"/>
+      <c r="I28" s="84"/>
+      <c r="J28" s="82"/>
+      <c r="K28" s="83"/>
+      <c r="L28" s="83"/>
+      <c r="M28" s="83"/>
+      <c r="N28" s="84"/>
       <c r="O28" s="118"/>
       <c r="P28" s="118"/>
       <c r="Q28" s="118"/>
@@ -20917,20 +20954,20 @@
       <c r="AP28" s="119"/>
     </row>
     <row r="29" spans="1:42">
-      <c r="A29" s="79"/>
-      <c r="B29" s="80"/>
-      <c r="C29" s="80"/>
-      <c r="D29" s="80"/>
-      <c r="E29" s="81"/>
-      <c r="F29" s="79"/>
-      <c r="G29" s="80"/>
-      <c r="H29" s="80"/>
-      <c r="I29" s="81"/>
-      <c r="J29" s="79"/>
-      <c r="K29" s="80"/>
-      <c r="L29" s="80"/>
-      <c r="M29" s="80"/>
-      <c r="N29" s="81"/>
+      <c r="A29" s="82"/>
+      <c r="B29" s="83"/>
+      <c r="C29" s="83"/>
+      <c r="D29" s="83"/>
+      <c r="E29" s="84"/>
+      <c r="F29" s="82"/>
+      <c r="G29" s="83"/>
+      <c r="H29" s="83"/>
+      <c r="I29" s="84"/>
+      <c r="J29" s="82"/>
+      <c r="K29" s="83"/>
+      <c r="L29" s="83"/>
+      <c r="M29" s="83"/>
+      <c r="N29" s="84"/>
       <c r="O29" s="118"/>
       <c r="P29" s="118"/>
       <c r="Q29" s="118"/>
@@ -20961,20 +20998,20 @@
       <c r="AP29" s="119"/>
     </row>
     <row r="30" spans="1:42" ht="12" thickBot="1">
-      <c r="A30" s="82"/>
-      <c r="B30" s="83"/>
-      <c r="C30" s="83"/>
-      <c r="D30" s="83"/>
-      <c r="E30" s="84"/>
-      <c r="F30" s="82"/>
-      <c r="G30" s="83"/>
-      <c r="H30" s="83"/>
-      <c r="I30" s="84"/>
-      <c r="J30" s="82"/>
-      <c r="K30" s="83"/>
-      <c r="L30" s="83"/>
-      <c r="M30" s="83"/>
-      <c r="N30" s="84"/>
+      <c r="A30" s="85"/>
+      <c r="B30" s="86"/>
+      <c r="C30" s="86"/>
+      <c r="D30" s="86"/>
+      <c r="E30" s="87"/>
+      <c r="F30" s="85"/>
+      <c r="G30" s="86"/>
+      <c r="H30" s="86"/>
+      <c r="I30" s="87"/>
+      <c r="J30" s="85"/>
+      <c r="K30" s="86"/>
+      <c r="L30" s="86"/>
+      <c r="M30" s="86"/>
+      <c r="N30" s="87"/>
       <c r="O30" s="120"/>
       <c r="P30" s="120"/>
       <c r="Q30" s="120"/>
@@ -30996,9 +31033,7 @@
   </sheetPr>
   <dimension ref="A1:H648"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A58" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A68" sqref="A68"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5" defaultRowHeight="15" customHeight="1"/>
   <cols>
@@ -31502,7 +31537,7 @@
       <c r="A40" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="B40" s="56" t="s">
+      <c r="B40" s="141" t="s">
         <v>156</v>
       </c>
       <c r="C40" s="11"/>
@@ -31636,7 +31671,9 @@
       <c r="A50" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="B50" s="21"/>
+      <c r="B50" s="56" t="s">
+        <v>169</v>
+      </c>
       <c r="C50" s="11"/>
       <c r="D50" s="4"/>
       <c r="E50" s="4"/>
@@ -32308,7 +32345,7 @@
         <v>61</v>
       </c>
       <c r="B103" s="56" t="s">
-        <v>156</v>
+        <v>68</v>
       </c>
       <c r="C103" s="11"/>
       <c r="D103" s="4"/>
@@ -32441,7 +32478,9 @@
       <c r="A113" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="B113" s="21"/>
+      <c r="B113" s="56" t="s">
+        <v>169</v>
+      </c>
       <c r="C113" s="11"/>
       <c r="D113" s="4"/>
       <c r="E113" s="4"/>
@@ -32453,10 +32492,10 @@
       <c r="A114" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="B114" s="21" t="s">
+      <c r="B114" s="81" t="s">
         <v>45</v>
       </c>
-      <c r="C114" s="40"/>
+      <c r="C114" s="79"/>
       <c r="E114" s="4"/>
       <c r="F114" s="4"/>
       <c r="G114" s="4"/>
@@ -32469,7 +32508,7 @@
       <c r="B115" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="C115" s="41"/>
+      <c r="C115" s="80"/>
       <c r="D115" s="11"/>
       <c r="E115" s="4"/>
       <c r="F115" s="4"/>
